--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -40,10 +40,11 @@
     <font>
       <name val="Calibri"/>
       <b val="1"/>
+      <i val="1"/>
       <strike val="0"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="00a81a1a"/>
       <sz val="25"/>
-      <vertAlign val="baseline"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,7 +152,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -1316,15 +1319,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="70" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Conti mese di gennaio</t>
@@ -2088,7 +2097,7 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B55:B60"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00€"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <name val="Calibri"/>
@@ -142,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -155,8 +157,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,12 +1384,12 @@
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="6" t="n">
         <v>544</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="7" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -1394,24 +1400,24 @@
           <t>Congrua fra Giacomo</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="6" t="n">
         <v>1060.05</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="7" t="n"/>
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="8" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="6" t="n">
         <v>1028.81</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="7" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -1422,12 +1428,12 @@
           <t>Interessi</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="6" t="n">
         <v>52.36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
+      <c r="A11" s="7" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -1438,36 +1444,36 @@
           <t>Offerta eccedenze Messa</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="6" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="7" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="6" t="n">
         <v>2760</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="7" t="n"/>
+      <c r="A13" s="7" t="n"/>
+      <c r="B13" s="8" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Presepio</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="6" t="n">
         <v>256</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="7" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -1478,48 +1484,48 @@
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="6" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
+      <c r="A15" s="7" t="n"/>
+      <c r="B15" s="7" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="6" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
+      <c r="A16" s="7" t="n"/>
+      <c r="B16" s="7" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="6" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="7" t="n"/>
+      <c r="A17" s="7" t="n"/>
+      <c r="B17" s="8" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="6" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
+      <c r="A18" s="7" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -1530,24 +1536,24 @@
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="6" t="n">
         <v>226.89</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="7" t="n"/>
+      <c r="A19" s="7" t="n"/>
+      <c r="B19" s="8" t="n"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Sanitaria</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="6" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
+      <c r="A20" s="7" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -1558,24 +1564,24 @@
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="6" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="7" t="n"/>
+      <c r="A21" s="7" t="n"/>
+      <c r="B21" s="8" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="6" t="n">
         <v>530</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
+      <c r="A22" s="7" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -1586,43 +1592,43 @@
           <t>Marmellata</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="6" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
+      <c r="A23" s="7" t="n"/>
+      <c r="B23" s="7" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="6" t="n">
         <v>920</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
+      <c r="A24" s="7" t="n"/>
+      <c r="B24" s="7" t="n"/>
       <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Pasta</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="n"/>
-      <c r="B25" s="7" t="n"/>
+      <c r="A25" s="8" t="n"/>
+      <c r="B25" s="8" t="n"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="6" t="n">
         <v>326.5</v>
       </c>
     </row>
@@ -1634,9 +1640,21 @@
       </c>
       <c r="B26" s="4" t="inlineStr"/>
       <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" t="n">
+      <c r="D26" s="6" t="n">
         <v>10980.81</v>
       </c>
+    </row>
+    <row r="27">
+      <c r="D27" s="6" t="n"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="6" t="n"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="6" t="n"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -1654,7 +1672,7 @@
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="9" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -1676,48 +1694,48 @@
           <t>Casalinghi</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="6" t="n">
         <v>141.73</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
+      <c r="A33" s="7" t="n"/>
+      <c r="B33" s="7" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Computer</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="6" t="n">
         <v>38.56</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="6" t="n"/>
+      <c r="A34" s="7" t="n"/>
+      <c r="B34" s="7" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="6" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="7" t="n"/>
+      <c r="A35" s="7" t="n"/>
+      <c r="B35" s="8" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Stampante_Fotocopiatrice</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="6" t="n">
         <v>55.4</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
+      <c r="A36" s="7" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -1728,12 +1746,12 @@
           <t>Ceri e Candele</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="6" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="7" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -1744,36 +1762,36 @@
           <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="6" t="n">
         <v>823</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="6" t="n"/>
+      <c r="A38" s="7" t="n"/>
+      <c r="B38" s="7" t="n"/>
       <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="6" t="n">
         <v>630</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="7" t="n"/>
+      <c r="A39" s="7" t="n"/>
+      <c r="B39" s="8" t="n"/>
       <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="6" t="n">
         <v>150.36</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="7" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -1784,24 +1802,24 @@
           <t>Abbonamenti</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="6" t="n">
         <v>100.32</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="7" t="n"/>
+      <c r="A41" s="7" t="n"/>
+      <c r="B41" s="8" t="n"/>
       <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Libri</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="6" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
+      <c r="A42" s="7" t="n"/>
       <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -1812,12 +1830,12 @@
           <t>Beneficenza 5%</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="6" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
+      <c r="A43" s="7" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -1828,12 +1846,12 @@
           <t>ENEL</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="6" t="n">
         <v>1185.57</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
+      <c r="A44" s="7" t="n"/>
       <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -1844,24 +1862,24 @@
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="6" t="n">
         <v>1070.56</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="7" t="n"/>
+      <c r="A45" s="7" t="n"/>
+      <c r="B45" s="8" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="6" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
+      <c r="A46" s="7" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -1872,36 +1890,36 @@
           <t>Detersivi</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="6" t="n">
         <v>135.26</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="6" t="n"/>
+      <c r="A47" s="7" t="n"/>
+      <c r="B47" s="7" t="n"/>
       <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Igiene personale</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="6" t="n">
         <v>13.75</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
-      <c r="B48" s="7" t="n"/>
+      <c r="A48" s="7" t="n"/>
+      <c r="B48" s="8" t="n"/>
       <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Lavanderia</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="6" t="n">
         <v>5.5</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
+      <c r="A49" s="7" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -1912,24 +1930,24 @@
           <t>Imposte bancarie</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="6" t="n">
         <v>113.4</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="7" t="n"/>
+      <c r="A50" s="7" t="n"/>
+      <c r="B50" s="8" t="n"/>
       <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Passaporto</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="6" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
+      <c r="A51" s="7" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -1940,12 +1958,12 @@
           <t>Cancelleria</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="6" t="n">
         <v>71.95</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
+      <c r="A52" s="7" t="n"/>
       <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -1956,12 +1974,12 @@
           <t>Scheda telefonica</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="6" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
+      <c r="A53" s="7" t="n"/>
       <c r="B53" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -1972,12 +1990,12 @@
           <t>Bollo Auto</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="6" t="n">
         <v>243.56</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
+      <c r="A54" s="7" t="n"/>
       <c r="B54" s="4" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -1988,12 +2006,12 @@
           <t>Sandali - scarpe</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="6" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
+      <c r="A55" s="7" t="n"/>
       <c r="B55" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -2004,67 +2022,67 @@
           <t>Alimentari</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="6" t="n">
         <v>542.5599999999999</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
-      <c r="B56" s="6" t="n"/>
+      <c r="A56" s="7" t="n"/>
+      <c r="B56" s="7" t="n"/>
       <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Bartolazzi</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="6" t="n">
         <v>533</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n"/>
-      <c r="B57" s="6" t="n"/>
+      <c r="A57" s="7" t="n"/>
+      <c r="B57" s="7" t="n"/>
       <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="6" t="n">
         <v>344.36</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n"/>
-      <c r="B58" s="6" t="n"/>
+      <c r="A58" s="7" t="n"/>
+      <c r="B58" s="7" t="n"/>
       <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="6" t="n">
         <v>255.16</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
+      <c r="A59" s="7" t="n"/>
+      <c r="B59" s="7" t="n"/>
       <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="6" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="n"/>
-      <c r="B60" s="7" t="n"/>
+      <c r="A60" s="8" t="n"/>
+      <c r="B60" s="8" t="n"/>
       <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="6" t="n">
         <v>54.9</v>
       </c>
     </row>
@@ -2076,7 +2094,7 @@
       </c>
       <c r="B61" s="4" t="inlineStr"/>
       <c r="C61" s="4" t="inlineStr"/>
-      <c r="D61" t="n">
+      <c r="D61" s="6" t="n">
         <v>7004.4</v>
       </c>
     </row>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -157,11 +157,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1374,261 +1394,261 @@
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="8" t="n">
         <v>544</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n"/>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>Congrua fra Giacomo</t>
         </is>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="8" t="n">
         <v>1060.05</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="10" t="n"/>
+      <c r="C9" s="7" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
         </is>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="8" t="n">
         <v>1028.81</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="8" t="n">
         <v>52.36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
         </is>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="8" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="11" t="n"/>
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>Offerte libere</t>
         </is>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="8" t="n">
         <v>2760</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="10" t="n"/>
+      <c r="C13" s="7" t="inlineStr">
         <is>
           <t>Presepio</t>
         </is>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="8" t="n">
         <v>256</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="8" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n"/>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="11" t="n"/>
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="8" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n"/>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="7" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="8" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n"/>
-      <c r="B17" s="8" t="n"/>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="7" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="8" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n"/>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="7" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="8" t="n">
         <v>226.89</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n"/>
-      <c r="B19" s="8" t="n"/>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="10" t="n"/>
+      <c r="C19" s="7" t="inlineStr">
         <is>
           <t>Sanitaria</t>
         </is>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="8" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n"/>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="7" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="8" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="7" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="8" t="n">
         <v>530</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n"/>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="6" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="7" t="inlineStr">
         <is>
           <t>Marmellata</t>
         </is>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="8" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="n"/>
-      <c r="B23" s="7" t="n"/>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="11" t="n"/>
+      <c r="C23" s="7" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
         </is>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="8" t="n">
         <v>920</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n"/>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="A24" s="9" t="n"/>
+      <c r="B24" s="11" t="n"/>
+      <c r="C24" s="7" t="inlineStr">
         <is>
           <t>Pasta</t>
         </is>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="8" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n"/>
-      <c r="B25" s="8" t="n"/>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="A25" s="12" t="n"/>
+      <c r="B25" s="10" t="n"/>
+      <c r="C25" s="7" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="8" t="n">
         <v>326.5</v>
       </c>
     </row>
@@ -1638,23 +1658,31 @@
           <t>Entrate gennaio</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr"/>
-      <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" s="6" t="n">
+      <c r="B26" s="6" t="inlineStr"/>
+      <c r="C26" s="7" t="inlineStr"/>
+      <c r="D26" s="8" t="n">
         <v>10980.81</v>
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="6" t="n"/>
+      <c r="B27" s="13" t="n"/>
+      <c r="C27" s="14" t="n"/>
+      <c r="D27" s="8" t="n"/>
     </row>
     <row r="28">
-      <c r="D28" s="6" t="n"/>
+      <c r="B28" s="13" t="n"/>
+      <c r="C28" s="14" t="n"/>
+      <c r="D28" s="8" t="n"/>
     </row>
     <row r="29">
-      <c r="D29" s="6" t="n"/>
+      <c r="B29" s="13" t="n"/>
+      <c r="C29" s="14" t="n"/>
+      <c r="D29" s="8" t="n"/>
     </row>
     <row r="30">
-      <c r="D30" s="6" t="n"/>
+      <c r="B30" s="13" t="n"/>
+      <c r="C30" s="14" t="n"/>
+      <c r="D30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -1662,17 +1690,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="9" t="inlineStr">
+      <c r="D31" s="15" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -1684,405 +1712,405 @@
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="6" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="7" t="inlineStr">
         <is>
           <t>Casalinghi</t>
         </is>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="8" t="n">
         <v>141.73</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="n"/>
-      <c r="B33" s="7" t="n"/>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="A33" s="9" t="n"/>
+      <c r="B33" s="11" t="n"/>
+      <c r="C33" s="7" t="inlineStr">
         <is>
           <t>Computer</t>
         </is>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="8" t="n">
         <v>38.56</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="n"/>
-      <c r="B34" s="7" t="n"/>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="A34" s="9" t="n"/>
+      <c r="B34" s="11" t="n"/>
+      <c r="C34" s="7" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
         </is>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="8" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="n"/>
-      <c r="B35" s="8" t="n"/>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="A35" s="9" t="n"/>
+      <c r="B35" s="10" t="n"/>
+      <c r="C35" s="7" t="inlineStr">
         <is>
           <t>Stampante_Fotocopiatrice</t>
         </is>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" s="8" t="n">
         <v>55.4</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="n"/>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="A36" s="9" t="n"/>
+      <c r="B36" s="6" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="7" t="inlineStr">
         <is>
           <t>Ceri e Candele</t>
         </is>
       </c>
-      <c r="D36" s="6" t="n">
+      <c r="D36" s="8" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="n"/>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="A37" s="9" t="n"/>
+      <c r="B37" s="6" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="7" t="inlineStr">
         <is>
           <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
-      <c r="D37" s="6" t="n">
+      <c r="D37" s="8" t="n">
         <v>823</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="n"/>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="A38" s="9" t="n"/>
+      <c r="B38" s="11" t="n"/>
+      <c r="C38" s="7" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
         </is>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="8" t="n">
         <v>630</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="n"/>
-      <c r="B39" s="8" t="n"/>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="A39" s="9" t="n"/>
+      <c r="B39" s="10" t="n"/>
+      <c r="C39" s="7" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
         </is>
       </c>
-      <c r="D39" s="6" t="n">
+      <c r="D39" s="8" t="n">
         <v>150.36</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="n"/>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="A40" s="9" t="n"/>
+      <c r="B40" s="6" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="7" t="inlineStr">
         <is>
           <t>Abbonamenti</t>
         </is>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="8" t="n">
         <v>100.32</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="n"/>
-      <c r="B41" s="8" t="n"/>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="A41" s="9" t="n"/>
+      <c r="B41" s="10" t="n"/>
+      <c r="C41" s="7" t="inlineStr">
         <is>
           <t>Libri</t>
         </is>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D41" s="8" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="n"/>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="A42" s="9" t="n"/>
+      <c r="B42" s="6" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C42" s="7" t="inlineStr">
         <is>
           <t>Beneficenza 5%</t>
         </is>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="8" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="n"/>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="A43" s="9" t="n"/>
+      <c r="B43" s="6" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C43" s="7" t="inlineStr">
         <is>
           <t>ENEL</t>
         </is>
       </c>
-      <c r="D43" s="6" t="n">
+      <c r="D43" s="8" t="n">
         <v>1185.57</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="n"/>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="A44" s="9" t="n"/>
+      <c r="B44" s="6" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C44" s="7" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="8" t="n">
         <v>1070.56</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="n"/>
-      <c r="B45" s="8" t="n"/>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="A45" s="9" t="n"/>
+      <c r="B45" s="10" t="n"/>
+      <c r="C45" s="7" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
-      <c r="D45" s="6" t="n">
+      <c r="D45" s="8" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="n"/>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="A46" s="9" t="n"/>
+      <c r="B46" s="6" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C46" s="7" t="inlineStr">
         <is>
           <t>Detersivi</t>
         </is>
       </c>
-      <c r="D46" s="6" t="n">
+      <c r="D46" s="8" t="n">
         <v>135.26</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="n"/>
-      <c r="B47" s="7" t="n"/>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="A47" s="9" t="n"/>
+      <c r="B47" s="11" t="n"/>
+      <c r="C47" s="7" t="inlineStr">
         <is>
           <t>Igiene personale</t>
         </is>
       </c>
-      <c r="D47" s="6" t="n">
+      <c r="D47" s="8" t="n">
         <v>13.75</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="n"/>
-      <c r="B48" s="8" t="n"/>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="A48" s="9" t="n"/>
+      <c r="B48" s="10" t="n"/>
+      <c r="C48" s="7" t="inlineStr">
         <is>
           <t>Lavanderia</t>
         </is>
       </c>
-      <c r="D48" s="6" t="n">
+      <c r="D48" s="8" t="n">
         <v>5.5</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="n"/>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="A49" s="9" t="n"/>
+      <c r="B49" s="6" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C49" s="7" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
         </is>
       </c>
-      <c r="D49" s="6" t="n">
+      <c r="D49" s="8" t="n">
         <v>113.4</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="n"/>
-      <c r="B50" s="8" t="n"/>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="A50" s="9" t="n"/>
+      <c r="B50" s="10" t="n"/>
+      <c r="C50" s="7" t="inlineStr">
         <is>
           <t>Passaporto</t>
         </is>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" s="8" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="n"/>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="A51" s="9" t="n"/>
+      <c r="B51" s="6" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C51" s="7" t="inlineStr">
         <is>
           <t>Cancelleria</t>
         </is>
       </c>
-      <c r="D51" s="6" t="n">
+      <c r="D51" s="8" t="n">
         <v>71.95</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="n"/>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="A52" s="9" t="n"/>
+      <c r="B52" s="6" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C52" s="7" t="inlineStr">
         <is>
           <t>Scheda telefonica</t>
         </is>
       </c>
-      <c r="D52" s="6" t="n">
+      <c r="D52" s="8" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="n"/>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="A53" s="9" t="n"/>
+      <c r="B53" s="6" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C53" s="7" t="inlineStr">
         <is>
           <t>Bollo Auto</t>
         </is>
       </c>
-      <c r="D53" s="6" t="n">
+      <c r="D53" s="8" t="n">
         <v>243.56</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="n"/>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="A54" s="9" t="n"/>
+      <c r="B54" s="6" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="C54" s="7" t="inlineStr">
         <is>
           <t>Sandali - scarpe</t>
         </is>
       </c>
-      <c r="D54" s="6" t="n">
+      <c r="D54" s="8" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="n"/>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="A55" s="9" t="n"/>
+      <c r="B55" s="6" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C55" s="7" t="inlineStr">
         <is>
           <t>Alimentari</t>
         </is>
       </c>
-      <c r="D55" s="6" t="n">
+      <c r="D55" s="8" t="n">
         <v>542.5599999999999</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="n"/>
-      <c r="B56" s="7" t="n"/>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="A56" s="9" t="n"/>
+      <c r="B56" s="11" t="n"/>
+      <c r="C56" s="7" t="inlineStr">
         <is>
           <t>Bartolazzi</t>
         </is>
       </c>
-      <c r="D56" s="6" t="n">
+      <c r="D56" s="8" t="n">
         <v>533</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="n"/>
-      <c r="B57" s="7" t="n"/>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="A57" s="9" t="n"/>
+      <c r="B57" s="11" t="n"/>
+      <c r="C57" s="7" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D57" s="6" t="n">
+      <c r="D57" s="8" t="n">
         <v>344.36</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="n"/>
-      <c r="B58" s="7" t="n"/>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="A58" s="9" t="n"/>
+      <c r="B58" s="11" t="n"/>
+      <c r="C58" s="7" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D58" s="6" t="n">
+      <c r="D58" s="8" t="n">
         <v>255.16</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="n"/>
-      <c r="B59" s="7" t="n"/>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="A59" s="9" t="n"/>
+      <c r="B59" s="11" t="n"/>
+      <c r="C59" s="7" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D59" s="6" t="n">
+      <c r="D59" s="8" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="n"/>
-      <c r="B60" s="8" t="n"/>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="A60" s="12" t="n"/>
+      <c r="B60" s="10" t="n"/>
+      <c r="C60" s="7" t="inlineStr">
         <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D60" s="6" t="n">
+      <c r="D60" s="8" t="n">
         <v>54.9</v>
       </c>
     </row>
@@ -2092,9 +2120,9 @@
           <t>Uscite gennaio</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr"/>
-      <c r="C61" s="4" t="inlineStr"/>
-      <c r="D61" s="6" t="n">
+      <c r="B61" s="6" t="inlineStr"/>
+      <c r="C61" s="7" t="inlineStr"/>
+      <c r="D61" s="8" t="n">
         <v>7004.4</v>
       </c>
     </row>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -20,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00€"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,6 +47,14 @@
       <color rgb="00a81a1a"/>
       <sz val="25"/>
       <u val="single"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <sz val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -157,13 +165,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -174,13 +188,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -989,7 +1012,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Uscite gennaio</t>
+          <t>TOTALE</t>
         </is>
       </c>
       <c r="B31" s="1" t="n"/>
@@ -1316,7 +1339,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Entrate gennaio</t>
+          <t>TOTALE</t>
         </is>
       </c>
       <c r="B21" s="1" t="n"/>
@@ -1366,763 +1389,767 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="10" t="n">
         <v>544</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="n"/>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Giacomo</t>
         </is>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="10" t="n">
         <v>1060.05</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="10" t="n"/>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="A9" s="11" t="n"/>
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
         </is>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="10" t="n">
         <v>1028.81</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="10" t="n">
         <v>52.36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
         </is>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="10" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="11" t="n"/>
-      <c r="C12" s="7" t="inlineStr">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>Offerte libere</t>
         </is>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="10" t="n">
         <v>2760</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="10" t="n"/>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="12" t="n"/>
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>Presepio</t>
         </is>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="10" t="n">
         <v>256</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="n"/>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="10" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="11" t="n"/>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="10" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="11" t="n"/>
-      <c r="C16" s="7" t="inlineStr">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="13" t="n"/>
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="10" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="n"/>
-      <c r="B17" s="10" t="n"/>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="10" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="10" t="n">
         <v>226.89</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="n"/>
-      <c r="B19" s="10" t="n"/>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="12" t="n"/>
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>Sanitaria</t>
         </is>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="10" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="n"/>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="10" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="10" t="n"/>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" s="9" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="10" t="n">
         <v>530</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="n"/>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C22" s="7" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>Marmellata</t>
         </is>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="10" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="n"/>
-      <c r="B23" s="11" t="n"/>
-      <c r="C23" s="7" t="inlineStr">
+      <c r="A23" s="11" t="n"/>
+      <c r="B23" s="13" t="n"/>
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
         </is>
       </c>
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="10" t="n">
         <v>920</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="n"/>
-      <c r="B24" s="11" t="n"/>
-      <c r="C24" s="7" t="inlineStr">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="13" t="n"/>
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>Pasta</t>
         </is>
       </c>
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="10" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="n"/>
-      <c r="B25" s="10" t="n"/>
-      <c r="C25" s="7" t="inlineStr">
+      <c r="A25" s="14" t="n"/>
+      <c r="B25" s="12" t="n"/>
+      <c r="C25" s="9" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="10" t="n">
         <v>326.5</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>Entrate gennaio</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="inlineStr"/>
-      <c r="C26" s="7" t="inlineStr"/>
-      <c r="D26" s="8" t="n">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr"/>
+      <c r="C26" s="9" t="inlineStr"/>
+      <c r="D26" s="15" t="n">
         <v>10980.81</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="13" t="n"/>
-      <c r="C27" s="14" t="n"/>
-      <c r="D27" s="8" t="n"/>
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="17" t="n"/>
+      <c r="D27" s="10" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="13" t="n"/>
-      <c r="C28" s="14" t="n"/>
-      <c r="D28" s="8" t="n"/>
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="10" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="13" t="n"/>
-      <c r="C29" s="14" t="n"/>
-      <c r="D29" s="8" t="n"/>
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="10" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="13" t="n"/>
-      <c r="C30" s="14" t="n"/>
-      <c r="D30" s="8" t="n"/>
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="10" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B31" s="6" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C31" s="7" t="inlineStr">
+      <c r="C31" s="19" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="15" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="7" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr">
         <is>
           <t>Casalinghi</t>
         </is>
       </c>
-      <c r="D32" s="8" t="n">
+      <c r="D32" s="10" t="n">
         <v>141.73</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="n"/>
-      <c r="B33" s="11" t="n"/>
-      <c r="C33" s="7" t="inlineStr">
+      <c r="A33" s="11" t="n"/>
+      <c r="B33" s="13" t="n"/>
+      <c r="C33" s="9" t="inlineStr">
         <is>
           <t>Computer</t>
         </is>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="D33" s="10" t="n">
         <v>38.56</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="n"/>
-      <c r="B34" s="11" t="n"/>
-      <c r="C34" s="7" t="inlineStr">
+      <c r="A34" s="11" t="n"/>
+      <c r="B34" s="13" t="n"/>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
         </is>
       </c>
-      <c r="D34" s="8" t="n">
+      <c r="D34" s="10" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="n"/>
-      <c r="B35" s="10" t="n"/>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="A35" s="11" t="n"/>
+      <c r="B35" s="12" t="n"/>
+      <c r="C35" s="9" t="inlineStr">
         <is>
           <t>Stampante_Fotocopiatrice</t>
         </is>
       </c>
-      <c r="D35" s="8" t="n">
+      <c r="D35" s="10" t="n">
         <v>55.4</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="n"/>
-      <c r="B36" s="6" t="inlineStr">
+      <c r="A36" s="11" t="n"/>
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
         </is>
       </c>
-      <c r="C36" s="7" t="inlineStr">
+      <c r="C36" s="9" t="inlineStr">
         <is>
           <t>Ceri e Candele</t>
         </is>
       </c>
-      <c r="D36" s="8" t="n">
+      <c r="D36" s="10" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="n"/>
-      <c r="B37" s="6" t="inlineStr">
+      <c r="A37" s="11" t="n"/>
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
-      <c r="C37" s="7" t="inlineStr">
+      <c r="C37" s="9" t="inlineStr">
         <is>
           <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
-      <c r="D37" s="8" t="n">
+      <c r="D37" s="10" t="n">
         <v>823</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="n"/>
-      <c r="B38" s="11" t="n"/>
-      <c r="C38" s="7" t="inlineStr">
+      <c r="A38" s="11" t="n"/>
+      <c r="B38" s="13" t="n"/>
+      <c r="C38" s="9" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
         </is>
       </c>
-      <c r="D38" s="8" t="n">
+      <c r="D38" s="10" t="n">
         <v>630</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="n"/>
-      <c r="B39" s="10" t="n"/>
-      <c r="C39" s="7" t="inlineStr">
+      <c r="A39" s="11" t="n"/>
+      <c r="B39" s="12" t="n"/>
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
         </is>
       </c>
-      <c r="D39" s="8" t="n">
+      <c r="D39" s="10" t="n">
         <v>150.36</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="n"/>
-      <c r="B40" s="6" t="inlineStr">
+      <c r="A40" s="11" t="n"/>
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C40" s="7" t="inlineStr">
+      <c r="C40" s="9" t="inlineStr">
         <is>
           <t>Abbonamenti</t>
         </is>
       </c>
-      <c r="D40" s="8" t="n">
+      <c r="D40" s="10" t="n">
         <v>100.32</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="n"/>
-      <c r="B41" s="10" t="n"/>
-      <c r="C41" s="7" t="inlineStr">
+      <c r="A41" s="11" t="n"/>
+      <c r="B41" s="12" t="n"/>
+      <c r="C41" s="9" t="inlineStr">
         <is>
           <t>Libri</t>
         </is>
       </c>
-      <c r="D41" s="8" t="n">
+      <c r="D41" s="10" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="n"/>
-      <c r="B42" s="6" t="inlineStr">
+      <c r="A42" s="11" t="n"/>
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
       </c>
-      <c r="C42" s="7" t="inlineStr">
+      <c r="C42" s="9" t="inlineStr">
         <is>
           <t>Beneficenza 5%</t>
         </is>
       </c>
-      <c r="D42" s="8" t="n">
+      <c r="D42" s="10" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="n"/>
-      <c r="B43" s="6" t="inlineStr">
+      <c r="A43" s="11" t="n"/>
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
         </is>
       </c>
-      <c r="C43" s="7" t="inlineStr">
+      <c r="C43" s="9" t="inlineStr">
         <is>
           <t>ENEL</t>
         </is>
       </c>
-      <c r="D43" s="8" t="n">
+      <c r="D43" s="10" t="n">
         <v>1185.57</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="n"/>
-      <c r="B44" s="6" t="inlineStr">
+      <c r="A44" s="11" t="n"/>
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C44" s="7" t="inlineStr">
+      <c r="C44" s="9" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D44" s="8" t="n">
+      <c r="D44" s="10" t="n">
         <v>1070.56</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="n"/>
-      <c r="B45" s="10" t="n"/>
-      <c r="C45" s="7" t="inlineStr">
+      <c r="A45" s="11" t="n"/>
+      <c r="B45" s="12" t="n"/>
+      <c r="C45" s="9" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
-      <c r="D45" s="8" t="n">
+      <c r="D45" s="10" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="9" t="n"/>
-      <c r="B46" s="6" t="inlineStr">
+      <c r="A46" s="11" t="n"/>
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
       </c>
-      <c r="C46" s="7" t="inlineStr">
+      <c r="C46" s="9" t="inlineStr">
         <is>
           <t>Detersivi</t>
         </is>
       </c>
-      <c r="D46" s="8" t="n">
+      <c r="D46" s="10" t="n">
         <v>135.26</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="9" t="n"/>
-      <c r="B47" s="11" t="n"/>
-      <c r="C47" s="7" t="inlineStr">
+      <c r="A47" s="11" t="n"/>
+      <c r="B47" s="13" t="n"/>
+      <c r="C47" s="9" t="inlineStr">
         <is>
           <t>Igiene personale</t>
         </is>
       </c>
-      <c r="D47" s="8" t="n">
+      <c r="D47" s="10" t="n">
         <v>13.75</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="9" t="n"/>
-      <c r="B48" s="10" t="n"/>
-      <c r="C48" s="7" t="inlineStr">
+      <c r="A48" s="11" t="n"/>
+      <c r="B48" s="12" t="n"/>
+      <c r="C48" s="9" t="inlineStr">
         <is>
           <t>Lavanderia</t>
         </is>
       </c>
-      <c r="D48" s="8" t="n">
+      <c r="D48" s="10" t="n">
         <v>5.5</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="n"/>
-      <c r="B49" s="6" t="inlineStr">
+      <c r="A49" s="11" t="n"/>
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C49" s="7" t="inlineStr">
+      <c r="C49" s="9" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
         </is>
       </c>
-      <c r="D49" s="8" t="n">
+      <c r="D49" s="10" t="n">
         <v>113.4</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="n"/>
-      <c r="B50" s="10" t="n"/>
-      <c r="C50" s="7" t="inlineStr">
+      <c r="A50" s="11" t="n"/>
+      <c r="B50" s="12" t="n"/>
+      <c r="C50" s="9" t="inlineStr">
         <is>
           <t>Passaporto</t>
         </is>
       </c>
-      <c r="D50" s="8" t="n">
+      <c r="D50" s="10" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="9" t="n"/>
-      <c r="B51" s="6" t="inlineStr">
+      <c r="A51" s="11" t="n"/>
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
         </is>
       </c>
-      <c r="C51" s="7" t="inlineStr">
+      <c r="C51" s="9" t="inlineStr">
         <is>
           <t>Cancelleria</t>
         </is>
       </c>
-      <c r="D51" s="8" t="n">
+      <c r="D51" s="10" t="n">
         <v>71.95</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="n"/>
-      <c r="B52" s="6" t="inlineStr">
+      <c r="A52" s="11" t="n"/>
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
       </c>
-      <c r="C52" s="7" t="inlineStr">
+      <c r="C52" s="9" t="inlineStr">
         <is>
           <t>Scheda telefonica</t>
         </is>
       </c>
-      <c r="D52" s="8" t="n">
+      <c r="D52" s="10" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="n"/>
-      <c r="B53" s="6" t="inlineStr">
+      <c r="A53" s="11" t="n"/>
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
       </c>
-      <c r="C53" s="7" t="inlineStr">
+      <c r="C53" s="9" t="inlineStr">
         <is>
           <t>Bollo Auto</t>
         </is>
       </c>
-      <c r="D53" s="8" t="n">
+      <c r="D53" s="10" t="n">
         <v>243.56</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="n"/>
-      <c r="B54" s="6" t="inlineStr">
+      <c r="A54" s="11" t="n"/>
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
       </c>
-      <c r="C54" s="7" t="inlineStr">
+      <c r="C54" s="9" t="inlineStr">
         <is>
           <t>Sandali - scarpe</t>
         </is>
       </c>
-      <c r="D54" s="8" t="n">
+      <c r="D54" s="10" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="n"/>
-      <c r="B55" s="6" t="inlineStr">
+      <c r="A55" s="11" t="n"/>
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
       </c>
-      <c r="C55" s="7" t="inlineStr">
+      <c r="C55" s="9" t="inlineStr">
         <is>
           <t>Alimentari</t>
         </is>
       </c>
-      <c r="D55" s="8" t="n">
+      <c r="D55" s="10" t="n">
         <v>542.5599999999999</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="n"/>
-      <c r="B56" s="11" t="n"/>
-      <c r="C56" s="7" t="inlineStr">
+      <c r="A56" s="11" t="n"/>
+      <c r="B56" s="13" t="n"/>
+      <c r="C56" s="9" t="inlineStr">
         <is>
           <t>Bartolazzi</t>
         </is>
       </c>
-      <c r="D56" s="8" t="n">
+      <c r="D56" s="10" t="n">
         <v>533</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="n"/>
-      <c r="B57" s="11" t="n"/>
-      <c r="C57" s="7" t="inlineStr">
+      <c r="A57" s="11" t="n"/>
+      <c r="B57" s="13" t="n"/>
+      <c r="C57" s="9" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D57" s="8" t="n">
+      <c r="D57" s="10" t="n">
         <v>344.36</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="n"/>
-      <c r="B58" s="11" t="n"/>
-      <c r="C58" s="7" t="inlineStr">
+      <c r="A58" s="11" t="n"/>
+      <c r="B58" s="13" t="n"/>
+      <c r="C58" s="9" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D58" s="8" t="n">
+      <c r="D58" s="10" t="n">
         <v>255.16</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="n"/>
-      <c r="B59" s="11" t="n"/>
-      <c r="C59" s="7" t="inlineStr">
+      <c r="A59" s="11" t="n"/>
+      <c r="B59" s="13" t="n"/>
+      <c r="C59" s="9" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D59" s="8" t="n">
+      <c r="D59" s="10" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="12" t="n"/>
-      <c r="B60" s="10" t="n"/>
-      <c r="C60" s="7" t="inlineStr">
+      <c r="A60" s="14" t="n"/>
+      <c r="B60" s="12" t="n"/>
+      <c r="C60" s="9" t="inlineStr">
         <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D60" s="8" t="n">
+      <c r="D60" s="10" t="n">
         <v>54.9</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="inlineStr">
-        <is>
-          <t>Uscite gennaio</t>
-        </is>
-      </c>
-      <c r="B61" s="6" t="inlineStr"/>
-      <c r="C61" s="7" t="inlineStr"/>
-      <c r="D61" s="8" t="n">
+      <c r="A61" s="7" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B61" s="8" t="inlineStr"/>
+      <c r="C61" s="9" t="inlineStr"/>
+      <c r="D61" s="15" t="n">
         <v>7004.4</v>
       </c>
     </row>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -9,6 +9,18 @@
     <sheet name="gennaio_uscite" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="gennaio_entrate" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="multiple" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Gennaio" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Febbraio" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Marzo" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Aprile" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Maggio" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Giugno" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Luglio" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Agosto" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Settembre" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Ottobre" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Novembre" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Dicembre" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -162,6 +174,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -180,14 +194,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -1036,6 +1048,528 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr"/>
+      <c r="C32" s="4" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr"/>
+      <c r="C32" s="4" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr"/>
+      <c r="C32" s="4" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr"/>
+      <c r="C32" s="4" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr"/>
+      <c r="C32" s="4" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr"/>
+      <c r="C32" s="4" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1368,6 +1902,782 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A6:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Collette-Chiesa</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Cassette</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Giacomo</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1060.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Gianni</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1028.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Interessi</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Interessi</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>52.36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Offerta eccedenze Messa</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Offerte libere</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Presepio</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Fr Tommaso Bellesi</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Anastasio Artegiani</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Giulio Criminesi</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Mario Pigini</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>226.89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="5" t="n"/>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Sanitaria</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Loreto</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Marmellata</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Mercatino convento</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Pasta</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Vino</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>326.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr"/>
+      <c r="C26" s="4" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>10980.81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Casalinghi</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>141.73</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>38.56</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Materiale elettrico</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="5" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Stampante_Fotocopiatrice</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Chiesa</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Ceri e Candele</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Orto, Animali</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Attrezzi agricoli manutenzione</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Manutenzione api</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="5" t="n"/>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Medicine animali - piante</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>150.36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Abbonamenti</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>100.32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="5" t="n"/>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Libri</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Beneficenza 5%</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Energia Elettrica</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>ENEL</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1185.57</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1070.56</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Viaggi-Autostrada-Parcheggio</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Detersivi</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>135.26</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Igiene personale</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="5" t="n"/>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Lavanderia</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Imposte bancarie</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>113.4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="5" t="n"/>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Passaporto</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Posta e cancelleria</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Cancelleria</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>71.95</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Scheda telefonica</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Bollo Auto</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>243.56</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Vestiario</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Sandali - scarpe</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Alimentari</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>542.5599999999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Bartolazzi</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Carne</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>344.36</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Frutta e Verdura</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>255.16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Latte - Latticini</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="n"/>
+      <c r="B60" s="5" t="n"/>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>Pesce</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr"/>
+      <c r="C61" s="4" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>7004.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A7:A25"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A32:A60"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B55:B60"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1383,7 +2693,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Conti mese di gennaio</t>
         </is>
@@ -1394,299 +2704,299 @@
     <row r="4"/>
     <row r="5"/>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="12" t="n">
         <v>544</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="n"/>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>Congrua fra Giacomo</t>
         </is>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="12" t="n">
         <v>1060.05</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="n"/>
-      <c r="B9" s="12" t="n"/>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
         </is>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="12" t="n">
         <v>1028.81</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="12" t="n">
         <v>52.36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
         </is>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="12" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="n"/>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="14" t="n"/>
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>Offerte libere</t>
         </is>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="12" t="n">
         <v>2760</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="12" t="n"/>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>Presepio</t>
         </is>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="12" t="n">
         <v>256</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="n"/>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="12" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="n"/>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="14" t="n"/>
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="12" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="n"/>
-      <c r="B16" s="13" t="n"/>
-      <c r="C16" s="9" t="inlineStr">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="14" t="n"/>
+      <c r="C16" s="11" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="12" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="n"/>
-      <c r="B17" s="12" t="n"/>
-      <c r="C17" s="9" t="inlineStr">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="13" t="n"/>
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="12" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="12" t="n">
         <v>226.89</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="B19" s="12" t="n"/>
-      <c r="C19" s="9" t="inlineStr">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>Sanitaria</t>
         </is>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="12" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="12" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="B21" s="12" t="n"/>
-      <c r="C21" s="9" t="inlineStr">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D21" s="12" t="n">
         <v>530</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C22" s="9" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t>Marmellata</t>
         </is>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="12" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="B23" s="13" t="n"/>
-      <c r="C23" s="9" t="inlineStr">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
         </is>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="12" t="n">
         <v>920</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="B24" s="13" t="n"/>
-      <c r="C24" s="9" t="inlineStr">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="14" t="n"/>
+      <c r="C24" s="11" t="inlineStr">
         <is>
           <t>Pasta</t>
         </is>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D24" s="12" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="n"/>
-      <c r="B25" s="12" t="n"/>
-      <c r="C25" s="9" t="inlineStr">
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="13" t="n"/>
+      <c r="C25" s="11" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="12" t="n">
         <v>326.5</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="inlineStr">
+      <c r="A26" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr"/>
-      <c r="C26" s="9" t="inlineStr"/>
+      <c r="B26" s="10" t="inlineStr"/>
+      <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="15" t="n">
         <v>10980.81</v>
       </c>
@@ -1694,25 +3004,25 @@
     <row r="27">
       <c r="B27" s="16" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="10" t="n"/>
+      <c r="D27" s="12" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="10" t="n"/>
+      <c r="D28" s="12" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="10" t="n"/>
+      <c r="D29" s="12" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="16" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="10" t="n"/>
+      <c r="D30" s="12" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
@@ -1734,421 +3044,421 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B32" s="10" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="9" t="inlineStr">
+      <c r="C32" s="11" t="inlineStr">
         <is>
           <t>Casalinghi</t>
         </is>
       </c>
-      <c r="D32" s="10" t="n">
+      <c r="D32" s="12" t="n">
         <v>141.73</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="B33" s="13" t="n"/>
-      <c r="C33" s="9" t="inlineStr">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="14" t="n"/>
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>Computer</t>
         </is>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D33" s="12" t="n">
         <v>38.56</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="B34" s="13" t="n"/>
-      <c r="C34" s="9" t="inlineStr">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="14" t="n"/>
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
         </is>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D34" s="12" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="B35" s="12" t="n"/>
-      <c r="C35" s="9" t="inlineStr">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="13" t="n"/>
+      <c r="C35" s="11" t="inlineStr">
         <is>
           <t>Stampante_Fotocopiatrice</t>
         </is>
       </c>
-      <c r="D35" s="10" t="n">
+      <c r="D35" s="12" t="n">
         <v>55.4</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
         </is>
       </c>
-      <c r="C36" s="9" t="inlineStr">
+      <c r="C36" s="11" t="inlineStr">
         <is>
           <t>Ceri e Candele</t>
         </is>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D36" s="12" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
-      <c r="C37" s="9" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D37" s="12" t="n">
         <v>823</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="B38" s="13" t="n"/>
-      <c r="C38" s="9" t="inlineStr">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="14" t="n"/>
+      <c r="C38" s="11" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
         </is>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="12" t="n">
         <v>630</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="B39" s="12" t="n"/>
-      <c r="C39" s="9" t="inlineStr">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="13" t="n"/>
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
         </is>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="D39" s="12" t="n">
         <v>150.36</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C40" s="9" t="inlineStr">
+      <c r="C40" s="11" t="inlineStr">
         <is>
           <t>Abbonamenti</t>
         </is>
       </c>
-      <c r="D40" s="10" t="n">
+      <c r="D40" s="12" t="n">
         <v>100.32</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="B41" s="12" t="n"/>
-      <c r="C41" s="9" t="inlineStr">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="13" t="n"/>
+      <c r="C41" s="11" t="inlineStr">
         <is>
           <t>Libri</t>
         </is>
       </c>
-      <c r="D41" s="10" t="n">
+      <c r="D41" s="12" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="n"/>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
       </c>
-      <c r="C42" s="9" t="inlineStr">
+      <c r="C42" s="11" t="inlineStr">
         <is>
           <t>Beneficenza 5%</t>
         </is>
       </c>
-      <c r="D42" s="10" t="n">
+      <c r="D42" s="12" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="n"/>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="10" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
         </is>
       </c>
-      <c r="C43" s="9" t="inlineStr">
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>ENEL</t>
         </is>
       </c>
-      <c r="D43" s="10" t="n">
+      <c r="D43" s="12" t="n">
         <v>1185.57</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C44" s="9" t="inlineStr">
+      <c r="C44" s="11" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D44" s="10" t="n">
+      <c r="D44" s="12" t="n">
         <v>1070.56</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="B45" s="12" t="n"/>
-      <c r="C45" s="9" t="inlineStr">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="13" t="n"/>
+      <c r="C45" s="11" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
-      <c r="D45" s="10" t="n">
+      <c r="D45" s="12" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
       </c>
-      <c r="C46" s="9" t="inlineStr">
+      <c r="C46" s="11" t="inlineStr">
         <is>
           <t>Detersivi</t>
         </is>
       </c>
-      <c r="D46" s="10" t="n">
+      <c r="D46" s="12" t="n">
         <v>135.26</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="B47" s="13" t="n"/>
-      <c r="C47" s="9" t="inlineStr">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="14" t="n"/>
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t>Igiene personale</t>
         </is>
       </c>
-      <c r="D47" s="10" t="n">
+      <c r="D47" s="12" t="n">
         <v>13.75</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="B48" s="12" t="n"/>
-      <c r="C48" s="9" t="inlineStr">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="13" t="n"/>
+      <c r="C48" s="11" t="inlineStr">
         <is>
           <t>Lavanderia</t>
         </is>
       </c>
-      <c r="D48" s="10" t="n">
+      <c r="D48" s="12" t="n">
         <v>5.5</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C49" s="9" t="inlineStr">
+      <c r="C49" s="11" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
         </is>
       </c>
-      <c r="D49" s="10" t="n">
+      <c r="D49" s="12" t="n">
         <v>113.4</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="B50" s="12" t="n"/>
-      <c r="C50" s="9" t="inlineStr">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="13" t="n"/>
+      <c r="C50" s="11" t="inlineStr">
         <is>
           <t>Passaporto</t>
         </is>
       </c>
-      <c r="D50" s="10" t="n">
+      <c r="D50" s="12" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="10" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
         </is>
       </c>
-      <c r="C51" s="9" t="inlineStr">
+      <c r="C51" s="11" t="inlineStr">
         <is>
           <t>Cancelleria</t>
         </is>
       </c>
-      <c r="D51" s="10" t="n">
+      <c r="D51" s="12" t="n">
         <v>71.95</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
       </c>
-      <c r="C52" s="9" t="inlineStr">
+      <c r="C52" s="11" t="inlineStr">
         <is>
           <t>Scheda telefonica</t>
         </is>
       </c>
-      <c r="D52" s="10" t="n">
+      <c r="D52" s="12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
       </c>
-      <c r="C53" s="9" t="inlineStr">
+      <c r="C53" s="11" t="inlineStr">
         <is>
           <t>Bollo Auto</t>
         </is>
       </c>
-      <c r="D53" s="10" t="n">
+      <c r="D53" s="12" t="n">
         <v>243.56</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="10" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
       </c>
-      <c r="C54" s="9" t="inlineStr">
+      <c r="C54" s="11" t="inlineStr">
         <is>
           <t>Sandali - scarpe</t>
         </is>
       </c>
-      <c r="D54" s="10" t="n">
+      <c r="D54" s="12" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="11" t="n"/>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
       </c>
-      <c r="C55" s="9" t="inlineStr">
+      <c r="C55" s="11" t="inlineStr">
         <is>
           <t>Alimentari</t>
         </is>
       </c>
-      <c r="D55" s="10" t="n">
+      <c r="D55" s="12" t="n">
         <v>542.5599999999999</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="n"/>
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="9" t="inlineStr">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="14" t="n"/>
+      <c r="C56" s="11" t="inlineStr">
         <is>
           <t>Bartolazzi</t>
         </is>
       </c>
-      <c r="D56" s="10" t="n">
+      <c r="D56" s="12" t="n">
         <v>533</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="B57" s="13" t="n"/>
-      <c r="C57" s="9" t="inlineStr">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="14" t="n"/>
+      <c r="C57" s="11" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D57" s="10" t="n">
+      <c r="D57" s="12" t="n">
         <v>344.36</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="9" t="inlineStr">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="11" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D58" s="10" t="n">
+      <c r="D58" s="12" t="n">
         <v>255.16</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="B59" s="13" t="n"/>
-      <c r="C59" s="9" t="inlineStr">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="11" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D59" s="10" t="n">
+      <c r="D59" s="12" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="14" t="n"/>
-      <c r="B60" s="12" t="n"/>
-      <c r="C60" s="9" t="inlineStr">
+      <c r="A60" s="5" t="n"/>
+      <c r="B60" s="13" t="n"/>
+      <c r="C60" s="11" t="inlineStr">
         <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D60" s="10" t="n">
+      <c r="D60" s="12" t="n">
         <v>54.9</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="inlineStr">
+      <c r="A61" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr"/>
-      <c r="C61" s="9" t="inlineStr"/>
+      <c r="B61" s="10" t="inlineStr"/>
+      <c r="C61" s="11" t="inlineStr"/>
       <c r="D61" s="15" t="n">
         <v>7004.4</v>
       </c>
@@ -2174,4 +3484,3320 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Collette-Chiesa</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Cassette</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Giacomo</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1060.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Gianni</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1028.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Accoglienza</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Offerta eccedenze Messa</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Offerte libere</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Offerte ofs</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Fr Tommaso Bellesi</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Anastasio Artegiani</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Giulio Criminesi</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Mario Pigini</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>259.35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="5" t="n"/>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Ticket - esami</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Loreto</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Sussidi</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>AGEA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>507.78</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Marmellata</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Vino</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>8036.79</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Cantina</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1452.46</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Ferramenta</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>512.58</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Materiale edile</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="5" t="n"/>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Materiale elettrico</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Orto, Animali</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Manutenzione api</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Abbonamenti</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>82.04000000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="5" t="n"/>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Libri</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Beneficenza 5%</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Energia Elettrica</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>ENEL</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1179.12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>917.17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="5" t="n"/>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Viaggi-Autostrada-Parcheggio</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Detersivi</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Igiene personale</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Canone RAI</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>203.7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="5" t="n"/>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Imposte bancarie</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Bollo Auto</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="5" t="n"/>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Meccanico</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Vestiario</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Indumenti</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Alimentari</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>248.66</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Bibite e gelati</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Carne</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>305.45</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Frutta e Verdura</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>101.94</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="n"/>
+      <c r="B56" s="5" t="n"/>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Latte - Latticini</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr"/>
+      <c r="C57" s="4" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>11009.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A7:A24"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A32:A56"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B52:B56"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Collette-Chiesa</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Cassette</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Giacomo</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1060.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Gianni</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1028.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Mariano</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1044.43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Accoglienza</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Offerta eccedenze Messa</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Offerte libere</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Fr Tommaso Bellesi</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Anastasio Artegiani</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Giulio Criminesi</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Mario Pigini</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Predicazione</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Tridui</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>116.26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Occhiali</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Ticket - esami</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Loreto</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Marmellata</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Mercatino convento</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Pasta</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Vino</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>405.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr"/>
+      <c r="C28" s="4" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>10704.95</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Casalinghi</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Ferramenta</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>322.58</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="5" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Materiale elettrico</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Libri</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Beneficenza 5%</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Energia Elettrica</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>ENEL</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1055.74</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1539.39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="5" t="n"/>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Viaggi-Autostrada-Parcheggio</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Lavanderia</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Imposte bancarie</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="5" t="n"/>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Imposte varie</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>18.59</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Lavori e Impianti</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Boscaiolo</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Edif illuminazione</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4499.59</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Restauratore</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Posta e cancelleria</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Cancelleria</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Meccanico</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Vestiario</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Sandali - scarpe</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Alimentari</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>954.62</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Carne</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>615.72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Frutta e Verdura</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>274.83</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Latte - Latticini</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>175.26</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Pane, Uova, Farina</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>382.95</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="n"/>
+      <c r="B54" s="5" t="n"/>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Pesce</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr"/>
+      <c r="C55" s="4" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>14659.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A27"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A32:A54"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B49:B54"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Collette-Chiesa</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Cassette</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Giacomo</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>953.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Gianni</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>924.54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Interessi</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Interessi</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>44.52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Accoglienza</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Benedizione case</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Frittate</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>638.5700000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Offerte libere</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Fr Tommaso Bellesi</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Anastasio Artegiani</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Giulio Criminesi</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Mario Pigini</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Predicazione</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Tridui</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>81.61</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Ticket - esami</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Loreto</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Marmellata</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Pasta</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Vino</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr"/>
+      <c r="C27" s="4" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>11005.57</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Casalinghi</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>152.94</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Ferramenta</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>665.97</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Materiale elettrico</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="5" t="n"/>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Offerte p.Orazio Capitolo</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Chiesa</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Ceri e Candele</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="5" t="n"/>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Fiori</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Orto, Animali</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Gasolio agricolo</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>564.4299999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="5" t="n"/>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Manutenzione api</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Convegno Novizi</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="5" t="n"/>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Libri</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Beneficenza 5%</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>953.47</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Viaggi-Autostrada-Parcheggio</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Detersivi</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Imposte bancarie</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>48.85</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Lavori e Impianti</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Muratore</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Posta e cancelleria</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Cancelleria</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Rimborsi</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Diaria Novizi (manca umbria)</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Fidoka istallazione +abbonam. 13 mesi</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="5" t="n"/>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Elettrauto</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Meccanico</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="5" t="n"/>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Pompista</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Vestiario</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Indumenti</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Alimentari</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>376.35</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Carne</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>540.4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Frutta e Verdura</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>141.81</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>Latte - Latticini</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>137.18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>Pane, Uova, Farina</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>90.91</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="n"/>
+      <c r="B62" s="5" t="n"/>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Pesce</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>70.08</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr"/>
+      <c r="C63" s="4" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>40500.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A7:A26"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A32:A62"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B62"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Collette-Chiesa</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Cassette</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Giacomo</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1060.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Congrua fra Gianni</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1028.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Eredità</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>18316.93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Frittate</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Offerta eccedenze Messa</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Offerte libere</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Fr Tommaso Bellesi</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Anastasio Artegiani</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Giulio Criminesi</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Mario Pigini</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Predicazione</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Feste Triennali</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>193.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Loreto</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Marmellata</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Vino</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>190.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr"/>
+      <c r="C24" s="4" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>25950.34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Casalinghi</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="5" t="n"/>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Ferramenta</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>584.05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Orto, Animali</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Attrezzi agricoli manutenzione</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Gasolio agricolo</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="5" t="n"/>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Semi, Ortaggi</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Abbonamenti</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>604.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="5" t="n"/>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Libri</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1243.37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Beneficenza 5%</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Bar</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1527.51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="5" t="n"/>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Viaggi-Autostrada-Parcheggio</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Detersivi</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Igiene personale</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Lavanderia</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Allarme museo</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>203.34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="5" t="n"/>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Imposte varie</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Lavori e Impianti</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Idraulico</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Scheda telefonica</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Bollo Auto</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>263.09</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="5" t="n"/>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Meccanico</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Alimentari</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>691.1900000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Bibite e gelati</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>84.83</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Carne</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Frutta e Verdura</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Latte - Latticini</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Olio</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>104.16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="n"/>
+      <c r="B58" s="5" t="n"/>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Pesce</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr"/>
+      <c r="C59" s="4" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>9360.139999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A7:A23"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A32:A58"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B58"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A6:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Accoglienza</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Fr Tommaso Bellesi</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Anastasio Artegiani</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Giulio Criminesi</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Fr. Mario Pigini</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Loreto</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Vino</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr"/>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>3102.6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Ferramenta</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>127.88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Fotocopiatrice+contr.assistenza</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="5" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Materiale edile</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>246.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Chiesa</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Ceri e Candele</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Acquisti: Orto, Animali</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Medicine animali - piante</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>194.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Carburante</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>361.82</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Imposte bancarie</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Lavori e Impianti</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Edif illuminazione</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>565.74</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n"/>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>TELECOM</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr"/>
+      <c r="C41" s="4" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>4792.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B34"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -1054,14 +1054,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Conto del mese di Luglio</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
@@ -1131,6 +1144,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1141,14 +1157,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Conto del mese di Agosto</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
@@ -1218,6 +1247,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1228,14 +1260,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Conto del mese di Settembre</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
@@ -1305,6 +1350,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1315,14 +1363,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Conto del mese di Ottobre</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
@@ -1392,6 +1453,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1402,14 +1466,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Conto del mese di Novembre</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
@@ -1479,6 +1556,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1489,14 +1569,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Conto del mese di Dicembre</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
@@ -1566,6 +1659,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2695,7 +2791,7 @@
     <row r="1" ht="70" customHeight="1">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t>Conti mese di gennaio</t>
+          <t>Conto del mese di Gennaio</t>
         </is>
       </c>
     </row>
@@ -3492,14 +3588,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Conto del mese di Febbraio</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
@@ -4173,7 +4282,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A7:A24"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -4189,6 +4298,7 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B52:B56"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4200,14 +4310,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Conto del mese di Marzo</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
@@ -4893,7 +5016,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A7:A27"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
@@ -4907,6 +5030,7 @@
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4918,14 +5042,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D63"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Conto del mese di Aprile</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
@@ -5711,7 +5848,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A7:A26"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B14"/>
@@ -5728,6 +5865,7 @@
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B57:B62"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5739,14 +5877,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D59"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Conto del mese di Maggio</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
@@ -6428,7 +6579,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A7:A23"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -6444,6 +6595,7 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B52:B58"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6455,14 +6607,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Conto del mese di Giugno</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
@@ -6792,11 +6957,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="A32:A40"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -1075,71 +1075,190 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="10" t="inlineStr"/>
+      <c r="C7" s="11" t="inlineStr"/>
+      <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
+      <c r="D8" s="12" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="17" t="n"/>
+      <c r="D9" s="12" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="17" t="n"/>
+      <c r="D10" s="12" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="17" t="n"/>
+      <c r="D11" s="12" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="17" t="n"/>
+      <c r="D12" s="12" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="17" t="n"/>
+      <c r="D13" s="12" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="17" t="n"/>
+      <c r="D14" s="12" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="12" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="17" t="n"/>
+      <c r="D16" s="12" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="17" t="n"/>
+      <c r="D17" s="12" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="17" t="n"/>
+      <c r="D18" s="12" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="17" t="n"/>
+      <c r="D19" s="12" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="17" t="n"/>
+      <c r="D20" s="12" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="17" t="n"/>
+      <c r="D21" s="12" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="12" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="17" t="n"/>
+      <c r="D23" s="12" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="17" t="n"/>
+      <c r="D24" s="12" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="17" t="n"/>
+      <c r="D25" s="12" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="12" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="17" t="n"/>
+      <c r="D27" s="12" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="12" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="12" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="12" t="n"/>
+    </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="19" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr"/>
-      <c r="C32" s="4" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="B32" s="10" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
+      <c r="D32" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1178,71 +1297,190 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="10" t="inlineStr"/>
+      <c r="C7" s="11" t="inlineStr"/>
+      <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
+      <c r="D8" s="12" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="17" t="n"/>
+      <c r="D9" s="12" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="17" t="n"/>
+      <c r="D10" s="12" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="17" t="n"/>
+      <c r="D11" s="12" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="17" t="n"/>
+      <c r="D12" s="12" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="17" t="n"/>
+      <c r="D13" s="12" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="17" t="n"/>
+      <c r="D14" s="12" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="12" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="17" t="n"/>
+      <c r="D16" s="12" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="17" t="n"/>
+      <c r="D17" s="12" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="17" t="n"/>
+      <c r="D18" s="12" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="17" t="n"/>
+      <c r="D19" s="12" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="17" t="n"/>
+      <c r="D20" s="12" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="17" t="n"/>
+      <c r="D21" s="12" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="12" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="17" t="n"/>
+      <c r="D23" s="12" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="17" t="n"/>
+      <c r="D24" s="12" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="17" t="n"/>
+      <c r="D25" s="12" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="12" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="17" t="n"/>
+      <c r="D27" s="12" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="12" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="12" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="12" t="n"/>
+    </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="19" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr"/>
-      <c r="C32" s="4" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="B32" s="10" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
+      <c r="D32" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1281,71 +1519,190 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="10" t="inlineStr"/>
+      <c r="C7" s="11" t="inlineStr"/>
+      <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
+      <c r="D8" s="12" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="17" t="n"/>
+      <c r="D9" s="12" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="17" t="n"/>
+      <c r="D10" s="12" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="17" t="n"/>
+      <c r="D11" s="12" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="17" t="n"/>
+      <c r="D12" s="12" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="17" t="n"/>
+      <c r="D13" s="12" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="17" t="n"/>
+      <c r="D14" s="12" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="12" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="17" t="n"/>
+      <c r="D16" s="12" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="17" t="n"/>
+      <c r="D17" s="12" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="17" t="n"/>
+      <c r="D18" s="12" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="17" t="n"/>
+      <c r="D19" s="12" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="17" t="n"/>
+      <c r="D20" s="12" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="17" t="n"/>
+      <c r="D21" s="12" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="12" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="17" t="n"/>
+      <c r="D23" s="12" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="17" t="n"/>
+      <c r="D24" s="12" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="17" t="n"/>
+      <c r="D25" s="12" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="12" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="17" t="n"/>
+      <c r="D27" s="12" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="12" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="12" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="12" t="n"/>
+    </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="19" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr"/>
-      <c r="C32" s="4" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="B32" s="10" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
+      <c r="D32" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1384,71 +1741,190 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="10" t="inlineStr"/>
+      <c r="C7" s="11" t="inlineStr"/>
+      <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
+      <c r="D8" s="12" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="17" t="n"/>
+      <c r="D9" s="12" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="17" t="n"/>
+      <c r="D10" s="12" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="17" t="n"/>
+      <c r="D11" s="12" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="17" t="n"/>
+      <c r="D12" s="12" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="17" t="n"/>
+      <c r="D13" s="12" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="17" t="n"/>
+      <c r="D14" s="12" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="12" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="17" t="n"/>
+      <c r="D16" s="12" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="17" t="n"/>
+      <c r="D17" s="12" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="17" t="n"/>
+      <c r="D18" s="12" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="17" t="n"/>
+      <c r="D19" s="12" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="17" t="n"/>
+      <c r="D20" s="12" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="17" t="n"/>
+      <c r="D21" s="12" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="12" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="17" t="n"/>
+      <c r="D23" s="12" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="17" t="n"/>
+      <c r="D24" s="12" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="17" t="n"/>
+      <c r="D25" s="12" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="12" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="17" t="n"/>
+      <c r="D27" s="12" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="12" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="12" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="12" t="n"/>
+    </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="19" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr"/>
-      <c r="C32" s="4" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="B32" s="10" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
+      <c r="D32" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1487,71 +1963,190 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="10" t="inlineStr"/>
+      <c r="C7" s="11" t="inlineStr"/>
+      <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
+      <c r="D8" s="12" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="17" t="n"/>
+      <c r="D9" s="12" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="17" t="n"/>
+      <c r="D10" s="12" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="17" t="n"/>
+      <c r="D11" s="12" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="17" t="n"/>
+      <c r="D12" s="12" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="17" t="n"/>
+      <c r="D13" s="12" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="17" t="n"/>
+      <c r="D14" s="12" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="12" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="17" t="n"/>
+      <c r="D16" s="12" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="17" t="n"/>
+      <c r="D17" s="12" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="17" t="n"/>
+      <c r="D18" s="12" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="17" t="n"/>
+      <c r="D19" s="12" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="17" t="n"/>
+      <c r="D20" s="12" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="17" t="n"/>
+      <c r="D21" s="12" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="12" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="17" t="n"/>
+      <c r="D23" s="12" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="17" t="n"/>
+      <c r="D24" s="12" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="17" t="n"/>
+      <c r="D25" s="12" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="12" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="17" t="n"/>
+      <c r="D27" s="12" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="12" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="12" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="12" t="n"/>
+    </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="19" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr"/>
-      <c r="C32" s="4" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="B32" s="10" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
+      <c r="D32" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,71 +2185,190 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="10" t="inlineStr"/>
+      <c r="C7" s="11" t="inlineStr"/>
+      <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
+      <c r="D8" s="12" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="17" t="n"/>
+      <c r="D9" s="12" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="17" t="n"/>
+      <c r="D10" s="12" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="17" t="n"/>
+      <c r="D11" s="12" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="17" t="n"/>
+      <c r="D12" s="12" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="17" t="n"/>
+      <c r="D13" s="12" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="17" t="n"/>
+      <c r="D14" s="12" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="17" t="n"/>
+      <c r="D15" s="12" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="17" t="n"/>
+      <c r="D16" s="12" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="17" t="n"/>
+      <c r="D17" s="12" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="17" t="n"/>
+      <c r="D18" s="12" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="17" t="n"/>
+      <c r="D19" s="12" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="17" t="n"/>
+      <c r="D20" s="12" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="17" t="n"/>
+      <c r="D21" s="12" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="12" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="17" t="n"/>
+      <c r="D23" s="12" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="17" t="n"/>
+      <c r="D24" s="12" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="17" t="n"/>
+      <c r="D25" s="12" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="12" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="17" t="n"/>
+      <c r="D27" s="12" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="12" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="12" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="12" t="n"/>
+    </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="19" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr"/>
-      <c r="C32" s="4" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="B32" s="10" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
+      <c r="D32" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3609,675 +4323,704 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="12" t="n">
         <v>480</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n"/>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>Congrua fra Giacomo</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="12" t="n">
         <v>1060.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="12" t="n">
         <v>1028.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="n"/>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>Accoglienza</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="12" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n"/>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="12" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="B12" s="14" t="n"/>
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>Offerte libere</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="12" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>Offerte ofs</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="12" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="n"/>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="12" t="n">
         <v>636</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="B15" s="14" t="n"/>
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="12" t="n">
         <v>636</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="B16" s="14" t="n"/>
+      <c r="C16" s="11" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="12" t="n">
         <v>636</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="B17" s="13" t="n"/>
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="12" t="n">
         <v>636</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="n"/>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="12" t="n">
         <v>259.35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n"/>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>Ticket - esami</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="12" t="n">
         <v>33.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="n"/>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="12" t="n">
         <v>360</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="n"/>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="12" t="n">
         <v>425</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="n"/>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Sussidi</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t>AGEA</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="12" t="n">
         <v>507.78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n"/>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Marmellata</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="12" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="B24" s="13" t="n"/>
+      <c r="C24" s="11" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="12" t="n">
         <v>318</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr"/>
-      <c r="C25" s="4" t="inlineStr"/>
-      <c r="D25" t="n">
+      <c r="B25" s="10" t="inlineStr"/>
+      <c r="C25" s="11" t="inlineStr"/>
+      <c r="D25" s="15" t="n">
         <v>8036.79</v>
       </c>
     </row>
+    <row r="26">
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="12" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="17" t="n"/>
+      <c r="D27" s="12" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="12" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="12" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="12" t="n"/>
+    </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="19" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="10" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="11" t="inlineStr">
         <is>
           <t>Cantina</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="12" t="n">
         <v>1452.46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="B33" s="14" t="n"/>
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>Computer</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="12" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="n"/>
-      <c r="B34" s="6" t="n"/>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="B34" s="14" t="n"/>
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t>Ferramenta</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="12" t="n">
         <v>512.58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="n"/>
-      <c r="B35" s="6" t="n"/>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="B35" s="14" t="n"/>
+      <c r="C35" s="11" t="inlineStr">
         <is>
           <t>Materiale edile</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="12" t="n">
         <v>1910</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="n"/>
-      <c r="B36" s="5" t="n"/>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="B36" s="13" t="n"/>
+      <c r="C36" s="11" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="12" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="n"/>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="12" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="n"/>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="11" t="inlineStr">
         <is>
           <t>Abbonamenti</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="12" t="n">
         <v>82.04000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="n"/>
-      <c r="B39" s="5" t="n"/>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="B39" s="13" t="n"/>
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>Libri</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="12" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="n"/>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="11" t="inlineStr">
         <is>
           <t>Beneficenza 5%</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="12" t="n">
         <v>2475</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="n"/>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="10" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="11" t="inlineStr">
         <is>
           <t>ENEL</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="12" t="n">
         <v>1179.12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="n"/>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B42" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C42" s="11" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="12" t="n">
         <v>917.17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="n"/>
-      <c r="B43" s="5" t="n"/>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="B43" s="13" t="n"/>
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="12" t="n">
         <v>8.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="n"/>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B44" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C44" s="11" t="inlineStr">
         <is>
           <t>Detersivi</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="12" t="n">
         <v>9.65</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="n"/>
-      <c r="B45" s="5" t="n"/>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="B45" s="13" t="n"/>
+      <c r="C45" s="11" t="inlineStr">
         <is>
           <t>Igiene personale</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="12" t="n">
         <v>8.800000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="n"/>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C46" s="11" t="inlineStr">
         <is>
           <t>Canone RAI</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="12" t="n">
         <v>203.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="n"/>
-      <c r="B47" s="5" t="n"/>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="B47" s="13" t="n"/>
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="12" t="n">
         <v>12.45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="n"/>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B48" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C48" s="11" t="inlineStr">
         <is>
           <t>TELECOM</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="12" t="n">
         <v>219</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="n"/>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C49" s="11" t="inlineStr">
         <is>
           <t>Bollo Auto</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="12" t="n">
         <v>105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="n"/>
-      <c r="B50" s="5" t="n"/>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="B50" s="13" t="n"/>
+      <c r="C50" s="11" t="inlineStr">
         <is>
           <t>Meccanico</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="12" t="n">
         <v>220</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="n"/>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B51" s="10" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C51" s="11" t="inlineStr">
         <is>
           <t>Indumenti</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="12" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="n"/>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="B52" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C52" s="11" t="inlineStr">
         <is>
           <t>Alimentari</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="12" t="n">
         <v>248.66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="n"/>
-      <c r="B53" s="6" t="n"/>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="B53" s="14" t="n"/>
+      <c r="C53" s="11" t="inlineStr">
         <is>
           <t>Bibite e gelati</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="12" t="n">
         <v>10.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="n"/>
-      <c r="B54" s="6" t="n"/>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="B54" s="14" t="n"/>
+      <c r="C54" s="11" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="12" t="n">
         <v>305.45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="n"/>
-      <c r="B55" s="6" t="n"/>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="B55" s="14" t="n"/>
+      <c r="C55" s="11" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="12" t="n">
         <v>101.94</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="5" t="n"/>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="B56" s="13" t="n"/>
+      <c r="C56" s="11" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="12" t="n">
         <v>49.1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="A57" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr"/>
-      <c r="C57" s="4" t="inlineStr"/>
-      <c r="D57" t="n">
+      <c r="B57" s="10" t="inlineStr"/>
+      <c r="C57" s="11" t="inlineStr"/>
+      <c r="D57" s="15" t="n">
         <v>11009.92</v>
       </c>
     </row>
@@ -4331,687 +5074,701 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="12" t="n">
         <v>553</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n"/>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>Congrua fra Giacomo</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="12" t="n">
         <v>1060.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n"/>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="B9" s="14" t="n"/>
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="12" t="n">
         <v>1028.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="n"/>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>Congrua fra Mariano</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="12" t="n">
         <v>1044.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n"/>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>Accoglienza</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="12" t="n">
         <v>490</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="B12" s="14" t="n"/>
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="12" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>Offerte libere</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="12" t="n">
         <v>405</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="n"/>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="12" t="n">
         <v>638</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="B15" s="14" t="n"/>
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="12" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="B16" s="14" t="n"/>
+      <c r="C16" s="11" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="12" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="B17" s="13" t="n"/>
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="12" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="n"/>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="10" t="inlineStr">
         <is>
           <t>Predicazione</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>Tridui</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="12" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n"/>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="12" t="n">
         <v>116.26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="n"/>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="B20" s="14" t="n"/>
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>Occhiali</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="12" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="n"/>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>Ticket - esami</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="12" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="n"/>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="12" t="n">
         <v>540</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n"/>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="B23" s="13" t="n"/>
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="12" t="n">
         <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="n"/>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="11" t="inlineStr">
         <is>
           <t>Marmellata</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="12" t="n">
         <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="B25" s="14" t="n"/>
+      <c r="C25" s="11" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="12" t="n">
         <v>1900</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="B26" s="14" t="n"/>
+      <c r="C26" s="11" t="inlineStr">
         <is>
           <t>Pasta</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="12" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="5" t="n"/>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="B27" s="13" t="n"/>
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="12" t="n">
         <v>405.4</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr"/>
-      <c r="C28" s="4" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="B28" s="10" t="inlineStr"/>
+      <c r="C28" s="11" t="inlineStr"/>
+      <c r="D28" s="15" t="n">
         <v>10704.95</v>
       </c>
     </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="12" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="12" t="n"/>
+    </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="19" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="10" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="11" t="inlineStr">
         <is>
           <t>Casalinghi</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="12" t="n">
         <v>152</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="B33" s="14" t="n"/>
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>Ferramenta</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="12" t="n">
         <v>322.58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="n"/>
-      <c r="B34" s="5" t="n"/>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="B34" s="13" t="n"/>
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="12" t="n">
         <v>9.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="n"/>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="11" t="inlineStr">
         <is>
           <t>Libri</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="12" t="n">
         <v>141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="n"/>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="11" t="inlineStr">
         <is>
           <t>Beneficenza 5%</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="12" t="n">
         <v>1200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="n"/>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>ENEL</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="12" t="n">
         <v>1055.74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="n"/>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="11" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="12" t="n">
         <v>1539.39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="n"/>
-      <c r="B39" s="5" t="n"/>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="B39" s="13" t="n"/>
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="12" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="n"/>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="11" t="inlineStr">
         <is>
           <t>Lavanderia</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="12" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="n"/>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="11" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="12" t="n">
         <v>5.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="n"/>
-      <c r="B42" s="5" t="n"/>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="B42" s="13" t="n"/>
+      <c r="C42" s="11" t="inlineStr">
         <is>
           <t>Imposte varie</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="12" t="n">
         <v>18.59</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="n"/>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B43" s="10" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>Boscaiolo</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="12" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="n"/>
-      <c r="B44" s="6" t="n"/>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="B44" s="14" t="n"/>
+      <c r="C44" s="11" t="inlineStr">
         <is>
           <t>Edif illuminazione</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="12" t="n">
         <v>4499.59</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="n"/>
-      <c r="B45" s="5" t="n"/>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="B45" s="13" t="n"/>
+      <c r="C45" s="11" t="inlineStr">
         <is>
           <t>Restauratore</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="12" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="n"/>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C46" s="11" t="inlineStr">
         <is>
           <t>Cancelleria</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="12" t="n">
         <v>19.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="n"/>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="B47" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t>Meccanico</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="12" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="n"/>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B48" s="10" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C48" s="11" t="inlineStr">
         <is>
           <t>Sandali - scarpe</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="12" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="n"/>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C49" s="11" t="inlineStr">
         <is>
           <t>Alimentari</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="12" t="n">
         <v>954.62</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="n"/>
-      <c r="B50" s="6" t="n"/>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="B50" s="14" t="n"/>
+      <c r="C50" s="11" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="12" t="n">
         <v>615.72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="n"/>
-      <c r="B51" s="6" t="n"/>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="B51" s="14" t="n"/>
+      <c r="C51" s="11" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="12" t="n">
         <v>274.83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="n"/>
-      <c r="B52" s="6" t="n"/>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="B52" s="14" t="n"/>
+      <c r="C52" s="11" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="12" t="n">
         <v>175.26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="n"/>
-      <c r="B53" s="6" t="n"/>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="B53" s="14" t="n"/>
+      <c r="C53" s="11" t="inlineStr">
         <is>
           <t>Pane, Uova, Farina</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="12" t="n">
         <v>382.95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="5" t="n"/>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="B54" s="13" t="n"/>
+      <c r="C54" s="11" t="inlineStr">
         <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="12" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="A55" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr"/>
-      <c r="C55" s="4" t="inlineStr"/>
-      <c r="D55" t="n">
+      <c r="B55" s="10" t="inlineStr"/>
+      <c r="C55" s="11" t="inlineStr"/>
+      <c r="D55" s="15" t="n">
         <v>14659.87</v>
       </c>
     </row>
@@ -5063,787 +5820,806 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="12" t="n">
         <v>625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n"/>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>Congrua fra Giacomo</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="12" t="n">
         <v>953.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="12" t="n">
         <v>924.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="n"/>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="12" t="n">
         <v>44.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n"/>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>Accoglienza</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="12" t="n">
         <v>410</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="B12" s="14" t="n"/>
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>Benedizione case</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="12" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="n"/>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="B13" s="14" t="n"/>
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>Frittate</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="12" t="n">
         <v>638.5700000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="n"/>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="B14" s="13" t="n"/>
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>Offerte libere</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="12" t="n">
         <v>2178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="n"/>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="12" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="B16" s="14" t="n"/>
+      <c r="C16" s="11" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="12" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="n"/>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="B17" s="14" t="n"/>
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="12" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="n"/>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="12" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n"/>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="10" t="inlineStr">
         <is>
           <t>Predicazione</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>Tridui</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="12" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="n"/>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="12" t="n">
         <v>81.61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="n"/>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>Ticket - esami</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="12" t="n">
         <v>66.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="n"/>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="12" t="n">
         <v>700</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n"/>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="B23" s="13" t="n"/>
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="12" t="n">
         <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="n"/>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="11" t="inlineStr">
         <is>
           <t>Marmellata</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="12" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="B25" s="14" t="n"/>
+      <c r="C25" s="11" t="inlineStr">
         <is>
           <t>Pasta</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="12" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n"/>
-      <c r="B26" s="5" t="n"/>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="11" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="12" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr"/>
-      <c r="C27" s="4" t="inlineStr"/>
-      <c r="D27" t="n">
+      <c r="B27" s="10" t="inlineStr"/>
+      <c r="C27" s="11" t="inlineStr"/>
+      <c r="D27" s="15" t="n">
         <v>11005.57</v>
       </c>
     </row>
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="12" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="12" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="12" t="n"/>
+    </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="19" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="10" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="11" t="inlineStr">
         <is>
           <t>Casalinghi</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="12" t="n">
         <v>152.94</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="B33" s="14" t="n"/>
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>Computer</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="12" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="n"/>
-      <c r="B34" s="6" t="n"/>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="B34" s="14" t="n"/>
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t>Ferramenta</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="12" t="n">
         <v>665.97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="n"/>
-      <c r="B35" s="6" t="n"/>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="B35" s="14" t="n"/>
+      <c r="C35" s="11" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="12" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="n"/>
-      <c r="B36" s="5" t="n"/>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="B36" s="13" t="n"/>
+      <c r="C36" s="11" t="inlineStr">
         <is>
           <t>Offerte p.Orazio Capitolo</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="12" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="n"/>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>Ceri e Candele</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="12" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="n"/>
-      <c r="B38" s="5" t="n"/>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="B38" s="13" t="n"/>
+      <c r="C38" s="11" t="inlineStr">
         <is>
           <t>Fiori</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="12" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="n"/>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>Gasolio agricolo</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="12" t="n">
         <v>564.4299999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="n"/>
-      <c r="B40" s="5" t="n"/>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="B40" s="13" t="n"/>
+      <c r="C40" s="11" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="12" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="n"/>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="11" t="inlineStr">
         <is>
           <t>Convegno Novizi</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="12" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="n"/>
-      <c r="B42" s="5" t="n"/>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="B42" s="13" t="n"/>
+      <c r="C42" s="11" t="inlineStr">
         <is>
           <t>Libri</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="12" t="n">
         <v>68.59999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="n"/>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B43" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>Beneficenza 5%</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="12" t="n">
         <v>870</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="n"/>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B44" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C44" s="11" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="12" t="n">
         <v>953.47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="n"/>
-      <c r="B45" s="5" t="n"/>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="B45" s="13" t="n"/>
+      <c r="C45" s="11" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="12" t="n">
         <v>14.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="n"/>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C46" s="11" t="inlineStr">
         <is>
           <t>Detersivi</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="12" t="n">
         <v>137</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="n"/>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="B47" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="12" t="n">
         <v>48.85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="n"/>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B48" s="10" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C48" s="11" t="inlineStr">
         <is>
           <t>Muratore</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="12" t="n">
         <v>30000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="n"/>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C49" s="11" t="inlineStr">
         <is>
           <t>Cancelleria</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="12" t="n">
         <v>50.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="n"/>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B50" s="10" t="inlineStr">
         <is>
           <t>Rimborsi</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C50" s="11" t="inlineStr">
         <is>
           <t>Diaria Novizi (manca umbria)</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="12" t="n">
         <v>3600</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="n"/>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B51" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C51" s="11" t="inlineStr">
         <is>
           <t>Fidoka istallazione +abbonam. 13 mesi</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="12" t="n">
         <v>756</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="n"/>
-      <c r="B52" s="5" t="n"/>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="B52" s="13" t="n"/>
+      <c r="C52" s="11" t="inlineStr">
         <is>
           <t>TELECOM</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="12" t="n">
         <v>212.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="n"/>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B53" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C53" s="11" t="inlineStr">
         <is>
           <t>Elettrauto</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="12" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="n"/>
-      <c r="B54" s="6" t="n"/>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="B54" s="14" t="n"/>
+      <c r="C54" s="11" t="inlineStr">
         <is>
           <t>Meccanico</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="12" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="n"/>
-      <c r="B55" s="5" t="n"/>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="B55" s="13" t="n"/>
+      <c r="C55" s="11" t="inlineStr">
         <is>
           <t>Pompista</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="12" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="n"/>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B56" s="10" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="C56" s="11" t="inlineStr">
         <is>
           <t>Indumenti</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="12" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="n"/>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B57" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="C57" s="11" t="inlineStr">
         <is>
           <t>Alimentari</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="12" t="n">
         <v>376.35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="n"/>
-      <c r="B58" s="6" t="n"/>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="11" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="12" t="n">
         <v>540.4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="11" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="12" t="n">
         <v>141.81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="n"/>
-      <c r="B60" s="6" t="n"/>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="11" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="12" t="n">
         <v>137.18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="n"/>
-      <c r="B61" s="6" t="n"/>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="B61" s="14" t="n"/>
+      <c r="C61" s="11" t="inlineStr">
         <is>
           <t>Pane, Uova, Farina</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="12" t="n">
         <v>90.91</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="5" t="n"/>
-      <c r="C62" s="4" t="inlineStr">
+      <c r="B62" s="13" t="n"/>
+      <c r="C62" s="11" t="inlineStr">
         <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="12" t="n">
         <v>70.08</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="inlineStr">
+      <c r="A63" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B63" s="4" t="inlineStr"/>
-      <c r="C63" s="4" t="inlineStr"/>
-      <c r="D63" t="n">
+      <c r="B63" s="10" t="inlineStr"/>
+      <c r="C63" s="11" t="inlineStr"/>
+      <c r="D63" s="15" t="n">
         <v>40500.99</v>
       </c>
     </row>
@@ -5898,683 +6674,717 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="12" t="n">
         <v>492</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n"/>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>Congrua fra Giacomo</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="12" t="n">
         <v>1060.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="12" t="n">
         <v>1028.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="n"/>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>Eredità</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="12" t="n">
         <v>18316.93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n"/>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>Frittate</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="12" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="B12" s="14" t="n"/>
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="12" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>Offerte libere</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="12" t="n">
         <v>185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="n"/>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="12" t="n">
         <v>638</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="B15" s="14" t="n"/>
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="12" t="n">
         <v>638</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="B16" s="14" t="n"/>
+      <c r="C16" s="11" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="12" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="B17" s="13" t="n"/>
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="12" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="n"/>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="10" t="inlineStr">
         <is>
           <t>Predicazione</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>Feste Triennali</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="12" t="n">
         <v>700</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n"/>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="12" t="n">
         <v>193.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="n"/>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="12" t="n">
         <v>770</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="n"/>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="12" t="n">
         <v>260</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="n"/>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t>Marmellata</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="12" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="B23" s="13" t="n"/>
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="12" t="n">
         <v>190.3</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr"/>
-      <c r="C24" s="4" t="inlineStr"/>
-      <c r="D24" t="n">
+      <c r="B24" s="10" t="inlineStr"/>
+      <c r="C24" s="11" t="inlineStr"/>
+      <c r="D24" s="15" t="n">
         <v>25950.34</v>
       </c>
     </row>
+    <row r="25">
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="17" t="n"/>
+      <c r="D25" s="12" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="12" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="17" t="n"/>
+      <c r="D27" s="12" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="12" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="12" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="12" t="n"/>
+    </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="19" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="10" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="11" t="inlineStr">
         <is>
           <t>Casalinghi</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="12" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="n"/>
-      <c r="B33" s="5" t="n"/>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="B33" s="13" t="n"/>
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>Ferramenta</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="12" t="n">
         <v>584.05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="n"/>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="12" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="n"/>
-      <c r="B35" s="6" t="n"/>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="B35" s="14" t="n"/>
+      <c r="C35" s="11" t="inlineStr">
         <is>
           <t>Gasolio agricolo</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="12" t="n">
         <v>340</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="n"/>
-      <c r="B36" s="5" t="n"/>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="B36" s="13" t="n"/>
+      <c r="C36" s="11" t="inlineStr">
         <is>
           <t>Semi, Ortaggi</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="12" t="n">
         <v>416</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="n"/>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>Abbonamenti</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="12" t="n">
         <v>604.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="n"/>
-      <c r="B38" s="5" t="n"/>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="B38" s="13" t="n"/>
+      <c r="C38" s="11" t="inlineStr">
         <is>
           <t>Libri</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="12" t="n">
         <v>1243.37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="n"/>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>Beneficenza 5%</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="12" t="n">
         <v>696</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="n"/>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="11" t="inlineStr">
         <is>
           <t>Bar</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="12" t="n">
         <v>23.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="n"/>
-      <c r="B41" s="6" t="n"/>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="B41" s="14" t="n"/>
+      <c r="C41" s="11" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="12" t="n">
         <v>1527.51</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="n"/>
-      <c r="B42" s="5" t="n"/>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="B42" s="13" t="n"/>
+      <c r="C42" s="11" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="12" t="n">
         <v>28.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="n"/>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B43" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>Detersivi</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="12" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="n"/>
-      <c r="B44" s="6" t="n"/>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="B44" s="14" t="n"/>
+      <c r="C44" s="11" t="inlineStr">
         <is>
           <t>Igiene personale</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="12" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="n"/>
-      <c r="B45" s="5" t="n"/>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="B45" s="13" t="n"/>
+      <c r="C45" s="11" t="inlineStr">
         <is>
           <t>Lavanderia</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="12" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="n"/>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C46" s="11" t="inlineStr">
         <is>
           <t>Allarme museo</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="12" t="n">
         <v>203.34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="n"/>
-      <c r="B47" s="5" t="n"/>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="B47" s="13" t="n"/>
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t>Imposte varie</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="12" t="n">
         <v>9.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="n"/>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B48" s="10" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C48" s="11" t="inlineStr">
         <is>
           <t>Idraulico</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="12" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="n"/>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C49" s="11" t="inlineStr">
         <is>
           <t>Scheda telefonica</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="n"/>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B50" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C50" s="11" t="inlineStr">
         <is>
           <t>Bollo Auto</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="12" t="n">
         <v>263.09</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="n"/>
-      <c r="B51" s="5" t="n"/>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="B51" s="13" t="n"/>
+      <c r="C51" s="11" t="inlineStr">
         <is>
           <t>Meccanico</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="12" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="n"/>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="B52" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C52" s="11" t="inlineStr">
         <is>
           <t>Alimentari</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="12" t="n">
         <v>691.1900000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="n"/>
-      <c r="B53" s="6" t="n"/>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="B53" s="14" t="n"/>
+      <c r="C53" s="11" t="inlineStr">
         <is>
           <t>Bibite e gelati</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="12" t="n">
         <v>84.83</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="n"/>
-      <c r="B54" s="6" t="n"/>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="B54" s="14" t="n"/>
+      <c r="C54" s="11" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="12" t="n">
         <v>167.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="n"/>
-      <c r="B55" s="6" t="n"/>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="B55" s="14" t="n"/>
+      <c r="C55" s="11" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="12" t="n">
         <v>328</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="n"/>
-      <c r="B56" s="6" t="n"/>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="B56" s="14" t="n"/>
+      <c r="C56" s="11" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="12" t="n">
         <v>182.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="n"/>
-      <c r="B57" s="6" t="n"/>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="B57" s="14" t="n"/>
+      <c r="C57" s="11" t="inlineStr">
         <is>
           <t>Olio</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="12" t="n">
         <v>104.16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="5" t="n"/>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="B58" s="13" t="n"/>
+      <c r="C58" s="11" t="inlineStr">
         <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="12" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="inlineStr">
+      <c r="A59" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr"/>
-      <c r="C59" s="4" t="inlineStr"/>
-      <c r="D59" t="n">
+      <c r="B59" s="10" t="inlineStr"/>
+      <c r="C59" s="11" t="inlineStr"/>
+      <c r="D59" s="15" t="n">
         <v>9360.139999999999</v>
       </c>
     </row>
@@ -6628,331 +7438,410 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>Accoglienza</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="12" t="n">
         <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n"/>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="12" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n"/>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="B9" s="14" t="n"/>
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="12" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="n"/>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="12" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n"/>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="12" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="n"/>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="12" t="n">
         <v>7.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="n"/>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="12" t="n">
         <v>280</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="12" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr"/>
-      <c r="C15" s="4" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="B15" s="10" t="inlineStr"/>
+      <c r="C15" s="11" t="inlineStr"/>
+      <c r="D15" s="15" t="n">
         <v>3102.6</v>
       </c>
     </row>
+    <row r="16">
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="17" t="n"/>
+      <c r="D16" s="12" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="17" t="n"/>
+      <c r="D17" s="12" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="17" t="n"/>
+      <c r="D18" s="12" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="17" t="n"/>
+      <c r="D19" s="12" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="17" t="n"/>
+      <c r="D20" s="12" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="17" t="n"/>
+      <c r="D21" s="12" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="12" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="17" t="n"/>
+      <c r="D23" s="12" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="17" t="n"/>
+      <c r="D24" s="12" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="17" t="n"/>
+      <c r="D25" s="12" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="12" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="17" t="n"/>
+      <c r="D27" s="12" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="12" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="12" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="12" t="n"/>
+    </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="19" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="10" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="11" t="inlineStr">
         <is>
           <t>Ferramenta</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="12" t="n">
         <v>127.88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="B33" s="14" t="n"/>
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>Fotocopiatrice+contr.assistenza</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="12" t="n">
         <v>3050</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="n"/>
-      <c r="B34" s="5" t="n"/>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="B34" s="13" t="n"/>
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t>Materiale edile</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="12" t="n">
         <v>246.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="n"/>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="11" t="inlineStr">
         <is>
           <t>Ceri e Candele</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="12" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="n"/>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="11" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="12" t="n">
         <v>194.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="n"/>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="12" t="n">
         <v>361.82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="n"/>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="11" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="12" t="n">
         <v>6.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="n"/>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="10" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>Edif illuminazione</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="12" t="n">
         <v>565.74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="11" t="inlineStr">
         <is>
           <t>TELECOM</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="12" t="n">
         <v>185</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr"/>
-      <c r="C41" s="4" t="inlineStr"/>
-      <c r="D41" t="n">
+      <c r="B41" s="10" t="inlineStr"/>
+      <c r="C41" s="11" t="inlineStr"/>
+      <c r="D41" s="15" t="n">
         <v>4792.74</v>
       </c>
     </row>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -174,8 +174,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2763,7 +2763,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="5" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -2779,8 +2779,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="5" t="n"/>
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="6" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -2791,7 +2791,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="5" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -2807,7 +2807,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
+      <c r="A11" s="5" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -2823,8 +2823,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -2835,8 +2835,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="5" t="n"/>
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="6" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Presepio</t>
@@ -2847,7 +2847,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="5" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -2863,8 +2863,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="5" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -2875,8 +2875,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
+      <c r="A16" s="5" t="n"/>
+      <c r="B16" s="5" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -2887,8 +2887,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="5" t="n"/>
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="6" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -2899,7 +2899,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
+      <c r="A18" s="5" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -2915,8 +2915,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="5" t="n"/>
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="6" t="n"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Sanitaria</t>
@@ -2927,7 +2927,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
+      <c r="A20" s="5" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -2943,8 +2943,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="5" t="n"/>
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="6" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -2955,7 +2955,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
+      <c r="A22" s="5" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -2971,8 +2971,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
@@ -2983,8 +2983,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="n"/>
       <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Pasta</t>
@@ -2995,8 +2995,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="5" t="n"/>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -3061,8 +3061,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
+      <c r="A33" s="5" t="n"/>
+      <c r="B33" s="5" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Computer</t>
@@ -3073,8 +3073,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="6" t="n"/>
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="5" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
@@ -3085,8 +3085,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="5" t="n"/>
+      <c r="A35" s="5" t="n"/>
+      <c r="B35" s="6" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Stampante_Fotocopiatrice</t>
@@ -3097,7 +3097,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
+      <c r="A36" s="5" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -3113,7 +3113,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="5" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -3129,8 +3129,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="6" t="n"/>
+      <c r="A38" s="5" t="n"/>
+      <c r="B38" s="5" t="n"/>
       <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
@@ -3141,8 +3141,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="5" t="n"/>
+      <c r="A39" s="5" t="n"/>
+      <c r="B39" s="6" t="n"/>
       <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
@@ -3153,7 +3153,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="5" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -3169,8 +3169,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="5" t="n"/>
+      <c r="A41" s="5" t="n"/>
+      <c r="B41" s="6" t="n"/>
       <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Libri</t>
@@ -3181,7 +3181,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
+      <c r="A42" s="5" t="n"/>
       <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -3197,7 +3197,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
+      <c r="A43" s="5" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -3213,7 +3213,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
+      <c r="A44" s="5" t="n"/>
       <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -3229,8 +3229,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="5" t="n"/>
+      <c r="A45" s="5" t="n"/>
+      <c r="B45" s="6" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -3241,7 +3241,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
+      <c r="A46" s="5" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -3257,8 +3257,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="6" t="n"/>
+      <c r="A47" s="5" t="n"/>
+      <c r="B47" s="5" t="n"/>
       <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Igiene personale</t>
@@ -3269,8 +3269,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
-      <c r="B48" s="5" t="n"/>
+      <c r="A48" s="5" t="n"/>
+      <c r="B48" s="6" t="n"/>
       <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Lavanderia</t>
@@ -3281,7 +3281,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
+      <c r="A49" s="5" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -3297,8 +3297,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="5" t="n"/>
+      <c r="A50" s="5" t="n"/>
+      <c r="B50" s="6" t="n"/>
       <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Passaporto</t>
@@ -3309,7 +3309,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
+      <c r="A51" s="5" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -3325,7 +3325,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
+      <c r="A52" s="5" t="n"/>
       <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -3341,7 +3341,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
+      <c r="A53" s="5" t="n"/>
       <c r="B53" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -3357,7 +3357,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
+      <c r="A54" s="5" t="n"/>
       <c r="B54" s="4" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -3373,7 +3373,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
+      <c r="A55" s="5" t="n"/>
       <c r="B55" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -3389,8 +3389,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
-      <c r="B56" s="6" t="n"/>
+      <c r="A56" s="5" t="n"/>
+      <c r="B56" s="5" t="n"/>
       <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Bartolazzi</t>
@@ -3401,8 +3401,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n"/>
-      <c r="B57" s="6" t="n"/>
+      <c r="A57" s="5" t="n"/>
+      <c r="B57" s="5" t="n"/>
       <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -3413,8 +3413,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n"/>
-      <c r="B58" s="6" t="n"/>
+      <c r="A58" s="5" t="n"/>
+      <c r="B58" s="5" t="n"/>
       <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -3425,8 +3425,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
+      <c r="A59" s="5" t="n"/>
+      <c r="B59" s="5" t="n"/>
       <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -3437,8 +3437,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="n"/>
-      <c r="B60" s="5" t="n"/>
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
       <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
@@ -3556,7 +3556,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="5" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -3572,7 +3572,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
+      <c r="A9" s="5" t="n"/>
       <c r="B9" s="13" t="n"/>
       <c r="C9" s="11" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="5" t="n"/>
       <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -3600,7 +3600,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
+      <c r="A11" s="5" t="n"/>
       <c r="B11" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -3616,7 +3616,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
+      <c r="A12" s="5" t="n"/>
       <c r="B12" s="14" t="n"/>
       <c r="C12" s="11" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
+      <c r="A13" s="5" t="n"/>
       <c r="B13" s="13" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="5" t="n"/>
       <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -3656,7 +3656,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
+      <c r="A15" s="5" t="n"/>
       <c r="B15" s="14" t="n"/>
       <c r="C15" s="11" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
+      <c r="A16" s="5" t="n"/>
       <c r="B16" s="14" t="n"/>
       <c r="C16" s="11" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
+      <c r="A17" s="5" t="n"/>
       <c r="B17" s="13" t="n"/>
       <c r="C17" s="11" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
+      <c r="A18" s="5" t="n"/>
       <c r="B18" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -3708,7 +3708,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
+      <c r="A19" s="5" t="n"/>
       <c r="B19" s="13" t="n"/>
       <c r="C19" s="11" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
+      <c r="A20" s="5" t="n"/>
       <c r="B20" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -3736,7 +3736,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
+      <c r="A21" s="5" t="n"/>
       <c r="B21" s="13" t="n"/>
       <c r="C21" s="11" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
+      <c r="A22" s="5" t="n"/>
       <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -3764,7 +3764,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
+      <c r="A23" s="5" t="n"/>
       <c r="B23" s="14" t="n"/>
       <c r="C23" s="11" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
+      <c r="A24" s="5" t="n"/>
       <c r="B24" s="14" t="n"/>
       <c r="C24" s="11" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
+      <c r="A25" s="6" t="n"/>
       <c r="B25" s="13" t="n"/>
       <c r="C25" s="11" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
+      <c r="A33" s="5" t="n"/>
       <c r="B33" s="14" t="n"/>
       <c r="C33" s="11" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
+      <c r="A34" s="5" t="n"/>
       <c r="B34" s="14" t="n"/>
       <c r="C34" s="11" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
+      <c r="A35" s="5" t="n"/>
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="11" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
+      <c r="A36" s="5" t="n"/>
       <c r="B36" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -3926,7 +3926,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="5" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -3942,7 +3942,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
+      <c r="A38" s="5" t="n"/>
       <c r="B38" s="14" t="n"/>
       <c r="C38" s="11" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
+      <c r="A39" s="5" t="n"/>
       <c r="B39" s="13" t="n"/>
       <c r="C39" s="11" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="5" t="n"/>
       <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -3982,7 +3982,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
+      <c r="A41" s="5" t="n"/>
       <c r="B41" s="13" t="n"/>
       <c r="C41" s="11" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
+      <c r="A42" s="5" t="n"/>
       <c r="B42" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -4010,7 +4010,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
+      <c r="A43" s="5" t="n"/>
       <c r="B43" s="10" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -4026,7 +4026,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
+      <c r="A44" s="5" t="n"/>
       <c r="B44" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -4042,7 +4042,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
+      <c r="A45" s="5" t="n"/>
       <c r="B45" s="13" t="n"/>
       <c r="C45" s="11" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
+      <c r="A46" s="5" t="n"/>
       <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -4070,7 +4070,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
+      <c r="A47" s="5" t="n"/>
       <c r="B47" s="14" t="n"/>
       <c r="C47" s="11" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
+      <c r="A48" s="5" t="n"/>
       <c r="B48" s="13" t="n"/>
       <c r="C48" s="11" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
+      <c r="A49" s="5" t="n"/>
       <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -4110,7 +4110,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
+      <c r="A50" s="5" t="n"/>
       <c r="B50" s="13" t="n"/>
       <c r="C50" s="11" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
+      <c r="A51" s="5" t="n"/>
       <c r="B51" s="10" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -4138,7 +4138,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
+      <c r="A52" s="5" t="n"/>
       <c r="B52" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -4154,7 +4154,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
+      <c r="A53" s="5" t="n"/>
       <c r="B53" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -4170,7 +4170,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
+      <c r="A54" s="5" t="n"/>
       <c r="B54" s="10" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -4186,7 +4186,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
+      <c r="A55" s="5" t="n"/>
       <c r="B55" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -4202,7 +4202,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
+      <c r="A56" s="5" t="n"/>
       <c r="B56" s="14" t="n"/>
       <c r="C56" s="11" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n"/>
+      <c r="A57" s="5" t="n"/>
       <c r="B57" s="14" t="n"/>
       <c r="C57" s="11" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n"/>
+      <c r="A58" s="5" t="n"/>
       <c r="B58" s="14" t="n"/>
       <c r="C58" s="11" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n"/>
+      <c r="A59" s="5" t="n"/>
       <c r="B59" s="14" t="n"/>
       <c r="C59" s="11" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="n"/>
+      <c r="A60" s="6" t="n"/>
       <c r="B60" s="13" t="n"/>
       <c r="C60" s="11" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="5" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -4386,7 +4386,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
+      <c r="A9" s="5" t="n"/>
       <c r="B9" s="13" t="n"/>
       <c r="C9" s="11" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="5" t="n"/>
       <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -4414,7 +4414,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
+      <c r="A11" s="5" t="n"/>
       <c r="B11" s="14" t="n"/>
       <c r="C11" s="11" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
+      <c r="A12" s="5" t="n"/>
       <c r="B12" s="14" t="n"/>
       <c r="C12" s="11" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
+      <c r="A13" s="5" t="n"/>
       <c r="B13" s="13" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="5" t="n"/>
       <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -4466,7 +4466,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
+      <c r="A15" s="5" t="n"/>
       <c r="B15" s="14" t="n"/>
       <c r="C15" s="11" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
+      <c r="A16" s="5" t="n"/>
       <c r="B16" s="14" t="n"/>
       <c r="C16" s="11" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
+      <c r="A17" s="5" t="n"/>
       <c r="B17" s="13" t="n"/>
       <c r="C17" s="11" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
+      <c r="A18" s="5" t="n"/>
       <c r="B18" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -4518,7 +4518,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
+      <c r="A19" s="5" t="n"/>
       <c r="B19" s="13" t="n"/>
       <c r="C19" s="11" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
+      <c r="A20" s="5" t="n"/>
       <c r="B20" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -4546,7 +4546,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
+      <c r="A21" s="5" t="n"/>
       <c r="B21" s="13" t="n"/>
       <c r="C21" s="11" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
+      <c r="A22" s="5" t="n"/>
       <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Sussidi</t>
@@ -4574,7 +4574,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
+      <c r="A23" s="5" t="n"/>
       <c r="B23" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -4590,7 +4590,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n"/>
+      <c r="A24" s="6" t="n"/>
       <c r="B24" s="13" t="n"/>
       <c r="C24" s="11" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
+      <c r="A33" s="5" t="n"/>
       <c r="B33" s="14" t="n"/>
       <c r="C33" s="11" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
+      <c r="A34" s="5" t="n"/>
       <c r="B34" s="14" t="n"/>
       <c r="C34" s="11" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
+      <c r="A35" s="5" t="n"/>
       <c r="B35" s="14" t="n"/>
       <c r="C35" s="11" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
+      <c r="A36" s="5" t="n"/>
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="11" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="5" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -4745,7 +4745,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
+      <c r="A38" s="5" t="n"/>
       <c r="B38" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -4761,7 +4761,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
+      <c r="A39" s="5" t="n"/>
       <c r="B39" s="13" t="n"/>
       <c r="C39" s="11" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="5" t="n"/>
       <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -4789,7 +4789,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
+      <c r="A41" s="5" t="n"/>
       <c r="B41" s="10" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -4805,7 +4805,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
+      <c r="A42" s="5" t="n"/>
       <c r="B42" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -4821,7 +4821,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
+      <c r="A43" s="5" t="n"/>
       <c r="B43" s="13" t="n"/>
       <c r="C43" s="11" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
+      <c r="A44" s="5" t="n"/>
       <c r="B44" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -4849,7 +4849,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
+      <c r="A45" s="5" t="n"/>
       <c r="B45" s="13" t="n"/>
       <c r="C45" s="11" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
+      <c r="A46" s="5" t="n"/>
       <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -4877,7 +4877,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
+      <c r="A47" s="5" t="n"/>
       <c r="B47" s="13" t="n"/>
       <c r="C47" s="11" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
+      <c r="A48" s="5" t="n"/>
       <c r="B48" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -4905,7 +4905,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
+      <c r="A49" s="5" t="n"/>
       <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -4921,7 +4921,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
+      <c r="A50" s="5" t="n"/>
       <c r="B50" s="13" t="n"/>
       <c r="C50" s="11" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
+      <c r="A51" s="5" t="n"/>
       <c r="B51" s="10" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -4949,7 +4949,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
+      <c r="A52" s="5" t="n"/>
       <c r="B52" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -4965,7 +4965,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
+      <c r="A53" s="5" t="n"/>
       <c r="B53" s="14" t="n"/>
       <c r="C53" s="11" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
+      <c r="A54" s="5" t="n"/>
       <c r="B54" s="14" t="n"/>
       <c r="C54" s="11" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
+      <c r="A55" s="5" t="n"/>
       <c r="B55" s="14" t="n"/>
       <c r="C55" s="11" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n"/>
+      <c r="A56" s="6" t="n"/>
       <c r="B56" s="13" t="n"/>
       <c r="C56" s="11" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="5" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -5137,7 +5137,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
+      <c r="A9" s="5" t="n"/>
       <c r="B9" s="14" t="n"/>
       <c r="C9" s="11" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="5" t="n"/>
       <c r="B10" s="13" t="n"/>
       <c r="C10" s="11" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
+      <c r="A11" s="5" t="n"/>
       <c r="B11" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -5177,7 +5177,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
+      <c r="A12" s="5" t="n"/>
       <c r="B12" s="14" t="n"/>
       <c r="C12" s="11" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
+      <c r="A13" s="5" t="n"/>
       <c r="B13" s="13" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="5" t="n"/>
       <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -5217,7 +5217,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
+      <c r="A15" s="5" t="n"/>
       <c r="B15" s="14" t="n"/>
       <c r="C15" s="11" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
+      <c r="A16" s="5" t="n"/>
       <c r="B16" s="14" t="n"/>
       <c r="C16" s="11" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
+      <c r="A17" s="5" t="n"/>
       <c r="B17" s="13" t="n"/>
       <c r="C17" s="11" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
+      <c r="A18" s="5" t="n"/>
       <c r="B18" s="10" t="inlineStr">
         <is>
           <t>Predicazione</t>
@@ -5269,7 +5269,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
+      <c r="A19" s="5" t="n"/>
       <c r="B19" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -5285,7 +5285,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
+      <c r="A20" s="5" t="n"/>
       <c r="B20" s="14" t="n"/>
       <c r="C20" s="11" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
+      <c r="A21" s="5" t="n"/>
       <c r="B21" s="13" t="n"/>
       <c r="C21" s="11" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
+      <c r="A22" s="5" t="n"/>
       <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -5325,7 +5325,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
+      <c r="A23" s="5" t="n"/>
       <c r="B23" s="13" t="n"/>
       <c r="C23" s="11" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
+      <c r="A24" s="5" t="n"/>
       <c r="B24" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -5353,7 +5353,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
+      <c r="A25" s="5" t="n"/>
       <c r="B25" s="14" t="n"/>
       <c r="C25" s="11" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n"/>
+      <c r="A26" s="5" t="n"/>
       <c r="B26" s="14" t="n"/>
       <c r="C26" s="11" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
+      <c r="A27" s="6" t="n"/>
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="11" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
+      <c r="A33" s="5" t="n"/>
       <c r="B33" s="14" t="n"/>
       <c r="C33" s="11" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
+      <c r="A34" s="5" t="n"/>
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="11" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
+      <c r="A35" s="5" t="n"/>
       <c r="B35" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -5493,7 +5493,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
+      <c r="A36" s="5" t="n"/>
       <c r="B36" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -5509,7 +5509,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="5" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -5525,7 +5525,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
+      <c r="A38" s="5" t="n"/>
       <c r="B38" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -5541,7 +5541,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
+      <c r="A39" s="5" t="n"/>
       <c r="B39" s="13" t="n"/>
       <c r="C39" s="11" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="5" t="n"/>
       <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -5569,7 +5569,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
+      <c r="A41" s="5" t="n"/>
       <c r="B41" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -5585,7 +5585,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
+      <c r="A42" s="5" t="n"/>
       <c r="B42" s="13" t="n"/>
       <c r="C42" s="11" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
+      <c r="A43" s="5" t="n"/>
       <c r="B43" s="10" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -5613,7 +5613,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
+      <c r="A44" s="5" t="n"/>
       <c r="B44" s="14" t="n"/>
       <c r="C44" s="11" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
+      <c r="A45" s="5" t="n"/>
       <c r="B45" s="13" t="n"/>
       <c r="C45" s="11" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
+      <c r="A46" s="5" t="n"/>
       <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -5653,7 +5653,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
+      <c r="A47" s="5" t="n"/>
       <c r="B47" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -5669,7 +5669,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
+      <c r="A48" s="5" t="n"/>
       <c r="B48" s="10" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -5685,7 +5685,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
+      <c r="A49" s="5" t="n"/>
       <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -5701,7 +5701,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
+      <c r="A50" s="5" t="n"/>
       <c r="B50" s="14" t="n"/>
       <c r="C50" s="11" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
+      <c r="A51" s="5" t="n"/>
       <c r="B51" s="14" t="n"/>
       <c r="C51" s="11" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
+      <c r="A52" s="5" t="n"/>
       <c r="B52" s="14" t="n"/>
       <c r="C52" s="11" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
+      <c r="A53" s="5" t="n"/>
       <c r="B53" s="14" t="n"/>
       <c r="C53" s="11" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n"/>
+      <c r="A54" s="6" t="n"/>
       <c r="B54" s="13" t="n"/>
       <c r="C54" s="11" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="5" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -5883,7 +5883,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
+      <c r="A9" s="5" t="n"/>
       <c r="B9" s="13" t="n"/>
       <c r="C9" s="11" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="5" t="n"/>
       <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -5911,7 +5911,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
+      <c r="A11" s="5" t="n"/>
       <c r="B11" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -5927,7 +5927,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
+      <c r="A12" s="5" t="n"/>
       <c r="B12" s="14" t="n"/>
       <c r="C12" s="11" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
+      <c r="A13" s="5" t="n"/>
       <c r="B13" s="14" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="5" t="n"/>
       <c r="B14" s="13" t="n"/>
       <c r="C14" s="11" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
+      <c r="A15" s="5" t="n"/>
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -5979,7 +5979,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
+      <c r="A16" s="5" t="n"/>
       <c r="B16" s="14" t="n"/>
       <c r="C16" s="11" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
+      <c r="A17" s="5" t="n"/>
       <c r="B17" s="14" t="n"/>
       <c r="C17" s="11" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
+      <c r="A18" s="5" t="n"/>
       <c r="B18" s="13" t="n"/>
       <c r="C18" s="11" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
+      <c r="A19" s="5" t="n"/>
       <c r="B19" s="10" t="inlineStr">
         <is>
           <t>Predicazione</t>
@@ -6031,7 +6031,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
+      <c r="A20" s="5" t="n"/>
       <c r="B20" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -6047,7 +6047,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
+      <c r="A21" s="5" t="n"/>
       <c r="B21" s="13" t="n"/>
       <c r="C21" s="11" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
+      <c r="A22" s="5" t="n"/>
       <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -6075,7 +6075,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
+      <c r="A23" s="5" t="n"/>
       <c r="B23" s="13" t="n"/>
       <c r="C23" s="11" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
+      <c r="A24" s="5" t="n"/>
       <c r="B24" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -6103,7 +6103,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
+      <c r="A25" s="5" t="n"/>
       <c r="B25" s="14" t="n"/>
       <c r="C25" s="11" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n"/>
+      <c r="A26" s="6" t="n"/>
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="11" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
+      <c r="A33" s="5" t="n"/>
       <c r="B33" s="14" t="n"/>
       <c r="C33" s="11" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
+      <c r="A34" s="5" t="n"/>
       <c r="B34" s="14" t="n"/>
       <c r="C34" s="11" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
+      <c r="A35" s="5" t="n"/>
       <c r="B35" s="14" t="n"/>
       <c r="C35" s="11" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
+      <c r="A36" s="5" t="n"/>
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="11" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="5" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -6260,7 +6260,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
+      <c r="A38" s="5" t="n"/>
       <c r="B38" s="13" t="n"/>
       <c r="C38" s="11" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
+      <c r="A39" s="5" t="n"/>
       <c r="B39" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -6288,7 +6288,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="5" t="n"/>
       <c r="B40" s="13" t="n"/>
       <c r="C40" s="11" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
+      <c r="A41" s="5" t="n"/>
       <c r="B41" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -6316,7 +6316,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
+      <c r="A42" s="5" t="n"/>
       <c r="B42" s="13" t="n"/>
       <c r="C42" s="11" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
+      <c r="A43" s="5" t="n"/>
       <c r="B43" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -6344,7 +6344,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
+      <c r="A44" s="5" t="n"/>
       <c r="B44" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -6360,7 +6360,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
+      <c r="A45" s="5" t="n"/>
       <c r="B45" s="13" t="n"/>
       <c r="C45" s="11" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
+      <c r="A46" s="5" t="n"/>
       <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -6388,7 +6388,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
+      <c r="A47" s="5" t="n"/>
       <c r="B47" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -6404,7 +6404,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
+      <c r="A48" s="5" t="n"/>
       <c r="B48" s="10" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -6420,7 +6420,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
+      <c r="A49" s="5" t="n"/>
       <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -6436,7 +6436,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
+      <c r="A50" s="5" t="n"/>
       <c r="B50" s="10" t="inlineStr">
         <is>
           <t>Rimborsi</t>
@@ -6452,7 +6452,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
+      <c r="A51" s="5" t="n"/>
       <c r="B51" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -6468,7 +6468,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
+      <c r="A52" s="5" t="n"/>
       <c r="B52" s="13" t="n"/>
       <c r="C52" s="11" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
+      <c r="A53" s="5" t="n"/>
       <c r="B53" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -6496,7 +6496,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
+      <c r="A54" s="5" t="n"/>
       <c r="B54" s="14" t="n"/>
       <c r="C54" s="11" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
+      <c r="A55" s="5" t="n"/>
       <c r="B55" s="13" t="n"/>
       <c r="C55" s="11" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
+      <c r="A56" s="5" t="n"/>
       <c r="B56" s="10" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -6536,7 +6536,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n"/>
+      <c r="A57" s="5" t="n"/>
       <c r="B57" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -6552,7 +6552,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n"/>
+      <c r="A58" s="5" t="n"/>
       <c r="B58" s="14" t="n"/>
       <c r="C58" s="11" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n"/>
+      <c r="A59" s="5" t="n"/>
       <c r="B59" s="14" t="n"/>
       <c r="C59" s="11" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n"/>
+      <c r="A60" s="5" t="n"/>
       <c r="B60" s="14" t="n"/>
       <c r="C60" s="11" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="n"/>
+      <c r="A61" s="5" t="n"/>
       <c r="B61" s="14" t="n"/>
       <c r="C61" s="11" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="n"/>
+      <c r="A62" s="6" t="n"/>
       <c r="B62" s="13" t="n"/>
       <c r="C62" s="11" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="5" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -6737,7 +6737,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
+      <c r="A9" s="5" t="n"/>
       <c r="B9" s="13" t="n"/>
       <c r="C9" s="11" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="5" t="n"/>
       <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -6765,7 +6765,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
+      <c r="A11" s="5" t="n"/>
       <c r="B11" s="14" t="n"/>
       <c r="C11" s="11" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
+      <c r="A12" s="5" t="n"/>
       <c r="B12" s="14" t="n"/>
       <c r="C12" s="11" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
+      <c r="A13" s="5" t="n"/>
       <c r="B13" s="13" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="5" t="n"/>
       <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -6817,7 +6817,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
+      <c r="A15" s="5" t="n"/>
       <c r="B15" s="14" t="n"/>
       <c r="C15" s="11" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
+      <c r="A16" s="5" t="n"/>
       <c r="B16" s="14" t="n"/>
       <c r="C16" s="11" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
+      <c r="A17" s="5" t="n"/>
       <c r="B17" s="13" t="n"/>
       <c r="C17" s="11" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
+      <c r="A18" s="5" t="n"/>
       <c r="B18" s="10" t="inlineStr">
         <is>
           <t>Predicazione</t>
@@ -6869,7 +6869,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
+      <c r="A19" s="5" t="n"/>
       <c r="B19" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -6885,7 +6885,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
+      <c r="A20" s="5" t="n"/>
       <c r="B20" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -6901,7 +6901,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
+      <c r="A21" s="5" t="n"/>
       <c r="B21" s="13" t="n"/>
       <c r="C21" s="11" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
+      <c r="A22" s="5" t="n"/>
       <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -6929,7 +6929,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="6" t="n"/>
       <c r="B23" s="13" t="n"/>
       <c r="C23" s="11" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
+      <c r="A33" s="5" t="n"/>
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="11" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
+      <c r="A34" s="5" t="n"/>
       <c r="B34" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -7053,7 +7053,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
+      <c r="A35" s="5" t="n"/>
       <c r="B35" s="14" t="n"/>
       <c r="C35" s="11" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
+      <c r="A36" s="5" t="n"/>
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="11" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="5" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -7093,7 +7093,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
+      <c r="A38" s="5" t="n"/>
       <c r="B38" s="13" t="n"/>
       <c r="C38" s="11" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
+      <c r="A39" s="5" t="n"/>
       <c r="B39" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -7121,7 +7121,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="5" t="n"/>
       <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -7137,7 +7137,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
+      <c r="A41" s="5" t="n"/>
       <c r="B41" s="14" t="n"/>
       <c r="C41" s="11" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
+      <c r="A42" s="5" t="n"/>
       <c r="B42" s="13" t="n"/>
       <c r="C42" s="11" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
+      <c r="A43" s="5" t="n"/>
       <c r="B43" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -7177,7 +7177,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
+      <c r="A44" s="5" t="n"/>
       <c r="B44" s="14" t="n"/>
       <c r="C44" s="11" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
+      <c r="A45" s="5" t="n"/>
       <c r="B45" s="13" t="n"/>
       <c r="C45" s="11" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
+      <c r="A46" s="5" t="n"/>
       <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -7217,7 +7217,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
+      <c r="A47" s="5" t="n"/>
       <c r="B47" s="13" t="n"/>
       <c r="C47" s="11" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
+      <c r="A48" s="5" t="n"/>
       <c r="B48" s="10" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -7245,7 +7245,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
+      <c r="A49" s="5" t="n"/>
       <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -7261,7 +7261,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
+      <c r="A50" s="5" t="n"/>
       <c r="B50" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -7277,7 +7277,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
+      <c r="A51" s="5" t="n"/>
       <c r="B51" s="13" t="n"/>
       <c r="C51" s="11" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
+      <c r="A52" s="5" t="n"/>
       <c r="B52" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -7305,7 +7305,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
+      <c r="A53" s="5" t="n"/>
       <c r="B53" s="14" t="n"/>
       <c r="C53" s="11" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
+      <c r="A54" s="5" t="n"/>
       <c r="B54" s="14" t="n"/>
       <c r="C54" s="11" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
+      <c r="A55" s="5" t="n"/>
       <c r="B55" s="14" t="n"/>
       <c r="C55" s="11" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
+      <c r="A56" s="5" t="n"/>
       <c r="B56" s="14" t="n"/>
       <c r="C56" s="11" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n"/>
+      <c r="A57" s="5" t="n"/>
       <c r="B57" s="14" t="n"/>
       <c r="C57" s="11" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="n"/>
+      <c r="A58" s="6" t="n"/>
       <c r="B58" s="13" t="n"/>
       <c r="C58" s="11" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="5" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -7501,7 +7501,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
+      <c r="A9" s="5" t="n"/>
       <c r="B9" s="14" t="n"/>
       <c r="C9" s="11" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="5" t="n"/>
       <c r="B10" s="14" t="n"/>
       <c r="C10" s="11" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
+      <c r="A11" s="5" t="n"/>
       <c r="B11" s="13" t="n"/>
       <c r="C11" s="11" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
+      <c r="A12" s="5" t="n"/>
       <c r="B12" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -7553,7 +7553,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
+      <c r="A13" s="5" t="n"/>
       <c r="B13" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -7569,7 +7569,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
+      <c r="A14" s="6" t="n"/>
       <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -7714,7 +7714,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
+      <c r="A33" s="5" t="n"/>
       <c r="B33" s="14" t="n"/>
       <c r="C33" s="11" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
+      <c r="A34" s="5" t="n"/>
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="11" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
+      <c r="A35" s="5" t="n"/>
       <c r="B35" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -7754,7 +7754,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
+      <c r="A36" s="5" t="n"/>
       <c r="B36" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -7770,7 +7770,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="5" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -7786,7 +7786,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
+      <c r="A38" s="5" t="n"/>
       <c r="B38" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -7802,7 +7802,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
+      <c r="A39" s="5" t="n"/>
       <c r="B39" s="10" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -7818,7 +7818,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
+      <c r="A40" s="6" t="n"/>
       <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -174,8 +174,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2763,7 +2763,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -2779,8 +2779,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="6" t="n"/>
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="5" t="n"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
@@ -2791,7 +2791,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
+      <c r="A10" s="6" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -2807,7 +2807,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="6" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -2823,8 +2823,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Offerte libere</t>
@@ -2835,8 +2835,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="6" t="n"/>
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="5" t="n"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Presepio</t>
@@ -2847,7 +2847,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
+      <c r="A14" s="6" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -2863,8 +2863,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
       <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
@@ -2875,8 +2875,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="5" t="n"/>
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
       <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
@@ -2887,8 +2887,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="6" t="n"/>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="5" t="n"/>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
@@ -2899,7 +2899,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n"/>
+      <c r="A18" s="6" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -2915,8 +2915,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="6" t="n"/>
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="5" t="n"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Sanitaria</t>
@@ -2927,7 +2927,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
+      <c r="A20" s="6" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -2943,8 +2943,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="6" t="n"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="5" t="n"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -2955,7 +2955,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
+      <c r="A22" s="6" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -2971,8 +2971,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="5" t="n"/>
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
       <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
@@ -2983,8 +2983,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n"/>
-      <c r="B24" s="5" t="n"/>
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
       <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Pasta</t>
@@ -2995,8 +2995,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Vino</t>
@@ -3061,8 +3061,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
-      <c r="B33" s="5" t="n"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Computer</t>
@@ -3073,8 +3073,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
-      <c r="B34" s="5" t="n"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
       <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
@@ -3085,8 +3085,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
-      <c r="B35" s="6" t="n"/>
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="5" t="n"/>
       <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Stampante_Fotocopiatrice</t>
@@ -3097,7 +3097,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
+      <c r="A36" s="6" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -3113,7 +3113,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -3129,8 +3129,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
-      <c r="B38" s="5" t="n"/>
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="6" t="n"/>
       <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
@@ -3141,8 +3141,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
-      <c r="B39" s="6" t="n"/>
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="5" t="n"/>
       <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
@@ -3153,7 +3153,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
+      <c r="A40" s="6" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -3169,8 +3169,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
-      <c r="B41" s="6" t="n"/>
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="5" t="n"/>
       <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Libri</t>
@@ -3181,7 +3181,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n"/>
+      <c r="A42" s="6" t="n"/>
       <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -3197,7 +3197,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="6" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -3213,7 +3213,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n"/>
+      <c r="A44" s="6" t="n"/>
       <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -3229,8 +3229,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
-      <c r="B45" s="6" t="n"/>
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="5" t="n"/>
       <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
@@ -3241,7 +3241,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n"/>
+      <c r="A46" s="6" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -3257,8 +3257,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
-      <c r="B47" s="5" t="n"/>
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="6" t="n"/>
       <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Igiene personale</t>
@@ -3269,8 +3269,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n"/>
-      <c r="B48" s="6" t="n"/>
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="5" t="n"/>
       <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Lavanderia</t>
@@ -3281,7 +3281,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="6" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -3297,8 +3297,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n"/>
-      <c r="B50" s="6" t="n"/>
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="5" t="n"/>
       <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Passaporto</t>
@@ -3309,7 +3309,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="6" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -3325,7 +3325,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n"/>
+      <c r="A52" s="6" t="n"/>
       <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -3341,7 +3341,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="6" t="n"/>
       <c r="B53" s="4" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -3357,7 +3357,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n"/>
+      <c r="A54" s="6" t="n"/>
       <c r="B54" s="4" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -3373,7 +3373,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="6" t="n"/>
       <c r="B55" s="4" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -3389,8 +3389,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n"/>
-      <c r="B56" s="5" t="n"/>
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
       <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Bartolazzi</t>
@@ -3401,8 +3401,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
-      <c r="B57" s="5" t="n"/>
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
       <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Carne</t>
@@ -3413,8 +3413,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="n"/>
-      <c r="B58" s="5" t="n"/>
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
       <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
@@ -3425,8 +3425,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n"/>
-      <c r="B59" s="5" t="n"/>
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
       <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
@@ -3437,8 +3437,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n"/>
-      <c r="B60" s="6" t="n"/>
+      <c r="A60" s="5" t="n"/>
+      <c r="B60" s="5" t="n"/>
       <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Pesce</t>
@@ -3556,7 +3556,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -3572,7 +3572,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="6" t="n"/>
       <c r="B9" s="13" t="n"/>
       <c r="C9" s="11" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
+      <c r="A10" s="6" t="n"/>
       <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -3600,7 +3600,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="6" t="n"/>
       <c r="B11" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -3616,7 +3616,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
+      <c r="A12" s="6" t="n"/>
       <c r="B12" s="14" t="n"/>
       <c r="C12" s="11" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="6" t="n"/>
       <c r="B13" s="13" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
+      <c r="A14" s="6" t="n"/>
       <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -3656,7 +3656,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="6" t="n"/>
       <c r="B15" s="14" t="n"/>
       <c r="C15" s="11" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n"/>
+      <c r="A16" s="6" t="n"/>
       <c r="B16" s="14" t="n"/>
       <c r="C16" s="11" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
+      <c r="A17" s="6" t="n"/>
       <c r="B17" s="13" t="n"/>
       <c r="C17" s="11" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n"/>
+      <c r="A18" s="6" t="n"/>
       <c r="B18" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -3708,7 +3708,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="6" t="n"/>
       <c r="B19" s="13" t="n"/>
       <c r="C19" s="11" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
+      <c r="A20" s="6" t="n"/>
       <c r="B20" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -3736,7 +3736,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="6" t="n"/>
       <c r="B21" s="13" t="n"/>
       <c r="C21" s="11" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
+      <c r="A22" s="6" t="n"/>
       <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -3764,7 +3764,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="6" t="n"/>
       <c r="B23" s="14" t="n"/>
       <c r="C23" s="11" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n"/>
+      <c r="A24" s="6" t="n"/>
       <c r="B24" s="14" t="n"/>
       <c r="C24" s="11" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
+      <c r="A25" s="5" t="n"/>
       <c r="B25" s="13" t="n"/>
       <c r="C25" s="11" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="6" t="n"/>
       <c r="B33" s="14" t="n"/>
       <c r="C33" s="11" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
+      <c r="A34" s="6" t="n"/>
       <c r="B34" s="14" t="n"/>
       <c r="C34" s="11" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="6" t="n"/>
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="11" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
+      <c r="A36" s="6" t="n"/>
       <c r="B36" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -3926,7 +3926,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -3942,7 +3942,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
+      <c r="A38" s="6" t="n"/>
       <c r="B38" s="14" t="n"/>
       <c r="C38" s="11" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="6" t="n"/>
       <c r="B39" s="13" t="n"/>
       <c r="C39" s="11" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
+      <c r="A40" s="6" t="n"/>
       <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -3982,7 +3982,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="6" t="n"/>
       <c r="B41" s="13" t="n"/>
       <c r="C41" s="11" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n"/>
+      <c r="A42" s="6" t="n"/>
       <c r="B42" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -4010,7 +4010,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="6" t="n"/>
       <c r="B43" s="10" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -4026,7 +4026,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n"/>
+      <c r="A44" s="6" t="n"/>
       <c r="B44" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -4042,7 +4042,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
+      <c r="A45" s="6" t="n"/>
       <c r="B45" s="13" t="n"/>
       <c r="C45" s="11" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n"/>
+      <c r="A46" s="6" t="n"/>
       <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -4070,7 +4070,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="6" t="n"/>
       <c r="B47" s="14" t="n"/>
       <c r="C47" s="11" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n"/>
+      <c r="A48" s="6" t="n"/>
       <c r="B48" s="13" t="n"/>
       <c r="C48" s="11" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="6" t="n"/>
       <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -4110,7 +4110,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n"/>
+      <c r="A50" s="6" t="n"/>
       <c r="B50" s="13" t="n"/>
       <c r="C50" s="11" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="6" t="n"/>
       <c r="B51" s="10" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -4138,7 +4138,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n"/>
+      <c r="A52" s="6" t="n"/>
       <c r="B52" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -4154,7 +4154,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="6" t="n"/>
       <c r="B53" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -4170,7 +4170,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n"/>
+      <c r="A54" s="6" t="n"/>
       <c r="B54" s="10" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -4186,7 +4186,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="6" t="n"/>
       <c r="B55" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -4202,7 +4202,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n"/>
+      <c r="A56" s="6" t="n"/>
       <c r="B56" s="14" t="n"/>
       <c r="C56" s="11" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
+      <c r="A57" s="6" t="n"/>
       <c r="B57" s="14" t="n"/>
       <c r="C57" s="11" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="n"/>
+      <c r="A58" s="6" t="n"/>
       <c r="B58" s="14" t="n"/>
       <c r="C58" s="11" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n"/>
+      <c r="A59" s="6" t="n"/>
       <c r="B59" s="14" t="n"/>
       <c r="C59" s="11" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n"/>
+      <c r="A60" s="5" t="n"/>
       <c r="B60" s="13" t="n"/>
       <c r="C60" s="11" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -4386,7 +4386,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="6" t="n"/>
       <c r="B9" s="13" t="n"/>
       <c r="C9" s="11" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
+      <c r="A10" s="6" t="n"/>
       <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -4414,7 +4414,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="6" t="n"/>
       <c r="B11" s="14" t="n"/>
       <c r="C11" s="11" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
+      <c r="A12" s="6" t="n"/>
       <c r="B12" s="14" t="n"/>
       <c r="C12" s="11" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="6" t="n"/>
       <c r="B13" s="13" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
+      <c r="A14" s="6" t="n"/>
       <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -4466,7 +4466,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="6" t="n"/>
       <c r="B15" s="14" t="n"/>
       <c r="C15" s="11" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n"/>
+      <c r="A16" s="6" t="n"/>
       <c r="B16" s="14" t="n"/>
       <c r="C16" s="11" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
+      <c r="A17" s="6" t="n"/>
       <c r="B17" s="13" t="n"/>
       <c r="C17" s="11" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n"/>
+      <c r="A18" s="6" t="n"/>
       <c r="B18" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -4518,7 +4518,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="6" t="n"/>
       <c r="B19" s="13" t="n"/>
       <c r="C19" s="11" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
+      <c r="A20" s="6" t="n"/>
       <c r="B20" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -4546,7 +4546,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="6" t="n"/>
       <c r="B21" s="13" t="n"/>
       <c r="C21" s="11" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
+      <c r="A22" s="6" t="n"/>
       <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Sussidi</t>
@@ -4574,7 +4574,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="6" t="n"/>
       <c r="B23" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -4590,7 +4590,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
+      <c r="A24" s="5" t="n"/>
       <c r="B24" s="13" t="n"/>
       <c r="C24" s="11" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="6" t="n"/>
       <c r="B33" s="14" t="n"/>
       <c r="C33" s="11" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
+      <c r="A34" s="6" t="n"/>
       <c r="B34" s="14" t="n"/>
       <c r="C34" s="11" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="6" t="n"/>
       <c r="B35" s="14" t="n"/>
       <c r="C35" s="11" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
+      <c r="A36" s="6" t="n"/>
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="11" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -4745,7 +4745,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
+      <c r="A38" s="6" t="n"/>
       <c r="B38" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -4761,7 +4761,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="6" t="n"/>
       <c r="B39" s="13" t="n"/>
       <c r="C39" s="11" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
+      <c r="A40" s="6" t="n"/>
       <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -4789,7 +4789,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="6" t="n"/>
       <c r="B41" s="10" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -4805,7 +4805,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n"/>
+      <c r="A42" s="6" t="n"/>
       <c r="B42" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -4821,7 +4821,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="6" t="n"/>
       <c r="B43" s="13" t="n"/>
       <c r="C43" s="11" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n"/>
+      <c r="A44" s="6" t="n"/>
       <c r="B44" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -4849,7 +4849,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
+      <c r="A45" s="6" t="n"/>
       <c r="B45" s="13" t="n"/>
       <c r="C45" s="11" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n"/>
+      <c r="A46" s="6" t="n"/>
       <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -4877,7 +4877,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="6" t="n"/>
       <c r="B47" s="13" t="n"/>
       <c r="C47" s="11" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n"/>
+      <c r="A48" s="6" t="n"/>
       <c r="B48" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -4905,7 +4905,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="6" t="n"/>
       <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -4921,7 +4921,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n"/>
+      <c r="A50" s="6" t="n"/>
       <c r="B50" s="13" t="n"/>
       <c r="C50" s="11" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="6" t="n"/>
       <c r="B51" s="10" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -4949,7 +4949,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n"/>
+      <c r="A52" s="6" t="n"/>
       <c r="B52" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -4965,7 +4965,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="6" t="n"/>
       <c r="B53" s="14" t="n"/>
       <c r="C53" s="11" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n"/>
+      <c r="A54" s="6" t="n"/>
       <c r="B54" s="14" t="n"/>
       <c r="C54" s="11" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="6" t="n"/>
       <c r="B55" s="14" t="n"/>
       <c r="C55" s="11" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
+      <c r="A56" s="5" t="n"/>
       <c r="B56" s="13" t="n"/>
       <c r="C56" s="11" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -5137,7 +5137,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="6" t="n"/>
       <c r="B9" s="14" t="n"/>
       <c r="C9" s="11" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
+      <c r="A10" s="6" t="n"/>
       <c r="B10" s="13" t="n"/>
       <c r="C10" s="11" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="6" t="n"/>
       <c r="B11" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -5177,7 +5177,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
+      <c r="A12" s="6" t="n"/>
       <c r="B12" s="14" t="n"/>
       <c r="C12" s="11" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="6" t="n"/>
       <c r="B13" s="13" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
+      <c r="A14" s="6" t="n"/>
       <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -5217,7 +5217,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="6" t="n"/>
       <c r="B15" s="14" t="n"/>
       <c r="C15" s="11" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n"/>
+      <c r="A16" s="6" t="n"/>
       <c r="B16" s="14" t="n"/>
       <c r="C16" s="11" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
+      <c r="A17" s="6" t="n"/>
       <c r="B17" s="13" t="n"/>
       <c r="C17" s="11" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n"/>
+      <c r="A18" s="6" t="n"/>
       <c r="B18" s="10" t="inlineStr">
         <is>
           <t>Predicazione</t>
@@ -5269,7 +5269,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="6" t="n"/>
       <c r="B19" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -5285,7 +5285,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
+      <c r="A20" s="6" t="n"/>
       <c r="B20" s="14" t="n"/>
       <c r="C20" s="11" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="6" t="n"/>
       <c r="B21" s="13" t="n"/>
       <c r="C21" s="11" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
+      <c r="A22" s="6" t="n"/>
       <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -5325,7 +5325,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="6" t="n"/>
       <c r="B23" s="13" t="n"/>
       <c r="C23" s="11" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n"/>
+      <c r="A24" s="6" t="n"/>
       <c r="B24" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -5353,7 +5353,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
+      <c r="A25" s="6" t="n"/>
       <c r="B25" s="14" t="n"/>
       <c r="C25" s="11" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n"/>
+      <c r="A26" s="6" t="n"/>
       <c r="B26" s="14" t="n"/>
       <c r="C26" s="11" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="n"/>
+      <c r="A27" s="5" t="n"/>
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="11" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="6" t="n"/>
       <c r="B33" s="14" t="n"/>
       <c r="C33" s="11" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
+      <c r="A34" s="6" t="n"/>
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="11" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="6" t="n"/>
       <c r="B35" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -5493,7 +5493,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
+      <c r="A36" s="6" t="n"/>
       <c r="B36" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -5509,7 +5509,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -5525,7 +5525,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
+      <c r="A38" s="6" t="n"/>
       <c r="B38" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -5541,7 +5541,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="6" t="n"/>
       <c r="B39" s="13" t="n"/>
       <c r="C39" s="11" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
+      <c r="A40" s="6" t="n"/>
       <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -5569,7 +5569,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="6" t="n"/>
       <c r="B41" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -5585,7 +5585,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n"/>
+      <c r="A42" s="6" t="n"/>
       <c r="B42" s="13" t="n"/>
       <c r="C42" s="11" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="6" t="n"/>
       <c r="B43" s="10" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -5613,7 +5613,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n"/>
+      <c r="A44" s="6" t="n"/>
       <c r="B44" s="14" t="n"/>
       <c r="C44" s="11" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
+      <c r="A45" s="6" t="n"/>
       <c r="B45" s="13" t="n"/>
       <c r="C45" s="11" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n"/>
+      <c r="A46" s="6" t="n"/>
       <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -5653,7 +5653,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="6" t="n"/>
       <c r="B47" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -5669,7 +5669,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n"/>
+      <c r="A48" s="6" t="n"/>
       <c r="B48" s="10" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -5685,7 +5685,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="6" t="n"/>
       <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -5701,7 +5701,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n"/>
+      <c r="A50" s="6" t="n"/>
       <c r="B50" s="14" t="n"/>
       <c r="C50" s="11" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="6" t="n"/>
       <c r="B51" s="14" t="n"/>
       <c r="C51" s="11" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n"/>
+      <c r="A52" s="6" t="n"/>
       <c r="B52" s="14" t="n"/>
       <c r="C52" s="11" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="6" t="n"/>
       <c r="B53" s="14" t="n"/>
       <c r="C53" s="11" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
+      <c r="A54" s="5" t="n"/>
       <c r="B54" s="13" t="n"/>
       <c r="C54" s="11" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -5883,7 +5883,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="6" t="n"/>
       <c r="B9" s="13" t="n"/>
       <c r="C9" s="11" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
+      <c r="A10" s="6" t="n"/>
       <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Interessi</t>
@@ -5911,7 +5911,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="6" t="n"/>
       <c r="B11" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -5927,7 +5927,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
+      <c r="A12" s="6" t="n"/>
       <c r="B12" s="14" t="n"/>
       <c r="C12" s="11" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="6" t="n"/>
       <c r="B13" s="14" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
+      <c r="A14" s="6" t="n"/>
       <c r="B14" s="13" t="n"/>
       <c r="C14" s="11" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="6" t="n"/>
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -5979,7 +5979,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n"/>
+      <c r="A16" s="6" t="n"/>
       <c r="B16" s="14" t="n"/>
       <c r="C16" s="11" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
+      <c r="A17" s="6" t="n"/>
       <c r="B17" s="14" t="n"/>
       <c r="C17" s="11" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n"/>
+      <c r="A18" s="6" t="n"/>
       <c r="B18" s="13" t="n"/>
       <c r="C18" s="11" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="6" t="n"/>
       <c r="B19" s="10" t="inlineStr">
         <is>
           <t>Predicazione</t>
@@ -6031,7 +6031,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
+      <c r="A20" s="6" t="n"/>
       <c r="B20" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -6047,7 +6047,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="6" t="n"/>
       <c r="B21" s="13" t="n"/>
       <c r="C21" s="11" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
+      <c r="A22" s="6" t="n"/>
       <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -6075,7 +6075,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="6" t="n"/>
       <c r="B23" s="13" t="n"/>
       <c r="C23" s="11" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n"/>
+      <c r="A24" s="6" t="n"/>
       <c r="B24" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -6103,7 +6103,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
+      <c r="A25" s="6" t="n"/>
       <c r="B25" s="14" t="n"/>
       <c r="C25" s="11" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n"/>
+      <c r="A26" s="5" t="n"/>
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="11" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="6" t="n"/>
       <c r="B33" s="14" t="n"/>
       <c r="C33" s="11" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
+      <c r="A34" s="6" t="n"/>
       <c r="B34" s="14" t="n"/>
       <c r="C34" s="11" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="6" t="n"/>
       <c r="B35" s="14" t="n"/>
       <c r="C35" s="11" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
+      <c r="A36" s="6" t="n"/>
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="11" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -6260,7 +6260,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
+      <c r="A38" s="6" t="n"/>
       <c r="B38" s="13" t="n"/>
       <c r="C38" s="11" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="6" t="n"/>
       <c r="B39" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -6288,7 +6288,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
+      <c r="A40" s="6" t="n"/>
       <c r="B40" s="13" t="n"/>
       <c r="C40" s="11" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="6" t="n"/>
       <c r="B41" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -6316,7 +6316,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n"/>
+      <c r="A42" s="6" t="n"/>
       <c r="B42" s="13" t="n"/>
       <c r="C42" s="11" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="6" t="n"/>
       <c r="B43" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -6344,7 +6344,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n"/>
+      <c r="A44" s="6" t="n"/>
       <c r="B44" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -6360,7 +6360,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
+      <c r="A45" s="6" t="n"/>
       <c r="B45" s="13" t="n"/>
       <c r="C45" s="11" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n"/>
+      <c r="A46" s="6" t="n"/>
       <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -6388,7 +6388,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="6" t="n"/>
       <c r="B47" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -6404,7 +6404,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n"/>
+      <c r="A48" s="6" t="n"/>
       <c r="B48" s="10" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -6420,7 +6420,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="6" t="n"/>
       <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -6436,7 +6436,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n"/>
+      <c r="A50" s="6" t="n"/>
       <c r="B50" s="10" t="inlineStr">
         <is>
           <t>Rimborsi</t>
@@ -6452,7 +6452,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="6" t="n"/>
       <c r="B51" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -6468,7 +6468,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n"/>
+      <c r="A52" s="6" t="n"/>
       <c r="B52" s="13" t="n"/>
       <c r="C52" s="11" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="6" t="n"/>
       <c r="B53" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -6496,7 +6496,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n"/>
+      <c r="A54" s="6" t="n"/>
       <c r="B54" s="14" t="n"/>
       <c r="C54" s="11" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="6" t="n"/>
       <c r="B55" s="13" t="n"/>
       <c r="C55" s="11" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n"/>
+      <c r="A56" s="6" t="n"/>
       <c r="B56" s="10" t="inlineStr">
         <is>
           <t>Vestiario</t>
@@ -6536,7 +6536,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
+      <c r="A57" s="6" t="n"/>
       <c r="B57" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -6552,7 +6552,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="n"/>
+      <c r="A58" s="6" t="n"/>
       <c r="B58" s="14" t="n"/>
       <c r="C58" s="11" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n"/>
+      <c r="A59" s="6" t="n"/>
       <c r="B59" s="14" t="n"/>
       <c r="C59" s="11" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="n"/>
+      <c r="A60" s="6" t="n"/>
       <c r="B60" s="14" t="n"/>
       <c r="C60" s="11" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n"/>
+      <c r="A61" s="6" t="n"/>
       <c r="B61" s="14" t="n"/>
       <c r="C61" s="11" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="n"/>
+      <c r="A62" s="5" t="n"/>
       <c r="B62" s="13" t="n"/>
       <c r="C62" s="11" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Congrua</t>
@@ -6737,7 +6737,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="6" t="n"/>
       <c r="B9" s="13" t="n"/>
       <c r="C9" s="11" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
+      <c r="A10" s="6" t="n"/>
       <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Offerte</t>
@@ -6765,7 +6765,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="6" t="n"/>
       <c r="B11" s="14" t="n"/>
       <c r="C11" s="11" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
+      <c r="A12" s="6" t="n"/>
       <c r="B12" s="14" t="n"/>
       <c r="C12" s="11" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="6" t="n"/>
       <c r="B13" s="13" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
+      <c r="A14" s="6" t="n"/>
       <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -6817,7 +6817,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="6" t="n"/>
       <c r="B15" s="14" t="n"/>
       <c r="C15" s="11" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n"/>
+      <c r="A16" s="6" t="n"/>
       <c r="B16" s="14" t="n"/>
       <c r="C16" s="11" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
+      <c r="A17" s="6" t="n"/>
       <c r="B17" s="13" t="n"/>
       <c r="C17" s="11" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n"/>
+      <c r="A18" s="6" t="n"/>
       <c r="B18" s="10" t="inlineStr">
         <is>
           <t>Predicazione</t>
@@ -6869,7 +6869,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
+      <c r="A19" s="6" t="n"/>
       <c r="B19" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -6885,7 +6885,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
+      <c r="A20" s="6" t="n"/>
       <c r="B20" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -6901,7 +6901,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
+      <c r="A21" s="6" t="n"/>
       <c r="B21" s="13" t="n"/>
       <c r="C21" s="11" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
+      <c r="A22" s="6" t="n"/>
       <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -6929,7 +6929,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
+      <c r="A23" s="5" t="n"/>
       <c r="B23" s="13" t="n"/>
       <c r="C23" s="11" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="6" t="n"/>
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="11" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
+      <c r="A34" s="6" t="n"/>
       <c r="B34" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -7053,7 +7053,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="6" t="n"/>
       <c r="B35" s="14" t="n"/>
       <c r="C35" s="11" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
+      <c r="A36" s="6" t="n"/>
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="11" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -7093,7 +7093,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
+      <c r="A38" s="6" t="n"/>
       <c r="B38" s="13" t="n"/>
       <c r="C38" s="11" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="6" t="n"/>
       <c r="B39" s="10" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -7121,7 +7121,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
+      <c r="A40" s="6" t="n"/>
       <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -7137,7 +7137,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
+      <c r="A41" s="6" t="n"/>
       <c r="B41" s="14" t="n"/>
       <c r="C41" s="11" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n"/>
+      <c r="A42" s="6" t="n"/>
       <c r="B42" s="13" t="n"/>
       <c r="C42" s="11" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
+      <c r="A43" s="6" t="n"/>
       <c r="B43" s="10" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -7177,7 +7177,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n"/>
+      <c r="A44" s="6" t="n"/>
       <c r="B44" s="14" t="n"/>
       <c r="C44" s="11" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
+      <c r="A45" s="6" t="n"/>
       <c r="B45" s="13" t="n"/>
       <c r="C45" s="11" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n"/>
+      <c r="A46" s="6" t="n"/>
       <c r="B46" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -7217,7 +7217,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="6" t="n"/>
       <c r="B47" s="13" t="n"/>
       <c r="C47" s="11" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n"/>
+      <c r="A48" s="6" t="n"/>
       <c r="B48" s="10" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -7245,7 +7245,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
+      <c r="A49" s="6" t="n"/>
       <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>
@@ -7261,7 +7261,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n"/>
+      <c r="A50" s="6" t="n"/>
       <c r="B50" s="10" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
@@ -7277,7 +7277,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
+      <c r="A51" s="6" t="n"/>
       <c r="B51" s="13" t="n"/>
       <c r="C51" s="11" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n"/>
+      <c r="A52" s="6" t="n"/>
       <c r="B52" s="10" t="inlineStr">
         <is>
           <t>Vitto</t>
@@ -7305,7 +7305,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n"/>
+      <c r="A53" s="6" t="n"/>
       <c r="B53" s="14" t="n"/>
       <c r="C53" s="11" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n"/>
+      <c r="A54" s="6" t="n"/>
       <c r="B54" s="14" t="n"/>
       <c r="C54" s="11" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n"/>
+      <c r="A55" s="6" t="n"/>
       <c r="B55" s="14" t="n"/>
       <c r="C55" s="11" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n"/>
+      <c r="A56" s="6" t="n"/>
       <c r="B56" s="14" t="n"/>
       <c r="C56" s="11" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n"/>
+      <c r="A57" s="6" t="n"/>
       <c r="B57" s="14" t="n"/>
       <c r="C57" s="11" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n"/>
+      <c r="A58" s="5" t="n"/>
       <c r="B58" s="13" t="n"/>
       <c r="C58" s="11" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Pensioni</t>
@@ -7501,7 +7501,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
+      <c r="A9" s="6" t="n"/>
       <c r="B9" s="14" t="n"/>
       <c r="C9" s="11" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
+      <c r="A10" s="6" t="n"/>
       <c r="B10" s="14" t="n"/>
       <c r="C10" s="11" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
+      <c r="A11" s="6" t="n"/>
       <c r="B11" s="13" t="n"/>
       <c r="C11" s="11" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
+      <c r="A12" s="6" t="n"/>
       <c r="B12" s="10" t="inlineStr">
         <is>
           <t>Salute</t>
@@ -7553,7 +7553,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
+      <c r="A13" s="6" t="n"/>
       <c r="B13" s="10" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
@@ -7569,7 +7569,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="5" t="n"/>
       <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Vendite varie</t>
@@ -7714,7 +7714,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
+      <c r="A33" s="6" t="n"/>
       <c r="B33" s="14" t="n"/>
       <c r="C33" s="11" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
+      <c r="A34" s="6" t="n"/>
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="11" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
+      <c r="A35" s="6" t="n"/>
       <c r="B35" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -7754,7 +7754,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
+      <c r="A36" s="6" t="n"/>
       <c r="B36" s="10" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -7770,7 +7770,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
+      <c r="A37" s="6" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -7786,7 +7786,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
+      <c r="A38" s="6" t="n"/>
       <c r="B38" s="10" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -7802,7 +7802,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
+      <c r="A39" s="6" t="n"/>
       <c r="B39" s="10" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -7818,7 +7818,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="5" t="n"/>
       <c r="B40" s="10" t="inlineStr">
         <is>
           <t>Telefono</t>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -174,8 +174,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -194,12 +192,14 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -1069,7 +1069,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Conto del mese di Luglio</t>
         </is>
@@ -1080,35 +1080,35 @@
     <row r="4"/>
     <row r="5"/>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr"/>
-      <c r="C7" s="11" t="inlineStr"/>
+      <c r="B7" s="8" t="inlineStr"/>
+      <c r="C7" s="9" t="inlineStr"/>
       <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
@@ -1116,120 +1116,120 @@
     <row r="8">
       <c r="B8" s="16" t="n"/>
       <c r="C8" s="17" t="n"/>
-      <c r="D8" s="12" t="n"/>
+      <c r="D8" s="10" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="16" t="n"/>
       <c r="C9" s="17" t="n"/>
-      <c r="D9" s="12" t="n"/>
+      <c r="D9" s="10" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="16" t="n"/>
       <c r="C10" s="17" t="n"/>
-      <c r="D10" s="12" t="n"/>
+      <c r="D10" s="10" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="16" t="n"/>
       <c r="C11" s="17" t="n"/>
-      <c r="D11" s="12" t="n"/>
+      <c r="D11" s="10" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="16" t="n"/>
       <c r="C12" s="17" t="n"/>
-      <c r="D12" s="12" t="n"/>
+      <c r="D12" s="10" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="16" t="n"/>
       <c r="C13" s="17" t="n"/>
-      <c r="D13" s="12" t="n"/>
+      <c r="D13" s="10" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="16" t="n"/>
       <c r="C14" s="17" t="n"/>
-      <c r="D14" s="12" t="n"/>
+      <c r="D14" s="10" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="16" t="n"/>
       <c r="C15" s="17" t="n"/>
-      <c r="D15" s="12" t="n"/>
+      <c r="D15" s="10" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="16" t="n"/>
       <c r="C16" s="17" t="n"/>
-      <c r="D16" s="12" t="n"/>
+      <c r="D16" s="10" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="16" t="n"/>
       <c r="C17" s="17" t="n"/>
-      <c r="D17" s="12" t="n"/>
+      <c r="D17" s="10" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="16" t="n"/>
       <c r="C18" s="17" t="n"/>
-      <c r="D18" s="12" t="n"/>
+      <c r="D18" s="10" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="16" t="n"/>
       <c r="C19" s="17" t="n"/>
-      <c r="D19" s="12" t="n"/>
+      <c r="D19" s="10" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="16" t="n"/>
       <c r="C20" s="17" t="n"/>
-      <c r="D20" s="12" t="n"/>
+      <c r="D20" s="10" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="16" t="n"/>
       <c r="C21" s="17" t="n"/>
-      <c r="D21" s="12" t="n"/>
+      <c r="D21" s="10" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="16" t="n"/>
       <c r="C22" s="17" t="n"/>
-      <c r="D22" s="12" t="n"/>
+      <c r="D22" s="10" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="16" t="n"/>
       <c r="C23" s="17" t="n"/>
-      <c r="D23" s="12" t="n"/>
+      <c r="D23" s="10" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="16" t="n"/>
       <c r="C24" s="17" t="n"/>
-      <c r="D24" s="12" t="n"/>
+      <c r="D24" s="10" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="16" t="n"/>
       <c r="C25" s="17" t="n"/>
-      <c r="D25" s="12" t="n"/>
+      <c r="D25" s="10" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="16" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="12" t="n"/>
+      <c r="D26" s="10" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="16" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="12" t="n"/>
+      <c r="D27" s="10" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="12" t="n"/>
+      <c r="D28" s="10" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="12" t="n"/>
+      <c r="D29" s="10" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="16" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="12" t="n"/>
+      <c r="D30" s="10" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
@@ -1251,13 +1251,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr"/>
-      <c r="C32" s="11" t="inlineStr"/>
+      <c r="B32" s="8" t="inlineStr"/>
+      <c r="C32" s="9" t="inlineStr"/>
       <c r="D32" s="15" t="n">
         <v>0</v>
       </c>
@@ -1291,7 +1291,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Conto del mese di Agosto</t>
         </is>
@@ -1302,35 +1302,35 @@
     <row r="4"/>
     <row r="5"/>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr"/>
-      <c r="C7" s="11" t="inlineStr"/>
+      <c r="B7" s="8" t="inlineStr"/>
+      <c r="C7" s="9" t="inlineStr"/>
       <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
@@ -1338,120 +1338,120 @@
     <row r="8">
       <c r="B8" s="16" t="n"/>
       <c r="C8" s="17" t="n"/>
-      <c r="D8" s="12" t="n"/>
+      <c r="D8" s="10" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="16" t="n"/>
       <c r="C9" s="17" t="n"/>
-      <c r="D9" s="12" t="n"/>
+      <c r="D9" s="10" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="16" t="n"/>
       <c r="C10" s="17" t="n"/>
-      <c r="D10" s="12" t="n"/>
+      <c r="D10" s="10" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="16" t="n"/>
       <c r="C11" s="17" t="n"/>
-      <c r="D11" s="12" t="n"/>
+      <c r="D11" s="10" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="16" t="n"/>
       <c r="C12" s="17" t="n"/>
-      <c r="D12" s="12" t="n"/>
+      <c r="D12" s="10" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="16" t="n"/>
       <c r="C13" s="17" t="n"/>
-      <c r="D13" s="12" t="n"/>
+      <c r="D13" s="10" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="16" t="n"/>
       <c r="C14" s="17" t="n"/>
-      <c r="D14" s="12" t="n"/>
+      <c r="D14" s="10" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="16" t="n"/>
       <c r="C15" s="17" t="n"/>
-      <c r="D15" s="12" t="n"/>
+      <c r="D15" s="10" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="16" t="n"/>
       <c r="C16" s="17" t="n"/>
-      <c r="D16" s="12" t="n"/>
+      <c r="D16" s="10" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="16" t="n"/>
       <c r="C17" s="17" t="n"/>
-      <c r="D17" s="12" t="n"/>
+      <c r="D17" s="10" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="16" t="n"/>
       <c r="C18" s="17" t="n"/>
-      <c r="D18" s="12" t="n"/>
+      <c r="D18" s="10" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="16" t="n"/>
       <c r="C19" s="17" t="n"/>
-      <c r="D19" s="12" t="n"/>
+      <c r="D19" s="10" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="16" t="n"/>
       <c r="C20" s="17" t="n"/>
-      <c r="D20" s="12" t="n"/>
+      <c r="D20" s="10" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="16" t="n"/>
       <c r="C21" s="17" t="n"/>
-      <c r="D21" s="12" t="n"/>
+      <c r="D21" s="10" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="16" t="n"/>
       <c r="C22" s="17" t="n"/>
-      <c r="D22" s="12" t="n"/>
+      <c r="D22" s="10" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="16" t="n"/>
       <c r="C23" s="17" t="n"/>
-      <c r="D23" s="12" t="n"/>
+      <c r="D23" s="10" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="16" t="n"/>
       <c r="C24" s="17" t="n"/>
-      <c r="D24" s="12" t="n"/>
+      <c r="D24" s="10" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="16" t="n"/>
       <c r="C25" s="17" t="n"/>
-      <c r="D25" s="12" t="n"/>
+      <c r="D25" s="10" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="16" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="12" t="n"/>
+      <c r="D26" s="10" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="16" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="12" t="n"/>
+      <c r="D27" s="10" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="12" t="n"/>
+      <c r="D28" s="10" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="12" t="n"/>
+      <c r="D29" s="10" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="16" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="12" t="n"/>
+      <c r="D30" s="10" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
@@ -1473,13 +1473,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr"/>
-      <c r="C32" s="11" t="inlineStr"/>
+      <c r="B32" s="8" t="inlineStr"/>
+      <c r="C32" s="9" t="inlineStr"/>
       <c r="D32" s="15" t="n">
         <v>0</v>
       </c>
@@ -1513,7 +1513,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Conto del mese di Settembre</t>
         </is>
@@ -1524,35 +1524,35 @@
     <row r="4"/>
     <row r="5"/>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr"/>
-      <c r="C7" s="11" t="inlineStr"/>
+      <c r="B7" s="8" t="inlineStr"/>
+      <c r="C7" s="9" t="inlineStr"/>
       <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
@@ -1560,120 +1560,120 @@
     <row r="8">
       <c r="B8" s="16" t="n"/>
       <c r="C8" s="17" t="n"/>
-      <c r="D8" s="12" t="n"/>
+      <c r="D8" s="10" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="16" t="n"/>
       <c r="C9" s="17" t="n"/>
-      <c r="D9" s="12" t="n"/>
+      <c r="D9" s="10" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="16" t="n"/>
       <c r="C10" s="17" t="n"/>
-      <c r="D10" s="12" t="n"/>
+      <c r="D10" s="10" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="16" t="n"/>
       <c r="C11" s="17" t="n"/>
-      <c r="D11" s="12" t="n"/>
+      <c r="D11" s="10" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="16" t="n"/>
       <c r="C12" s="17" t="n"/>
-      <c r="D12" s="12" t="n"/>
+      <c r="D12" s="10" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="16" t="n"/>
       <c r="C13" s="17" t="n"/>
-      <c r="D13" s="12" t="n"/>
+      <c r="D13" s="10" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="16" t="n"/>
       <c r="C14" s="17" t="n"/>
-      <c r="D14" s="12" t="n"/>
+      <c r="D14" s="10" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="16" t="n"/>
       <c r="C15" s="17" t="n"/>
-      <c r="D15" s="12" t="n"/>
+      <c r="D15" s="10" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="16" t="n"/>
       <c r="C16" s="17" t="n"/>
-      <c r="D16" s="12" t="n"/>
+      <c r="D16" s="10" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="16" t="n"/>
       <c r="C17" s="17" t="n"/>
-      <c r="D17" s="12" t="n"/>
+      <c r="D17" s="10" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="16" t="n"/>
       <c r="C18" s="17" t="n"/>
-      <c r="D18" s="12" t="n"/>
+      <c r="D18" s="10" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="16" t="n"/>
       <c r="C19" s="17" t="n"/>
-      <c r="D19" s="12" t="n"/>
+      <c r="D19" s="10" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="16" t="n"/>
       <c r="C20" s="17" t="n"/>
-      <c r="D20" s="12" t="n"/>
+      <c r="D20" s="10" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="16" t="n"/>
       <c r="C21" s="17" t="n"/>
-      <c r="D21" s="12" t="n"/>
+      <c r="D21" s="10" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="16" t="n"/>
       <c r="C22" s="17" t="n"/>
-      <c r="D22" s="12" t="n"/>
+      <c r="D22" s="10" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="16" t="n"/>
       <c r="C23" s="17" t="n"/>
-      <c r="D23" s="12" t="n"/>
+      <c r="D23" s="10" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="16" t="n"/>
       <c r="C24" s="17" t="n"/>
-      <c r="D24" s="12" t="n"/>
+      <c r="D24" s="10" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="16" t="n"/>
       <c r="C25" s="17" t="n"/>
-      <c r="D25" s="12" t="n"/>
+      <c r="D25" s="10" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="16" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="12" t="n"/>
+      <c r="D26" s="10" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="16" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="12" t="n"/>
+      <c r="D27" s="10" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="12" t="n"/>
+      <c r="D28" s="10" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="12" t="n"/>
+      <c r="D29" s="10" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="16" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="12" t="n"/>
+      <c r="D30" s="10" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
@@ -1695,13 +1695,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr"/>
-      <c r="C32" s="11" t="inlineStr"/>
+      <c r="B32" s="8" t="inlineStr"/>
+      <c r="C32" s="9" t="inlineStr"/>
       <c r="D32" s="15" t="n">
         <v>0</v>
       </c>
@@ -1735,7 +1735,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Conto del mese di Ottobre</t>
         </is>
@@ -1746,35 +1746,35 @@
     <row r="4"/>
     <row r="5"/>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr"/>
-      <c r="C7" s="11" t="inlineStr"/>
+      <c r="B7" s="8" t="inlineStr"/>
+      <c r="C7" s="9" t="inlineStr"/>
       <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
@@ -1782,120 +1782,120 @@
     <row r="8">
       <c r="B8" s="16" t="n"/>
       <c r="C8" s="17" t="n"/>
-      <c r="D8" s="12" t="n"/>
+      <c r="D8" s="10" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="16" t="n"/>
       <c r="C9" s="17" t="n"/>
-      <c r="D9" s="12" t="n"/>
+      <c r="D9" s="10" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="16" t="n"/>
       <c r="C10" s="17" t="n"/>
-      <c r="D10" s="12" t="n"/>
+      <c r="D10" s="10" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="16" t="n"/>
       <c r="C11" s="17" t="n"/>
-      <c r="D11" s="12" t="n"/>
+      <c r="D11" s="10" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="16" t="n"/>
       <c r="C12" s="17" t="n"/>
-      <c r="D12" s="12" t="n"/>
+      <c r="D12" s="10" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="16" t="n"/>
       <c r="C13" s="17" t="n"/>
-      <c r="D13" s="12" t="n"/>
+      <c r="D13" s="10" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="16" t="n"/>
       <c r="C14" s="17" t="n"/>
-      <c r="D14" s="12" t="n"/>
+      <c r="D14" s="10" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="16" t="n"/>
       <c r="C15" s="17" t="n"/>
-      <c r="D15" s="12" t="n"/>
+      <c r="D15" s="10" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="16" t="n"/>
       <c r="C16" s="17" t="n"/>
-      <c r="D16" s="12" t="n"/>
+      <c r="D16" s="10" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="16" t="n"/>
       <c r="C17" s="17" t="n"/>
-      <c r="D17" s="12" t="n"/>
+      <c r="D17" s="10" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="16" t="n"/>
       <c r="C18" s="17" t="n"/>
-      <c r="D18" s="12" t="n"/>
+      <c r="D18" s="10" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="16" t="n"/>
       <c r="C19" s="17" t="n"/>
-      <c r="D19" s="12" t="n"/>
+      <c r="D19" s="10" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="16" t="n"/>
       <c r="C20" s="17" t="n"/>
-      <c r="D20" s="12" t="n"/>
+      <c r="D20" s="10" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="16" t="n"/>
       <c r="C21" s="17" t="n"/>
-      <c r="D21" s="12" t="n"/>
+      <c r="D21" s="10" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="16" t="n"/>
       <c r="C22" s="17" t="n"/>
-      <c r="D22" s="12" t="n"/>
+      <c r="D22" s="10" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="16" t="n"/>
       <c r="C23" s="17" t="n"/>
-      <c r="D23" s="12" t="n"/>
+      <c r="D23" s="10" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="16" t="n"/>
       <c r="C24" s="17" t="n"/>
-      <c r="D24" s="12" t="n"/>
+      <c r="D24" s="10" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="16" t="n"/>
       <c r="C25" s="17" t="n"/>
-      <c r="D25" s="12" t="n"/>
+      <c r="D25" s="10" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="16" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="12" t="n"/>
+      <c r="D26" s="10" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="16" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="12" t="n"/>
+      <c r="D27" s="10" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="12" t="n"/>
+      <c r="D28" s="10" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="12" t="n"/>
+      <c r="D29" s="10" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="16" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="12" t="n"/>
+      <c r="D30" s="10" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
@@ -1917,13 +1917,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr"/>
-      <c r="C32" s="11" t="inlineStr"/>
+      <c r="B32" s="8" t="inlineStr"/>
+      <c r="C32" s="9" t="inlineStr"/>
       <c r="D32" s="15" t="n">
         <v>0</v>
       </c>
@@ -1957,7 +1957,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Conto del mese di Novembre</t>
         </is>
@@ -1968,35 +1968,35 @@
     <row r="4"/>
     <row r="5"/>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr"/>
-      <c r="C7" s="11" t="inlineStr"/>
+      <c r="B7" s="8" t="inlineStr"/>
+      <c r="C7" s="9" t="inlineStr"/>
       <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
@@ -2004,120 +2004,120 @@
     <row r="8">
       <c r="B8" s="16" t="n"/>
       <c r="C8" s="17" t="n"/>
-      <c r="D8" s="12" t="n"/>
+      <c r="D8" s="10" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="16" t="n"/>
       <c r="C9" s="17" t="n"/>
-      <c r="D9" s="12" t="n"/>
+      <c r="D9" s="10" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="16" t="n"/>
       <c r="C10" s="17" t="n"/>
-      <c r="D10" s="12" t="n"/>
+      <c r="D10" s="10" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="16" t="n"/>
       <c r="C11" s="17" t="n"/>
-      <c r="D11" s="12" t="n"/>
+      <c r="D11" s="10" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="16" t="n"/>
       <c r="C12" s="17" t="n"/>
-      <c r="D12" s="12" t="n"/>
+      <c r="D12" s="10" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="16" t="n"/>
       <c r="C13" s="17" t="n"/>
-      <c r="D13" s="12" t="n"/>
+      <c r="D13" s="10" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="16" t="n"/>
       <c r="C14" s="17" t="n"/>
-      <c r="D14" s="12" t="n"/>
+      <c r="D14" s="10" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="16" t="n"/>
       <c r="C15" s="17" t="n"/>
-      <c r="D15" s="12" t="n"/>
+      <c r="D15" s="10" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="16" t="n"/>
       <c r="C16" s="17" t="n"/>
-      <c r="D16" s="12" t="n"/>
+      <c r="D16" s="10" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="16" t="n"/>
       <c r="C17" s="17" t="n"/>
-      <c r="D17" s="12" t="n"/>
+      <c r="D17" s="10" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="16" t="n"/>
       <c r="C18" s="17" t="n"/>
-      <c r="D18" s="12" t="n"/>
+      <c r="D18" s="10" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="16" t="n"/>
       <c r="C19" s="17" t="n"/>
-      <c r="D19" s="12" t="n"/>
+      <c r="D19" s="10" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="16" t="n"/>
       <c r="C20" s="17" t="n"/>
-      <c r="D20" s="12" t="n"/>
+      <c r="D20" s="10" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="16" t="n"/>
       <c r="C21" s="17" t="n"/>
-      <c r="D21" s="12" t="n"/>
+      <c r="D21" s="10" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="16" t="n"/>
       <c r="C22" s="17" t="n"/>
-      <c r="D22" s="12" t="n"/>
+      <c r="D22" s="10" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="16" t="n"/>
       <c r="C23" s="17" t="n"/>
-      <c r="D23" s="12" t="n"/>
+      <c r="D23" s="10" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="16" t="n"/>
       <c r="C24" s="17" t="n"/>
-      <c r="D24" s="12" t="n"/>
+      <c r="D24" s="10" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="16" t="n"/>
       <c r="C25" s="17" t="n"/>
-      <c r="D25" s="12" t="n"/>
+      <c r="D25" s="10" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="16" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="12" t="n"/>
+      <c r="D26" s="10" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="16" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="12" t="n"/>
+      <c r="D27" s="10" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="12" t="n"/>
+      <c r="D28" s="10" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="12" t="n"/>
+      <c r="D29" s="10" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="16" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="12" t="n"/>
+      <c r="D30" s="10" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
@@ -2139,13 +2139,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr"/>
-      <c r="C32" s="11" t="inlineStr"/>
+      <c r="B32" s="8" t="inlineStr"/>
+      <c r="C32" s="9" t="inlineStr"/>
       <c r="D32" s="15" t="n">
         <v>0</v>
       </c>
@@ -2179,7 +2179,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Conto del mese di Dicembre</t>
         </is>
@@ -2190,35 +2190,35 @@
     <row r="4"/>
     <row r="5"/>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr"/>
-      <c r="C7" s="11" t="inlineStr"/>
+      <c r="B7" s="8" t="inlineStr"/>
+      <c r="C7" s="9" t="inlineStr"/>
       <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
@@ -2226,120 +2226,120 @@
     <row r="8">
       <c r="B8" s="16" t="n"/>
       <c r="C8" s="17" t="n"/>
-      <c r="D8" s="12" t="n"/>
+      <c r="D8" s="10" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="16" t="n"/>
       <c r="C9" s="17" t="n"/>
-      <c r="D9" s="12" t="n"/>
+      <c r="D9" s="10" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="16" t="n"/>
       <c r="C10" s="17" t="n"/>
-      <c r="D10" s="12" t="n"/>
+      <c r="D10" s="10" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="16" t="n"/>
       <c r="C11" s="17" t="n"/>
-      <c r="D11" s="12" t="n"/>
+      <c r="D11" s="10" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="16" t="n"/>
       <c r="C12" s="17" t="n"/>
-      <c r="D12" s="12" t="n"/>
+      <c r="D12" s="10" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="16" t="n"/>
       <c r="C13" s="17" t="n"/>
-      <c r="D13" s="12" t="n"/>
+      <c r="D13" s="10" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="16" t="n"/>
       <c r="C14" s="17" t="n"/>
-      <c r="D14" s="12" t="n"/>
+      <c r="D14" s="10" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="16" t="n"/>
       <c r="C15" s="17" t="n"/>
-      <c r="D15" s="12" t="n"/>
+      <c r="D15" s="10" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="16" t="n"/>
       <c r="C16" s="17" t="n"/>
-      <c r="D16" s="12" t="n"/>
+      <c r="D16" s="10" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="16" t="n"/>
       <c r="C17" s="17" t="n"/>
-      <c r="D17" s="12" t="n"/>
+      <c r="D17" s="10" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="16" t="n"/>
       <c r="C18" s="17" t="n"/>
-      <c r="D18" s="12" t="n"/>
+      <c r="D18" s="10" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="16" t="n"/>
       <c r="C19" s="17" t="n"/>
-      <c r="D19" s="12" t="n"/>
+      <c r="D19" s="10" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="16" t="n"/>
       <c r="C20" s="17" t="n"/>
-      <c r="D20" s="12" t="n"/>
+      <c r="D20" s="10" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="16" t="n"/>
       <c r="C21" s="17" t="n"/>
-      <c r="D21" s="12" t="n"/>
+      <c r="D21" s="10" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="16" t="n"/>
       <c r="C22" s="17" t="n"/>
-      <c r="D22" s="12" t="n"/>
+      <c r="D22" s="10" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="16" t="n"/>
       <c r="C23" s="17" t="n"/>
-      <c r="D23" s="12" t="n"/>
+      <c r="D23" s="10" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="16" t="n"/>
       <c r="C24" s="17" t="n"/>
-      <c r="D24" s="12" t="n"/>
+      <c r="D24" s="10" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="16" t="n"/>
       <c r="C25" s="17" t="n"/>
-      <c r="D25" s="12" t="n"/>
+      <c r="D25" s="10" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="16" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="12" t="n"/>
+      <c r="D26" s="10" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="16" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="12" t="n"/>
+      <c r="D27" s="10" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="12" t="n"/>
+      <c r="D28" s="10" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="12" t="n"/>
+      <c r="D29" s="10" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="16" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="12" t="n"/>
+      <c r="D30" s="10" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
@@ -2361,13 +2361,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr"/>
-      <c r="C32" s="11" t="inlineStr"/>
+      <c r="B32" s="8" t="inlineStr"/>
+      <c r="C32" s="9" t="inlineStr"/>
       <c r="D32" s="15" t="n">
         <v>0</v>
       </c>
@@ -2712,756 +2712,789 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:D61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Conti mese di gennaio</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="10" t="n">
         <v>544</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Giacomo</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="10" t="n">
         <v>1060.05</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="A9" s="11" t="n"/>
+      <c r="B9" s="14" t="n"/>
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="10" t="n">
         <v>1028.81</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="10" t="n">
         <v>52.36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="10" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="11" t="n"/>
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>Offerte libere</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="10" t="n">
         <v>2760</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="14" t="n"/>
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>Presepio</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="10" t="n">
         <v>256</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="10" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="11" t="n"/>
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="10" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="10" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="14" t="n"/>
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="10" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="10" t="n">
         <v>226.89</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>Sanitaria</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="10" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="10" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" s="9" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="10" t="n">
         <v>530</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>Marmellata</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="10" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="A23" s="11" t="n"/>
+      <c r="B23" s="11" t="n"/>
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="10" t="n">
         <v>920</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="11" t="n"/>
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>Pasta</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="10" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="5" t="n"/>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="A25" s="14" t="n"/>
+      <c r="B25" s="14" t="n"/>
+      <c r="C25" s="9" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="10" t="n">
         <v>326.5</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr"/>
-      <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" t="n">
+      <c r="B26" s="8" t="inlineStr"/>
+      <c r="C26" s="9" t="inlineStr"/>
+      <c r="D26" s="15" t="n">
         <v>10980.81</v>
       </c>
     </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="17" t="n"/>
+      <c r="D27" s="10" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="10" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="10" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="17" t="n"/>
+      <c r="D30" s="10" t="n"/>
+    </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="19" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr">
         <is>
           <t>Casalinghi</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="10" t="n">
         <v>141.73</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="A33" s="11" t="n"/>
+      <c r="B33" s="11" t="n"/>
+      <c r="C33" s="9" t="inlineStr">
         <is>
           <t>Computer</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="10" t="n">
         <v>38.56</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="6" t="n"/>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="A34" s="11" t="n"/>
+      <c r="B34" s="11" t="n"/>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="10" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="5" t="n"/>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="A35" s="11" t="n"/>
+      <c r="B35" s="14" t="n"/>
+      <c r="C35" s="9" t="inlineStr">
         <is>
           <t>Stampante_Fotocopiatrice</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="10" t="n">
         <v>55.4</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="A36" s="11" t="n"/>
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="9" t="inlineStr">
         <is>
           <t>Ceri e Candele</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="10" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="A37" s="11" t="n"/>
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="9" t="inlineStr">
         <is>
           <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="10" t="n">
         <v>823</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="6" t="n"/>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="A38" s="11" t="n"/>
+      <c r="B38" s="11" t="n"/>
+      <c r="C38" s="9" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="10" t="n">
         <v>630</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="5" t="n"/>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="A39" s="11" t="n"/>
+      <c r="B39" s="14" t="n"/>
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="10" t="n">
         <v>150.36</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="A40" s="11" t="n"/>
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="9" t="inlineStr">
         <is>
           <t>Abbonamenti</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="10" t="n">
         <v>100.32</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="5" t="n"/>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="A41" s="11" t="n"/>
+      <c r="B41" s="14" t="n"/>
+      <c r="C41" s="9" t="inlineStr">
         <is>
           <t>Libri</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="10" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="A42" s="11" t="n"/>
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C42" s="9" t="inlineStr">
         <is>
           <t>Beneficenza 5%</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="10" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="A43" s="11" t="n"/>
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C43" s="9" t="inlineStr">
         <is>
           <t>ENEL</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="10" t="n">
         <v>1185.57</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="A44" s="11" t="n"/>
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C44" s="9" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="10" t="n">
         <v>1070.56</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="5" t="n"/>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="A45" s="11" t="n"/>
+      <c r="B45" s="14" t="n"/>
+      <c r="C45" s="9" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="10" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="A46" s="11" t="n"/>
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C46" s="9" t="inlineStr">
         <is>
           <t>Detersivi</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="10" t="n">
         <v>135.26</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="6" t="n"/>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="A47" s="11" t="n"/>
+      <c r="B47" s="11" t="n"/>
+      <c r="C47" s="9" t="inlineStr">
         <is>
           <t>Igiene personale</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="10" t="n">
         <v>13.75</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
-      <c r="B48" s="5" t="n"/>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="A48" s="11" t="n"/>
+      <c r="B48" s="14" t="n"/>
+      <c r="C48" s="9" t="inlineStr">
         <is>
           <t>Lavanderia</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="10" t="n">
         <v>5.5</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="A49" s="11" t="n"/>
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C49" s="9" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="10" t="n">
         <v>113.4</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="5" t="n"/>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="A50" s="11" t="n"/>
+      <c r="B50" s="14" t="n"/>
+      <c r="C50" s="9" t="inlineStr">
         <is>
           <t>Passaporto</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="10" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="A51" s="11" t="n"/>
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C51" s="9" t="inlineStr">
         <is>
           <t>Cancelleria</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="10" t="n">
         <v>71.95</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="A52" s="11" t="n"/>
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C52" s="9" t="inlineStr">
         <is>
           <t>Scheda telefonica</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="10" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="A53" s="11" t="n"/>
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C53" s="9" t="inlineStr">
         <is>
           <t>Bollo Auto</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="10" t="n">
         <v>243.56</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="A54" s="11" t="n"/>
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="C54" s="9" t="inlineStr">
         <is>
           <t>Sandali - scarpe</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="10" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="A55" s="11" t="n"/>
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C55" s="9" t="inlineStr">
         <is>
           <t>Alimentari</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="10" t="n">
         <v>542.5599999999999</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
-      <c r="B56" s="6" t="n"/>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="A56" s="11" t="n"/>
+      <c r="B56" s="11" t="n"/>
+      <c r="C56" s="9" t="inlineStr">
         <is>
           <t>Bartolazzi</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="10" t="n">
         <v>533</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n"/>
-      <c r="B57" s="6" t="n"/>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="A57" s="11" t="n"/>
+      <c r="B57" s="11" t="n"/>
+      <c r="C57" s="9" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="10" t="n">
         <v>344.36</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n"/>
-      <c r="B58" s="6" t="n"/>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="A58" s="11" t="n"/>
+      <c r="B58" s="11" t="n"/>
+      <c r="C58" s="9" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="10" t="n">
         <v>255.16</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="A59" s="11" t="n"/>
+      <c r="B59" s="11" t="n"/>
+      <c r="C59" s="9" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="10" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="n"/>
-      <c r="B60" s="5" t="n"/>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="A60" s="14" t="n"/>
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="9" t="inlineStr">
         <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="10" t="n">
         <v>54.9</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="inlineStr">
+      <c r="A61" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr"/>
-      <c r="C61" s="4" t="inlineStr"/>
-      <c r="D61" t="n">
+      <c r="B61" s="8" t="inlineStr"/>
+      <c r="C61" s="9" t="inlineStr"/>
+      <c r="D61" s="15" t="n">
         <v>7004.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A7:A25"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B13"/>
@@ -3477,6 +3510,7 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B55:B60"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3503,7 +3537,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Conto del mese di Gennaio</t>
         </is>
@@ -3514,299 +3548,299 @@
     <row r="4"/>
     <row r="5"/>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="10" t="n">
         <v>544</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Giacomo</t>
         </is>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="10" t="n">
         <v>1060.05</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="A9" s="11" t="n"/>
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
         </is>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="10" t="n">
         <v>1028.81</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="10" t="n">
         <v>52.36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
         </is>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="10" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="11" t="inlineStr">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>Offerte libere</t>
         </is>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="10" t="n">
         <v>2760</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="12" t="n"/>
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>Presepio</t>
         </is>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="10" t="n">
         <v>256</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="10" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="14" t="n"/>
-      <c r="C15" s="11" t="inlineStr">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="10" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="14" t="n"/>
-      <c r="C16" s="11" t="inlineStr">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="13" t="n"/>
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="10" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="10" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="10" t="n">
         <v>226.89</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="11" t="inlineStr">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="12" t="n"/>
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>Sanitaria</t>
         </is>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="10" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="10" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="11" t="inlineStr">
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" s="9" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="10" t="n">
         <v>530</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>Marmellata</t>
         </is>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="10" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="11" t="inlineStr">
+      <c r="A23" s="11" t="n"/>
+      <c r="B23" s="13" t="n"/>
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
         </is>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="10" t="n">
         <v>920</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="14" t="n"/>
-      <c r="C24" s="11" t="inlineStr">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="13" t="n"/>
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>Pasta</t>
         </is>
       </c>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="10" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="13" t="n"/>
-      <c r="C25" s="11" t="inlineStr">
+      <c r="A25" s="14" t="n"/>
+      <c r="B25" s="12" t="n"/>
+      <c r="C25" s="9" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D25" s="12" t="n">
+      <c r="D25" s="10" t="n">
         <v>326.5</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="inlineStr">
+      <c r="A26" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B26" s="10" t="inlineStr"/>
-      <c r="C26" s="11" t="inlineStr"/>
+      <c r="B26" s="8" t="inlineStr"/>
+      <c r="C26" s="9" t="inlineStr"/>
       <c r="D26" s="15" t="n">
         <v>10980.81</v>
       </c>
@@ -3814,25 +3848,25 @@
     <row r="27">
       <c r="B27" s="16" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="12" t="n"/>
+      <c r="D27" s="10" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="12" t="n"/>
+      <c r="D28" s="10" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="12" t="n"/>
+      <c r="D29" s="10" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="16" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="12" t="n"/>
+      <c r="D30" s="10" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
@@ -3854,421 +3888,421 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr">
         <is>
           <t>Casalinghi</t>
         </is>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="10" t="n">
         <v>141.73</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="14" t="n"/>
-      <c r="C33" s="11" t="inlineStr">
+      <c r="A33" s="11" t="n"/>
+      <c r="B33" s="13" t="n"/>
+      <c r="C33" s="9" t="inlineStr">
         <is>
           <t>Computer</t>
         </is>
       </c>
-      <c r="D33" s="12" t="n">
+      <c r="D33" s="10" t="n">
         <v>38.56</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="14" t="n"/>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="A34" s="11" t="n"/>
+      <c r="B34" s="13" t="n"/>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
         </is>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="10" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="13" t="n"/>
-      <c r="C35" s="11" t="inlineStr">
+      <c r="A35" s="11" t="n"/>
+      <c r="B35" s="12" t="n"/>
+      <c r="C35" s="9" t="inlineStr">
         <is>
           <t>Stampante_Fotocopiatrice</t>
         </is>
       </c>
-      <c r="D35" s="12" t="n">
+      <c r="D35" s="10" t="n">
         <v>55.4</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="10" t="inlineStr">
+      <c r="A36" s="11" t="n"/>
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
         </is>
       </c>
-      <c r="C36" s="11" t="inlineStr">
+      <c r="C36" s="9" t="inlineStr">
         <is>
           <t>Ceri e Candele</t>
         </is>
       </c>
-      <c r="D36" s="12" t="n">
+      <c r="D36" s="10" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
-      <c r="B37" s="10" t="inlineStr">
+      <c r="A37" s="11" t="n"/>
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
-      <c r="C37" s="11" t="inlineStr">
+      <c r="C37" s="9" t="inlineStr">
         <is>
           <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
-      <c r="D37" s="12" t="n">
+      <c r="D37" s="10" t="n">
         <v>823</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="14" t="n"/>
-      <c r="C38" s="11" t="inlineStr">
+      <c r="A38" s="11" t="n"/>
+      <c r="B38" s="13" t="n"/>
+      <c r="C38" s="9" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
         </is>
       </c>
-      <c r="D38" s="12" t="n">
+      <c r="D38" s="10" t="n">
         <v>630</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="13" t="n"/>
-      <c r="C39" s="11" t="inlineStr">
+      <c r="A39" s="11" t="n"/>
+      <c r="B39" s="12" t="n"/>
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
         </is>
       </c>
-      <c r="D39" s="12" t="n">
+      <c r="D39" s="10" t="n">
         <v>150.36</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
-      <c r="B40" s="10" t="inlineStr">
+      <c r="A40" s="11" t="n"/>
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr">
+      <c r="C40" s="9" t="inlineStr">
         <is>
           <t>Abbonamenti</t>
         </is>
       </c>
-      <c r="D40" s="12" t="n">
+      <c r="D40" s="10" t="n">
         <v>100.32</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="13" t="n"/>
-      <c r="C41" s="11" t="inlineStr">
+      <c r="A41" s="11" t="n"/>
+      <c r="B41" s="12" t="n"/>
+      <c r="C41" s="9" t="inlineStr">
         <is>
           <t>Libri</t>
         </is>
       </c>
-      <c r="D41" s="12" t="n">
+      <c r="D41" s="10" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="10" t="inlineStr">
+      <c r="A42" s="11" t="n"/>
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
       </c>
-      <c r="C42" s="11" t="inlineStr">
+      <c r="C42" s="9" t="inlineStr">
         <is>
           <t>Beneficenza 5%</t>
         </is>
       </c>
-      <c r="D42" s="12" t="n">
+      <c r="D42" s="10" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="10" t="inlineStr">
+      <c r="A43" s="11" t="n"/>
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
         </is>
       </c>
-      <c r="C43" s="11" t="inlineStr">
+      <c r="C43" s="9" t="inlineStr">
         <is>
           <t>ENEL</t>
         </is>
       </c>
-      <c r="D43" s="12" t="n">
+      <c r="D43" s="10" t="n">
         <v>1185.57</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
-      <c r="B44" s="10" t="inlineStr">
+      <c r="A44" s="11" t="n"/>
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C44" s="11" t="inlineStr">
+      <c r="C44" s="9" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D44" s="12" t="n">
+      <c r="D44" s="10" t="n">
         <v>1070.56</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="13" t="n"/>
-      <c r="C45" s="11" t="inlineStr">
+      <c r="A45" s="11" t="n"/>
+      <c r="B45" s="12" t="n"/>
+      <c r="C45" s="9" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
-      <c r="D45" s="12" t="n">
+      <c r="D45" s="10" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
-      <c r="B46" s="10" t="inlineStr">
+      <c r="A46" s="11" t="n"/>
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
       </c>
-      <c r="C46" s="11" t="inlineStr">
+      <c r="C46" s="9" t="inlineStr">
         <is>
           <t>Detersivi</t>
         </is>
       </c>
-      <c r="D46" s="12" t="n">
+      <c r="D46" s="10" t="n">
         <v>135.26</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="14" t="n"/>
-      <c r="C47" s="11" t="inlineStr">
+      <c r="A47" s="11" t="n"/>
+      <c r="B47" s="13" t="n"/>
+      <c r="C47" s="9" t="inlineStr">
         <is>
           <t>Igiene personale</t>
         </is>
       </c>
-      <c r="D47" s="12" t="n">
+      <c r="D47" s="10" t="n">
         <v>13.75</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
-      <c r="B48" s="13" t="n"/>
-      <c r="C48" s="11" t="inlineStr">
+      <c r="A48" s="11" t="n"/>
+      <c r="B48" s="12" t="n"/>
+      <c r="C48" s="9" t="inlineStr">
         <is>
           <t>Lavanderia</t>
         </is>
       </c>
-      <c r="D48" s="12" t="n">
+      <c r="D48" s="10" t="n">
         <v>5.5</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
-      <c r="B49" s="10" t="inlineStr">
+      <c r="A49" s="11" t="n"/>
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C49" s="11" t="inlineStr">
+      <c r="C49" s="9" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
         </is>
       </c>
-      <c r="D49" s="12" t="n">
+      <c r="D49" s="10" t="n">
         <v>113.4</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="13" t="n"/>
-      <c r="C50" s="11" t="inlineStr">
+      <c r="A50" s="11" t="n"/>
+      <c r="B50" s="12" t="n"/>
+      <c r="C50" s="9" t="inlineStr">
         <is>
           <t>Passaporto</t>
         </is>
       </c>
-      <c r="D50" s="12" t="n">
+      <c r="D50" s="10" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
-      <c r="B51" s="10" t="inlineStr">
+      <c r="A51" s="11" t="n"/>
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
         </is>
       </c>
-      <c r="C51" s="11" t="inlineStr">
+      <c r="C51" s="9" t="inlineStr">
         <is>
           <t>Cancelleria</t>
         </is>
       </c>
-      <c r="D51" s="12" t="n">
+      <c r="D51" s="10" t="n">
         <v>71.95</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
-      <c r="B52" s="10" t="inlineStr">
+      <c r="A52" s="11" t="n"/>
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr">
+      <c r="C52" s="9" t="inlineStr">
         <is>
           <t>Scheda telefonica</t>
         </is>
       </c>
-      <c r="D52" s="12" t="n">
+      <c r="D52" s="10" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
-      <c r="B53" s="10" t="inlineStr">
+      <c r="A53" s="11" t="n"/>
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
       </c>
-      <c r="C53" s="11" t="inlineStr">
+      <c r="C53" s="9" t="inlineStr">
         <is>
           <t>Bollo Auto</t>
         </is>
       </c>
-      <c r="D53" s="12" t="n">
+      <c r="D53" s="10" t="n">
         <v>243.56</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
-      <c r="B54" s="10" t="inlineStr">
+      <c r="A54" s="11" t="n"/>
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
       </c>
-      <c r="C54" s="11" t="inlineStr">
+      <c r="C54" s="9" t="inlineStr">
         <is>
           <t>Sandali - scarpe</t>
         </is>
       </c>
-      <c r="D54" s="12" t="n">
+      <c r="D54" s="10" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
-      <c r="B55" s="10" t="inlineStr">
+      <c r="A55" s="11" t="n"/>
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
       </c>
-      <c r="C55" s="11" t="inlineStr">
+      <c r="C55" s="9" t="inlineStr">
         <is>
           <t>Alimentari</t>
         </is>
       </c>
-      <c r="D55" s="12" t="n">
+      <c r="D55" s="10" t="n">
         <v>542.5599999999999</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
-      <c r="B56" s="14" t="n"/>
-      <c r="C56" s="11" t="inlineStr">
+      <c r="A56" s="11" t="n"/>
+      <c r="B56" s="13" t="n"/>
+      <c r="C56" s="9" t="inlineStr">
         <is>
           <t>Bartolazzi</t>
         </is>
       </c>
-      <c r="D56" s="12" t="n">
+      <c r="D56" s="10" t="n">
         <v>533</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n"/>
-      <c r="B57" s="14" t="n"/>
-      <c r="C57" s="11" t="inlineStr">
+      <c r="A57" s="11" t="n"/>
+      <c r="B57" s="13" t="n"/>
+      <c r="C57" s="9" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D57" s="12" t="n">
+      <c r="D57" s="10" t="n">
         <v>344.36</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n"/>
-      <c r="B58" s="14" t="n"/>
-      <c r="C58" s="11" t="inlineStr">
+      <c r="A58" s="11" t="n"/>
+      <c r="B58" s="13" t="n"/>
+      <c r="C58" s="9" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D58" s="12" t="n">
+      <c r="D58" s="10" t="n">
         <v>255.16</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="14" t="n"/>
-      <c r="C59" s="11" t="inlineStr">
+      <c r="A59" s="11" t="n"/>
+      <c r="B59" s="13" t="n"/>
+      <c r="C59" s="9" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D59" s="12" t="n">
+      <c r="D59" s="10" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="n"/>
-      <c r="B60" s="13" t="n"/>
-      <c r="C60" s="11" t="inlineStr">
+      <c r="A60" s="14" t="n"/>
+      <c r="B60" s="12" t="n"/>
+      <c r="C60" s="9" t="inlineStr">
         <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D60" s="12" t="n">
+      <c r="D60" s="10" t="n">
         <v>54.9</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="inlineStr">
+      <c r="A61" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B61" s="10" t="inlineStr"/>
-      <c r="C61" s="11" t="inlineStr"/>
+      <c r="B61" s="8" t="inlineStr"/>
+      <c r="C61" s="9" t="inlineStr"/>
       <c r="D61" s="15" t="n">
         <v>7004.4</v>
       </c>
@@ -4317,7 +4351,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Conto del mese di Febbraio</t>
         </is>
@@ -4328,287 +4362,287 @@
     <row r="4"/>
     <row r="5"/>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="10" t="n">
         <v>480</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Giacomo</t>
         </is>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="10" t="n">
         <v>1060.05</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="A9" s="11" t="n"/>
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
         </is>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="10" t="n">
         <v>1028.81</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Accoglienza</t>
         </is>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="10" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
-      <c r="B11" s="14" t="n"/>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
         </is>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="10" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="11" t="inlineStr">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>Offerte libere</t>
         </is>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="10" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="12" t="n"/>
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>Offerte ofs</t>
         </is>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="10" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="10" t="n">
         <v>636</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="14" t="n"/>
-      <c r="C15" s="11" t="inlineStr">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="10" t="n">
         <v>636</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="14" t="n"/>
-      <c r="C16" s="11" t="inlineStr">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="13" t="n"/>
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="10" t="n">
         <v>636</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="10" t="n">
         <v>636</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="10" t="n">
         <v>259.35</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="11" t="inlineStr">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="12" t="n"/>
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>Ticket - esami</t>
         </is>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="10" t="n">
         <v>33.8</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="10" t="n">
         <v>360</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="11" t="inlineStr">
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" s="9" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="10" t="n">
         <v>425</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>Sussidi</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>AGEA</t>
         </is>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="10" t="n">
         <v>507.78</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="10" t="inlineStr">
+      <c r="A23" s="11" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C23" s="11" t="inlineStr">
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>Marmellata</t>
         </is>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="10" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n"/>
-      <c r="B24" s="13" t="n"/>
-      <c r="C24" s="11" t="inlineStr">
+      <c r="A24" s="14" t="n"/>
+      <c r="B24" s="12" t="n"/>
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="10" t="n">
         <v>318</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="inlineStr">
+      <c r="A25" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B25" s="10" t="inlineStr"/>
-      <c r="C25" s="11" t="inlineStr"/>
+      <c r="B25" s="8" t="inlineStr"/>
+      <c r="C25" s="9" t="inlineStr"/>
       <c r="D25" s="15" t="n">
         <v>8036.79</v>
       </c>
@@ -4616,30 +4650,30 @@
     <row r="26">
       <c r="B26" s="16" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="12" t="n"/>
+      <c r="D26" s="10" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="16" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="12" t="n"/>
+      <c r="D27" s="10" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="12" t="n"/>
+      <c r="D28" s="10" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="12" t="n"/>
+      <c r="D29" s="10" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="16" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="12" t="n"/>
+      <c r="D30" s="10" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
@@ -4661,365 +4695,365 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr">
         <is>
           <t>Cantina</t>
         </is>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="10" t="n">
         <v>1452.46</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="14" t="n"/>
-      <c r="C33" s="11" t="inlineStr">
+      <c r="A33" s="11" t="n"/>
+      <c r="B33" s="13" t="n"/>
+      <c r="C33" s="9" t="inlineStr">
         <is>
           <t>Computer</t>
         </is>
       </c>
-      <c r="D33" s="12" t="n">
+      <c r="D33" s="10" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="14" t="n"/>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="A34" s="11" t="n"/>
+      <c r="B34" s="13" t="n"/>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Ferramenta</t>
         </is>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="10" t="n">
         <v>512.58</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="14" t="n"/>
-      <c r="C35" s="11" t="inlineStr">
+      <c r="A35" s="11" t="n"/>
+      <c r="B35" s="13" t="n"/>
+      <c r="C35" s="9" t="inlineStr">
         <is>
           <t>Materiale edile</t>
         </is>
       </c>
-      <c r="D35" s="12" t="n">
+      <c r="D35" s="10" t="n">
         <v>1910</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="13" t="n"/>
-      <c r="C36" s="11" t="inlineStr">
+      <c r="A36" s="11" t="n"/>
+      <c r="B36" s="12" t="n"/>
+      <c r="C36" s="9" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
         </is>
       </c>
-      <c r="D36" s="12" t="n">
+      <c r="D36" s="10" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
-      <c r="B37" s="10" t="inlineStr">
+      <c r="A37" s="11" t="n"/>
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
-      <c r="C37" s="11" t="inlineStr">
+      <c r="C37" s="9" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
         </is>
       </c>
-      <c r="D37" s="12" t="n">
+      <c r="D37" s="10" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="10" t="inlineStr">
+      <c r="A38" s="11" t="n"/>
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C38" s="11" t="inlineStr">
+      <c r="C38" s="9" t="inlineStr">
         <is>
           <t>Abbonamenti</t>
         </is>
       </c>
-      <c r="D38" s="12" t="n">
+      <c r="D38" s="10" t="n">
         <v>82.04000000000001</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="13" t="n"/>
-      <c r="C39" s="11" t="inlineStr">
+      <c r="A39" s="11" t="n"/>
+      <c r="B39" s="12" t="n"/>
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t>Libri</t>
         </is>
       </c>
-      <c r="D39" s="12" t="n">
+      <c r="D39" s="10" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
-      <c r="B40" s="10" t="inlineStr">
+      <c r="A40" s="11" t="n"/>
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr">
+      <c r="C40" s="9" t="inlineStr">
         <is>
           <t>Beneficenza 5%</t>
         </is>
       </c>
-      <c r="D40" s="12" t="n">
+      <c r="D40" s="10" t="n">
         <v>2475</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="10" t="inlineStr">
+      <c r="A41" s="11" t="n"/>
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
         </is>
       </c>
-      <c r="C41" s="11" t="inlineStr">
+      <c r="C41" s="9" t="inlineStr">
         <is>
           <t>ENEL</t>
         </is>
       </c>
-      <c r="D41" s="12" t="n">
+      <c r="D41" s="10" t="n">
         <v>1179.12</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="10" t="inlineStr">
+      <c r="A42" s="11" t="n"/>
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C42" s="11" t="inlineStr">
+      <c r="C42" s="9" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D42" s="12" t="n">
+      <c r="D42" s="10" t="n">
         <v>917.17</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="13" t="n"/>
-      <c r="C43" s="11" t="inlineStr">
+      <c r="A43" s="11" t="n"/>
+      <c r="B43" s="12" t="n"/>
+      <c r="C43" s="9" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
-      <c r="D43" s="12" t="n">
+      <c r="D43" s="10" t="n">
         <v>8.6</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
-      <c r="B44" s="10" t="inlineStr">
+      <c r="A44" s="11" t="n"/>
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
       </c>
-      <c r="C44" s="11" t="inlineStr">
+      <c r="C44" s="9" t="inlineStr">
         <is>
           <t>Detersivi</t>
         </is>
       </c>
-      <c r="D44" s="12" t="n">
+      <c r="D44" s="10" t="n">
         <v>9.65</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="13" t="n"/>
-      <c r="C45" s="11" t="inlineStr">
+      <c r="A45" s="11" t="n"/>
+      <c r="B45" s="12" t="n"/>
+      <c r="C45" s="9" t="inlineStr">
         <is>
           <t>Igiene personale</t>
         </is>
       </c>
-      <c r="D45" s="12" t="n">
+      <c r="D45" s="10" t="n">
         <v>8.800000000000001</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
-      <c r="B46" s="10" t="inlineStr">
+      <c r="A46" s="11" t="n"/>
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C46" s="11" t="inlineStr">
+      <c r="C46" s="9" t="inlineStr">
         <is>
           <t>Canone RAI</t>
         </is>
       </c>
-      <c r="D46" s="12" t="n">
+      <c r="D46" s="10" t="n">
         <v>203.7</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="13" t="n"/>
-      <c r="C47" s="11" t="inlineStr">
+      <c r="A47" s="11" t="n"/>
+      <c r="B47" s="12" t="n"/>
+      <c r="C47" s="9" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
         </is>
       </c>
-      <c r="D47" s="12" t="n">
+      <c r="D47" s="10" t="n">
         <v>12.45</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
-      <c r="B48" s="10" t="inlineStr">
+      <c r="A48" s="11" t="n"/>
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
       </c>
-      <c r="C48" s="11" t="inlineStr">
+      <c r="C48" s="9" t="inlineStr">
         <is>
           <t>TELECOM</t>
         </is>
       </c>
-      <c r="D48" s="12" t="n">
+      <c r="D48" s="10" t="n">
         <v>219</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
-      <c r="B49" s="10" t="inlineStr">
+      <c r="A49" s="11" t="n"/>
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
       </c>
-      <c r="C49" s="11" t="inlineStr">
+      <c r="C49" s="9" t="inlineStr">
         <is>
           <t>Bollo Auto</t>
         </is>
       </c>
-      <c r="D49" s="12" t="n">
+      <c r="D49" s="10" t="n">
         <v>105</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="13" t="n"/>
-      <c r="C50" s="11" t="inlineStr">
+      <c r="A50" s="11" t="n"/>
+      <c r="B50" s="12" t="n"/>
+      <c r="C50" s="9" t="inlineStr">
         <is>
           <t>Meccanico</t>
         </is>
       </c>
-      <c r="D50" s="12" t="n">
+      <c r="D50" s="10" t="n">
         <v>220</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
-      <c r="B51" s="10" t="inlineStr">
+      <c r="A51" s="11" t="n"/>
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
       </c>
-      <c r="C51" s="11" t="inlineStr">
+      <c r="C51" s="9" t="inlineStr">
         <is>
           <t>Indumenti</t>
         </is>
       </c>
-      <c r="D51" s="12" t="n">
+      <c r="D51" s="10" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
-      <c r="B52" s="10" t="inlineStr">
+      <c r="A52" s="11" t="n"/>
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr">
+      <c r="C52" s="9" t="inlineStr">
         <is>
           <t>Alimentari</t>
         </is>
       </c>
-      <c r="D52" s="12" t="n">
+      <c r="D52" s="10" t="n">
         <v>248.66</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
-      <c r="B53" s="14" t="n"/>
-      <c r="C53" s="11" t="inlineStr">
+      <c r="A53" s="11" t="n"/>
+      <c r="B53" s="13" t="n"/>
+      <c r="C53" s="9" t="inlineStr">
         <is>
           <t>Bibite e gelati</t>
         </is>
       </c>
-      <c r="D53" s="12" t="n">
+      <c r="D53" s="10" t="n">
         <v>10.2</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
-      <c r="B54" s="14" t="n"/>
-      <c r="C54" s="11" t="inlineStr">
+      <c r="A54" s="11" t="n"/>
+      <c r="B54" s="13" t="n"/>
+      <c r="C54" s="9" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D54" s="12" t="n">
+      <c r="D54" s="10" t="n">
         <v>305.45</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
-      <c r="B55" s="14" t="n"/>
-      <c r="C55" s="11" t="inlineStr">
+      <c r="A55" s="11" t="n"/>
+      <c r="B55" s="13" t="n"/>
+      <c r="C55" s="9" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D55" s="12" t="n">
+      <c r="D55" s="10" t="n">
         <v>101.94</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n"/>
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="11" t="inlineStr">
+      <c r="A56" s="14" t="n"/>
+      <c r="B56" s="12" t="n"/>
+      <c r="C56" s="9" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D56" s="12" t="n">
+      <c r="D56" s="10" t="n">
         <v>49.1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="inlineStr">
+      <c r="A57" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B57" s="10" t="inlineStr"/>
-      <c r="C57" s="11" t="inlineStr"/>
+      <c r="B57" s="8" t="inlineStr"/>
+      <c r="C57" s="9" t="inlineStr"/>
       <c r="D57" s="15" t="n">
         <v>11009.92</v>
       </c>
@@ -5068,7 +5102,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Conto del mese di Marzo</t>
         </is>
@@ -5079,323 +5113,323 @@
     <row r="4"/>
     <row r="5"/>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="10" t="n">
         <v>553</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Giacomo</t>
         </is>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="10" t="n">
         <v>1060.05</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="14" t="n"/>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="A9" s="11" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
         </is>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="10" t="n">
         <v>1028.81</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="12" t="n"/>
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Mariano</t>
         </is>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="10" t="n">
         <v>1044.43</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>Accoglienza</t>
         </is>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="10" t="n">
         <v>490</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="11" t="inlineStr">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
         </is>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="10" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="12" t="n"/>
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>Offerte libere</t>
         </is>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="10" t="n">
         <v>405</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="10" t="n">
         <v>638</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="14" t="n"/>
-      <c r="C15" s="11" t="inlineStr">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="10" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="14" t="n"/>
-      <c r="C16" s="11" t="inlineStr">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="13" t="n"/>
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="10" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="10" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>Predicazione</t>
         </is>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>Tridui</t>
         </is>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="10" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="10" t="inlineStr">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr">
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="10" t="n">
         <v>116.26</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="14" t="n"/>
-      <c r="C20" s="11" t="inlineStr">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>Occhiali</t>
         </is>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="10" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="11" t="inlineStr">
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" s="9" t="inlineStr">
         <is>
           <t>Ticket - esami</t>
         </is>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="10" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="10" t="n">
         <v>540</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="13" t="n"/>
-      <c r="C23" s="11" t="inlineStr">
+      <c r="A23" s="11" t="n"/>
+      <c r="B23" s="12" t="n"/>
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="10" t="n">
         <v>170</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="10" t="inlineStr">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C24" s="11" t="inlineStr">
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>Marmellata</t>
         </is>
       </c>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="10" t="n">
         <v>105</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="14" t="n"/>
-      <c r="C25" s="11" t="inlineStr">
+      <c r="A25" s="11" t="n"/>
+      <c r="B25" s="13" t="n"/>
+      <c r="C25" s="9" t="inlineStr">
         <is>
           <t>Mercatino convento</t>
         </is>
       </c>
-      <c r="D25" s="12" t="n">
+      <c r="D25" s="10" t="n">
         <v>1900</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="14" t="n"/>
-      <c r="C26" s="11" t="inlineStr">
+      <c r="A26" s="11" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="9" t="inlineStr">
         <is>
           <t>Pasta</t>
         </is>
       </c>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="10" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
-      <c r="B27" s="13" t="n"/>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="A27" s="14" t="n"/>
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" s="9" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D27" s="12" t="n">
+      <c r="D27" s="10" t="n">
         <v>405.4</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="inlineStr">
+      <c r="A28" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B28" s="10" t="inlineStr"/>
-      <c r="C28" s="11" t="inlineStr"/>
+      <c r="B28" s="8" t="inlineStr"/>
+      <c r="C28" s="9" t="inlineStr"/>
       <c r="D28" s="15" t="n">
         <v>10704.95</v>
       </c>
@@ -5403,15 +5437,15 @@
     <row r="29">
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="12" t="n"/>
+      <c r="D29" s="10" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="16" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="12" t="n"/>
+      <c r="D30" s="10" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
@@ -5433,341 +5467,341 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr">
         <is>
           <t>Casalinghi</t>
         </is>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="10" t="n">
         <v>152</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="14" t="n"/>
-      <c r="C33" s="11" t="inlineStr">
+      <c r="A33" s="11" t="n"/>
+      <c r="B33" s="13" t="n"/>
+      <c r="C33" s="9" t="inlineStr">
         <is>
           <t>Ferramenta</t>
         </is>
       </c>
-      <c r="D33" s="12" t="n">
+      <c r="D33" s="10" t="n">
         <v>322.58</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="13" t="n"/>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="A34" s="11" t="n"/>
+      <c r="B34" s="12" t="n"/>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
         </is>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="10" t="n">
         <v>9.1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="10" t="inlineStr">
+      <c r="A35" s="11" t="n"/>
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C35" s="11" t="inlineStr">
+      <c r="C35" s="9" t="inlineStr">
         <is>
           <t>Libri</t>
         </is>
       </c>
-      <c r="D35" s="12" t="n">
+      <c r="D35" s="10" t="n">
         <v>141</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="10" t="inlineStr">
+      <c r="A36" s="11" t="n"/>
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
       </c>
-      <c r="C36" s="11" t="inlineStr">
+      <c r="C36" s="9" t="inlineStr">
         <is>
           <t>Beneficenza 5%</t>
         </is>
       </c>
-      <c r="D36" s="12" t="n">
+      <c r="D36" s="10" t="n">
         <v>1200</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
-      <c r="B37" s="10" t="inlineStr">
+      <c r="A37" s="11" t="n"/>
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
         </is>
       </c>
-      <c r="C37" s="11" t="inlineStr">
+      <c r="C37" s="9" t="inlineStr">
         <is>
           <t>ENEL</t>
         </is>
       </c>
-      <c r="D37" s="12" t="n">
+      <c r="D37" s="10" t="n">
         <v>1055.74</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="10" t="inlineStr">
+      <c r="A38" s="11" t="n"/>
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C38" s="11" t="inlineStr">
+      <c r="C38" s="9" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D38" s="12" t="n">
+      <c r="D38" s="10" t="n">
         <v>1539.39</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="13" t="n"/>
-      <c r="C39" s="11" t="inlineStr">
+      <c r="A39" s="11" t="n"/>
+      <c r="B39" s="12" t="n"/>
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
-      <c r="D39" s="12" t="n">
+      <c r="D39" s="10" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
-      <c r="B40" s="10" t="inlineStr">
+      <c r="A40" s="11" t="n"/>
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr">
+      <c r="C40" s="9" t="inlineStr">
         <is>
           <t>Lavanderia</t>
         </is>
       </c>
-      <c r="D40" s="12" t="n">
+      <c r="D40" s="10" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="10" t="inlineStr">
+      <c r="A41" s="11" t="n"/>
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C41" s="11" t="inlineStr">
+      <c r="C41" s="9" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
         </is>
       </c>
-      <c r="D41" s="12" t="n">
+      <c r="D41" s="10" t="n">
         <v>5.1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="13" t="n"/>
-      <c r="C42" s="11" t="inlineStr">
+      <c r="A42" s="11" t="n"/>
+      <c r="B42" s="12" t="n"/>
+      <c r="C42" s="9" t="inlineStr">
         <is>
           <t>Imposte varie</t>
         </is>
       </c>
-      <c r="D42" s="12" t="n">
+      <c r="D42" s="10" t="n">
         <v>18.59</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="10" t="inlineStr">
+      <c r="A43" s="11" t="n"/>
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
         </is>
       </c>
-      <c r="C43" s="11" t="inlineStr">
+      <c r="C43" s="9" t="inlineStr">
         <is>
           <t>Boscaiolo</t>
         </is>
       </c>
-      <c r="D43" s="12" t="n">
+      <c r="D43" s="10" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
-      <c r="B44" s="14" t="n"/>
-      <c r="C44" s="11" t="inlineStr">
+      <c r="A44" s="11" t="n"/>
+      <c r="B44" s="13" t="n"/>
+      <c r="C44" s="9" t="inlineStr">
         <is>
           <t>Edif illuminazione</t>
         </is>
       </c>
-      <c r="D44" s="12" t="n">
+      <c r="D44" s="10" t="n">
         <v>4499.59</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="13" t="n"/>
-      <c r="C45" s="11" t="inlineStr">
+      <c r="A45" s="11" t="n"/>
+      <c r="B45" s="12" t="n"/>
+      <c r="C45" s="9" t="inlineStr">
         <is>
           <t>Restauratore</t>
         </is>
       </c>
-      <c r="D45" s="12" t="n">
+      <c r="D45" s="10" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
-      <c r="B46" s="10" t="inlineStr">
+      <c r="A46" s="11" t="n"/>
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
         </is>
       </c>
-      <c r="C46" s="11" t="inlineStr">
+      <c r="C46" s="9" t="inlineStr">
         <is>
           <t>Cancelleria</t>
         </is>
       </c>
-      <c r="D46" s="12" t="n">
+      <c r="D46" s="10" t="n">
         <v>19.6</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="10" t="inlineStr">
+      <c r="A47" s="11" t="n"/>
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
       </c>
-      <c r="C47" s="11" t="inlineStr">
+      <c r="C47" s="9" t="inlineStr">
         <is>
           <t>Meccanico</t>
         </is>
       </c>
-      <c r="D47" s="12" t="n">
+      <c r="D47" s="10" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
-      <c r="B48" s="10" t="inlineStr">
+      <c r="A48" s="11" t="n"/>
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
       </c>
-      <c r="C48" s="11" t="inlineStr">
+      <c r="C48" s="9" t="inlineStr">
         <is>
           <t>Sandali - scarpe</t>
         </is>
       </c>
-      <c r="D48" s="12" t="n">
+      <c r="D48" s="10" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
-      <c r="B49" s="10" t="inlineStr">
+      <c r="A49" s="11" t="n"/>
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
       </c>
-      <c r="C49" s="11" t="inlineStr">
+      <c r="C49" s="9" t="inlineStr">
         <is>
           <t>Alimentari</t>
         </is>
       </c>
-      <c r="D49" s="12" t="n">
+      <c r="D49" s="10" t="n">
         <v>954.62</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="14" t="n"/>
-      <c r="C50" s="11" t="inlineStr">
+      <c r="A50" s="11" t="n"/>
+      <c r="B50" s="13" t="n"/>
+      <c r="C50" s="9" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D50" s="12" t="n">
+      <c r="D50" s="10" t="n">
         <v>615.72</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
-      <c r="B51" s="14" t="n"/>
-      <c r="C51" s="11" t="inlineStr">
+      <c r="A51" s="11" t="n"/>
+      <c r="B51" s="13" t="n"/>
+      <c r="C51" s="9" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D51" s="12" t="n">
+      <c r="D51" s="10" t="n">
         <v>274.83</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
-      <c r="B52" s="14" t="n"/>
-      <c r="C52" s="11" t="inlineStr">
+      <c r="A52" s="11" t="n"/>
+      <c r="B52" s="13" t="n"/>
+      <c r="C52" s="9" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D52" s="12" t="n">
+      <c r="D52" s="10" t="n">
         <v>175.26</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
-      <c r="B53" s="14" t="n"/>
-      <c r="C53" s="11" t="inlineStr">
+      <c r="A53" s="11" t="n"/>
+      <c r="B53" s="13" t="n"/>
+      <c r="C53" s="9" t="inlineStr">
         <is>
           <t>Pane, Uova, Farina</t>
         </is>
       </c>
-      <c r="D53" s="12" t="n">
+      <c r="D53" s="10" t="n">
         <v>382.95</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n"/>
-      <c r="B54" s="13" t="n"/>
-      <c r="C54" s="11" t="inlineStr">
+      <c r="A54" s="14" t="n"/>
+      <c r="B54" s="12" t="n"/>
+      <c r="C54" s="9" t="inlineStr">
         <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D54" s="12" t="n">
+      <c r="D54" s="10" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="inlineStr">
+      <c r="A55" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B55" s="10" t="inlineStr"/>
-      <c r="C55" s="11" t="inlineStr"/>
+      <c r="B55" s="8" t="inlineStr"/>
+      <c r="C55" s="9" t="inlineStr"/>
       <c r="D55" s="15" t="n">
         <v>14659.87</v>
       </c>
@@ -5814,7 +5848,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Conto del mese di Aprile</t>
         </is>
@@ -5825,315 +5859,315 @@
     <row r="4"/>
     <row r="5"/>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="10" t="n">
         <v>625</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Giacomo</t>
         </is>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="10" t="n">
         <v>953.03</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="A9" s="11" t="n"/>
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
         </is>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="10" t="n">
         <v>924.54</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="10" t="n">
         <v>44.52</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>Accoglienza</t>
         </is>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="10" t="n">
         <v>410</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="11" t="inlineStr">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>Benedizione case</t>
         </is>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="10" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="14" t="n"/>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>Frittate</t>
         </is>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="10" t="n">
         <v>638.5700000000001</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
-      <c r="B14" s="13" t="n"/>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="12" t="n"/>
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>Offerte libere</t>
         </is>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="10" t="n">
         <v>2178</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C15" s="11" t="inlineStr">
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="10" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="14" t="n"/>
-      <c r="C16" s="11" t="inlineStr">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="13" t="n"/>
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="10" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="14" t="n"/>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="13" t="n"/>
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="10" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="12" t="n"/>
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="10" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="10" t="inlineStr">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>Predicazione</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr">
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>Tridui</t>
         </is>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="10" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="10" t="n">
         <v>81.61</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="11" t="inlineStr">
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" s="9" t="inlineStr">
         <is>
           <t>Ticket - esami</t>
         </is>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="10" t="n">
         <v>66.3</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="10" t="n">
         <v>700</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="13" t="n"/>
-      <c r="C23" s="11" t="inlineStr">
+      <c r="A23" s="11" t="n"/>
+      <c r="B23" s="12" t="n"/>
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="10" t="n">
         <v>205</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="10" t="inlineStr">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C24" s="11" t="inlineStr">
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>Marmellata</t>
         </is>
       </c>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="10" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="14" t="n"/>
-      <c r="C25" s="11" t="inlineStr">
+      <c r="A25" s="11" t="n"/>
+      <c r="B25" s="13" t="n"/>
+      <c r="C25" s="9" t="inlineStr">
         <is>
           <t>Pasta</t>
         </is>
       </c>
-      <c r="D25" s="12" t="n">
+      <c r="D25" s="10" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n"/>
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="11" t="inlineStr">
+      <c r="A26" s="14" t="n"/>
+      <c r="B26" s="12" t="n"/>
+      <c r="C26" s="9" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="10" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="inlineStr">
+      <c r="A27" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr"/>
-      <c r="C27" s="11" t="inlineStr"/>
+      <c r="B27" s="8" t="inlineStr"/>
+      <c r="C27" s="9" t="inlineStr"/>
       <c r="D27" s="15" t="n">
         <v>11005.57</v>
       </c>
@@ -6141,20 +6175,20 @@
     <row r="28">
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="12" t="n"/>
+      <c r="D28" s="10" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="12" t="n"/>
+      <c r="D29" s="10" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="16" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="12" t="n"/>
+      <c r="D30" s="10" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
@@ -6176,449 +6210,449 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr">
         <is>
           <t>Casalinghi</t>
         </is>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="10" t="n">
         <v>152.94</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="14" t="n"/>
-      <c r="C33" s="11" t="inlineStr">
+      <c r="A33" s="11" t="n"/>
+      <c r="B33" s="13" t="n"/>
+      <c r="C33" s="9" t="inlineStr">
         <is>
           <t>Computer</t>
         </is>
       </c>
-      <c r="D33" s="12" t="n">
+      <c r="D33" s="10" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="14" t="n"/>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="A34" s="11" t="n"/>
+      <c r="B34" s="13" t="n"/>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Ferramenta</t>
         </is>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="10" t="n">
         <v>665.97</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="14" t="n"/>
-      <c r="C35" s="11" t="inlineStr">
+      <c r="A35" s="11" t="n"/>
+      <c r="B35" s="13" t="n"/>
+      <c r="C35" s="9" t="inlineStr">
         <is>
           <t>Materiale elettrico</t>
         </is>
       </c>
-      <c r="D35" s="12" t="n">
+      <c r="D35" s="10" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="13" t="n"/>
-      <c r="C36" s="11" t="inlineStr">
+      <c r="A36" s="11" t="n"/>
+      <c r="B36" s="12" t="n"/>
+      <c r="C36" s="9" t="inlineStr">
         <is>
           <t>Offerte p.Orazio Capitolo</t>
         </is>
       </c>
-      <c r="D36" s="12" t="n">
+      <c r="D36" s="10" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
-      <c r="B37" s="10" t="inlineStr">
+      <c r="A37" s="11" t="n"/>
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
         </is>
       </c>
-      <c r="C37" s="11" t="inlineStr">
+      <c r="C37" s="9" t="inlineStr">
         <is>
           <t>Ceri e Candele</t>
         </is>
       </c>
-      <c r="D37" s="12" t="n">
+      <c r="D37" s="10" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="13" t="n"/>
-      <c r="C38" s="11" t="inlineStr">
+      <c r="A38" s="11" t="n"/>
+      <c r="B38" s="12" t="n"/>
+      <c r="C38" s="9" t="inlineStr">
         <is>
           <t>Fiori</t>
         </is>
       </c>
-      <c r="D38" s="12" t="n">
+      <c r="D38" s="10" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="10" t="inlineStr">
+      <c r="A39" s="11" t="n"/>
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
-      <c r="C39" s="11" t="inlineStr">
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t>Gasolio agricolo</t>
         </is>
       </c>
-      <c r="D39" s="12" t="n">
+      <c r="D39" s="10" t="n">
         <v>564.4299999999999</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
-      <c r="B40" s="13" t="n"/>
-      <c r="C40" s="11" t="inlineStr">
+      <c r="A40" s="11" t="n"/>
+      <c r="B40" s="12" t="n"/>
+      <c r="C40" s="9" t="inlineStr">
         <is>
           <t>Manutenzione api</t>
         </is>
       </c>
-      <c r="D40" s="12" t="n">
+      <c r="D40" s="10" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="10" t="inlineStr">
+      <c r="A41" s="11" t="n"/>
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C41" s="11" t="inlineStr">
+      <c r="C41" s="9" t="inlineStr">
         <is>
           <t>Convegno Novizi</t>
         </is>
       </c>
-      <c r="D41" s="12" t="n">
+      <c r="D41" s="10" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="13" t="n"/>
-      <c r="C42" s="11" t="inlineStr">
+      <c r="A42" s="11" t="n"/>
+      <c r="B42" s="12" t="n"/>
+      <c r="C42" s="9" t="inlineStr">
         <is>
           <t>Libri</t>
         </is>
       </c>
-      <c r="D42" s="12" t="n">
+      <c r="D42" s="10" t="n">
         <v>68.59999999999999</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="10" t="inlineStr">
+      <c r="A43" s="11" t="n"/>
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
       </c>
-      <c r="C43" s="11" t="inlineStr">
+      <c r="C43" s="9" t="inlineStr">
         <is>
           <t>Beneficenza 5%</t>
         </is>
       </c>
-      <c r="D43" s="12" t="n">
+      <c r="D43" s="10" t="n">
         <v>870</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
-      <c r="B44" s="10" t="inlineStr">
+      <c r="A44" s="11" t="n"/>
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C44" s="11" t="inlineStr">
+      <c r="C44" s="9" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D44" s="12" t="n">
+      <c r="D44" s="10" t="n">
         <v>953.47</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="13" t="n"/>
-      <c r="C45" s="11" t="inlineStr">
+      <c r="A45" s="11" t="n"/>
+      <c r="B45" s="12" t="n"/>
+      <c r="C45" s="9" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
-      <c r="D45" s="12" t="n">
+      <c r="D45" s="10" t="n">
         <v>14.8</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
-      <c r="B46" s="10" t="inlineStr">
+      <c r="A46" s="11" t="n"/>
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
       </c>
-      <c r="C46" s="11" t="inlineStr">
+      <c r="C46" s="9" t="inlineStr">
         <is>
           <t>Detersivi</t>
         </is>
       </c>
-      <c r="D46" s="12" t="n">
+      <c r="D46" s="10" t="n">
         <v>137</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="10" t="inlineStr">
+      <c r="A47" s="11" t="n"/>
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C47" s="11" t="inlineStr">
+      <c r="C47" s="9" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
         </is>
       </c>
-      <c r="D47" s="12" t="n">
+      <c r="D47" s="10" t="n">
         <v>48.85</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
-      <c r="B48" s="10" t="inlineStr">
+      <c r="A48" s="11" t="n"/>
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
         </is>
       </c>
-      <c r="C48" s="11" t="inlineStr">
+      <c r="C48" s="9" t="inlineStr">
         <is>
           <t>Muratore</t>
         </is>
       </c>
-      <c r="D48" s="12" t="n">
+      <c r="D48" s="10" t="n">
         <v>30000</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
-      <c r="B49" s="10" t="inlineStr">
+      <c r="A49" s="11" t="n"/>
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
         </is>
       </c>
-      <c r="C49" s="11" t="inlineStr">
+      <c r="C49" s="9" t="inlineStr">
         <is>
           <t>Cancelleria</t>
         </is>
       </c>
-      <c r="D49" s="12" t="n">
+      <c r="D49" s="10" t="n">
         <v>50.7</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="10" t="inlineStr">
+      <c r="A50" s="11" t="n"/>
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>Rimborsi</t>
         </is>
       </c>
-      <c r="C50" s="11" t="inlineStr">
+      <c r="C50" s="9" t="inlineStr">
         <is>
           <t>Diaria Novizi (manca umbria)</t>
         </is>
       </c>
-      <c r="D50" s="12" t="n">
+      <c r="D50" s="10" t="n">
         <v>3600</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
-      <c r="B51" s="10" t="inlineStr">
+      <c r="A51" s="11" t="n"/>
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
       </c>
-      <c r="C51" s="11" t="inlineStr">
+      <c r="C51" s="9" t="inlineStr">
         <is>
           <t>Fidoka istallazione +abbonam. 13 mesi</t>
         </is>
       </c>
-      <c r="D51" s="12" t="n">
+      <c r="D51" s="10" t="n">
         <v>756</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
-      <c r="B52" s="13" t="n"/>
-      <c r="C52" s="11" t="inlineStr">
+      <c r="A52" s="11" t="n"/>
+      <c r="B52" s="12" t="n"/>
+      <c r="C52" s="9" t="inlineStr">
         <is>
           <t>TELECOM</t>
         </is>
       </c>
-      <c r="D52" s="12" t="n">
+      <c r="D52" s="10" t="n">
         <v>212.5</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
-      <c r="B53" s="10" t="inlineStr">
+      <c r="A53" s="11" t="n"/>
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
       </c>
-      <c r="C53" s="11" t="inlineStr">
+      <c r="C53" s="9" t="inlineStr">
         <is>
           <t>Elettrauto</t>
         </is>
       </c>
-      <c r="D53" s="12" t="n">
+      <c r="D53" s="10" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
-      <c r="B54" s="14" t="n"/>
-      <c r="C54" s="11" t="inlineStr">
+      <c r="A54" s="11" t="n"/>
+      <c r="B54" s="13" t="n"/>
+      <c r="C54" s="9" t="inlineStr">
         <is>
           <t>Meccanico</t>
         </is>
       </c>
-      <c r="D54" s="12" t="n">
+      <c r="D54" s="10" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
-      <c r="B55" s="13" t="n"/>
-      <c r="C55" s="11" t="inlineStr">
+      <c r="A55" s="11" t="n"/>
+      <c r="B55" s="12" t="n"/>
+      <c r="C55" s="9" t="inlineStr">
         <is>
           <t>Pompista</t>
         </is>
       </c>
-      <c r="D55" s="12" t="n">
+      <c r="D55" s="10" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
-      <c r="B56" s="10" t="inlineStr">
+      <c r="A56" s="11" t="n"/>
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
       </c>
-      <c r="C56" s="11" t="inlineStr">
+      <c r="C56" s="9" t="inlineStr">
         <is>
           <t>Indumenti</t>
         </is>
       </c>
-      <c r="D56" s="12" t="n">
+      <c r="D56" s="10" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n"/>
-      <c r="B57" s="10" t="inlineStr">
+      <c r="A57" s="11" t="n"/>
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
       </c>
-      <c r="C57" s="11" t="inlineStr">
+      <c r="C57" s="9" t="inlineStr">
         <is>
           <t>Alimentari</t>
         </is>
       </c>
-      <c r="D57" s="12" t="n">
+      <c r="D57" s="10" t="n">
         <v>376.35</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n"/>
-      <c r="B58" s="14" t="n"/>
-      <c r="C58" s="11" t="inlineStr">
+      <c r="A58" s="11" t="n"/>
+      <c r="B58" s="13" t="n"/>
+      <c r="C58" s="9" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D58" s="12" t="n">
+      <c r="D58" s="10" t="n">
         <v>540.4</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="14" t="n"/>
-      <c r="C59" s="11" t="inlineStr">
+      <c r="A59" s="11" t="n"/>
+      <c r="B59" s="13" t="n"/>
+      <c r="C59" s="9" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D59" s="12" t="n">
+      <c r="D59" s="10" t="n">
         <v>141.81</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n"/>
-      <c r="B60" s="14" t="n"/>
-      <c r="C60" s="11" t="inlineStr">
+      <c r="A60" s="11" t="n"/>
+      <c r="B60" s="13" t="n"/>
+      <c r="C60" s="9" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D60" s="12" t="n">
+      <c r="D60" s="10" t="n">
         <v>137.18</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="n"/>
-      <c r="B61" s="14" t="n"/>
-      <c r="C61" s="11" t="inlineStr">
+      <c r="A61" s="11" t="n"/>
+      <c r="B61" s="13" t="n"/>
+      <c r="C61" s="9" t="inlineStr">
         <is>
           <t>Pane, Uova, Farina</t>
         </is>
       </c>
-      <c r="D61" s="12" t="n">
+      <c r="D61" s="10" t="n">
         <v>90.91</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="n"/>
-      <c r="B62" s="13" t="n"/>
-      <c r="C62" s="11" t="inlineStr">
+      <c r="A62" s="14" t="n"/>
+      <c r="B62" s="12" t="n"/>
+      <c r="C62" s="9" t="inlineStr">
         <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D62" s="12" t="n">
+      <c r="D62" s="10" t="n">
         <v>70.08</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="inlineStr">
+      <c r="A63" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B63" s="10" t="inlineStr"/>
-      <c r="C63" s="11" t="inlineStr"/>
+      <c r="B63" s="8" t="inlineStr"/>
+      <c r="C63" s="9" t="inlineStr"/>
       <c r="D63" s="15" t="n">
         <v>40500.99</v>
       </c>
@@ -6668,7 +6702,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Conto del mese di Maggio</t>
         </is>
@@ -6679,275 +6713,275 @@
     <row r="4"/>
     <row r="5"/>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Cassette</t>
         </is>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="10" t="n">
         <v>492</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Giacomo</t>
         </is>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="10" t="n">
         <v>1060.05</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="A9" s="11" t="n"/>
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Congrua fra Gianni</t>
         </is>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="10" t="n">
         <v>1028.81</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Eredità</t>
         </is>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="10" t="n">
         <v>18316.93</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
-      <c r="B11" s="14" t="n"/>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>Frittate</t>
         </is>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="10" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="11" t="inlineStr">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>Offerta eccedenze Messa</t>
         </is>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="10" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="12" t="n"/>
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>Offerte libere</t>
         </is>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="10" t="n">
         <v>185</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="10" t="n">
         <v>638</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="14" t="n"/>
-      <c r="C15" s="11" t="inlineStr">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="10" t="n">
         <v>638</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="14" t="n"/>
-      <c r="C16" s="11" t="inlineStr">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="13" t="n"/>
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="10" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="10" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>Predicazione</t>
         </is>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>Feste Triennali</t>
         </is>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="10" t="n">
         <v>700</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="10" t="inlineStr">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr">
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="10" t="n">
         <v>193.25</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="10" t="n">
         <v>770</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="11" t="inlineStr">
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" s="9" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="10" t="n">
         <v>260</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>Marmellata</t>
         </is>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="10" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="13" t="n"/>
-      <c r="C23" s="11" t="inlineStr">
+      <c r="A23" s="14" t="n"/>
+      <c r="B23" s="12" t="n"/>
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="10" t="n">
         <v>190.3</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="inlineStr">
+      <c r="A24" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B24" s="10" t="inlineStr"/>
-      <c r="C24" s="11" t="inlineStr"/>
+      <c r="B24" s="8" t="inlineStr"/>
+      <c r="C24" s="9" t="inlineStr"/>
       <c r="D24" s="15" t="n">
         <v>25950.34</v>
       </c>
@@ -6955,35 +6989,35 @@
     <row r="25">
       <c r="B25" s="16" t="n"/>
       <c r="C25" s="17" t="n"/>
-      <c r="D25" s="12" t="n"/>
+      <c r="D25" s="10" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="16" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="12" t="n"/>
+      <c r="D26" s="10" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="16" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="12" t="n"/>
+      <c r="D27" s="10" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="12" t="n"/>
+      <c r="D28" s="10" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="12" t="n"/>
+      <c r="D29" s="10" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="16" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="12" t="n"/>
+      <c r="D30" s="10" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
@@ -7005,385 +7039,385 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr">
         <is>
           <t>Casalinghi</t>
         </is>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="10" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="13" t="n"/>
-      <c r="C33" s="11" t="inlineStr">
+      <c r="A33" s="11" t="n"/>
+      <c r="B33" s="12" t="n"/>
+      <c r="C33" s="9" t="inlineStr">
         <is>
           <t>Ferramenta</t>
         </is>
       </c>
-      <c r="D33" s="12" t="n">
+      <c r="D33" s="10" t="n">
         <v>584.05</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="10" t="inlineStr">
+      <c r="A34" s="11" t="n"/>
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="10" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="14" t="n"/>
-      <c r="C35" s="11" t="inlineStr">
+      <c r="A35" s="11" t="n"/>
+      <c r="B35" s="13" t="n"/>
+      <c r="C35" s="9" t="inlineStr">
         <is>
           <t>Gasolio agricolo</t>
         </is>
       </c>
-      <c r="D35" s="12" t="n">
+      <c r="D35" s="10" t="n">
         <v>340</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="13" t="n"/>
-      <c r="C36" s="11" t="inlineStr">
+      <c r="A36" s="11" t="n"/>
+      <c r="B36" s="12" t="n"/>
+      <c r="C36" s="9" t="inlineStr">
         <is>
           <t>Semi, Ortaggi</t>
         </is>
       </c>
-      <c r="D36" s="12" t="n">
+      <c r="D36" s="10" t="n">
         <v>416</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
-      <c r="B37" s="10" t="inlineStr">
+      <c r="A37" s="11" t="n"/>
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
       </c>
-      <c r="C37" s="11" t="inlineStr">
+      <c r="C37" s="9" t="inlineStr">
         <is>
           <t>Abbonamenti</t>
         </is>
       </c>
-      <c r="D37" s="12" t="n">
+      <c r="D37" s="10" t="n">
         <v>604.5</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="13" t="n"/>
-      <c r="C38" s="11" t="inlineStr">
+      <c r="A38" s="11" t="n"/>
+      <c r="B38" s="12" t="n"/>
+      <c r="C38" s="9" t="inlineStr">
         <is>
           <t>Libri</t>
         </is>
       </c>
-      <c r="D38" s="12" t="n">
+      <c r="D38" s="10" t="n">
         <v>1243.37</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="10" t="inlineStr">
+      <c r="A39" s="11" t="n"/>
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
       </c>
-      <c r="C39" s="11" t="inlineStr">
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t>Beneficenza 5%</t>
         </is>
       </c>
-      <c r="D39" s="12" t="n">
+      <c r="D39" s="10" t="n">
         <v>696</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
-      <c r="B40" s="10" t="inlineStr">
+      <c r="A40" s="11" t="n"/>
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr">
+      <c r="C40" s="9" t="inlineStr">
         <is>
           <t>Bar</t>
         </is>
       </c>
-      <c r="D40" s="12" t="n">
+      <c r="D40" s="10" t="n">
         <v>23.3</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="14" t="n"/>
-      <c r="C41" s="11" t="inlineStr">
+      <c r="A41" s="11" t="n"/>
+      <c r="B41" s="13" t="n"/>
+      <c r="C41" s="9" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D41" s="12" t="n">
+      <c r="D41" s="10" t="n">
         <v>1527.51</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="13" t="n"/>
-      <c r="C42" s="11" t="inlineStr">
+      <c r="A42" s="11" t="n"/>
+      <c r="B42" s="12" t="n"/>
+      <c r="C42" s="9" t="inlineStr">
         <is>
           <t>Viaggi-Autostrada-Parcheggio</t>
         </is>
       </c>
-      <c r="D42" s="12" t="n">
+      <c r="D42" s="10" t="n">
         <v>28.3</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="10" t="inlineStr">
+      <c r="A43" s="11" t="n"/>
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
       </c>
-      <c r="C43" s="11" t="inlineStr">
+      <c r="C43" s="9" t="inlineStr">
         <is>
           <t>Detersivi</t>
         </is>
       </c>
-      <c r="D43" s="12" t="n">
+      <c r="D43" s="10" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
-      <c r="B44" s="14" t="n"/>
-      <c r="C44" s="11" t="inlineStr">
+      <c r="A44" s="11" t="n"/>
+      <c r="B44" s="13" t="n"/>
+      <c r="C44" s="9" t="inlineStr">
         <is>
           <t>Igiene personale</t>
         </is>
       </c>
-      <c r="D44" s="12" t="n">
+      <c r="D44" s="10" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="13" t="n"/>
-      <c r="C45" s="11" t="inlineStr">
+      <c r="A45" s="11" t="n"/>
+      <c r="B45" s="12" t="n"/>
+      <c r="C45" s="9" t="inlineStr">
         <is>
           <t>Lavanderia</t>
         </is>
       </c>
-      <c r="D45" s="12" t="n">
+      <c r="D45" s="10" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
-      <c r="B46" s="10" t="inlineStr">
+      <c r="A46" s="11" t="n"/>
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C46" s="11" t="inlineStr">
+      <c r="C46" s="9" t="inlineStr">
         <is>
           <t>Allarme museo</t>
         </is>
       </c>
-      <c r="D46" s="12" t="n">
+      <c r="D46" s="10" t="n">
         <v>203.34</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="13" t="n"/>
-      <c r="C47" s="11" t="inlineStr">
+      <c r="A47" s="11" t="n"/>
+      <c r="B47" s="12" t="n"/>
+      <c r="C47" s="9" t="inlineStr">
         <is>
           <t>Imposte varie</t>
         </is>
       </c>
-      <c r="D47" s="12" t="n">
+      <c r="D47" s="10" t="n">
         <v>9.5</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
-      <c r="B48" s="10" t="inlineStr">
+      <c r="A48" s="11" t="n"/>
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
         </is>
       </c>
-      <c r="C48" s="11" t="inlineStr">
+      <c r="C48" s="9" t="inlineStr">
         <is>
           <t>Idraulico</t>
         </is>
       </c>
-      <c r="D48" s="12" t="n">
+      <c r="D48" s="10" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
-      <c r="B49" s="10" t="inlineStr">
+      <c r="A49" s="11" t="n"/>
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
       </c>
-      <c r="C49" s="11" t="inlineStr">
+      <c r="C49" s="9" t="inlineStr">
         <is>
           <t>Scheda telefonica</t>
         </is>
       </c>
-      <c r="D49" s="12" t="n">
+      <c r="D49" s="10" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="10" t="inlineStr">
+      <c r="A50" s="11" t="n"/>
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
       </c>
-      <c r="C50" s="11" t="inlineStr">
+      <c r="C50" s="9" t="inlineStr">
         <is>
           <t>Bollo Auto</t>
         </is>
       </c>
-      <c r="D50" s="12" t="n">
+      <c r="D50" s="10" t="n">
         <v>263.09</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n"/>
-      <c r="B51" s="13" t="n"/>
-      <c r="C51" s="11" t="inlineStr">
+      <c r="A51" s="11" t="n"/>
+      <c r="B51" s="12" t="n"/>
+      <c r="C51" s="9" t="inlineStr">
         <is>
           <t>Meccanico</t>
         </is>
       </c>
-      <c r="D51" s="12" t="n">
+      <c r="D51" s="10" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
-      <c r="B52" s="10" t="inlineStr">
+      <c r="A52" s="11" t="n"/>
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr">
+      <c r="C52" s="9" t="inlineStr">
         <is>
           <t>Alimentari</t>
         </is>
       </c>
-      <c r="D52" s="12" t="n">
+      <c r="D52" s="10" t="n">
         <v>691.1900000000001</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
-      <c r="B53" s="14" t="n"/>
-      <c r="C53" s="11" t="inlineStr">
+      <c r="A53" s="11" t="n"/>
+      <c r="B53" s="13" t="n"/>
+      <c r="C53" s="9" t="inlineStr">
         <is>
           <t>Bibite e gelati</t>
         </is>
       </c>
-      <c r="D53" s="12" t="n">
+      <c r="D53" s="10" t="n">
         <v>84.83</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
-      <c r="B54" s="14" t="n"/>
-      <c r="C54" s="11" t="inlineStr">
+      <c r="A54" s="11" t="n"/>
+      <c r="B54" s="13" t="n"/>
+      <c r="C54" s="9" t="inlineStr">
         <is>
           <t>Carne</t>
         </is>
       </c>
-      <c r="D54" s="12" t="n">
+      <c r="D54" s="10" t="n">
         <v>167.5</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
-      <c r="B55" s="14" t="n"/>
-      <c r="C55" s="11" t="inlineStr">
+      <c r="A55" s="11" t="n"/>
+      <c r="B55" s="13" t="n"/>
+      <c r="C55" s="9" t="inlineStr">
         <is>
           <t>Frutta e Verdura</t>
         </is>
       </c>
-      <c r="D55" s="12" t="n">
+      <c r="D55" s="10" t="n">
         <v>328</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
-      <c r="B56" s="14" t="n"/>
-      <c r="C56" s="11" t="inlineStr">
+      <c r="A56" s="11" t="n"/>
+      <c r="B56" s="13" t="n"/>
+      <c r="C56" s="9" t="inlineStr">
         <is>
           <t>Latte - Latticini</t>
         </is>
       </c>
-      <c r="D56" s="12" t="n">
+      <c r="D56" s="10" t="n">
         <v>182.5</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n"/>
-      <c r="B57" s="14" t="n"/>
-      <c r="C57" s="11" t="inlineStr">
+      <c r="A57" s="11" t="n"/>
+      <c r="B57" s="13" t="n"/>
+      <c r="C57" s="9" t="inlineStr">
         <is>
           <t>Olio</t>
         </is>
       </c>
-      <c r="D57" s="12" t="n">
+      <c r="D57" s="10" t="n">
         <v>104.16</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="n"/>
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="11" t="inlineStr">
+      <c r="A58" s="14" t="n"/>
+      <c r="B58" s="12" t="n"/>
+      <c r="C58" s="9" t="inlineStr">
         <is>
           <t>Pesce</t>
         </is>
       </c>
-      <c r="D58" s="12" t="n">
+      <c r="D58" s="10" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="inlineStr">
+      <c r="A59" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B59" s="10" t="inlineStr"/>
-      <c r="C59" s="11" t="inlineStr"/>
+      <c r="B59" s="8" t="inlineStr"/>
+      <c r="C59" s="9" t="inlineStr"/>
       <c r="D59" s="15" t="n">
         <v>9360.139999999999</v>
       </c>
@@ -7432,7 +7466,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Conto del mese di Giugno</t>
         </is>
@@ -7443,155 +7477,155 @@
     <row r="4"/>
     <row r="5"/>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Entrate</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Accoglienza</t>
         </is>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="10" t="n">
         <v>170</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Fr Tommaso Bellesi</t>
         </is>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="10" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="14" t="n"/>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="A9" s="11" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Fr. Anastasio Artegiani</t>
         </is>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="10" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Fr. Giulio Criminesi</t>
         </is>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="10" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="12" t="n"/>
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>Fr. Mario Pigini</t>
         </is>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="10" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
       </c>
-      <c r="C12" s="11" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="10" t="n">
         <v>7.6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="10" t="inlineStr">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
       </c>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>Loreto</t>
         </is>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="10" t="n">
         <v>280</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="A14" s="14" t="n"/>
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>Vino</t>
         </is>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="10" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="inlineStr">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
-      <c r="C15" s="11" t="inlineStr"/>
+      <c r="B15" s="8" t="inlineStr"/>
+      <c r="C15" s="9" t="inlineStr"/>
       <c r="D15" s="15" t="n">
         <v>3102.6</v>
       </c>
@@ -7599,80 +7633,80 @@
     <row r="16">
       <c r="B16" s="16" t="n"/>
       <c r="C16" s="17" t="n"/>
-      <c r="D16" s="12" t="n"/>
+      <c r="D16" s="10" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="16" t="n"/>
       <c r="C17" s="17" t="n"/>
-      <c r="D17" s="12" t="n"/>
+      <c r="D17" s="10" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="16" t="n"/>
       <c r="C18" s="17" t="n"/>
-      <c r="D18" s="12" t="n"/>
+      <c r="D18" s="10" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="16" t="n"/>
       <c r="C19" s="17" t="n"/>
-      <c r="D19" s="12" t="n"/>
+      <c r="D19" s="10" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="16" t="n"/>
       <c r="C20" s="17" t="n"/>
-      <c r="D20" s="12" t="n"/>
+      <c r="D20" s="10" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="16" t="n"/>
       <c r="C21" s="17" t="n"/>
-      <c r="D21" s="12" t="n"/>
+      <c r="D21" s="10" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="16" t="n"/>
       <c r="C22" s="17" t="n"/>
-      <c r="D22" s="12" t="n"/>
+      <c r="D22" s="10" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="16" t="n"/>
       <c r="C23" s="17" t="n"/>
-      <c r="D23" s="12" t="n"/>
+      <c r="D23" s="10" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="16" t="n"/>
       <c r="C24" s="17" t="n"/>
-      <c r="D24" s="12" t="n"/>
+      <c r="D24" s="10" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="16" t="n"/>
       <c r="C25" s="17" t="n"/>
-      <c r="D25" s="12" t="n"/>
+      <c r="D25" s="10" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="16" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="12" t="n"/>
+      <c r="D26" s="10" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="16" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="12" t="n"/>
+      <c r="D27" s="10" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="12" t="n"/>
+      <c r="D28" s="10" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="12" t="n"/>
+      <c r="D29" s="10" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="16" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="12" t="n"/>
+      <c r="D30" s="10" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
@@ -7694,153 +7728,153 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>Uscite</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
       </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr">
         <is>
           <t>Ferramenta</t>
         </is>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="10" t="n">
         <v>127.88</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="14" t="n"/>
-      <c r="C33" s="11" t="inlineStr">
+      <c r="A33" s="11" t="n"/>
+      <c r="B33" s="13" t="n"/>
+      <c r="C33" s="9" t="inlineStr">
         <is>
           <t>Fotocopiatrice+contr.assistenza</t>
         </is>
       </c>
-      <c r="D33" s="12" t="n">
+      <c r="D33" s="10" t="n">
         <v>3050</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="13" t="n"/>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="A34" s="11" t="n"/>
+      <c r="B34" s="12" t="n"/>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Materiale edile</t>
         </is>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="10" t="n">
         <v>246.3</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="10" t="inlineStr">
+      <c r="A35" s="11" t="n"/>
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
         </is>
       </c>
-      <c r="C35" s="11" t="inlineStr">
+      <c r="C35" s="9" t="inlineStr">
         <is>
           <t>Ceri e Candele</t>
         </is>
       </c>
-      <c r="D35" s="12" t="n">
+      <c r="D35" s="10" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="10" t="inlineStr">
+      <c r="A36" s="11" t="n"/>
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
       </c>
-      <c r="C36" s="11" t="inlineStr">
+      <c r="C36" s="9" t="inlineStr">
         <is>
           <t>Medicine animali - piante</t>
         </is>
       </c>
-      <c r="D36" s="12" t="n">
+      <c r="D36" s="10" t="n">
         <v>194.5</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
-      <c r="B37" s="10" t="inlineStr">
+      <c r="A37" s="11" t="n"/>
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
       </c>
-      <c r="C37" s="11" t="inlineStr">
+      <c r="C37" s="9" t="inlineStr">
         <is>
           <t>Carburante</t>
         </is>
       </c>
-      <c r="D37" s="12" t="n">
+      <c r="D37" s="10" t="n">
         <v>361.82</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="10" t="inlineStr">
+      <c r="A38" s="11" t="n"/>
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
       </c>
-      <c r="C38" s="11" t="inlineStr">
+      <c r="C38" s="9" t="inlineStr">
         <is>
           <t>Imposte bancarie</t>
         </is>
       </c>
-      <c r="D38" s="12" t="n">
+      <c r="D38" s="10" t="n">
         <v>6.5</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="10" t="inlineStr">
+      <c r="A39" s="11" t="n"/>
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
         </is>
       </c>
-      <c r="C39" s="11" t="inlineStr">
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t>Edif illuminazione</t>
         </is>
       </c>
-      <c r="D39" s="12" t="n">
+      <c r="D39" s="10" t="n">
         <v>565.74</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
-      <c r="B40" s="10" t="inlineStr">
+      <c r="A40" s="14" t="n"/>
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr">
+      <c r="C40" s="9" t="inlineStr">
         <is>
           <t>TELECOM</t>
         </is>
       </c>
-      <c r="D40" s="12" t="n">
+      <c r="D40" s="10" t="n">
         <v>185</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="inlineStr">
+      <c r="A41" s="7" t="inlineStr">
         <is>
           <t>TOTALE</t>
         </is>
       </c>
-      <c r="B41" s="10" t="inlineStr"/>
-      <c r="C41" s="11" t="inlineStr"/>
+      <c r="B41" s="8" t="inlineStr"/>
+      <c r="C41" s="9" t="inlineStr"/>
       <c r="D41" s="15" t="n">
         <v>4792.74</v>
       </c>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -31,7 +31,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00€"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -55,6 +55,11 @@
       <b val="1"/>
       <color rgb="00a81a1a"/>
       <sz val="15"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="12"/>
     </font>
     <font>
       <sz val="1"/>
@@ -107,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -117,7 +122,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -137,6 +142,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -570,17 +578,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -1139,75 +1147,75 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
         </is>
       </c>
       <c r="B49" s="7" t="inlineStr"/>
       <c r="C49" s="8" t="inlineStr"/>
-      <c r="D49" s="12" t="n">
+      <c r="D49" s="13" t="n">
         <v>78144.25999999999</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="13" t="n"/>
-      <c r="C50" s="14" t="n"/>
+      <c r="B50" s="14" t="n"/>
+      <c r="C50" s="15" t="n"/>
       <c r="D50" s="9" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="13" t="n"/>
-      <c r="C51" s="14" t="n"/>
+      <c r="B51" s="14" t="n"/>
+      <c r="C51" s="15" t="n"/>
       <c r="D51" s="9" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="13" t="n"/>
-      <c r="C52" s="14" t="n"/>
+      <c r="B52" s="14" t="n"/>
+      <c r="C52" s="15" t="n"/>
       <c r="D52" s="9" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="13" t="n"/>
-      <c r="C53" s="14" t="n"/>
+      <c r="B53" s="14" t="n"/>
+      <c r="C53" s="15" t="n"/>
       <c r="D53" s="9" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="13" t="n"/>
-      <c r="C54" s="14" t="n"/>
+      <c r="B54" s="14" t="n"/>
+      <c r="C54" s="15" t="n"/>
       <c r="D54" s="9" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="13" t="n"/>
-      <c r="C55" s="14" t="n"/>
+      <c r="B55" s="14" t="n"/>
+      <c r="C55" s="15" t="n"/>
       <c r="D55" s="9" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="14" t="n"/>
+      <c r="B56" s="14" t="n"/>
+      <c r="C56" s="15" t="n"/>
       <c r="D56" s="9" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="13" t="n"/>
-      <c r="C57" s="14" t="n"/>
+      <c r="B57" s="14" t="n"/>
+      <c r="C57" s="15" t="n"/>
       <c r="D57" s="9" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="14" t="n"/>
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="15" t="n"/>
       <c r="D58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="13" t="n"/>
-      <c r="C59" s="14" t="n"/>
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="15" t="n"/>
       <c r="D59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="13" t="n"/>
-      <c r="C60" s="14" t="n"/>
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="15" t="n"/>
       <c r="D60" s="9" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="13" t="n"/>
-      <c r="C61" s="14" t="n"/>
+      <c r="B61" s="14" t="n"/>
+      <c r="C61" s="15" t="n"/>
       <c r="D61" s="9" t="n"/>
     </row>
     <row r="62">
@@ -1216,17 +1224,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B62" s="15" t="inlineStr">
+      <c r="B62" s="16" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C62" s="16" t="inlineStr">
+      <c r="C62" s="17" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D62" s="17" t="inlineStr">
+      <c r="D62" s="18" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -2449,14 +2457,14 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A158" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
         </is>
       </c>
       <c r="B158" s="7" t="inlineStr"/>
       <c r="C158" s="8" t="inlineStr"/>
-      <c r="D158" s="12" t="n">
+      <c r="D158" s="13" t="n">
         <v>106408.65</v>
       </c>
     </row>
@@ -2531,17 +2539,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -3076,85 +3084,85 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A47" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
         </is>
       </c>
       <c r="B47" s="7" t="inlineStr"/>
       <c r="C47" s="8" t="inlineStr"/>
-      <c r="D47" s="12" t="n">
+      <c r="D47" s="13" t="n">
         <v>97706.60000000001</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="13" t="n"/>
-      <c r="C48" s="14" t="n"/>
+      <c r="B48" s="14" t="n"/>
+      <c r="C48" s="15" t="n"/>
       <c r="D48" s="9" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="13" t="n"/>
-      <c r="C49" s="14" t="n"/>
+      <c r="B49" s="14" t="n"/>
+      <c r="C49" s="15" t="n"/>
       <c r="D49" s="9" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="13" t="n"/>
-      <c r="C50" s="14" t="n"/>
+      <c r="B50" s="14" t="n"/>
+      <c r="C50" s="15" t="n"/>
       <c r="D50" s="9" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="13" t="n"/>
-      <c r="C51" s="14" t="n"/>
+      <c r="B51" s="14" t="n"/>
+      <c r="C51" s="15" t="n"/>
       <c r="D51" s="9" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="13" t="n"/>
-      <c r="C52" s="14" t="n"/>
+      <c r="B52" s="14" t="n"/>
+      <c r="C52" s="15" t="n"/>
       <c r="D52" s="9" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="13" t="n"/>
-      <c r="C53" s="14" t="n"/>
+      <c r="B53" s="14" t="n"/>
+      <c r="C53" s="15" t="n"/>
       <c r="D53" s="9" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="13" t="n"/>
-      <c r="C54" s="14" t="n"/>
+      <c r="B54" s="14" t="n"/>
+      <c r="C54" s="15" t="n"/>
       <c r="D54" s="9" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="13" t="n"/>
-      <c r="C55" s="14" t="n"/>
+      <c r="B55" s="14" t="n"/>
+      <c r="C55" s="15" t="n"/>
       <c r="D55" s="9" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="14" t="n"/>
+      <c r="B56" s="14" t="n"/>
+      <c r="C56" s="15" t="n"/>
       <c r="D56" s="9" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="13" t="n"/>
-      <c r="C57" s="14" t="n"/>
+      <c r="B57" s="14" t="n"/>
+      <c r="C57" s="15" t="n"/>
       <c r="D57" s="9" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="14" t="n"/>
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="15" t="n"/>
       <c r="D58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="13" t="n"/>
-      <c r="C59" s="14" t="n"/>
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="15" t="n"/>
       <c r="D59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="13" t="n"/>
-      <c r="C60" s="14" t="n"/>
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="15" t="n"/>
       <c r="D60" s="9" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="13" t="n"/>
-      <c r="C61" s="14" t="n"/>
+      <c r="B61" s="14" t="n"/>
+      <c r="C61" s="15" t="n"/>
       <c r="D61" s="9" t="n"/>
     </row>
     <row r="62">
@@ -3163,17 +3171,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B62" s="15" t="inlineStr">
+      <c r="B62" s="16" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C62" s="16" t="inlineStr">
+      <c r="C62" s="17" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D62" s="17" t="inlineStr">
+      <c r="D62" s="18" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -4408,14 +4416,14 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A159" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
         </is>
       </c>
       <c r="B159" s="7" t="inlineStr"/>
       <c r="C159" s="8" t="inlineStr"/>
-      <c r="D159" s="12" t="n">
+      <c r="D159" s="13" t="n">
         <v>133297.72</v>
       </c>
     </row>
@@ -4489,17 +4497,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -5070,70 +5078,70 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A50" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
         </is>
       </c>
       <c r="B50" s="7" t="inlineStr"/>
       <c r="C50" s="8" t="inlineStr"/>
-      <c r="D50" s="12" t="n">
+      <c r="D50" s="13" t="n">
         <v>70497.86</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="13" t="n"/>
-      <c r="C51" s="14" t="n"/>
+      <c r="B51" s="14" t="n"/>
+      <c r="C51" s="15" t="n"/>
       <c r="D51" s="9" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="13" t="n"/>
-      <c r="C52" s="14" t="n"/>
+      <c r="B52" s="14" t="n"/>
+      <c r="C52" s="15" t="n"/>
       <c r="D52" s="9" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="13" t="n"/>
-      <c r="C53" s="14" t="n"/>
+      <c r="B53" s="14" t="n"/>
+      <c r="C53" s="15" t="n"/>
       <c r="D53" s="9" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="13" t="n"/>
-      <c r="C54" s="14" t="n"/>
+      <c r="B54" s="14" t="n"/>
+      <c r="C54" s="15" t="n"/>
       <c r="D54" s="9" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="13" t="n"/>
-      <c r="C55" s="14" t="n"/>
+      <c r="B55" s="14" t="n"/>
+      <c r="C55" s="15" t="n"/>
       <c r="D55" s="9" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="14" t="n"/>
+      <c r="B56" s="14" t="n"/>
+      <c r="C56" s="15" t="n"/>
       <c r="D56" s="9" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="13" t="n"/>
-      <c r="C57" s="14" t="n"/>
+      <c r="B57" s="14" t="n"/>
+      <c r="C57" s="15" t="n"/>
       <c r="D57" s="9" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="14" t="n"/>
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="15" t="n"/>
       <c r="D58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="13" t="n"/>
-      <c r="C59" s="14" t="n"/>
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="15" t="n"/>
       <c r="D59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="13" t="n"/>
-      <c r="C60" s="14" t="n"/>
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="15" t="n"/>
       <c r="D60" s="9" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="13" t="n"/>
-      <c r="C61" s="14" t="n"/>
+      <c r="B61" s="14" t="n"/>
+      <c r="C61" s="15" t="n"/>
       <c r="D61" s="9" t="n"/>
     </row>
     <row r="62">
@@ -5142,17 +5150,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B62" s="15" t="inlineStr">
+      <c r="B62" s="16" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C62" s="16" t="inlineStr">
+      <c r="C62" s="17" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D62" s="17" t="inlineStr">
+      <c r="D62" s="18" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -6459,14 +6467,14 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A165" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
         </is>
       </c>
       <c r="B165" s="7" t="inlineStr"/>
       <c r="C165" s="8" t="inlineStr"/>
-      <c r="D165" s="12" t="n">
+      <c r="D165" s="13" t="n">
         <v>98226.42</v>
       </c>
     </row>
@@ -6540,17 +6548,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -7109,75 +7117,75 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
         </is>
       </c>
       <c r="B49" s="7" t="inlineStr"/>
       <c r="C49" s="8" t="inlineStr"/>
-      <c r="D49" s="12" t="n">
+      <c r="D49" s="13" t="n">
         <v>102393.39</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="13" t="n"/>
-      <c r="C50" s="14" t="n"/>
+      <c r="B50" s="14" t="n"/>
+      <c r="C50" s="15" t="n"/>
       <c r="D50" s="9" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="13" t="n"/>
-      <c r="C51" s="14" t="n"/>
+      <c r="B51" s="14" t="n"/>
+      <c r="C51" s="15" t="n"/>
       <c r="D51" s="9" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="13" t="n"/>
-      <c r="C52" s="14" t="n"/>
+      <c r="B52" s="14" t="n"/>
+      <c r="C52" s="15" t="n"/>
       <c r="D52" s="9" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="13" t="n"/>
-      <c r="C53" s="14" t="n"/>
+      <c r="B53" s="14" t="n"/>
+      <c r="C53" s="15" t="n"/>
       <c r="D53" s="9" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="13" t="n"/>
-      <c r="C54" s="14" t="n"/>
+      <c r="B54" s="14" t="n"/>
+      <c r="C54" s="15" t="n"/>
       <c r="D54" s="9" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="13" t="n"/>
-      <c r="C55" s="14" t="n"/>
+      <c r="B55" s="14" t="n"/>
+      <c r="C55" s="15" t="n"/>
       <c r="D55" s="9" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="14" t="n"/>
+      <c r="B56" s="14" t="n"/>
+      <c r="C56" s="15" t="n"/>
       <c r="D56" s="9" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="13" t="n"/>
-      <c r="C57" s="14" t="n"/>
+      <c r="B57" s="14" t="n"/>
+      <c r="C57" s="15" t="n"/>
       <c r="D57" s="9" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="14" t="n"/>
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="15" t="n"/>
       <c r="D58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="13" t="n"/>
-      <c r="C59" s="14" t="n"/>
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="15" t="n"/>
       <c r="D59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="13" t="n"/>
-      <c r="C60" s="14" t="n"/>
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="15" t="n"/>
       <c r="D60" s="9" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="13" t="n"/>
-      <c r="C61" s="14" t="n"/>
+      <c r="B61" s="14" t="n"/>
+      <c r="C61" s="15" t="n"/>
       <c r="D61" s="9" t="n"/>
     </row>
     <row r="62">
@@ -7186,17 +7194,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B62" s="15" t="inlineStr">
+      <c r="B62" s="16" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C62" s="16" t="inlineStr">
+      <c r="C62" s="17" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D62" s="17" t="inlineStr">
+      <c r="D62" s="18" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -8387,14 +8395,14 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A155" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
         </is>
       </c>
       <c r="B155" s="7" t="inlineStr"/>
       <c r="C155" s="8" t="inlineStr"/>
-      <c r="D155" s="12" t="n">
+      <c r="D155" s="13" t="n">
         <v>151296.82</v>
       </c>
     </row>
@@ -8470,17 +8478,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -9139,35 +9147,35 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A57" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
         </is>
       </c>
       <c r="B57" s="7" t="inlineStr"/>
       <c r="C57" s="8" t="inlineStr"/>
-      <c r="D57" s="12" t="n">
+      <c r="D57" s="13" t="n">
         <v>102266.6</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="14" t="n"/>
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="15" t="n"/>
       <c r="D58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="13" t="n"/>
-      <c r="C59" s="14" t="n"/>
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="15" t="n"/>
       <c r="D59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="13" t="n"/>
-      <c r="C60" s="14" t="n"/>
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="15" t="n"/>
       <c r="D60" s="9" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="13" t="n"/>
-      <c r="C61" s="14" t="n"/>
+      <c r="B61" s="14" t="n"/>
+      <c r="C61" s="15" t="n"/>
       <c r="D61" s="9" t="n"/>
     </row>
     <row r="62">
@@ -9176,17 +9184,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B62" s="15" t="inlineStr">
+      <c r="B62" s="16" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C62" s="16" t="inlineStr">
+      <c r="C62" s="17" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D62" s="17" t="inlineStr">
+      <c r="D62" s="18" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -10733,14 +10741,14 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A184" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
         </is>
       </c>
       <c r="B184" s="7" t="inlineStr"/>
       <c r="C184" s="8" t="inlineStr"/>
-      <c r="D184" s="12" t="n">
+      <c r="D184" s="13" t="n">
         <v>144689.16</v>
       </c>
     </row>
@@ -10817,17 +10825,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -11354,90 +11362,90 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A46" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
         </is>
       </c>
       <c r="B46" s="7" t="inlineStr"/>
       <c r="C46" s="8" t="inlineStr"/>
-      <c r="D46" s="12" t="n">
+      <c r="D46" s="13" t="n">
         <v>77543.88</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="13" t="n"/>
-      <c r="C47" s="14" t="n"/>
+      <c r="B47" s="14" t="n"/>
+      <c r="C47" s="15" t="n"/>
       <c r="D47" s="9" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="13" t="n"/>
-      <c r="C48" s="14" t="n"/>
+      <c r="B48" s="14" t="n"/>
+      <c r="C48" s="15" t="n"/>
       <c r="D48" s="9" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="13" t="n"/>
-      <c r="C49" s="14" t="n"/>
+      <c r="B49" s="14" t="n"/>
+      <c r="C49" s="15" t="n"/>
       <c r="D49" s="9" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="13" t="n"/>
-      <c r="C50" s="14" t="n"/>
+      <c r="B50" s="14" t="n"/>
+      <c r="C50" s="15" t="n"/>
       <c r="D50" s="9" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="13" t="n"/>
-      <c r="C51" s="14" t="n"/>
+      <c r="B51" s="14" t="n"/>
+      <c r="C51" s="15" t="n"/>
       <c r="D51" s="9" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="13" t="n"/>
-      <c r="C52" s="14" t="n"/>
+      <c r="B52" s="14" t="n"/>
+      <c r="C52" s="15" t="n"/>
       <c r="D52" s="9" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="13" t="n"/>
-      <c r="C53" s="14" t="n"/>
+      <c r="B53" s="14" t="n"/>
+      <c r="C53" s="15" t="n"/>
       <c r="D53" s="9" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="13" t="n"/>
-      <c r="C54" s="14" t="n"/>
+      <c r="B54" s="14" t="n"/>
+      <c r="C54" s="15" t="n"/>
       <c r="D54" s="9" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="13" t="n"/>
-      <c r="C55" s="14" t="n"/>
+      <c r="B55" s="14" t="n"/>
+      <c r="C55" s="15" t="n"/>
       <c r="D55" s="9" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="14" t="n"/>
+      <c r="B56" s="14" t="n"/>
+      <c r="C56" s="15" t="n"/>
       <c r="D56" s="9" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="13" t="n"/>
-      <c r="C57" s="14" t="n"/>
+      <c r="B57" s="14" t="n"/>
+      <c r="C57" s="15" t="n"/>
       <c r="D57" s="9" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="14" t="n"/>
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="15" t="n"/>
       <c r="D58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="13" t="n"/>
-      <c r="C59" s="14" t="n"/>
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="15" t="n"/>
       <c r="D59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="13" t="n"/>
-      <c r="C60" s="14" t="n"/>
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="15" t="n"/>
       <c r="D60" s="9" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="13" t="n"/>
-      <c r="C61" s="14" t="n"/>
+      <c r="B61" s="14" t="n"/>
+      <c r="C61" s="15" t="n"/>
       <c r="D61" s="9" t="n"/>
     </row>
     <row r="62">
@@ -11446,17 +11454,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B62" s="15" t="inlineStr">
+      <c r="B62" s="16" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C62" s="16" t="inlineStr">
+      <c r="C62" s="17" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D62" s="17" t="inlineStr">
+      <c r="D62" s="18" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -12711,14 +12719,14 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A160" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
         </is>
       </c>
       <c r="B160" s="7" t="inlineStr"/>
       <c r="C160" s="8" t="inlineStr"/>
-      <c r="D160" s="12" t="n">
+      <c r="D160" s="13" t="n">
         <v>125645.94</v>
       </c>
     </row>
@@ -12793,17 +12801,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -13438,45 +13446,45 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A55" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
         </is>
       </c>
       <c r="B55" s="7" t="inlineStr"/>
       <c r="C55" s="8" t="inlineStr"/>
-      <c r="D55" s="12" t="n">
+      <c r="D55" s="13" t="n">
         <v>77550.49000000001</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="14" t="n"/>
+      <c r="B56" s="14" t="n"/>
+      <c r="C56" s="15" t="n"/>
       <c r="D56" s="9" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="13" t="n"/>
-      <c r="C57" s="14" t="n"/>
+      <c r="B57" s="14" t="n"/>
+      <c r="C57" s="15" t="n"/>
       <c r="D57" s="9" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="14" t="n"/>
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="15" t="n"/>
       <c r="D58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="13" t="n"/>
-      <c r="C59" s="14" t="n"/>
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="15" t="n"/>
       <c r="D59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="13" t="n"/>
-      <c r="C60" s="14" t="n"/>
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="15" t="n"/>
       <c r="D60" s="9" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="13" t="n"/>
-      <c r="C61" s="14" t="n"/>
+      <c r="B61" s="14" t="n"/>
+      <c r="C61" s="15" t="n"/>
       <c r="D61" s="9" t="n"/>
     </row>
     <row r="62">
@@ -13485,17 +13493,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B62" s="15" t="inlineStr">
+      <c r="B62" s="16" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C62" s="16" t="inlineStr">
+      <c r="C62" s="17" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D62" s="17" t="inlineStr">
+      <c r="D62" s="18" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -14798,14 +14806,14 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A164" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
         </is>
       </c>
       <c r="B164" s="7" t="inlineStr"/>
       <c r="C164" s="8" t="inlineStr"/>
-      <c r="D164" s="12" t="n">
+      <c r="D164" s="13" t="n">
         <v>133884.68</v>
       </c>
     </row>
@@ -14884,17 +14892,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -15553,35 +15561,35 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A57" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
         </is>
       </c>
       <c r="B57" s="7" t="inlineStr"/>
       <c r="C57" s="8" t="inlineStr"/>
-      <c r="D57" s="12" t="n">
+      <c r="D57" s="13" t="n">
         <v>100705.39</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="14" t="n"/>
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="15" t="n"/>
       <c r="D58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="13" t="n"/>
-      <c r="C59" s="14" t="n"/>
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="15" t="n"/>
       <c r="D59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="13" t="n"/>
-      <c r="C60" s="14" t="n"/>
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="15" t="n"/>
       <c r="D60" s="9" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="13" t="n"/>
-      <c r="C61" s="14" t="n"/>
+      <c r="B61" s="14" t="n"/>
+      <c r="C61" s="15" t="n"/>
       <c r="D61" s="9" t="n"/>
     </row>
     <row r="62">
@@ -15590,17 +15598,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B62" s="15" t="inlineStr">
+      <c r="B62" s="16" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C62" s="16" t="inlineStr">
+      <c r="C62" s="17" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D62" s="17" t="inlineStr">
+      <c r="D62" s="18" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -17071,14 +17079,14 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A178" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
         </is>
       </c>
       <c r="B178" s="7" t="inlineStr"/>
       <c r="C178" s="8" t="inlineStr"/>
-      <c r="D178" s="12" t="n">
+      <c r="D178" s="13" t="n">
         <v>159744.75</v>
       </c>
     </row>
@@ -17155,17 +17163,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -17885,17 +17893,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B62" s="15" t="inlineStr">
+      <c r="B62" s="16" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C62" s="16" t="inlineStr">
+      <c r="C62" s="17" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D62" s="17" t="inlineStr">
+      <c r="D62" s="18" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -19070,14 +19078,14 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A154" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
         </is>
       </c>
       <c r="B154" s="7" t="inlineStr"/>
       <c r="C154" s="8" t="inlineStr"/>
-      <c r="D154" s="12" t="n">
+      <c r="D154" s="13" t="n">
         <v>116295.29</v>
       </c>
     </row>
@@ -19154,17 +19162,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -19731,75 +19739,75 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
         </is>
       </c>
       <c r="B49" s="7" t="inlineStr"/>
       <c r="C49" s="8" t="inlineStr"/>
-      <c r="D49" s="12" t="n">
+      <c r="D49" s="13" t="n">
         <v>58442.47</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="13" t="n"/>
-      <c r="C50" s="14" t="n"/>
+      <c r="B50" s="14" t="n"/>
+      <c r="C50" s="15" t="n"/>
       <c r="D50" s="9" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="13" t="n"/>
-      <c r="C51" s="14" t="n"/>
+      <c r="B51" s="14" t="n"/>
+      <c r="C51" s="15" t="n"/>
       <c r="D51" s="9" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="13" t="n"/>
-      <c r="C52" s="14" t="n"/>
+      <c r="B52" s="14" t="n"/>
+      <c r="C52" s="15" t="n"/>
       <c r="D52" s="9" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="13" t="n"/>
-      <c r="C53" s="14" t="n"/>
+      <c r="B53" s="14" t="n"/>
+      <c r="C53" s="15" t="n"/>
       <c r="D53" s="9" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="13" t="n"/>
-      <c r="C54" s="14" t="n"/>
+      <c r="B54" s="14" t="n"/>
+      <c r="C54" s="15" t="n"/>
       <c r="D54" s="9" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="13" t="n"/>
-      <c r="C55" s="14" t="n"/>
+      <c r="B55" s="14" t="n"/>
+      <c r="C55" s="15" t="n"/>
       <c r="D55" s="9" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="14" t="n"/>
+      <c r="B56" s="14" t="n"/>
+      <c r="C56" s="15" t="n"/>
       <c r="D56" s="9" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="13" t="n"/>
-      <c r="C57" s="14" t="n"/>
+      <c r="B57" s="14" t="n"/>
+      <c r="C57" s="15" t="n"/>
       <c r="D57" s="9" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="14" t="n"/>
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="15" t="n"/>
       <c r="D58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="13" t="n"/>
-      <c r="C59" s="14" t="n"/>
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="15" t="n"/>
       <c r="D59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="13" t="n"/>
-      <c r="C60" s="14" t="n"/>
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="15" t="n"/>
       <c r="D60" s="9" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="13" t="n"/>
-      <c r="C61" s="14" t="n"/>
+      <c r="B61" s="14" t="n"/>
+      <c r="C61" s="15" t="n"/>
       <c r="D61" s="9" t="n"/>
     </row>
     <row r="62">
@@ -19808,17 +19816,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B62" s="15" t="inlineStr">
+      <c r="B62" s="16" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C62" s="16" t="inlineStr">
+      <c r="C62" s="17" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D62" s="17" t="inlineStr">
+      <c r="D62" s="18" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -21125,14 +21133,14 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A165" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
         </is>
       </c>
       <c r="B165" s="7" t="inlineStr"/>
       <c r="C165" s="8" t="inlineStr"/>
-      <c r="D165" s="12" t="n">
+      <c r="D165" s="13" t="n">
         <v>105490.53</v>
       </c>
     </row>
@@ -21207,17 +21215,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -21744,90 +21752,90 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A46" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
         </is>
       </c>
       <c r="B46" s="7" t="inlineStr"/>
       <c r="C46" s="8" t="inlineStr"/>
-      <c r="D46" s="12" t="n">
+      <c r="D46" s="13" t="n">
         <v>59532.41</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="13" t="n"/>
-      <c r="C47" s="14" t="n"/>
+      <c r="B47" s="14" t="n"/>
+      <c r="C47" s="15" t="n"/>
       <c r="D47" s="9" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="13" t="n"/>
-      <c r="C48" s="14" t="n"/>
+      <c r="B48" s="14" t="n"/>
+      <c r="C48" s="15" t="n"/>
       <c r="D48" s="9" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="13" t="n"/>
-      <c r="C49" s="14" t="n"/>
+      <c r="B49" s="14" t="n"/>
+      <c r="C49" s="15" t="n"/>
       <c r="D49" s="9" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="13" t="n"/>
-      <c r="C50" s="14" t="n"/>
+      <c r="B50" s="14" t="n"/>
+      <c r="C50" s="15" t="n"/>
       <c r="D50" s="9" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="13" t="n"/>
-      <c r="C51" s="14" t="n"/>
+      <c r="B51" s="14" t="n"/>
+      <c r="C51" s="15" t="n"/>
       <c r="D51" s="9" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="13" t="n"/>
-      <c r="C52" s="14" t="n"/>
+      <c r="B52" s="14" t="n"/>
+      <c r="C52" s="15" t="n"/>
       <c r="D52" s="9" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="13" t="n"/>
-      <c r="C53" s="14" t="n"/>
+      <c r="B53" s="14" t="n"/>
+      <c r="C53" s="15" t="n"/>
       <c r="D53" s="9" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="13" t="n"/>
-      <c r="C54" s="14" t="n"/>
+      <c r="B54" s="14" t="n"/>
+      <c r="C54" s="15" t="n"/>
       <c r="D54" s="9" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="13" t="n"/>
-      <c r="C55" s="14" t="n"/>
+      <c r="B55" s="14" t="n"/>
+      <c r="C55" s="15" t="n"/>
       <c r="D55" s="9" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="14" t="n"/>
+      <c r="B56" s="14" t="n"/>
+      <c r="C56" s="15" t="n"/>
       <c r="D56" s="9" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="13" t="n"/>
-      <c r="C57" s="14" t="n"/>
+      <c r="B57" s="14" t="n"/>
+      <c r="C57" s="15" t="n"/>
       <c r="D57" s="9" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="14" t="n"/>
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="15" t="n"/>
       <c r="D58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="13" t="n"/>
-      <c r="C59" s="14" t="n"/>
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="15" t="n"/>
       <c r="D59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="13" t="n"/>
-      <c r="C60" s="14" t="n"/>
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="15" t="n"/>
       <c r="D60" s="9" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="13" t="n"/>
-      <c r="C61" s="14" t="n"/>
+      <c r="B61" s="14" t="n"/>
+      <c r="C61" s="15" t="n"/>
       <c r="D61" s="9" t="n"/>
     </row>
     <row r="62">
@@ -21836,17 +21844,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B62" s="15" t="inlineStr">
+      <c r="B62" s="16" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C62" s="16" t="inlineStr">
+      <c r="C62" s="17" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D62" s="17" t="inlineStr">
+      <c r="D62" s="18" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -22801,14 +22809,14 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A136" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
         </is>
       </c>
       <c r="B136" s="7" t="inlineStr"/>
       <c r="C136" s="8" t="inlineStr"/>
-      <c r="D136" s="12" t="n">
+      <c r="D136" s="13" t="n">
         <v>62827.42</v>
       </c>
     </row>
@@ -22881,17 +22889,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -23486,60 +23494,60 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A52" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
         </is>
       </c>
       <c r="B52" s="7" t="inlineStr"/>
       <c r="C52" s="8" t="inlineStr"/>
-      <c r="D52" s="12" t="n">
+      <c r="D52" s="13" t="n">
         <v>66470.95</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="13" t="n"/>
-      <c r="C53" s="14" t="n"/>
+      <c r="B53" s="14" t="n"/>
+      <c r="C53" s="15" t="n"/>
       <c r="D53" s="9" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="13" t="n"/>
-      <c r="C54" s="14" t="n"/>
+      <c r="B54" s="14" t="n"/>
+      <c r="C54" s="15" t="n"/>
       <c r="D54" s="9" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="13" t="n"/>
-      <c r="C55" s="14" t="n"/>
+      <c r="B55" s="14" t="n"/>
+      <c r="C55" s="15" t="n"/>
       <c r="D55" s="9" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="14" t="n"/>
+      <c r="B56" s="14" t="n"/>
+      <c r="C56" s="15" t="n"/>
       <c r="D56" s="9" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="13" t="n"/>
-      <c r="C57" s="14" t="n"/>
+      <c r="B57" s="14" t="n"/>
+      <c r="C57" s="15" t="n"/>
       <c r="D57" s="9" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="13" t="n"/>
-      <c r="C58" s="14" t="n"/>
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="15" t="n"/>
       <c r="D58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="13" t="n"/>
-      <c r="C59" s="14" t="n"/>
+      <c r="B59" s="14" t="n"/>
+      <c r="C59" s="15" t="n"/>
       <c r="D59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="13" t="n"/>
-      <c r="C60" s="14" t="n"/>
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="15" t="n"/>
       <c r="D60" s="9" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="13" t="n"/>
-      <c r="C61" s="14" t="n"/>
+      <c r="B61" s="14" t="n"/>
+      <c r="C61" s="15" t="n"/>
       <c r="D61" s="9" t="n"/>
     </row>
     <row r="62">
@@ -23548,17 +23556,17 @@
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="B62" s="15" t="inlineStr">
+      <c r="B62" s="16" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C62" s="16" t="inlineStr">
+      <c r="C62" s="17" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="D62" s="17" t="inlineStr">
+      <c r="D62" s="18" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
@@ -24761,14 +24769,14 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="6" t="inlineStr">
-        <is>
-          <t>TOTALE</t>
+      <c r="A156" s="12" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
         </is>
       </c>
       <c r="B156" s="7" t="inlineStr"/>
       <c r="C156" s="8" t="inlineStr"/>
-      <c r="D156" s="12" t="n">
+      <c r="D156" s="13" t="n">
         <v>95671.71000000001</v>
       </c>
     </row>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -112,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -164,6 +164,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -547,7 +548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2466,6 +2467,41 @@
       <c r="C158" s="8" t="inlineStr"/>
       <c r="D158" s="13" t="n">
         <v>106408.65</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +2544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4425,6 +4461,41 @@
       <c r="C159" s="8" t="inlineStr"/>
       <c r="D159" s="13" t="n">
         <v>133297.72</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4466,7 +4537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6476,6 +6547,41 @@
       <c r="C165" s="8" t="inlineStr"/>
       <c r="D165" s="13" t="n">
         <v>98226.42</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -6517,7 +6623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8404,6 +8510,41 @@
       <c r="C155" s="8" t="inlineStr"/>
       <c r="D155" s="13" t="n">
         <v>151296.82</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -8447,7 +8588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10750,6 +10891,41 @@
       <c r="C184" s="8" t="inlineStr"/>
       <c r="D184" s="13" t="n">
         <v>144689.16</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -10794,7 +10970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12728,6 +12904,41 @@
       <c r="C160" s="8" t="inlineStr"/>
       <c r="D160" s="13" t="n">
         <v>125645.94</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -12770,7 +12981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14815,6 +15026,41 @@
       <c r="C164" s="8" t="inlineStr"/>
       <c r="D164" s="13" t="n">
         <v>133884.68</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -14861,7 +15107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17088,6 +17334,41 @@
       <c r="C178" s="8" t="inlineStr"/>
       <c r="D178" s="13" t="n">
         <v>159744.75</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -17132,7 +17413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19087,6 +19368,41 @@
       <c r="C154" s="8" t="inlineStr"/>
       <c r="D154" s="13" t="n">
         <v>116295.29</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -19131,7 +19447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21142,6 +21458,41 @@
       <c r="C165" s="8" t="inlineStr"/>
       <c r="D165" s="13" t="n">
         <v>105490.53</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -21184,7 +21535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22818,6 +23169,41 @@
       <c r="C136" s="8" t="inlineStr"/>
       <c r="D136" s="13" t="n">
         <v>62827.42</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -22858,7 +23244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24778,6 +25164,41 @@
       <c r="C156" s="8" t="inlineStr"/>
       <c r="D156" s="13" t="n">
         <v>95671.71000000001</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="19" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="19" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="19" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" s="19" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -28,10 +28,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00€"/>
+    <numFmt numFmtId="165" formatCode="-#,##0.00€"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,6 +64,11 @@
     </font>
     <font>
       <sz val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="15"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -164,9 +170,14 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2493,7 +2504,7 @@
       <c r="D162" s="9" t="n"/>
     </row>
     <row r="163">
-      <c r="B163" s="20" t="inlineStr">
+      <c r="B163" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
@@ -2507,13 +2518,13 @@
       <c r="D164" s="9" t="n"/>
     </row>
     <row r="165">
-      <c r="B165" s="20" t="inlineStr">
+      <c r="B165" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
       <c r="C165" s="15" t="n"/>
-      <c r="D165" s="13" t="n">
+      <c r="D165" s="20" t="n">
         <v>78144.25999999999</v>
       </c>
     </row>
@@ -2523,22 +2534,30 @@
       <c r="D166" s="9" t="n"/>
     </row>
     <row r="167">
-      <c r="B167" s="20" t="inlineStr">
+      <c r="B167" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
       <c r="C167" s="15" t="n"/>
-      <c r="D167" s="13" t="n">
+      <c r="D167" s="21" t="n">
         <v>106408.65</v>
       </c>
     </row>
-    <row r="168"/>
+    <row r="168">
+      <c r="B168" s="14" t="n"/>
+      <c r="C168" s="15" t="n"/>
+      <c r="D168" s="9" t="n"/>
+    </row>
     <row r="169">
       <c r="B169" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
+      </c>
+      <c r="C169" s="15" t="n"/>
+      <c r="D169" s="13" t="n">
+        <v>-28264.39000000001</v>
       </c>
     </row>
     <row r="170"/>
@@ -4529,7 +4548,7 @@
       <c r="D163" s="9" t="n"/>
     </row>
     <row r="164">
-      <c r="B164" s="20" t="inlineStr">
+      <c r="B164" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
@@ -4543,13 +4562,13 @@
       <c r="D165" s="9" t="n"/>
     </row>
     <row r="166">
-      <c r="B166" s="20" t="inlineStr">
+      <c r="B166" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
       <c r="C166" s="15" t="n"/>
-      <c r="D166" s="13" t="n">
+      <c r="D166" s="20" t="n">
         <v>97706.60000000001</v>
       </c>
     </row>
@@ -4559,22 +4578,30 @@
       <c r="D167" s="9" t="n"/>
     </row>
     <row r="168">
-      <c r="B168" s="20" t="inlineStr">
+      <c r="B168" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
       <c r="C168" s="15" t="n"/>
-      <c r="D168" s="13" t="n">
+      <c r="D168" s="21" t="n">
         <v>133297.72</v>
       </c>
     </row>
-    <row r="169"/>
+    <row r="169">
+      <c r="B169" s="14" t="n"/>
+      <c r="C169" s="15" t="n"/>
+      <c r="D169" s="9" t="n"/>
+    </row>
     <row r="170">
       <c r="B170" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
+      </c>
+      <c r="C170" s="15" t="n"/>
+      <c r="D170" s="13" t="n">
+        <v>-35591.12</v>
       </c>
     </row>
     <row r="171"/>
@@ -6657,7 +6684,7 @@
       <c r="D169" s="9" t="n"/>
     </row>
     <row r="170">
-      <c r="B170" s="20" t="inlineStr">
+      <c r="B170" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
@@ -6671,13 +6698,13 @@
       <c r="D171" s="9" t="n"/>
     </row>
     <row r="172">
-      <c r="B172" s="20" t="inlineStr">
+      <c r="B172" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
       <c r="C172" s="15" t="n"/>
-      <c r="D172" s="13" t="n">
+      <c r="D172" s="20" t="n">
         <v>70497.86</v>
       </c>
     </row>
@@ -6687,22 +6714,30 @@
       <c r="D173" s="9" t="n"/>
     </row>
     <row r="174">
-      <c r="B174" s="20" t="inlineStr">
+      <c r="B174" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
       <c r="C174" s="15" t="n"/>
-      <c r="D174" s="13" t="n">
+      <c r="D174" s="21" t="n">
         <v>98226.42000000001</v>
       </c>
     </row>
-    <row r="175"/>
+    <row r="175">
+      <c r="B175" s="14" t="n"/>
+      <c r="C175" s="15" t="n"/>
+      <c r="D175" s="9" t="n"/>
+    </row>
     <row r="176">
       <c r="B176" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
+      </c>
+      <c r="C176" s="15" t="n"/>
+      <c r="D176" s="13" t="n">
+        <v>-27728.56000000001</v>
       </c>
     </row>
     <row r="177"/>
@@ -8662,7 +8697,7 @@
       <c r="D159" s="9" t="n"/>
     </row>
     <row r="160">
-      <c r="B160" s="20" t="inlineStr">
+      <c r="B160" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
@@ -8676,13 +8711,13 @@
       <c r="D161" s="9" t="n"/>
     </row>
     <row r="162">
-      <c r="B162" s="20" t="inlineStr">
+      <c r="B162" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
       <c r="C162" s="15" t="n"/>
-      <c r="D162" s="13" t="n">
+      <c r="D162" s="20" t="n">
         <v>102393.39</v>
       </c>
     </row>
@@ -8692,22 +8727,30 @@
       <c r="D163" s="9" t="n"/>
     </row>
     <row r="164">
-      <c r="B164" s="20" t="inlineStr">
+      <c r="B164" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
       <c r="C164" s="15" t="n"/>
-      <c r="D164" s="13" t="n">
+      <c r="D164" s="21" t="n">
         <v>151296.82</v>
       </c>
     </row>
-    <row r="165"/>
+    <row r="165">
+      <c r="B165" s="14" t="n"/>
+      <c r="C165" s="15" t="n"/>
+      <c r="D165" s="9" t="n"/>
+    </row>
     <row r="166">
       <c r="B166" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
+      </c>
+      <c r="C166" s="15" t="n"/>
+      <c r="D166" s="13" t="n">
+        <v>-48903.43000000001</v>
       </c>
     </row>
     <row r="167"/>
@@ -11074,6 +11117,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D189" s="13" t="n">
+        <v>-100000</v>
+      </c>
     </row>
     <row r="190"/>
     <row r="191">
@@ -11082,7 +11128,7 @@
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="D191" s="13" t="n">
+      <c r="D191" s="20" t="n">
         <v>102266.604</v>
       </c>
     </row>
@@ -11093,7 +11139,7 @@
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="D193" s="13" t="n">
+      <c r="D193" s="21" t="n">
         <v>144689.16</v>
       </c>
     </row>
@@ -11103,6 +11149,9 @@
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
+      </c>
+      <c r="D195" s="13" t="n">
+        <v>-42422.55600000001</v>
       </c>
     </row>
     <row r="196"/>
@@ -13112,7 +13161,7 @@
       <c r="D164" s="9" t="n"/>
     </row>
     <row r="165">
-      <c r="B165" s="20" t="inlineStr">
+      <c r="B165" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
@@ -13126,13 +13175,13 @@
       <c r="D166" s="9" t="n"/>
     </row>
     <row r="167">
-      <c r="B167" s="20" t="inlineStr">
+      <c r="B167" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
       <c r="C167" s="15" t="n"/>
-      <c r="D167" s="13" t="n">
+      <c r="D167" s="20" t="n">
         <v>77543.88</v>
       </c>
     </row>
@@ -13142,22 +13191,30 @@
       <c r="D168" s="9" t="n"/>
     </row>
     <row r="169">
-      <c r="B169" s="20" t="inlineStr">
+      <c r="B169" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
       <c r="C169" s="15" t="n"/>
-      <c r="D169" s="13" t="n">
+      <c r="D169" s="21" t="n">
         <v>125645.94</v>
       </c>
     </row>
-    <row r="170"/>
+    <row r="170">
+      <c r="B170" s="14" t="n"/>
+      <c r="C170" s="15" t="n"/>
+      <c r="D170" s="9" t="n"/>
+    </row>
     <row r="171">
       <c r="B171" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
+      </c>
+      <c r="C171" s="15" t="n"/>
+      <c r="D171" s="13" t="n">
+        <v>-48102.06</v>
       </c>
     </row>
     <row r="172"/>
@@ -15276,7 +15333,7 @@
       <c r="D168" s="9" t="n"/>
     </row>
     <row r="169">
-      <c r="B169" s="20" t="inlineStr">
+      <c r="B169" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
@@ -15290,13 +15347,13 @@
       <c r="D170" s="9" t="n"/>
     </row>
     <row r="171">
-      <c r="B171" s="20" t="inlineStr">
+      <c r="B171" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
       <c r="C171" s="15" t="n"/>
-      <c r="D171" s="13" t="n">
+      <c r="D171" s="20" t="n">
         <v>77550.48999999999</v>
       </c>
     </row>
@@ -15306,22 +15363,30 @@
       <c r="D172" s="9" t="n"/>
     </row>
     <row r="173">
-      <c r="B173" s="20" t="inlineStr">
+      <c r="B173" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
       <c r="C173" s="15" t="n"/>
-      <c r="D173" s="13" t="n">
+      <c r="D173" s="21" t="n">
         <v>133884.68</v>
       </c>
     </row>
-    <row r="174"/>
+    <row r="174">
+      <c r="B174" s="14" t="n"/>
+      <c r="C174" s="15" t="n"/>
+      <c r="D174" s="9" t="n"/>
+    </row>
     <row r="175">
       <c r="B175" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
+      </c>
+      <c r="C175" s="15" t="n"/>
+      <c r="D175" s="13" t="n">
+        <v>-56334.19</v>
       </c>
     </row>
     <row r="176"/>
@@ -17626,7 +17691,7 @@
       <c r="D182" s="9" t="n"/>
     </row>
     <row r="183">
-      <c r="B183" s="20" t="inlineStr">
+      <c r="B183" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
@@ -17640,13 +17705,13 @@
       <c r="D184" s="9" t="n"/>
     </row>
     <row r="185">
-      <c r="B185" s="20" t="inlineStr">
+      <c r="B185" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
       <c r="C185" s="15" t="n"/>
-      <c r="D185" s="13" t="n">
+      <c r="D185" s="20" t="n">
         <v>100705.39</v>
       </c>
     </row>
@@ -17656,22 +17721,30 @@
       <c r="D186" s="9" t="n"/>
     </row>
     <row r="187">
-      <c r="B187" s="20" t="inlineStr">
+      <c r="B187" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
       <c r="C187" s="15" t="n"/>
-      <c r="D187" s="13" t="n">
+      <c r="D187" s="21" t="n">
         <v>159744.75</v>
       </c>
     </row>
-    <row r="188"/>
+    <row r="188">
+      <c r="B188" s="14" t="n"/>
+      <c r="C188" s="15" t="n"/>
+      <c r="D188" s="9" t="n"/>
+    </row>
     <row r="189">
       <c r="B189" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
+      </c>
+      <c r="C189" s="15" t="n"/>
+      <c r="D189" s="13" t="n">
+        <v>-59039.36</v>
       </c>
     </row>
     <row r="190"/>
@@ -19702,7 +19775,7 @@
       <c r="D158" s="9" t="n"/>
     </row>
     <row r="159">
-      <c r="B159" s="20" t="inlineStr">
+      <c r="B159" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
@@ -19716,13 +19789,13 @@
       <c r="D160" s="9" t="n"/>
     </row>
     <row r="161">
-      <c r="B161" s="20" t="inlineStr">
+      <c r="B161" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
       <c r="C161" s="15" t="n"/>
-      <c r="D161" s="13" t="n">
+      <c r="D161" s="20" t="n">
         <v>107413.59</v>
       </c>
     </row>
@@ -19732,22 +19805,30 @@
       <c r="D162" s="9" t="n"/>
     </row>
     <row r="163">
-      <c r="B163" s="20" t="inlineStr">
+      <c r="B163" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
       <c r="C163" s="15" t="n"/>
-      <c r="D163" s="13" t="n">
+      <c r="D163" s="21" t="n">
         <v>116295.29</v>
       </c>
     </row>
-    <row r="164"/>
+    <row r="164">
+      <c r="B164" s="14" t="n"/>
+      <c r="C164" s="15" t="n"/>
+      <c r="D164" s="9" t="n"/>
+    </row>
     <row r="165">
       <c r="B165" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
+      </c>
+      <c r="C165" s="15" t="n"/>
+      <c r="D165" s="13" t="n">
+        <v>-8881.700000000012</v>
       </c>
     </row>
     <row r="166"/>
@@ -21834,7 +21915,7 @@
       <c r="D169" s="9" t="n"/>
     </row>
     <row r="170">
-      <c r="B170" s="20" t="inlineStr">
+      <c r="B170" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
@@ -21848,13 +21929,13 @@
       <c r="D171" s="9" t="n"/>
     </row>
     <row r="172">
-      <c r="B172" s="20" t="inlineStr">
+      <c r="B172" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
       <c r="C172" s="15" t="n"/>
-      <c r="D172" s="13" t="n">
+      <c r="D172" s="20" t="n">
         <v>58442.47</v>
       </c>
     </row>
@@ -21864,22 +21945,30 @@
       <c r="D173" s="9" t="n"/>
     </row>
     <row r="174">
-      <c r="B174" s="20" t="inlineStr">
+      <c r="B174" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
       <c r="C174" s="15" t="n"/>
-      <c r="D174" s="13" t="n">
+      <c r="D174" s="21" t="n">
         <v>105490.53</v>
       </c>
     </row>
-    <row r="175"/>
+    <row r="175">
+      <c r="B175" s="14" t="n"/>
+      <c r="C175" s="15" t="n"/>
+      <c r="D175" s="9" t="n"/>
+    </row>
     <row r="176">
       <c r="B176" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
+      </c>
+      <c r="C176" s="15" t="n"/>
+      <c r="D176" s="13" t="n">
+        <v>-47048.06</v>
       </c>
     </row>
     <row r="177"/>
@@ -23587,7 +23676,7 @@
       <c r="D140" s="9" t="n"/>
     </row>
     <row r="141">
-      <c r="B141" s="20" t="inlineStr">
+      <c r="B141" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
@@ -23601,13 +23690,13 @@
       <c r="D142" s="9" t="n"/>
     </row>
     <row r="143">
-      <c r="B143" s="20" t="inlineStr">
+      <c r="B143" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
       <c r="C143" s="15" t="n"/>
-      <c r="D143" s="13" t="n">
+      <c r="D143" s="20" t="n">
         <v>59532.41</v>
       </c>
     </row>
@@ -23617,22 +23706,30 @@
       <c r="D144" s="9" t="n"/>
     </row>
     <row r="145">
-      <c r="B145" s="20" t="inlineStr">
+      <c r="B145" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
       <c r="C145" s="15" t="n"/>
-      <c r="D145" s="13" t="n">
+      <c r="D145" s="21" t="n">
         <v>62827.42</v>
       </c>
     </row>
-    <row r="146"/>
+    <row r="146">
+      <c r="B146" s="14" t="n"/>
+      <c r="C146" s="15" t="n"/>
+      <c r="D146" s="9" t="n"/>
+    </row>
     <row r="147">
       <c r="B147" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
+      </c>
+      <c r="C147" s="15" t="n"/>
+      <c r="D147" s="13" t="n">
+        <v>-3295.009999999995</v>
       </c>
     </row>
     <row r="148"/>
@@ -25624,7 +25721,7 @@
       <c r="D160" s="9" t="n"/>
     </row>
     <row r="161">
-      <c r="B161" s="20" t="inlineStr">
+      <c r="B161" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
@@ -25638,13 +25735,13 @@
       <c r="D162" s="9" t="n"/>
     </row>
     <row r="163">
-      <c r="B163" s="20" t="inlineStr">
+      <c r="B163" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
       <c r="C163" s="15" t="n"/>
-      <c r="D163" s="13" t="n">
+      <c r="D163" s="20" t="n">
         <v>66470.95</v>
       </c>
     </row>
@@ -25654,22 +25751,30 @@
       <c r="D164" s="9" t="n"/>
     </row>
     <row r="165">
-      <c r="B165" s="20" t="inlineStr">
+      <c r="B165" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
       <c r="C165" s="15" t="n"/>
-      <c r="D165" s="13" t="n">
+      <c r="D165" s="21" t="n">
         <v>95671.71000000002</v>
       </c>
     </row>
-    <row r="166"/>
+    <row r="166">
+      <c r="B166" s="14" t="n"/>
+      <c r="C166" s="15" t="n"/>
+      <c r="D166" s="9" t="n"/>
+    </row>
     <row r="167">
       <c r="B167" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
+      </c>
+      <c r="C167" s="15" t="n"/>
+      <c r="D167" s="13" t="n">
+        <v>-29200.76000000002</v>
       </c>
     </row>
     <row r="168"/>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -118,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -179,6 +179,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2483,79 +2484,46 @@
         <v>106408.65</v>
       </c>
     </row>
-    <row r="159">
-      <c r="B159" s="14" t="n"/>
-      <c r="C159" s="15" t="n"/>
-      <c r="D159" s="9" t="n"/>
-    </row>
-    <row r="160">
-      <c r="B160" s="14" t="n"/>
-      <c r="C160" s="15" t="n"/>
-      <c r="D160" s="9" t="n"/>
-    </row>
-    <row r="161">
-      <c r="B161" s="14" t="n"/>
-      <c r="C161" s="15" t="n"/>
-      <c r="D161" s="9" t="n"/>
-    </row>
-    <row r="162">
-      <c r="B162" s="14" t="n"/>
-      <c r="C162" s="15" t="n"/>
-      <c r="D162" s="9" t="n"/>
-    </row>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
     <row r="163">
       <c r="B163" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C163" s="15" t="n"/>
-      <c r="D163" s="9" t="n"/>
-    </row>
-    <row r="164">
-      <c r="B164" s="14" t="n"/>
-      <c r="C164" s="15" t="n"/>
-      <c r="D164" s="9" t="n"/>
-    </row>
+    </row>
+    <row r="164"/>
     <row r="165">
       <c r="B165" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C165" s="15" t="n"/>
       <c r="D165" s="20" t="n">
         <v>78144.25999999999</v>
       </c>
     </row>
-    <row r="166">
-      <c r="B166" s="14" t="n"/>
-      <c r="C166" s="15" t="n"/>
-      <c r="D166" s="9" t="n"/>
-    </row>
+    <row r="166"/>
     <row r="167">
       <c r="B167" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C167" s="15" t="n"/>
       <c r="D167" s="21" t="n">
         <v>106408.65</v>
       </c>
     </row>
-    <row r="168">
-      <c r="B168" s="14" t="n"/>
-      <c r="C168" s="15" t="n"/>
-      <c r="D168" s="9" t="n"/>
-    </row>
+    <row r="168"/>
     <row r="169">
       <c r="B169" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C169" s="15" t="n"/>
       <c r="D169" s="13" t="n">
         <v>-28264.39000000001</v>
       </c>
@@ -4527,79 +4495,46 @@
         <v>133297.72</v>
       </c>
     </row>
-    <row r="160">
-      <c r="B160" s="14" t="n"/>
-      <c r="C160" s="15" t="n"/>
-      <c r="D160" s="9" t="n"/>
-    </row>
-    <row r="161">
-      <c r="B161" s="14" t="n"/>
-      <c r="C161" s="15" t="n"/>
-      <c r="D161" s="9" t="n"/>
-    </row>
-    <row r="162">
-      <c r="B162" s="14" t="n"/>
-      <c r="C162" s="15" t="n"/>
-      <c r="D162" s="9" t="n"/>
-    </row>
-    <row r="163">
-      <c r="B163" s="14" t="n"/>
-      <c r="C163" s="15" t="n"/>
-      <c r="D163" s="9" t="n"/>
-    </row>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
     <row r="164">
       <c r="B164" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C164" s="15" t="n"/>
-      <c r="D164" s="9" t="n"/>
-    </row>
-    <row r="165">
-      <c r="B165" s="14" t="n"/>
-      <c r="C165" s="15" t="n"/>
-      <c r="D165" s="9" t="n"/>
-    </row>
+    </row>
+    <row r="165"/>
     <row r="166">
       <c r="B166" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C166" s="15" t="n"/>
       <c r="D166" s="20" t="n">
         <v>97706.60000000001</v>
       </c>
     </row>
-    <row r="167">
-      <c r="B167" s="14" t="n"/>
-      <c r="C167" s="15" t="n"/>
-      <c r="D167" s="9" t="n"/>
-    </row>
+    <row r="167"/>
     <row r="168">
       <c r="B168" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C168" s="15" t="n"/>
       <c r="D168" s="21" t="n">
         <v>133297.72</v>
       </c>
     </row>
-    <row r="169">
-      <c r="B169" s="14" t="n"/>
-      <c r="C169" s="15" t="n"/>
-      <c r="D169" s="9" t="n"/>
-    </row>
+    <row r="169"/>
     <row r="170">
       <c r="B170" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C170" s="15" t="n"/>
       <c r="D170" s="13" t="n">
         <v>-35591.12</v>
       </c>
@@ -6663,79 +6598,46 @@
         <v>98226.42</v>
       </c>
     </row>
-    <row r="166">
-      <c r="B166" s="14" t="n"/>
-      <c r="C166" s="15" t="n"/>
-      <c r="D166" s="9" t="n"/>
-    </row>
-    <row r="167">
-      <c r="B167" s="14" t="n"/>
-      <c r="C167" s="15" t="n"/>
-      <c r="D167" s="9" t="n"/>
-    </row>
-    <row r="168">
-      <c r="B168" s="14" t="n"/>
-      <c r="C168" s="15" t="n"/>
-      <c r="D168" s="9" t="n"/>
-    </row>
-    <row r="169">
-      <c r="B169" s="14" t="n"/>
-      <c r="C169" s="15" t="n"/>
-      <c r="D169" s="9" t="n"/>
-    </row>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
     <row r="170">
       <c r="B170" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C170" s="15" t="n"/>
-      <c r="D170" s="9" t="n"/>
-    </row>
-    <row r="171">
-      <c r="B171" s="14" t="n"/>
-      <c r="C171" s="15" t="n"/>
-      <c r="D171" s="9" t="n"/>
-    </row>
+    </row>
+    <row r="171"/>
     <row r="172">
       <c r="B172" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C172" s="15" t="n"/>
       <c r="D172" s="20" t="n">
         <v>70497.86</v>
       </c>
     </row>
-    <row r="173">
-      <c r="B173" s="14" t="n"/>
-      <c r="C173" s="15" t="n"/>
-      <c r="D173" s="9" t="n"/>
-    </row>
+    <row r="173"/>
     <row r="174">
       <c r="B174" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C174" s="15" t="n"/>
       <c r="D174" s="21" t="n">
         <v>98226.42000000001</v>
       </c>
     </row>
-    <row r="175">
-      <c r="B175" s="14" t="n"/>
-      <c r="C175" s="15" t="n"/>
-      <c r="D175" s="9" t="n"/>
-    </row>
+    <row r="175"/>
     <row r="176">
       <c r="B176" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C176" s="15" t="n"/>
       <c r="D176" s="13" t="n">
         <v>-27728.56000000001</v>
       </c>
@@ -8676,79 +8578,46 @@
         <v>151296.82</v>
       </c>
     </row>
-    <row r="156">
-      <c r="B156" s="14" t="n"/>
-      <c r="C156" s="15" t="n"/>
-      <c r="D156" s="9" t="n"/>
-    </row>
-    <row r="157">
-      <c r="B157" s="14" t="n"/>
-      <c r="C157" s="15" t="n"/>
-      <c r="D157" s="9" t="n"/>
-    </row>
-    <row r="158">
-      <c r="B158" s="14" t="n"/>
-      <c r="C158" s="15" t="n"/>
-      <c r="D158" s="9" t="n"/>
-    </row>
-    <row r="159">
-      <c r="B159" s="14" t="n"/>
-      <c r="C159" s="15" t="n"/>
-      <c r="D159" s="9" t="n"/>
-    </row>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
     <row r="160">
       <c r="B160" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C160" s="15" t="n"/>
-      <c r="D160" s="9" t="n"/>
-    </row>
-    <row r="161">
-      <c r="B161" s="14" t="n"/>
-      <c r="C161" s="15" t="n"/>
-      <c r="D161" s="9" t="n"/>
-    </row>
+    </row>
+    <row r="161"/>
     <row r="162">
       <c r="B162" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C162" s="15" t="n"/>
       <c r="D162" s="20" t="n">
         <v>102393.39</v>
       </c>
     </row>
-    <row r="163">
-      <c r="B163" s="14" t="n"/>
-      <c r="C163" s="15" t="n"/>
-      <c r="D163" s="9" t="n"/>
-    </row>
+    <row r="163"/>
     <row r="164">
       <c r="B164" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C164" s="15" t="n"/>
       <c r="D164" s="21" t="n">
         <v>151296.82</v>
       </c>
     </row>
-    <row r="165">
-      <c r="B165" s="14" t="n"/>
-      <c r="C165" s="15" t="n"/>
-      <c r="D165" s="9" t="n"/>
-    </row>
+    <row r="165"/>
     <row r="166">
       <c r="B166" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C166" s="15" t="n"/>
       <c r="D166" s="13" t="n">
         <v>-48903.43000000001</v>
       </c>
@@ -11117,8 +10986,8 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="D189" s="13" t="n">
-        <v>-100000</v>
+      <c r="D189" s="20" t="n">
+        <v>100000</v>
       </c>
     </row>
     <row r="190"/>
@@ -11160,6 +11029,9 @@
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D197" s="22" t="n">
+        <v>57577.44399999999</v>
       </c>
     </row>
   </sheetData>
@@ -13140,79 +13012,46 @@
         <v>125645.94</v>
       </c>
     </row>
-    <row r="161">
-      <c r="B161" s="14" t="n"/>
-      <c r="C161" s="15" t="n"/>
-      <c r="D161" s="9" t="n"/>
-    </row>
-    <row r="162">
-      <c r="B162" s="14" t="n"/>
-      <c r="C162" s="15" t="n"/>
-      <c r="D162" s="9" t="n"/>
-    </row>
-    <row r="163">
-      <c r="B163" s="14" t="n"/>
-      <c r="C163" s="15" t="n"/>
-      <c r="D163" s="9" t="n"/>
-    </row>
-    <row r="164">
-      <c r="B164" s="14" t="n"/>
-      <c r="C164" s="15" t="n"/>
-      <c r="D164" s="9" t="n"/>
-    </row>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
     <row r="165">
       <c r="B165" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C165" s="15" t="n"/>
-      <c r="D165" s="9" t="n"/>
-    </row>
-    <row r="166">
-      <c r="B166" s="14" t="n"/>
-      <c r="C166" s="15" t="n"/>
-      <c r="D166" s="9" t="n"/>
-    </row>
+    </row>
+    <row r="166"/>
     <row r="167">
       <c r="B167" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C167" s="15" t="n"/>
       <c r="D167" s="20" t="n">
         <v>77543.88</v>
       </c>
     </row>
-    <row r="168">
-      <c r="B168" s="14" t="n"/>
-      <c r="C168" s="15" t="n"/>
-      <c r="D168" s="9" t="n"/>
-    </row>
+    <row r="168"/>
     <row r="169">
       <c r="B169" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C169" s="15" t="n"/>
       <c r="D169" s="21" t="n">
         <v>125645.94</v>
       </c>
     </row>
-    <row r="170">
-      <c r="B170" s="14" t="n"/>
-      <c r="C170" s="15" t="n"/>
-      <c r="D170" s="9" t="n"/>
-    </row>
+    <row r="170"/>
     <row r="171">
       <c r="B171" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C171" s="15" t="n"/>
       <c r="D171" s="13" t="n">
         <v>-48102.06</v>
       </c>
@@ -15312,79 +15151,46 @@
         <v>133884.68</v>
       </c>
     </row>
-    <row r="165">
-      <c r="B165" s="14" t="n"/>
-      <c r="C165" s="15" t="n"/>
-      <c r="D165" s="9" t="n"/>
-    </row>
-    <row r="166">
-      <c r="B166" s="14" t="n"/>
-      <c r="C166" s="15" t="n"/>
-      <c r="D166" s="9" t="n"/>
-    </row>
-    <row r="167">
-      <c r="B167" s="14" t="n"/>
-      <c r="C167" s="15" t="n"/>
-      <c r="D167" s="9" t="n"/>
-    </row>
-    <row r="168">
-      <c r="B168" s="14" t="n"/>
-      <c r="C168" s="15" t="n"/>
-      <c r="D168" s="9" t="n"/>
-    </row>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
     <row r="169">
       <c r="B169" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C169" s="15" t="n"/>
-      <c r="D169" s="9" t="n"/>
-    </row>
-    <row r="170">
-      <c r="B170" s="14" t="n"/>
-      <c r="C170" s="15" t="n"/>
-      <c r="D170" s="9" t="n"/>
-    </row>
+    </row>
+    <row r="170"/>
     <row r="171">
       <c r="B171" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C171" s="15" t="n"/>
       <c r="D171" s="20" t="n">
         <v>77550.48999999999</v>
       </c>
     </row>
-    <row r="172">
-      <c r="B172" s="14" t="n"/>
-      <c r="C172" s="15" t="n"/>
-      <c r="D172" s="9" t="n"/>
-    </row>
+    <row r="172"/>
     <row r="173">
       <c r="B173" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C173" s="15" t="n"/>
       <c r="D173" s="21" t="n">
         <v>133884.68</v>
       </c>
     </row>
-    <row r="174">
-      <c r="B174" s="14" t="n"/>
-      <c r="C174" s="15" t="n"/>
-      <c r="D174" s="9" t="n"/>
-    </row>
+    <row r="174"/>
     <row r="175">
       <c r="B175" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C175" s="15" t="n"/>
       <c r="D175" s="13" t="n">
         <v>-56334.19</v>
       </c>
@@ -17670,79 +17476,46 @@
         <v>159744.75</v>
       </c>
     </row>
-    <row r="179">
-      <c r="B179" s="14" t="n"/>
-      <c r="C179" s="15" t="n"/>
-      <c r="D179" s="9" t="n"/>
-    </row>
-    <row r="180">
-      <c r="B180" s="14" t="n"/>
-      <c r="C180" s="15" t="n"/>
-      <c r="D180" s="9" t="n"/>
-    </row>
-    <row r="181">
-      <c r="B181" s="14" t="n"/>
-      <c r="C181" s="15" t="n"/>
-      <c r="D181" s="9" t="n"/>
-    </row>
-    <row r="182">
-      <c r="B182" s="14" t="n"/>
-      <c r="C182" s="15" t="n"/>
-      <c r="D182" s="9" t="n"/>
-    </row>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
     <row r="183">
       <c r="B183" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C183" s="15" t="n"/>
-      <c r="D183" s="9" t="n"/>
-    </row>
-    <row r="184">
-      <c r="B184" s="14" t="n"/>
-      <c r="C184" s="15" t="n"/>
-      <c r="D184" s="9" t="n"/>
-    </row>
+    </row>
+    <row r="184"/>
     <row r="185">
       <c r="B185" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C185" s="15" t="n"/>
       <c r="D185" s="20" t="n">
         <v>100705.39</v>
       </c>
     </row>
-    <row r="186">
-      <c r="B186" s="14" t="n"/>
-      <c r="C186" s="15" t="n"/>
-      <c r="D186" s="9" t="n"/>
-    </row>
+    <row r="186"/>
     <row r="187">
       <c r="B187" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C187" s="15" t="n"/>
       <c r="D187" s="21" t="n">
         <v>159744.75</v>
       </c>
     </row>
-    <row r="188">
-      <c r="B188" s="14" t="n"/>
-      <c r="C188" s="15" t="n"/>
-      <c r="D188" s="9" t="n"/>
-    </row>
+    <row r="188"/>
     <row r="189">
       <c r="B189" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C189" s="15" t="n"/>
       <c r="D189" s="13" t="n">
         <v>-59039.36</v>
       </c>
@@ -19754,79 +19527,46 @@
         <v>116295.29</v>
       </c>
     </row>
-    <row r="155">
-      <c r="B155" s="14" t="n"/>
-      <c r="C155" s="15" t="n"/>
-      <c r="D155" s="9" t="n"/>
-    </row>
-    <row r="156">
-      <c r="B156" s="14" t="n"/>
-      <c r="C156" s="15" t="n"/>
-      <c r="D156" s="9" t="n"/>
-    </row>
-    <row r="157">
-      <c r="B157" s="14" t="n"/>
-      <c r="C157" s="15" t="n"/>
-      <c r="D157" s="9" t="n"/>
-    </row>
-    <row r="158">
-      <c r="B158" s="14" t="n"/>
-      <c r="C158" s="15" t="n"/>
-      <c r="D158" s="9" t="n"/>
-    </row>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
     <row r="159">
       <c r="B159" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C159" s="15" t="n"/>
-      <c r="D159" s="9" t="n"/>
-    </row>
-    <row r="160">
-      <c r="B160" s="14" t="n"/>
-      <c r="C160" s="15" t="n"/>
-      <c r="D160" s="9" t="n"/>
-    </row>
+    </row>
+    <row r="160"/>
     <row r="161">
       <c r="B161" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C161" s="15" t="n"/>
       <c r="D161" s="20" t="n">
         <v>107413.59</v>
       </c>
     </row>
-    <row r="162">
-      <c r="B162" s="14" t="n"/>
-      <c r="C162" s="15" t="n"/>
-      <c r="D162" s="9" t="n"/>
-    </row>
+    <row r="162"/>
     <row r="163">
       <c r="B163" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C163" s="15" t="n"/>
       <c r="D163" s="21" t="n">
         <v>116295.29</v>
       </c>
     </row>
-    <row r="164">
-      <c r="B164" s="14" t="n"/>
-      <c r="C164" s="15" t="n"/>
-      <c r="D164" s="9" t="n"/>
-    </row>
+    <row r="164"/>
     <row r="165">
       <c r="B165" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C165" s="15" t="n"/>
       <c r="D165" s="13" t="n">
         <v>-8881.700000000012</v>
       </c>
@@ -21894,79 +21634,46 @@
         <v>105490.53</v>
       </c>
     </row>
-    <row r="166">
-      <c r="B166" s="14" t="n"/>
-      <c r="C166" s="15" t="n"/>
-      <c r="D166" s="9" t="n"/>
-    </row>
-    <row r="167">
-      <c r="B167" s="14" t="n"/>
-      <c r="C167" s="15" t="n"/>
-      <c r="D167" s="9" t="n"/>
-    </row>
-    <row r="168">
-      <c r="B168" s="14" t="n"/>
-      <c r="C168" s="15" t="n"/>
-      <c r="D168" s="9" t="n"/>
-    </row>
-    <row r="169">
-      <c r="B169" s="14" t="n"/>
-      <c r="C169" s="15" t="n"/>
-      <c r="D169" s="9" t="n"/>
-    </row>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
     <row r="170">
       <c r="B170" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C170" s="15" t="n"/>
-      <c r="D170" s="9" t="n"/>
-    </row>
-    <row r="171">
-      <c r="B171" s="14" t="n"/>
-      <c r="C171" s="15" t="n"/>
-      <c r="D171" s="9" t="n"/>
-    </row>
+    </row>
+    <row r="171"/>
     <row r="172">
       <c r="B172" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C172" s="15" t="n"/>
       <c r="D172" s="20" t="n">
         <v>58442.47</v>
       </c>
     </row>
-    <row r="173">
-      <c r="B173" s="14" t="n"/>
-      <c r="C173" s="15" t="n"/>
-      <c r="D173" s="9" t="n"/>
-    </row>
+    <row r="173"/>
     <row r="174">
       <c r="B174" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C174" s="15" t="n"/>
       <c r="D174" s="21" t="n">
         <v>105490.53</v>
       </c>
     </row>
-    <row r="175">
-      <c r="B175" s="14" t="n"/>
-      <c r="C175" s="15" t="n"/>
-      <c r="D175" s="9" t="n"/>
-    </row>
+    <row r="175"/>
     <row r="176">
       <c r="B176" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C176" s="15" t="n"/>
       <c r="D176" s="13" t="n">
         <v>-47048.06</v>
       </c>
@@ -23655,79 +23362,46 @@
         <v>62827.42</v>
       </c>
     </row>
-    <row r="137">
-      <c r="B137" s="14" t="n"/>
-      <c r="C137" s="15" t="n"/>
-      <c r="D137" s="9" t="n"/>
-    </row>
-    <row r="138">
-      <c r="B138" s="14" t="n"/>
-      <c r="C138" s="15" t="n"/>
-      <c r="D138" s="9" t="n"/>
-    </row>
-    <row r="139">
-      <c r="B139" s="14" t="n"/>
-      <c r="C139" s="15" t="n"/>
-      <c r="D139" s="9" t="n"/>
-    </row>
-    <row r="140">
-      <c r="B140" s="14" t="n"/>
-      <c r="C140" s="15" t="n"/>
-      <c r="D140" s="9" t="n"/>
-    </row>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
     <row r="141">
       <c r="B141" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C141" s="15" t="n"/>
-      <c r="D141" s="9" t="n"/>
-    </row>
-    <row r="142">
-      <c r="B142" s="14" t="n"/>
-      <c r="C142" s="15" t="n"/>
-      <c r="D142" s="9" t="n"/>
-    </row>
+    </row>
+    <row r="142"/>
     <row r="143">
       <c r="B143" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C143" s="15" t="n"/>
       <c r="D143" s="20" t="n">
         <v>59532.41</v>
       </c>
     </row>
-    <row r="144">
-      <c r="B144" s="14" t="n"/>
-      <c r="C144" s="15" t="n"/>
-      <c r="D144" s="9" t="n"/>
-    </row>
+    <row r="144"/>
     <row r="145">
       <c r="B145" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C145" s="15" t="n"/>
       <c r="D145" s="21" t="n">
         <v>62827.42</v>
       </c>
     </row>
-    <row r="146">
-      <c r="B146" s="14" t="n"/>
-      <c r="C146" s="15" t="n"/>
-      <c r="D146" s="9" t="n"/>
-    </row>
+    <row r="146"/>
     <row r="147">
       <c r="B147" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C147" s="15" t="n"/>
       <c r="D147" s="13" t="n">
         <v>-3295.009999999995</v>
       </c>
@@ -25700,79 +25374,46 @@
         <v>95671.71000000001</v>
       </c>
     </row>
-    <row r="157">
-      <c r="B157" s="14" t="n"/>
-      <c r="C157" s="15" t="n"/>
-      <c r="D157" s="9" t="n"/>
-    </row>
-    <row r="158">
-      <c r="B158" s="14" t="n"/>
-      <c r="C158" s="15" t="n"/>
-      <c r="D158" s="9" t="n"/>
-    </row>
-    <row r="159">
-      <c r="B159" s="14" t="n"/>
-      <c r="C159" s="15" t="n"/>
-      <c r="D159" s="9" t="n"/>
-    </row>
-    <row r="160">
-      <c r="B160" s="14" t="n"/>
-      <c r="C160" s="15" t="n"/>
-      <c r="D160" s="9" t="n"/>
-    </row>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
     <row r="161">
       <c r="B161" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C161" s="15" t="n"/>
-      <c r="D161" s="9" t="n"/>
-    </row>
-    <row r="162">
-      <c r="B162" s="14" t="n"/>
-      <c r="C162" s="15" t="n"/>
-      <c r="D162" s="9" t="n"/>
-    </row>
+    </row>
+    <row r="162"/>
     <row r="163">
       <c r="B163" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C163" s="15" t="n"/>
       <c r="D163" s="20" t="n">
         <v>66470.95</v>
       </c>
     </row>
-    <row r="164">
-      <c r="B164" s="14" t="n"/>
-      <c r="C164" s="15" t="n"/>
-      <c r="D164" s="9" t="n"/>
-    </row>
+    <row r="164"/>
     <row r="165">
       <c r="B165" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C165" s="15" t="n"/>
       <c r="D165" s="21" t="n">
         <v>95671.71000000002</v>
       </c>
     </row>
-    <row r="166">
-      <c r="B166" s="14" t="n"/>
-      <c r="C166" s="15" t="n"/>
-      <c r="D166" s="9" t="n"/>
-    </row>
+    <row r="166"/>
     <row r="167">
       <c r="B167" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C167" s="15" t="n"/>
       <c r="D167" s="13" t="n">
         <v>-29200.76000000002</v>
       </c>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -2494,6 +2494,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D163" t="n">
+        <v>70799.23999999998</v>
+      </c>
     </row>
     <row r="164"/>
     <row r="165">
@@ -2503,7 +2506,7 @@
         </is>
       </c>
       <c r="D165" s="20" t="n">
-        <v>78144.25999999999</v>
+        <v>102266.604</v>
       </c>
     </row>
     <row r="166"/>
@@ -2514,7 +2517,7 @@
         </is>
       </c>
       <c r="D167" s="21" t="n">
-        <v>106408.65</v>
+        <v>144689.16</v>
       </c>
     </row>
     <row r="168"/>
@@ -2525,7 +2528,7 @@
         </is>
       </c>
       <c r="D169" s="13" t="n">
-        <v>-28264.39000000001</v>
+        <v>-42422.55600000001</v>
       </c>
     </row>
     <row r="170"/>
@@ -4505,6 +4508,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D164" t="n">
+        <v>71735.60999999999</v>
+      </c>
     </row>
     <row r="165"/>
     <row r="166">
@@ -4514,7 +4520,7 @@
         </is>
       </c>
       <c r="D166" s="20" t="n">
-        <v>97706.60000000001</v>
+        <v>102266.604</v>
       </c>
     </row>
     <row r="167"/>
@@ -4525,7 +4531,7 @@
         </is>
       </c>
       <c r="D168" s="21" t="n">
-        <v>133297.72</v>
+        <v>144689.16</v>
       </c>
     </row>
     <row r="169"/>
@@ -4536,7 +4542,7 @@
         </is>
       </c>
       <c r="D170" s="13" t="n">
-        <v>-35591.12</v>
+        <v>-42422.55600000001</v>
       </c>
     </row>
     <row r="171"/>
@@ -6608,6 +6614,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D170" t="n">
+        <v>64408.88</v>
+      </c>
     </row>
     <row r="171"/>
     <row r="172">
@@ -6617,7 +6626,7 @@
         </is>
       </c>
       <c r="D172" s="20" t="n">
-        <v>70497.86</v>
+        <v>102266.604</v>
       </c>
     </row>
     <row r="173"/>
@@ -6628,7 +6637,7 @@
         </is>
       </c>
       <c r="D174" s="21" t="n">
-        <v>98226.42000000001</v>
+        <v>144689.16</v>
       </c>
     </row>
     <row r="175"/>
@@ -6639,7 +6648,7 @@
         </is>
       </c>
       <c r="D176" s="13" t="n">
-        <v>-27728.56000000001</v>
+        <v>-42422.55600000001</v>
       </c>
     </row>
     <row r="177"/>
@@ -8588,6 +8597,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D160" t="n">
+        <v>72271.43999999999</v>
+      </c>
     </row>
     <row r="161"/>
     <row r="162">
@@ -8597,7 +8609,7 @@
         </is>
       </c>
       <c r="D162" s="20" t="n">
-        <v>102393.39</v>
+        <v>102266.604</v>
       </c>
     </row>
     <row r="163"/>
@@ -8608,7 +8620,7 @@
         </is>
       </c>
       <c r="D164" s="21" t="n">
-        <v>151296.82</v>
+        <v>144689.16</v>
       </c>
     </row>
     <row r="165"/>
@@ -8619,7 +8631,7 @@
         </is>
       </c>
       <c r="D166" s="13" t="n">
-        <v>-48903.43000000001</v>
+        <v>-42422.55600000001</v>
       </c>
     </row>
     <row r="167"/>
@@ -13022,6 +13034,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D165" t="n">
+        <v>57577.44399999999</v>
+      </c>
     </row>
     <row r="166"/>
     <row r="167">
@@ -13031,7 +13046,7 @@
         </is>
       </c>
       <c r="D167" s="20" t="n">
-        <v>77543.88</v>
+        <v>102266.604</v>
       </c>
     </row>
     <row r="168"/>
@@ -13042,7 +13057,7 @@
         </is>
       </c>
       <c r="D169" s="21" t="n">
-        <v>125645.94</v>
+        <v>144689.16</v>
       </c>
     </row>
     <row r="170"/>
@@ -13053,7 +13068,7 @@
         </is>
       </c>
       <c r="D171" s="13" t="n">
-        <v>-48102.06</v>
+        <v>-42422.55600000001</v>
       </c>
     </row>
     <row r="172"/>
@@ -15161,6 +15176,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D169" t="n">
+        <v>51897.94</v>
+      </c>
     </row>
     <row r="170"/>
     <row r="171">
@@ -15170,7 +15188,7 @@
         </is>
       </c>
       <c r="D171" s="20" t="n">
-        <v>77550.48999999999</v>
+        <v>102266.604</v>
       </c>
     </row>
     <row r="172"/>
@@ -15181,7 +15199,7 @@
         </is>
       </c>
       <c r="D173" s="21" t="n">
-        <v>133884.68</v>
+        <v>144689.16</v>
       </c>
     </row>
     <row r="174"/>
@@ -15192,7 +15210,7 @@
         </is>
       </c>
       <c r="D175" s="13" t="n">
-        <v>-56334.19</v>
+        <v>-42422.55600000001</v>
       </c>
     </row>
     <row r="176"/>
@@ -17486,6 +17504,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D183" t="n">
+        <v>43665.81</v>
+      </c>
     </row>
     <row r="184"/>
     <row r="185">
@@ -17495,7 +17516,7 @@
         </is>
       </c>
       <c r="D185" s="20" t="n">
-        <v>100705.39</v>
+        <v>102266.604</v>
       </c>
     </row>
     <row r="186"/>
@@ -17506,7 +17527,7 @@
         </is>
       </c>
       <c r="D187" s="21" t="n">
-        <v>159744.75</v>
+        <v>144689.16</v>
       </c>
     </row>
     <row r="188"/>
@@ -17517,7 +17538,7 @@
         </is>
       </c>
       <c r="D189" s="13" t="n">
-        <v>-59039.36</v>
+        <v>-42422.55600000001</v>
       </c>
     </row>
     <row r="190"/>
@@ -19537,6 +19558,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D159" t="n">
+        <v>40960.64</v>
+      </c>
     </row>
     <row r="160"/>
     <row r="161">
@@ -19546,7 +19570,7 @@
         </is>
       </c>
       <c r="D161" s="20" t="n">
-        <v>107413.59</v>
+        <v>102266.604</v>
       </c>
     </row>
     <row r="162"/>
@@ -19557,7 +19581,7 @@
         </is>
       </c>
       <c r="D163" s="21" t="n">
-        <v>116295.29</v>
+        <v>144689.16</v>
       </c>
     </row>
     <row r="164"/>
@@ -19568,7 +19592,7 @@
         </is>
       </c>
       <c r="D165" s="13" t="n">
-        <v>-8881.700000000012</v>
+        <v>-42422.55600000001</v>
       </c>
     </row>
     <row r="166"/>
@@ -21644,6 +21668,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D170" t="n">
+        <v>91118.29999999999</v>
+      </c>
     </row>
     <row r="171"/>
     <row r="172">
@@ -21653,7 +21680,7 @@
         </is>
       </c>
       <c r="D172" s="20" t="n">
-        <v>58442.47</v>
+        <v>102266.604</v>
       </c>
     </row>
     <row r="173"/>
@@ -21664,7 +21691,7 @@
         </is>
       </c>
       <c r="D174" s="21" t="n">
-        <v>105490.53</v>
+        <v>144689.16</v>
       </c>
     </row>
     <row r="175"/>
@@ -21675,7 +21702,7 @@
         </is>
       </c>
       <c r="D176" s="13" t="n">
-        <v>-47048.06</v>
+        <v>-42422.55600000001</v>
       </c>
     </row>
     <row r="177"/>
@@ -23372,6 +23399,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D141" t="n">
+        <v>52951.94</v>
+      </c>
     </row>
     <row r="142"/>
     <row r="143">
@@ -23381,7 +23411,7 @@
         </is>
       </c>
       <c r="D143" s="20" t="n">
-        <v>59532.41</v>
+        <v>102266.604</v>
       </c>
     </row>
     <row r="144"/>
@@ -23392,7 +23422,7 @@
         </is>
       </c>
       <c r="D145" s="21" t="n">
-        <v>62827.42</v>
+        <v>144689.16</v>
       </c>
     </row>
     <row r="146"/>
@@ -23403,7 +23433,7 @@
         </is>
       </c>
       <c r="D147" s="13" t="n">
-        <v>-3295.009999999995</v>
+        <v>-42422.55600000001</v>
       </c>
     </row>
     <row r="148"/>
@@ -25384,6 +25414,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D161" t="n">
+        <v>96704.99000000001</v>
+      </c>
     </row>
     <row r="162"/>
     <row r="163">
@@ -25393,7 +25426,7 @@
         </is>
       </c>
       <c r="D163" s="20" t="n">
-        <v>66470.95</v>
+        <v>102266.604</v>
       </c>
     </row>
     <row r="164"/>
@@ -25404,7 +25437,7 @@
         </is>
       </c>
       <c r="D165" s="21" t="n">
-        <v>95671.71000000002</v>
+        <v>144689.16</v>
       </c>
     </row>
     <row r="166"/>
@@ -25415,7 +25448,7 @@
         </is>
       </c>
       <c r="D167" s="13" t="n">
-        <v>-29200.76000000002</v>
+        <v>-42422.55600000001</v>
       </c>
     </row>
     <row r="168"/>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -32,7 +32,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00€"/>
     <numFmt numFmtId="165" formatCode="-#,##0.00€"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -68,6 +68,10 @@
     <font>
       <b val="1"/>
       <color rgb="00000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="15"/>
     </font>
   </fonts>
@@ -2494,9 +2498,6 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="D163" t="n">
-        <v>70799.23999999998</v>
-      </c>
     </row>
     <row r="164"/>
     <row r="165">
@@ -4508,9 +4509,6 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="D164" t="n">
-        <v>71735.60999999999</v>
-      </c>
     </row>
     <row r="165"/>
     <row r="166">
@@ -6614,9 +6612,6 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="D170" t="n">
-        <v>64408.88</v>
-      </c>
     </row>
     <row r="171"/>
     <row r="172">
@@ -8596,9 +8591,6 @@
         <is>
           <t>SALDO del mese precedente</t>
         </is>
-      </c>
-      <c r="D160" t="n">
-        <v>72271.43999999999</v>
       </c>
     </row>
     <row r="161"/>
@@ -13034,7 +13026,7 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="D165" t="n">
+      <c r="D165" s="20" t="n">
         <v>57577.44399999999</v>
       </c>
     </row>
@@ -13077,6 +13069,9 @@
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D173" s="22" t="n">
+        <v>15154.88799999998</v>
       </c>
     </row>
   </sheetData>
@@ -15175,9 +15170,6 @@
         <is>
           <t>SALDO del mese precedente</t>
         </is>
-      </c>
-      <c r="D169" t="n">
-        <v>51897.94</v>
       </c>
     </row>
     <row r="170"/>
@@ -17504,9 +17496,6 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="D183" t="n">
-        <v>43665.81</v>
-      </c>
     </row>
     <row r="184"/>
     <row r="185">
@@ -19558,9 +19547,6 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="D159" t="n">
-        <v>40960.64</v>
-      </c>
     </row>
     <row r="160"/>
     <row r="161">
@@ -21668,9 +21654,6 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="D170" t="n">
-        <v>91118.29999999999</v>
-      </c>
     </row>
     <row r="171"/>
     <row r="172">
@@ -23399,9 +23382,6 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v>52951.94</v>
-      </c>
     </row>
     <row r="142"/>
     <row r="143">
@@ -25414,9 +25394,6 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="D161" t="n">
-        <v>96704.99000000001</v>
-      </c>
     </row>
     <row r="162"/>
     <row r="163">

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -184,6 +184,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2498,6 +2499,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D163" s="13" t="n">
+        <v>-194323.6960000001</v>
+      </c>
     </row>
     <row r="164"/>
     <row r="165">
@@ -2507,7 +2511,7 @@
         </is>
       </c>
       <c r="D165" s="20" t="n">
-        <v>102266.604</v>
+        <v>78144.25999999999</v>
       </c>
     </row>
     <row r="166"/>
@@ -2518,7 +2522,7 @@
         </is>
       </c>
       <c r="D167" s="21" t="n">
-        <v>144689.16</v>
+        <v>106408.65</v>
       </c>
     </row>
     <row r="168"/>
@@ -2529,7 +2533,7 @@
         </is>
       </c>
       <c r="D169" s="13" t="n">
-        <v>-42422.55600000001</v>
+        <v>-28264.39000000001</v>
       </c>
     </row>
     <row r="170"/>
@@ -2538,6 +2542,9 @@
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D171" s="23" t="n">
+        <v>-222588.0860000001</v>
       </c>
     </row>
   </sheetData>
@@ -4509,6 +4516,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D164" s="13" t="n">
+        <v>-222588.0860000001</v>
+      </c>
     </row>
     <row r="165"/>
     <row r="166">
@@ -4518,7 +4528,7 @@
         </is>
       </c>
       <c r="D166" s="20" t="n">
-        <v>102266.604</v>
+        <v>97706.60000000001</v>
       </c>
     </row>
     <row r="167"/>
@@ -4529,7 +4539,7 @@
         </is>
       </c>
       <c r="D168" s="21" t="n">
-        <v>144689.16</v>
+        <v>133297.72</v>
       </c>
     </row>
     <row r="169"/>
@@ -4540,7 +4550,7 @@
         </is>
       </c>
       <c r="D170" s="13" t="n">
-        <v>-42422.55600000001</v>
+        <v>-35591.12</v>
       </c>
     </row>
     <row r="171"/>
@@ -4549,6 +4559,9 @@
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D172" s="23" t="n">
+        <v>-258179.2060000001</v>
       </c>
     </row>
   </sheetData>
@@ -6612,6 +6625,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D170" s="13" t="n">
+        <v>-258179.2060000001</v>
+      </c>
     </row>
     <row r="171"/>
     <row r="172">
@@ -6621,7 +6637,7 @@
         </is>
       </c>
       <c r="D172" s="20" t="n">
-        <v>102266.604</v>
+        <v>70497.86</v>
       </c>
     </row>
     <row r="173"/>
@@ -6632,7 +6648,7 @@
         </is>
       </c>
       <c r="D174" s="21" t="n">
-        <v>144689.16</v>
+        <v>98226.42000000001</v>
       </c>
     </row>
     <row r="175"/>
@@ -6643,7 +6659,7 @@
         </is>
       </c>
       <c r="D176" s="13" t="n">
-        <v>-42422.55600000001</v>
+        <v>-27728.56000000001</v>
       </c>
     </row>
     <row r="177"/>
@@ -6652,6 +6668,9 @@
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D178" s="23" t="n">
+        <v>-285907.7660000001</v>
       </c>
     </row>
   </sheetData>
@@ -8592,6 +8611,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D160" s="13" t="n">
+        <v>-285907.7660000001</v>
+      </c>
     </row>
     <row r="161"/>
     <row r="162">
@@ -8601,7 +8623,7 @@
         </is>
       </c>
       <c r="D162" s="20" t="n">
-        <v>102266.604</v>
+        <v>102393.39</v>
       </c>
     </row>
     <row r="163"/>
@@ -8612,7 +8634,7 @@
         </is>
       </c>
       <c r="D164" s="21" t="n">
-        <v>144689.16</v>
+        <v>151296.82</v>
       </c>
     </row>
     <row r="165"/>
@@ -8623,7 +8645,7 @@
         </is>
       </c>
       <c r="D166" s="13" t="n">
-        <v>-42422.55600000001</v>
+        <v>-48903.43000000001</v>
       </c>
     </row>
     <row r="167"/>
@@ -8632,6 +8654,9 @@
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D168" s="23" t="n">
+        <v>-334811.1960000001</v>
       </c>
     </row>
   </sheetData>
@@ -13038,7 +13063,7 @@
         </is>
       </c>
       <c r="D167" s="20" t="n">
-        <v>102266.604</v>
+        <v>77543.88</v>
       </c>
     </row>
     <row r="168"/>
@@ -13049,7 +13074,7 @@
         </is>
       </c>
       <c r="D169" s="21" t="n">
-        <v>144689.16</v>
+        <v>125645.94</v>
       </c>
     </row>
     <row r="170"/>
@@ -13060,7 +13085,7 @@
         </is>
       </c>
       <c r="D171" s="13" t="n">
-        <v>-42422.55600000001</v>
+        <v>-48102.06</v>
       </c>
     </row>
     <row r="172"/>
@@ -13071,7 +13096,7 @@
         </is>
       </c>
       <c r="D173" s="22" t="n">
-        <v>15154.88799999998</v>
+        <v>9475.383999999991</v>
       </c>
     </row>
   </sheetData>
@@ -15171,6 +15196,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D169" s="13" t="n">
+        <v>9475.383999999991</v>
+      </c>
     </row>
     <row r="170"/>
     <row r="171">
@@ -15180,7 +15208,7 @@
         </is>
       </c>
       <c r="D171" s="20" t="n">
-        <v>102266.604</v>
+        <v>77550.48999999999</v>
       </c>
     </row>
     <row r="172"/>
@@ -15191,7 +15219,7 @@
         </is>
       </c>
       <c r="D173" s="21" t="n">
-        <v>144689.16</v>
+        <v>133884.68</v>
       </c>
     </row>
     <row r="174"/>
@@ -15202,7 +15230,7 @@
         </is>
       </c>
       <c r="D175" s="13" t="n">
-        <v>-42422.55600000001</v>
+        <v>-56334.19</v>
       </c>
     </row>
     <row r="176"/>
@@ -15211,6 +15239,9 @@
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D177" s="23" t="n">
+        <v>-46858.80600000001</v>
       </c>
     </row>
   </sheetData>
@@ -17496,6 +17527,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D183" s="13" t="n">
+        <v>-46858.80600000001</v>
+      </c>
     </row>
     <row r="184"/>
     <row r="185">
@@ -17505,7 +17539,7 @@
         </is>
       </c>
       <c r="D185" s="20" t="n">
-        <v>102266.604</v>
+        <v>100705.39</v>
       </c>
     </row>
     <row r="186"/>
@@ -17516,7 +17550,7 @@
         </is>
       </c>
       <c r="D187" s="21" t="n">
-        <v>144689.16</v>
+        <v>159744.75</v>
       </c>
     </row>
     <row r="188"/>
@@ -17527,7 +17561,7 @@
         </is>
       </c>
       <c r="D189" s="13" t="n">
-        <v>-42422.55600000001</v>
+        <v>-59039.36</v>
       </c>
     </row>
     <row r="190"/>
@@ -17536,6 +17570,9 @@
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D191" s="23" t="n">
+        <v>-105898.166</v>
       </c>
     </row>
   </sheetData>
@@ -19547,6 +19584,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D159" s="13" t="n">
+        <v>-105898.166</v>
+      </c>
     </row>
     <row r="160"/>
     <row r="161">
@@ -19556,7 +19596,7 @@
         </is>
       </c>
       <c r="D161" s="20" t="n">
-        <v>102266.604</v>
+        <v>107413.59</v>
       </c>
     </row>
     <row r="162"/>
@@ -19567,7 +19607,7 @@
         </is>
       </c>
       <c r="D163" s="21" t="n">
-        <v>144689.16</v>
+        <v>116295.29</v>
       </c>
     </row>
     <row r="164"/>
@@ -19578,7 +19618,7 @@
         </is>
       </c>
       <c r="D165" s="13" t="n">
-        <v>-42422.55600000001</v>
+        <v>-8881.700000000012</v>
       </c>
     </row>
     <row r="166"/>
@@ -19587,6 +19627,9 @@
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D167" s="23" t="n">
+        <v>-114779.866</v>
       </c>
     </row>
   </sheetData>
@@ -21654,6 +21697,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D170" s="13" t="n">
+        <v>-114779.866</v>
+      </c>
     </row>
     <row r="171"/>
     <row r="172">
@@ -21663,7 +21709,7 @@
         </is>
       </c>
       <c r="D172" s="20" t="n">
-        <v>102266.604</v>
+        <v>58442.47</v>
       </c>
     </row>
     <row r="173"/>
@@ -21674,7 +21720,7 @@
         </is>
       </c>
       <c r="D174" s="21" t="n">
-        <v>144689.16</v>
+        <v>105490.53</v>
       </c>
     </row>
     <row r="175"/>
@@ -21685,7 +21731,7 @@
         </is>
       </c>
       <c r="D176" s="13" t="n">
-        <v>-42422.55600000001</v>
+        <v>-47048.06</v>
       </c>
     </row>
     <row r="177"/>
@@ -21694,6 +21740,9 @@
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D178" s="23" t="n">
+        <v>-161827.926</v>
       </c>
     </row>
   </sheetData>
@@ -23382,6 +23431,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D141" s="13" t="n">
+        <v>-161827.926</v>
+      </c>
     </row>
     <row r="142"/>
     <row r="143">
@@ -23391,7 +23443,7 @@
         </is>
       </c>
       <c r="D143" s="20" t="n">
-        <v>102266.604</v>
+        <v>59532.41</v>
       </c>
     </row>
     <row r="144"/>
@@ -23402,7 +23454,7 @@
         </is>
       </c>
       <c r="D145" s="21" t="n">
-        <v>144689.16</v>
+        <v>62827.42</v>
       </c>
     </row>
     <row r="146"/>
@@ -23413,7 +23465,7 @@
         </is>
       </c>
       <c r="D147" s="13" t="n">
-        <v>-42422.55600000001</v>
+        <v>-3295.009999999995</v>
       </c>
     </row>
     <row r="148"/>
@@ -23422,6 +23474,9 @@
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D149" s="23" t="n">
+        <v>-165122.936</v>
       </c>
     </row>
   </sheetData>
@@ -25394,6 +25449,9 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="D161" s="13" t="n">
+        <v>-165122.936</v>
+      </c>
     </row>
     <row r="162"/>
     <row r="163">
@@ -25403,7 +25461,7 @@
         </is>
       </c>
       <c r="D163" s="20" t="n">
-        <v>102266.604</v>
+        <v>66470.95</v>
       </c>
     </row>
     <row r="164"/>
@@ -25414,7 +25472,7 @@
         </is>
       </c>
       <c r="D165" s="21" t="n">
-        <v>144689.16</v>
+        <v>95671.71000000002</v>
       </c>
     </row>
     <row r="166"/>
@@ -25425,7 +25483,7 @@
         </is>
       </c>
       <c r="D167" s="13" t="n">
-        <v>-42422.55600000001</v>
+        <v>-29200.76000000002</v>
       </c>
     </row>
     <row r="168"/>
@@ -25434,6 +25492,9 @@
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D169" s="23" t="n">
+        <v>-194323.6960000001</v>
       </c>
     </row>
   </sheetData>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -183,8 +183,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2500,7 +2498,7 @@
         </is>
       </c>
       <c r="D163" s="13" t="n">
-        <v>-194323.6960000001</v>
+        <v>-94323.69600000005</v>
       </c>
     </row>
     <row r="164"/>
@@ -2543,8 +2541,8 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D171" s="23" t="n">
-        <v>-222588.0860000001</v>
+      <c r="D171" s="13" t="n">
+        <v>-122588.0860000001</v>
       </c>
     </row>
   </sheetData>
@@ -4517,7 +4515,7 @@
         </is>
       </c>
       <c r="D164" s="13" t="n">
-        <v>-222588.0860000001</v>
+        <v>-122588.0860000001</v>
       </c>
     </row>
     <row r="165"/>
@@ -4560,8 +4558,8 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D172" s="23" t="n">
-        <v>-258179.2060000001</v>
+      <c r="D172" s="13" t="n">
+        <v>-158179.2060000001</v>
       </c>
     </row>
   </sheetData>
@@ -6626,7 +6624,7 @@
         </is>
       </c>
       <c r="D170" s="13" t="n">
-        <v>-258179.2060000001</v>
+        <v>-158179.2060000001</v>
       </c>
     </row>
     <row r="171"/>
@@ -6669,8 +6667,8 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D178" s="23" t="n">
-        <v>-285907.7660000001</v>
+      <c r="D178" s="13" t="n">
+        <v>-185907.7660000001</v>
       </c>
     </row>
   </sheetData>
@@ -8612,7 +8610,7 @@
         </is>
       </c>
       <c r="D160" s="13" t="n">
-        <v>-285907.7660000001</v>
+        <v>-185907.7660000001</v>
       </c>
     </row>
     <row r="161"/>
@@ -8655,8 +8653,8 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D168" s="23" t="n">
-        <v>-334811.1960000001</v>
+      <c r="D168" s="13" t="n">
+        <v>-234811.1960000001</v>
       </c>
     </row>
   </sheetData>
@@ -11016,7 +11014,7 @@
         </is>
       </c>
       <c r="D189" s="20" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="190"/>
@@ -11059,8 +11057,8 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D197" s="22" t="n">
-        <v>57577.44399999999</v>
+      <c r="D197" s="20" t="n">
+        <v>157577.444</v>
       </c>
     </row>
   </sheetData>
@@ -13052,7 +13050,7 @@
         </is>
       </c>
       <c r="D165" s="20" t="n">
-        <v>57577.44399999999</v>
+        <v>157577.444</v>
       </c>
     </row>
     <row r="166"/>
@@ -13095,8 +13093,8 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D173" s="22" t="n">
-        <v>9475.383999999991</v>
+      <c r="D173" s="20" t="n">
+        <v>109475.384</v>
       </c>
     </row>
   </sheetData>
@@ -15196,8 +15194,8 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="D169" s="13" t="n">
-        <v>9475.383999999991</v>
+      <c r="D169" s="20" t="n">
+        <v>109475.384</v>
       </c>
     </row>
     <row r="170"/>
@@ -15240,8 +15238,8 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D177" s="23" t="n">
-        <v>-46858.80600000001</v>
+      <c r="D177" s="20" t="n">
+        <v>53141.19399999999</v>
       </c>
     </row>
   </sheetData>
@@ -17527,8 +17525,8 @@
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="D183" s="13" t="n">
-        <v>-46858.80600000001</v>
+      <c r="D183" s="20" t="n">
+        <v>53141.19399999999</v>
       </c>
     </row>
     <row r="184"/>
@@ -17571,8 +17569,8 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D191" s="23" t="n">
-        <v>-105898.166</v>
+      <c r="D191" s="13" t="n">
+        <v>-5898.166000000027</v>
       </c>
     </row>
   </sheetData>
@@ -19585,7 +19583,7 @@
         </is>
       </c>
       <c r="D159" s="13" t="n">
-        <v>-105898.166</v>
+        <v>-5898.166000000027</v>
       </c>
     </row>
     <row r="160"/>
@@ -19628,8 +19626,8 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D167" s="23" t="n">
-        <v>-114779.866</v>
+      <c r="D167" s="13" t="n">
+        <v>-14779.86600000004</v>
       </c>
     </row>
   </sheetData>
@@ -21698,7 +21696,7 @@
         </is>
       </c>
       <c r="D170" s="13" t="n">
-        <v>-114779.866</v>
+        <v>-14779.86600000004</v>
       </c>
     </row>
     <row r="171"/>
@@ -21741,8 +21739,8 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D178" s="23" t="n">
-        <v>-161827.926</v>
+      <c r="D178" s="13" t="n">
+        <v>-61827.92600000004</v>
       </c>
     </row>
   </sheetData>
@@ -23432,7 +23430,7 @@
         </is>
       </c>
       <c r="D141" s="13" t="n">
-        <v>-161827.926</v>
+        <v>-61827.92600000004</v>
       </c>
     </row>
     <row r="142"/>
@@ -23475,8 +23473,8 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D149" s="23" t="n">
-        <v>-165122.936</v>
+      <c r="D149" s="13" t="n">
+        <v>-65122.93600000003</v>
       </c>
     </row>
   </sheetData>
@@ -25450,7 +25448,7 @@
         </is>
       </c>
       <c r="D161" s="13" t="n">
-        <v>-165122.936</v>
+        <v>-65122.93600000003</v>
       </c>
     </row>
     <row r="162"/>
@@ -25493,8 +25491,8 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D169" s="23" t="n">
-        <v>-194323.6960000001</v>
+      <c r="D169" s="13" t="n">
+        <v>-94323.69600000005</v>
       </c>
     </row>
   </sheetData>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -182,6 +182,9 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2447,60 +2450,97 @@
         <v>106408.65</v>
       </c>
     </row>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
+    <row r="151">
+      <c r="B151" s="14" t="n"/>
+      <c r="C151" s="15" t="n"/>
+      <c r="D151" s="9" t="n"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="14" t="n"/>
+      <c r="C152" s="15" t="n"/>
+      <c r="D152" s="9" t="n"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="14" t="n"/>
+      <c r="C153" s="15" t="n"/>
+      <c r="D153" s="9" t="n"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="14" t="n"/>
+      <c r="C154" s="15" t="n"/>
+      <c r="D154" s="9" t="n"/>
+    </row>
     <row r="155">
       <c r="B155" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C155" s="15" t="n"/>
       <c r="D155" s="13" t="n">
         <v>-94323.69600000005</v>
       </c>
     </row>
-    <row r="156"/>
+    <row r="156">
+      <c r="B156" s="14" t="n"/>
+      <c r="C156" s="15" t="n"/>
+      <c r="D156" s="9" t="n"/>
+    </row>
     <row r="157">
       <c r="B157" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C157" s="15" t="n"/>
       <c r="D157" s="20" t="n">
         <v>78144.25999999999</v>
       </c>
     </row>
-    <row r="158"/>
+    <row r="158">
+      <c r="B158" s="14" t="n"/>
+      <c r="C158" s="15" t="n"/>
+      <c r="D158" s="9" t="n"/>
+    </row>
     <row r="159">
       <c r="B159" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C159" s="15" t="n"/>
       <c r="D159" s="21" t="n">
         <v>106408.65</v>
       </c>
     </row>
-    <row r="160"/>
+    <row r="160">
+      <c r="B160" s="14" t="n"/>
+      <c r="C160" s="15" t="n"/>
+      <c r="D160" s="9" t="n"/>
+    </row>
     <row r="161">
       <c r="B161" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C161" s="15" t="n"/>
       <c r="D161" s="13" t="n">
         <v>-28264.39000000001</v>
       </c>
     </row>
-    <row r="162"/>
+    <row r="162">
+      <c r="B162" s="14" t="n"/>
+      <c r="C162" s="15" t="n"/>
+      <c r="D162" s="9" t="n"/>
+    </row>
     <row r="163">
       <c r="B163" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C163" s="15" t="n"/>
       <c r="D163" s="13" t="n">
         <v>-122588.0860000001</v>
       </c>
@@ -4414,60 +4454,97 @@
         <v>133297.72</v>
       </c>
     </row>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
+    <row r="150">
+      <c r="B150" s="14" t="n"/>
+      <c r="C150" s="15" t="n"/>
+      <c r="D150" s="9" t="n"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="14" t="n"/>
+      <c r="C151" s="15" t="n"/>
+      <c r="D151" s="9" t="n"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="14" t="n"/>
+      <c r="C152" s="15" t="n"/>
+      <c r="D152" s="9" t="n"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="14" t="n"/>
+      <c r="C153" s="15" t="n"/>
+      <c r="D153" s="9" t="n"/>
+    </row>
     <row r="154">
       <c r="B154" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C154" s="15" t="n"/>
       <c r="D154" s="13" t="n">
         <v>-122588.0860000001</v>
       </c>
     </row>
-    <row r="155"/>
+    <row r="155">
+      <c r="B155" s="14" t="n"/>
+      <c r="C155" s="15" t="n"/>
+      <c r="D155" s="9" t="n"/>
+    </row>
     <row r="156">
       <c r="B156" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C156" s="15" t="n"/>
       <c r="D156" s="20" t="n">
         <v>97706.60000000001</v>
       </c>
     </row>
-    <row r="157"/>
+    <row r="157">
+      <c r="B157" s="14" t="n"/>
+      <c r="C157" s="15" t="n"/>
+      <c r="D157" s="9" t="n"/>
+    </row>
     <row r="158">
       <c r="B158" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C158" s="15" t="n"/>
       <c r="D158" s="21" t="n">
         <v>133297.72</v>
       </c>
     </row>
-    <row r="159"/>
+    <row r="159">
+      <c r="B159" s="14" t="n"/>
+      <c r="C159" s="15" t="n"/>
+      <c r="D159" s="9" t="n"/>
+    </row>
     <row r="160">
       <c r="B160" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C160" s="15" t="n"/>
       <c r="D160" s="13" t="n">
         <v>-35591.12</v>
       </c>
     </row>
-    <row r="161"/>
+    <row r="161">
+      <c r="B161" s="14" t="n"/>
+      <c r="C161" s="15" t="n"/>
+      <c r="D161" s="9" t="n"/>
+    </row>
     <row r="162">
       <c r="B162" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C162" s="15" t="n"/>
       <c r="D162" s="13" t="n">
         <v>-158179.2060000001</v>
       </c>
@@ -6488,60 +6565,97 @@
         <v>98226.42</v>
       </c>
     </row>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
+    <row r="159">
+      <c r="B159" s="14" t="n"/>
+      <c r="C159" s="15" t="n"/>
+      <c r="D159" s="9" t="n"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="14" t="n"/>
+      <c r="C160" s="15" t="n"/>
+      <c r="D160" s="9" t="n"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="14" t="n"/>
+      <c r="C161" s="15" t="n"/>
+      <c r="D161" s="9" t="n"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="14" t="n"/>
+      <c r="C162" s="15" t="n"/>
+      <c r="D162" s="9" t="n"/>
+    </row>
     <row r="163">
       <c r="B163" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C163" s="15" t="n"/>
       <c r="D163" s="13" t="n">
         <v>-158179.2060000001</v>
       </c>
     </row>
-    <row r="164"/>
+    <row r="164">
+      <c r="B164" s="14" t="n"/>
+      <c r="C164" s="15" t="n"/>
+      <c r="D164" s="9" t="n"/>
+    </row>
     <row r="165">
       <c r="B165" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C165" s="15" t="n"/>
       <c r="D165" s="20" t="n">
         <v>70497.86</v>
       </c>
     </row>
-    <row r="166"/>
+    <row r="166">
+      <c r="B166" s="14" t="n"/>
+      <c r="C166" s="15" t="n"/>
+      <c r="D166" s="9" t="n"/>
+    </row>
     <row r="167">
       <c r="B167" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C167" s="15" t="n"/>
       <c r="D167" s="21" t="n">
         <v>98226.42000000001</v>
       </c>
     </row>
-    <row r="168"/>
+    <row r="168">
+      <c r="B168" s="14" t="n"/>
+      <c r="C168" s="15" t="n"/>
+      <c r="D168" s="9" t="n"/>
+    </row>
     <row r="169">
       <c r="B169" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C169" s="15" t="n"/>
       <c r="D169" s="13" t="n">
         <v>-27728.56000000001</v>
       </c>
     </row>
-    <row r="170"/>
+    <row r="170">
+      <c r="B170" s="14" t="n"/>
+      <c r="C170" s="15" t="n"/>
+      <c r="D170" s="9" t="n"/>
+    </row>
     <row r="171">
       <c r="B171" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C171" s="15" t="n"/>
       <c r="D171" s="13" t="n">
         <v>-185907.7660000001</v>
       </c>
@@ -8434,60 +8548,97 @@
         <v>151296.82</v>
       </c>
     </row>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
+    <row r="148">
+      <c r="B148" s="14" t="n"/>
+      <c r="C148" s="15" t="n"/>
+      <c r="D148" s="9" t="n"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="14" t="n"/>
+      <c r="C149" s="15" t="n"/>
+      <c r="D149" s="9" t="n"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="14" t="n"/>
+      <c r="C150" s="15" t="n"/>
+      <c r="D150" s="9" t="n"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="14" t="n"/>
+      <c r="C151" s="15" t="n"/>
+      <c r="D151" s="9" t="n"/>
+    </row>
     <row r="152">
       <c r="B152" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C152" s="15" t="n"/>
       <c r="D152" s="13" t="n">
         <v>-185907.7660000001</v>
       </c>
     </row>
-    <row r="153"/>
+    <row r="153">
+      <c r="B153" s="14" t="n"/>
+      <c r="C153" s="15" t="n"/>
+      <c r="D153" s="9" t="n"/>
+    </row>
     <row r="154">
       <c r="B154" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C154" s="15" t="n"/>
       <c r="D154" s="20" t="n">
         <v>102393.39</v>
       </c>
     </row>
-    <row r="155"/>
+    <row r="155">
+      <c r="B155" s="14" t="n"/>
+      <c r="C155" s="15" t="n"/>
+      <c r="D155" s="9" t="n"/>
+    </row>
     <row r="156">
       <c r="B156" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C156" s="15" t="n"/>
       <c r="D156" s="21" t="n">
         <v>151296.82</v>
       </c>
     </row>
-    <row r="157"/>
+    <row r="157">
+      <c r="B157" s="14" t="n"/>
+      <c r="C157" s="15" t="n"/>
+      <c r="D157" s="9" t="n"/>
+    </row>
     <row r="158">
       <c r="B158" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C158" s="15" t="n"/>
       <c r="D158" s="13" t="n">
         <v>-48903.43000000001</v>
       </c>
     </row>
-    <row r="159"/>
+    <row r="159">
+      <c r="B159" s="14" t="n"/>
+      <c r="C159" s="15" t="n"/>
+      <c r="D159" s="9" t="n"/>
+    </row>
     <row r="160">
       <c r="B160" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C160" s="15" t="n"/>
       <c r="D160" s="13" t="n">
         <v>-234811.1960000001</v>
       </c>
@@ -10838,60 +10989,97 @@
         <v>144689.16</v>
       </c>
     </row>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
+    <row r="185">
+      <c r="B185" s="14" t="n"/>
+      <c r="C185" s="15" t="n"/>
+      <c r="D185" s="9" t="n"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="14" t="n"/>
+      <c r="C186" s="15" t="n"/>
+      <c r="D186" s="9" t="n"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="14" t="n"/>
+      <c r="C187" s="15" t="n"/>
+      <c r="D187" s="9" t="n"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="14" t="n"/>
+      <c r="C188" s="15" t="n"/>
+      <c r="D188" s="9" t="n"/>
+    </row>
     <row r="189">
       <c r="B189" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C189" s="15" t="n"/>
       <c r="D189" s="20" t="n">
         <v>200000</v>
       </c>
     </row>
-    <row r="190"/>
+    <row r="190">
+      <c r="B190" s="14" t="n"/>
+      <c r="C190" s="15" t="n"/>
+      <c r="D190" s="9" t="n"/>
+    </row>
     <row r="191">
       <c r="B191" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C191" s="15" t="n"/>
       <c r="D191" s="20" t="n">
         <v>102266.604</v>
       </c>
     </row>
-    <row r="192"/>
+    <row r="192">
+      <c r="B192" s="14" t="n"/>
+      <c r="C192" s="15" t="n"/>
+      <c r="D192" s="9" t="n"/>
+    </row>
     <row r="193">
       <c r="B193" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C193" s="15" t="n"/>
       <c r="D193" s="21" t="n">
         <v>144689.16</v>
       </c>
     </row>
-    <row r="194"/>
+    <row r="194">
+      <c r="B194" s="14" t="n"/>
+      <c r="C194" s="15" t="n"/>
+      <c r="D194" s="9" t="n"/>
+    </row>
     <row r="195">
       <c r="B195" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C195" s="15" t="n"/>
       <c r="D195" s="13" t="n">
         <v>-42422.55600000001</v>
       </c>
     </row>
-    <row r="196"/>
+    <row r="196">
+      <c r="B196" s="14" t="n"/>
+      <c r="C196" s="15" t="n"/>
+      <c r="D196" s="9" t="n"/>
+    </row>
     <row r="197">
       <c r="B197" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C197" s="15" t="n"/>
       <c r="D197" s="20" t="n">
         <v>157577.444</v>
       </c>
@@ -12819,60 +13007,97 @@
         <v>125645.94</v>
       </c>
     </row>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
+    <row r="150">
+      <c r="B150" s="14" t="n"/>
+      <c r="C150" s="15" t="n"/>
+      <c r="D150" s="9" t="n"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="14" t="n"/>
+      <c r="C151" s="15" t="n"/>
+      <c r="D151" s="9" t="n"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="14" t="n"/>
+      <c r="C152" s="15" t="n"/>
+      <c r="D152" s="9" t="n"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="14" t="n"/>
+      <c r="C153" s="15" t="n"/>
+      <c r="D153" s="9" t="n"/>
+    </row>
     <row r="154">
       <c r="B154" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C154" s="15" t="n"/>
       <c r="D154" s="20" t="n">
         <v>157577.444</v>
       </c>
     </row>
-    <row r="155"/>
+    <row r="155">
+      <c r="B155" s="14" t="n"/>
+      <c r="C155" s="15" t="n"/>
+      <c r="D155" s="9" t="n"/>
+    </row>
     <row r="156">
       <c r="B156" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C156" s="15" t="n"/>
       <c r="D156" s="20" t="n">
         <v>77543.88</v>
       </c>
     </row>
-    <row r="157"/>
+    <row r="157">
+      <c r="B157" s="14" t="n"/>
+      <c r="C157" s="15" t="n"/>
+      <c r="D157" s="9" t="n"/>
+    </row>
     <row r="158">
       <c r="B158" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C158" s="15" t="n"/>
       <c r="D158" s="21" t="n">
         <v>125645.94</v>
       </c>
     </row>
-    <row r="159"/>
+    <row r="159">
+      <c r="B159" s="14" t="n"/>
+      <c r="C159" s="15" t="n"/>
+      <c r="D159" s="9" t="n"/>
+    </row>
     <row r="160">
       <c r="B160" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C160" s="15" t="n"/>
       <c r="D160" s="13" t="n">
         <v>-48102.06</v>
       </c>
     </row>
-    <row r="161"/>
+    <row r="161">
+      <c r="B161" s="14" t="n"/>
+      <c r="C161" s="15" t="n"/>
+      <c r="D161" s="9" t="n"/>
+    </row>
     <row r="162">
       <c r="B162" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C162" s="15" t="n"/>
       <c r="D162" s="20" t="n">
         <v>109475.384</v>
       </c>
@@ -14954,60 +15179,97 @@
         <v>133884.68</v>
       </c>
     </row>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
+    <row r="163">
+      <c r="B163" s="14" t="n"/>
+      <c r="C163" s="15" t="n"/>
+      <c r="D163" s="9" t="n"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="14" t="n"/>
+      <c r="C164" s="15" t="n"/>
+      <c r="D164" s="9" t="n"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="14" t="n"/>
+      <c r="C165" s="15" t="n"/>
+      <c r="D165" s="9" t="n"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="14" t="n"/>
+      <c r="C166" s="15" t="n"/>
+      <c r="D166" s="9" t="n"/>
+    </row>
     <row r="167">
       <c r="B167" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C167" s="15" t="n"/>
       <c r="D167" s="20" t="n">
         <v>109475.384</v>
       </c>
     </row>
-    <row r="168"/>
+    <row r="168">
+      <c r="B168" s="14" t="n"/>
+      <c r="C168" s="15" t="n"/>
+      <c r="D168" s="9" t="n"/>
+    </row>
     <row r="169">
       <c r="B169" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C169" s="15" t="n"/>
       <c r="D169" s="20" t="n">
         <v>77550.48999999999</v>
       </c>
     </row>
-    <row r="170"/>
+    <row r="170">
+      <c r="B170" s="14" t="n"/>
+      <c r="C170" s="15" t="n"/>
+      <c r="D170" s="9" t="n"/>
+    </row>
     <row r="171">
       <c r="B171" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C171" s="15" t="n"/>
       <c r="D171" s="21" t="n">
         <v>133884.68</v>
       </c>
     </row>
-    <row r="172"/>
+    <row r="172">
+      <c r="B172" s="14" t="n"/>
+      <c r="C172" s="15" t="n"/>
+      <c r="D172" s="9" t="n"/>
+    </row>
     <row r="173">
       <c r="B173" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C173" s="15" t="n"/>
       <c r="D173" s="13" t="n">
         <v>-56334.19</v>
       </c>
     </row>
-    <row r="174"/>
+    <row r="174">
+      <c r="B174" s="14" t="n"/>
+      <c r="C174" s="15" t="n"/>
+      <c r="D174" s="9" t="n"/>
+    </row>
     <row r="175">
       <c r="B175" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C175" s="15" t="n"/>
       <c r="D175" s="20" t="n">
         <v>53141.19399999999</v>
       </c>
@@ -17285,60 +17547,97 @@
         <v>159744.75</v>
       </c>
     </row>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
+    <row r="179">
+      <c r="B179" s="14" t="n"/>
+      <c r="C179" s="15" t="n"/>
+      <c r="D179" s="9" t="n"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="14" t="n"/>
+      <c r="C180" s="15" t="n"/>
+      <c r="D180" s="9" t="n"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="14" t="n"/>
+      <c r="C181" s="15" t="n"/>
+      <c r="D181" s="9" t="n"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="14" t="n"/>
+      <c r="C182" s="15" t="n"/>
+      <c r="D182" s="9" t="n"/>
+    </row>
     <row r="183">
       <c r="B183" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C183" s="15" t="n"/>
       <c r="D183" s="20" t="n">
         <v>53141.19399999999</v>
       </c>
     </row>
-    <row r="184"/>
+    <row r="184">
+      <c r="B184" s="14" t="n"/>
+      <c r="C184" s="15" t="n"/>
+      <c r="D184" s="9" t="n"/>
+    </row>
     <row r="185">
       <c r="B185" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C185" s="15" t="n"/>
       <c r="D185" s="20" t="n">
         <v>100705.39</v>
       </c>
     </row>
-    <row r="186"/>
+    <row r="186">
+      <c r="B186" s="14" t="n"/>
+      <c r="C186" s="15" t="n"/>
+      <c r="D186" s="9" t="n"/>
+    </row>
     <row r="187">
       <c r="B187" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C187" s="15" t="n"/>
       <c r="D187" s="21" t="n">
         <v>159744.75</v>
       </c>
     </row>
-    <row r="188"/>
+    <row r="188">
+      <c r="B188" s="14" t="n"/>
+      <c r="C188" s="15" t="n"/>
+      <c r="D188" s="9" t="n"/>
+    </row>
     <row r="189">
       <c r="B189" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C189" s="15" t="n"/>
       <c r="D189" s="13" t="n">
         <v>-59039.36</v>
       </c>
     </row>
-    <row r="190"/>
+    <row r="190">
+      <c r="B190" s="14" t="n"/>
+      <c r="C190" s="15" t="n"/>
+      <c r="D190" s="9" t="n"/>
+    </row>
     <row r="191">
       <c r="B191" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C191" s="15" t="n"/>
       <c r="D191" s="13" t="n">
         <v>-5898.166000000027</v>
       </c>
@@ -19374,60 +19673,97 @@
         <v>116295.29</v>
       </c>
     </row>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
+    <row r="160">
+      <c r="B160" s="14" t="n"/>
+      <c r="C160" s="15" t="n"/>
+      <c r="D160" s="9" t="n"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="14" t="n"/>
+      <c r="C161" s="15" t="n"/>
+      <c r="D161" s="9" t="n"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="14" t="n"/>
+      <c r="C162" s="15" t="n"/>
+      <c r="D162" s="9" t="n"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="14" t="n"/>
+      <c r="C163" s="15" t="n"/>
+      <c r="D163" s="9" t="n"/>
+    </row>
     <row r="164">
       <c r="B164" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C164" s="15" t="n"/>
       <c r="D164" s="13" t="n">
         <v>-5898.166000000027</v>
       </c>
     </row>
-    <row r="165"/>
+    <row r="165">
+      <c r="B165" s="14" t="n"/>
+      <c r="C165" s="15" t="n"/>
+      <c r="D165" s="9" t="n"/>
+    </row>
     <row r="166">
       <c r="B166" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C166" s="15" t="n"/>
       <c r="D166" s="20" t="n">
         <v>107413.59</v>
       </c>
     </row>
-    <row r="167"/>
+    <row r="167">
+      <c r="B167" s="14" t="n"/>
+      <c r="C167" s="15" t="n"/>
+      <c r="D167" s="9" t="n"/>
+    </row>
     <row r="168">
       <c r="B168" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C168" s="15" t="n"/>
       <c r="D168" s="21" t="n">
         <v>116295.29</v>
       </c>
     </row>
-    <row r="169"/>
+    <row r="169">
+      <c r="B169" s="14" t="n"/>
+      <c r="C169" s="15" t="n"/>
+      <c r="D169" s="9" t="n"/>
+    </row>
     <row r="170">
       <c r="B170" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C170" s="15" t="n"/>
       <c r="D170" s="13" t="n">
         <v>-8881.700000000012</v>
       </c>
     </row>
-    <row r="171"/>
+    <row r="171">
+      <c r="B171" s="14" t="n"/>
+      <c r="C171" s="15" t="n"/>
+      <c r="D171" s="9" t="n"/>
+    </row>
     <row r="172">
       <c r="B172" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C172" s="15" t="n"/>
       <c r="D172" s="13" t="n">
         <v>-14779.86600000004</v>
       </c>
@@ -21447,60 +21783,97 @@
         <v>105490.53</v>
       </c>
     </row>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
+    <row r="158">
+      <c r="B158" s="14" t="n"/>
+      <c r="C158" s="15" t="n"/>
+      <c r="D158" s="9" t="n"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="14" t="n"/>
+      <c r="C159" s="15" t="n"/>
+      <c r="D159" s="9" t="n"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="14" t="n"/>
+      <c r="C160" s="15" t="n"/>
+      <c r="D160" s="9" t="n"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="14" t="n"/>
+      <c r="C161" s="15" t="n"/>
+      <c r="D161" s="9" t="n"/>
+    </row>
     <row r="162">
       <c r="B162" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C162" s="15" t="n"/>
       <c r="D162" s="13" t="n">
         <v>-14779.86600000004</v>
       </c>
     </row>
-    <row r="163"/>
+    <row r="163">
+      <c r="B163" s="14" t="n"/>
+      <c r="C163" s="15" t="n"/>
+      <c r="D163" s="9" t="n"/>
+    </row>
     <row r="164">
       <c r="B164" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C164" s="15" t="n"/>
       <c r="D164" s="20" t="n">
         <v>58442.47</v>
       </c>
     </row>
-    <row r="165"/>
+    <row r="165">
+      <c r="B165" s="14" t="n"/>
+      <c r="C165" s="15" t="n"/>
+      <c r="D165" s="9" t="n"/>
+    </row>
     <row r="166">
       <c r="B166" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C166" s="15" t="n"/>
       <c r="D166" s="21" t="n">
         <v>105490.53</v>
       </c>
     </row>
-    <row r="167"/>
+    <row r="167">
+      <c r="B167" s="14" t="n"/>
+      <c r="C167" s="15" t="n"/>
+      <c r="D167" s="9" t="n"/>
+    </row>
     <row r="168">
       <c r="B168" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C168" s="15" t="n"/>
       <c r="D168" s="13" t="n">
         <v>-47048.06</v>
       </c>
     </row>
-    <row r="169"/>
+    <row r="169">
+      <c r="B169" s="14" t="n"/>
+      <c r="C169" s="15" t="n"/>
+      <c r="D169" s="9" t="n"/>
+    </row>
     <row r="170">
       <c r="B170" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C170" s="15" t="n"/>
       <c r="D170" s="13" t="n">
         <v>-61827.92600000004</v>
       </c>
@@ -23126,60 +23499,97 @@
         <v>62827.42</v>
       </c>
     </row>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
+    <row r="126">
+      <c r="B126" s="14" t="n"/>
+      <c r="C126" s="15" t="n"/>
+      <c r="D126" s="9" t="n"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="14" t="n"/>
+      <c r="C127" s="15" t="n"/>
+      <c r="D127" s="9" t="n"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="14" t="n"/>
+      <c r="C128" s="15" t="n"/>
+      <c r="D128" s="9" t="n"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="14" t="n"/>
+      <c r="C129" s="15" t="n"/>
+      <c r="D129" s="9" t="n"/>
+    </row>
     <row r="130">
       <c r="B130" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C130" s="15" t="n"/>
       <c r="D130" s="13" t="n">
         <v>-61827.92600000004</v>
       </c>
     </row>
-    <row r="131"/>
+    <row r="131">
+      <c r="B131" s="14" t="n"/>
+      <c r="C131" s="15" t="n"/>
+      <c r="D131" s="9" t="n"/>
+    </row>
     <row r="132">
       <c r="B132" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C132" s="15" t="n"/>
       <c r="D132" s="20" t="n">
         <v>59532.41</v>
       </c>
     </row>
-    <row r="133"/>
+    <row r="133">
+      <c r="B133" s="14" t="n"/>
+      <c r="C133" s="15" t="n"/>
+      <c r="D133" s="9" t="n"/>
+    </row>
     <row r="134">
       <c r="B134" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C134" s="15" t="n"/>
       <c r="D134" s="21" t="n">
         <v>62827.42</v>
       </c>
     </row>
-    <row r="135"/>
+    <row r="135">
+      <c r="B135" s="14" t="n"/>
+      <c r="C135" s="15" t="n"/>
+      <c r="D135" s="9" t="n"/>
+    </row>
     <row r="136">
       <c r="B136" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C136" s="15" t="n"/>
       <c r="D136" s="13" t="n">
         <v>-3295.009999999995</v>
       </c>
     </row>
-    <row r="137"/>
+    <row r="137">
+      <c r="B137" s="14" t="n"/>
+      <c r="C137" s="15" t="n"/>
+      <c r="D137" s="9" t="n"/>
+    </row>
     <row r="138">
       <c r="B138" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C138" s="15" t="n"/>
       <c r="D138" s="13" t="n">
         <v>-65122.93600000003</v>
       </c>
@@ -25119,60 +25529,97 @@
         <v>95671.71000000001</v>
       </c>
     </row>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
+    <row r="152">
+      <c r="B152" s="14" t="n"/>
+      <c r="C152" s="15" t="n"/>
+      <c r="D152" s="9" t="n"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="14" t="n"/>
+      <c r="C153" s="15" t="n"/>
+      <c r="D153" s="9" t="n"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="14" t="n"/>
+      <c r="C154" s="15" t="n"/>
+      <c r="D154" s="9" t="n"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="14" t="n"/>
+      <c r="C155" s="15" t="n"/>
+      <c r="D155" s="9" t="n"/>
+    </row>
     <row r="156">
       <c r="B156" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C156" s="15" t="n"/>
       <c r="D156" s="13" t="n">
         <v>-65122.93600000003</v>
       </c>
     </row>
-    <row r="157"/>
+    <row r="157">
+      <c r="B157" s="14" t="n"/>
+      <c r="C157" s="15" t="n"/>
+      <c r="D157" s="9" t="n"/>
+    </row>
     <row r="158">
       <c r="B158" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C158" s="15" t="n"/>
       <c r="D158" s="20" t="n">
         <v>66470.95</v>
       </c>
     </row>
-    <row r="159"/>
+    <row r="159">
+      <c r="B159" s="14" t="n"/>
+      <c r="C159" s="15" t="n"/>
+      <c r="D159" s="9" t="n"/>
+    </row>
     <row r="160">
       <c r="B160" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C160" s="15" t="n"/>
       <c r="D160" s="21" t="n">
         <v>95671.71000000002</v>
       </c>
     </row>
-    <row r="161"/>
+    <row r="161">
+      <c r="B161" s="14" t="n"/>
+      <c r="C161" s="15" t="n"/>
+      <c r="D161" s="9" t="n"/>
+    </row>
     <row r="162">
       <c r="B162" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C162" s="15" t="n"/>
       <c r="D162" s="13" t="n">
         <v>-29200.76000000002</v>
       </c>
     </row>
-    <row r="163"/>
+    <row r="163">
+      <c r="B163" s="14" t="n"/>
+      <c r="C163" s="15" t="n"/>
+      <c r="D163" s="9" t="n"/>
+    </row>
     <row r="164">
       <c r="B164" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C164" s="15" t="n"/>
       <c r="D164" s="13" t="n">
         <v>-94323.69600000005</v>
       </c>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -182,9 +182,6 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -260,6 +257,39 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4762500" cy="4857750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,7 +576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -560,6 +590,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2450,97 +2481,60 @@
         <v>106408.65</v>
       </c>
     </row>
-    <row r="151">
-      <c r="B151" s="14" t="n"/>
-      <c r="C151" s="15" t="n"/>
-      <c r="D151" s="9" t="n"/>
-    </row>
-    <row r="152">
-      <c r="B152" s="14" t="n"/>
-      <c r="C152" s="15" t="n"/>
-      <c r="D152" s="9" t="n"/>
-    </row>
-    <row r="153">
-      <c r="B153" s="14" t="n"/>
-      <c r="C153" s="15" t="n"/>
-      <c r="D153" s="9" t="n"/>
-    </row>
-    <row r="154">
-      <c r="B154" s="14" t="n"/>
-      <c r="C154" s="15" t="n"/>
-      <c r="D154" s="9" t="n"/>
-    </row>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
     <row r="155">
       <c r="B155" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C155" s="15" t="n"/>
       <c r="D155" s="13" t="n">
         <v>-94323.69600000005</v>
       </c>
     </row>
-    <row r="156">
-      <c r="B156" s="14" t="n"/>
-      <c r="C156" s="15" t="n"/>
-      <c r="D156" s="9" t="n"/>
-    </row>
+    <row r="156"/>
     <row r="157">
       <c r="B157" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C157" s="15" t="n"/>
       <c r="D157" s="20" t="n">
         <v>78144.25999999999</v>
       </c>
     </row>
-    <row r="158">
-      <c r="B158" s="14" t="n"/>
-      <c r="C158" s="15" t="n"/>
-      <c r="D158" s="9" t="n"/>
-    </row>
+    <row r="158"/>
     <row r="159">
       <c r="B159" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C159" s="15" t="n"/>
       <c r="D159" s="21" t="n">
         <v>106408.65</v>
       </c>
     </row>
-    <row r="160">
-      <c r="B160" s="14" t="n"/>
-      <c r="C160" s="15" t="n"/>
-      <c r="D160" s="9" t="n"/>
-    </row>
+    <row r="160"/>
     <row r="161">
       <c r="B161" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C161" s="15" t="n"/>
       <c r="D161" s="13" t="n">
         <v>-28264.39000000001</v>
       </c>
     </row>
-    <row r="162">
-      <c r="B162" s="14" t="n"/>
-      <c r="C162" s="15" t="n"/>
-      <c r="D162" s="9" t="n"/>
-    </row>
+    <row r="162"/>
     <row r="163">
       <c r="B163" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="C163" s="15" t="n"/>
       <c r="D163" s="13" t="n">
         <v>-122588.0860000001</v>
       </c>
@@ -4454,97 +4448,60 @@
         <v>133297.72</v>
       </c>
     </row>
-    <row r="150">
-      <c r="B150" s="14" t="n"/>
-      <c r="C150" s="15" t="n"/>
-      <c r="D150" s="9" t="n"/>
-    </row>
-    <row r="151">
-      <c r="B151" s="14" t="n"/>
-      <c r="C151" s="15" t="n"/>
-      <c r="D151" s="9" t="n"/>
-    </row>
-    <row r="152">
-      <c r="B152" s="14" t="n"/>
-      <c r="C152" s="15" t="n"/>
-      <c r="D152" s="9" t="n"/>
-    </row>
-    <row r="153">
-      <c r="B153" s="14" t="n"/>
-      <c r="C153" s="15" t="n"/>
-      <c r="D153" s="9" t="n"/>
-    </row>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
     <row r="154">
       <c r="B154" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C154" s="15" t="n"/>
       <c r="D154" s="13" t="n">
         <v>-122588.0860000001</v>
       </c>
     </row>
-    <row r="155">
-      <c r="B155" s="14" t="n"/>
-      <c r="C155" s="15" t="n"/>
-      <c r="D155" s="9" t="n"/>
-    </row>
+    <row r="155"/>
     <row r="156">
       <c r="B156" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C156" s="15" t="n"/>
       <c r="D156" s="20" t="n">
         <v>97706.60000000001</v>
       </c>
     </row>
-    <row r="157">
-      <c r="B157" s="14" t="n"/>
-      <c r="C157" s="15" t="n"/>
-      <c r="D157" s="9" t="n"/>
-    </row>
+    <row r="157"/>
     <row r="158">
       <c r="B158" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C158" s="15" t="n"/>
       <c r="D158" s="21" t="n">
         <v>133297.72</v>
       </c>
     </row>
-    <row r="159">
-      <c r="B159" s="14" t="n"/>
-      <c r="C159" s="15" t="n"/>
-      <c r="D159" s="9" t="n"/>
-    </row>
+    <row r="159"/>
     <row r="160">
       <c r="B160" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C160" s="15" t="n"/>
       <c r="D160" s="13" t="n">
         <v>-35591.12</v>
       </c>
     </row>
-    <row r="161">
-      <c r="B161" s="14" t="n"/>
-      <c r="C161" s="15" t="n"/>
-      <c r="D161" s="9" t="n"/>
-    </row>
+    <row r="161"/>
     <row r="162">
       <c r="B162" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="C162" s="15" t="n"/>
       <c r="D162" s="13" t="n">
         <v>-158179.2060000001</v>
       </c>
@@ -6565,97 +6522,60 @@
         <v>98226.42</v>
       </c>
     </row>
-    <row r="159">
-      <c r="B159" s="14" t="n"/>
-      <c r="C159" s="15" t="n"/>
-      <c r="D159" s="9" t="n"/>
-    </row>
-    <row r="160">
-      <c r="B160" s="14" t="n"/>
-      <c r="C160" s="15" t="n"/>
-      <c r="D160" s="9" t="n"/>
-    </row>
-    <row r="161">
-      <c r="B161" s="14" t="n"/>
-      <c r="C161" s="15" t="n"/>
-      <c r="D161" s="9" t="n"/>
-    </row>
-    <row r="162">
-      <c r="B162" s="14" t="n"/>
-      <c r="C162" s="15" t="n"/>
-      <c r="D162" s="9" t="n"/>
-    </row>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
     <row r="163">
       <c r="B163" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C163" s="15" t="n"/>
       <c r="D163" s="13" t="n">
         <v>-158179.2060000001</v>
       </c>
     </row>
-    <row r="164">
-      <c r="B164" s="14" t="n"/>
-      <c r="C164" s="15" t="n"/>
-      <c r="D164" s="9" t="n"/>
-    </row>
+    <row r="164"/>
     <row r="165">
       <c r="B165" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C165" s="15" t="n"/>
       <c r="D165" s="20" t="n">
         <v>70497.86</v>
       </c>
     </row>
-    <row r="166">
-      <c r="B166" s="14" t="n"/>
-      <c r="C166" s="15" t="n"/>
-      <c r="D166" s="9" t="n"/>
-    </row>
+    <row r="166"/>
     <row r="167">
       <c r="B167" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C167" s="15" t="n"/>
       <c r="D167" s="21" t="n">
         <v>98226.42000000001</v>
       </c>
     </row>
-    <row r="168">
-      <c r="B168" s="14" t="n"/>
-      <c r="C168" s="15" t="n"/>
-      <c r="D168" s="9" t="n"/>
-    </row>
+    <row r="168"/>
     <row r="169">
       <c r="B169" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C169" s="15" t="n"/>
       <c r="D169" s="13" t="n">
         <v>-27728.56000000001</v>
       </c>
     </row>
-    <row r="170">
-      <c r="B170" s="14" t="n"/>
-      <c r="C170" s="15" t="n"/>
-      <c r="D170" s="9" t="n"/>
-    </row>
+    <row r="170"/>
     <row r="171">
       <c r="B171" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="C171" s="15" t="n"/>
       <c r="D171" s="13" t="n">
         <v>-185907.7660000001</v>
       </c>
@@ -8548,97 +8468,60 @@
         <v>151296.82</v>
       </c>
     </row>
-    <row r="148">
-      <c r="B148" s="14" t="n"/>
-      <c r="C148" s="15" t="n"/>
-      <c r="D148" s="9" t="n"/>
-    </row>
-    <row r="149">
-      <c r="B149" s="14" t="n"/>
-      <c r="C149" s="15" t="n"/>
-      <c r="D149" s="9" t="n"/>
-    </row>
-    <row r="150">
-      <c r="B150" s="14" t="n"/>
-      <c r="C150" s="15" t="n"/>
-      <c r="D150" s="9" t="n"/>
-    </row>
-    <row r="151">
-      <c r="B151" s="14" t="n"/>
-      <c r="C151" s="15" t="n"/>
-      <c r="D151" s="9" t="n"/>
-    </row>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
     <row r="152">
       <c r="B152" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C152" s="15" t="n"/>
       <c r="D152" s="13" t="n">
         <v>-185907.7660000001</v>
       </c>
     </row>
-    <row r="153">
-      <c r="B153" s="14" t="n"/>
-      <c r="C153" s="15" t="n"/>
-      <c r="D153" s="9" t="n"/>
-    </row>
+    <row r="153"/>
     <row r="154">
       <c r="B154" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C154" s="15" t="n"/>
       <c r="D154" s="20" t="n">
         <v>102393.39</v>
       </c>
     </row>
-    <row r="155">
-      <c r="B155" s="14" t="n"/>
-      <c r="C155" s="15" t="n"/>
-      <c r="D155" s="9" t="n"/>
-    </row>
+    <row r="155"/>
     <row r="156">
       <c r="B156" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C156" s="15" t="n"/>
       <c r="D156" s="21" t="n">
         <v>151296.82</v>
       </c>
     </row>
-    <row r="157">
-      <c r="B157" s="14" t="n"/>
-      <c r="C157" s="15" t="n"/>
-      <c r="D157" s="9" t="n"/>
-    </row>
+    <row r="157"/>
     <row r="158">
       <c r="B158" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C158" s="15" t="n"/>
       <c r="D158" s="13" t="n">
         <v>-48903.43000000001</v>
       </c>
     </row>
-    <row r="159">
-      <c r="B159" s="14" t="n"/>
-      <c r="C159" s="15" t="n"/>
-      <c r="D159" s="9" t="n"/>
-    </row>
+    <row r="159"/>
     <row r="160">
       <c r="B160" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="C160" s="15" t="n"/>
       <c r="D160" s="13" t="n">
         <v>-234811.1960000001</v>
       </c>
@@ -10989,97 +10872,60 @@
         <v>144689.16</v>
       </c>
     </row>
-    <row r="185">
-      <c r="B185" s="14" t="n"/>
-      <c r="C185" s="15" t="n"/>
-      <c r="D185" s="9" t="n"/>
-    </row>
-    <row r="186">
-      <c r="B186" s="14" t="n"/>
-      <c r="C186" s="15" t="n"/>
-      <c r="D186" s="9" t="n"/>
-    </row>
-    <row r="187">
-      <c r="B187" s="14" t="n"/>
-      <c r="C187" s="15" t="n"/>
-      <c r="D187" s="9" t="n"/>
-    </row>
-    <row r="188">
-      <c r="B188" s="14" t="n"/>
-      <c r="C188" s="15" t="n"/>
-      <c r="D188" s="9" t="n"/>
-    </row>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
     <row r="189">
       <c r="B189" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C189" s="15" t="n"/>
       <c r="D189" s="20" t="n">
         <v>200000</v>
       </c>
     </row>
-    <row r="190">
-      <c r="B190" s="14" t="n"/>
-      <c r="C190" s="15" t="n"/>
-      <c r="D190" s="9" t="n"/>
-    </row>
+    <row r="190"/>
     <row r="191">
       <c r="B191" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C191" s="15" t="n"/>
       <c r="D191" s="20" t="n">
         <v>102266.604</v>
       </c>
     </row>
-    <row r="192">
-      <c r="B192" s="14" t="n"/>
-      <c r="C192" s="15" t="n"/>
-      <c r="D192" s="9" t="n"/>
-    </row>
+    <row r="192"/>
     <row r="193">
       <c r="B193" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C193" s="15" t="n"/>
       <c r="D193" s="21" t="n">
         <v>144689.16</v>
       </c>
     </row>
-    <row r="194">
-      <c r="B194" s="14" t="n"/>
-      <c r="C194" s="15" t="n"/>
-      <c r="D194" s="9" t="n"/>
-    </row>
+    <row r="194"/>
     <row r="195">
       <c r="B195" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C195" s="15" t="n"/>
       <c r="D195" s="13" t="n">
         <v>-42422.55600000001</v>
       </c>
     </row>
-    <row r="196">
-      <c r="B196" s="14" t="n"/>
-      <c r="C196" s="15" t="n"/>
-      <c r="D196" s="9" t="n"/>
-    </row>
+    <row r="196"/>
     <row r="197">
       <c r="B197" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="C197" s="15" t="n"/>
       <c r="D197" s="20" t="n">
         <v>157577.444</v>
       </c>
@@ -13007,97 +12853,60 @@
         <v>125645.94</v>
       </c>
     </row>
-    <row r="150">
-      <c r="B150" s="14" t="n"/>
-      <c r="C150" s="15" t="n"/>
-      <c r="D150" s="9" t="n"/>
-    </row>
-    <row r="151">
-      <c r="B151" s="14" t="n"/>
-      <c r="C151" s="15" t="n"/>
-      <c r="D151" s="9" t="n"/>
-    </row>
-    <row r="152">
-      <c r="B152" s="14" t="n"/>
-      <c r="C152" s="15" t="n"/>
-      <c r="D152" s="9" t="n"/>
-    </row>
-    <row r="153">
-      <c r="B153" s="14" t="n"/>
-      <c r="C153" s="15" t="n"/>
-      <c r="D153" s="9" t="n"/>
-    </row>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
     <row r="154">
       <c r="B154" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C154" s="15" t="n"/>
       <c r="D154" s="20" t="n">
         <v>157577.444</v>
       </c>
     </row>
-    <row r="155">
-      <c r="B155" s="14" t="n"/>
-      <c r="C155" s="15" t="n"/>
-      <c r="D155" s="9" t="n"/>
-    </row>
+    <row r="155"/>
     <row r="156">
       <c r="B156" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C156" s="15" t="n"/>
       <c r="D156" s="20" t="n">
         <v>77543.88</v>
       </c>
     </row>
-    <row r="157">
-      <c r="B157" s="14" t="n"/>
-      <c r="C157" s="15" t="n"/>
-      <c r="D157" s="9" t="n"/>
-    </row>
+    <row r="157"/>
     <row r="158">
       <c r="B158" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C158" s="15" t="n"/>
       <c r="D158" s="21" t="n">
         <v>125645.94</v>
       </c>
     </row>
-    <row r="159">
-      <c r="B159" s="14" t="n"/>
-      <c r="C159" s="15" t="n"/>
-      <c r="D159" s="9" t="n"/>
-    </row>
+    <row r="159"/>
     <row r="160">
       <c r="B160" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C160" s="15" t="n"/>
       <c r="D160" s="13" t="n">
         <v>-48102.06</v>
       </c>
     </row>
-    <row r="161">
-      <c r="B161" s="14" t="n"/>
-      <c r="C161" s="15" t="n"/>
-      <c r="D161" s="9" t="n"/>
-    </row>
+    <row r="161"/>
     <row r="162">
       <c r="B162" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="C162" s="15" t="n"/>
       <c r="D162" s="20" t="n">
         <v>109475.384</v>
       </c>
@@ -15179,97 +14988,60 @@
         <v>133884.68</v>
       </c>
     </row>
-    <row r="163">
-      <c r="B163" s="14" t="n"/>
-      <c r="C163" s="15" t="n"/>
-      <c r="D163" s="9" t="n"/>
-    </row>
-    <row r="164">
-      <c r="B164" s="14" t="n"/>
-      <c r="C164" s="15" t="n"/>
-      <c r="D164" s="9" t="n"/>
-    </row>
-    <row r="165">
-      <c r="B165" s="14" t="n"/>
-      <c r="C165" s="15" t="n"/>
-      <c r="D165" s="9" t="n"/>
-    </row>
-    <row r="166">
-      <c r="B166" s="14" t="n"/>
-      <c r="C166" s="15" t="n"/>
-      <c r="D166" s="9" t="n"/>
-    </row>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
     <row r="167">
       <c r="B167" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C167" s="15" t="n"/>
       <c r="D167" s="20" t="n">
         <v>109475.384</v>
       </c>
     </row>
-    <row r="168">
-      <c r="B168" s="14" t="n"/>
-      <c r="C168" s="15" t="n"/>
-      <c r="D168" s="9" t="n"/>
-    </row>
+    <row r="168"/>
     <row r="169">
       <c r="B169" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C169" s="15" t="n"/>
       <c r="D169" s="20" t="n">
         <v>77550.48999999999</v>
       </c>
     </row>
-    <row r="170">
-      <c r="B170" s="14" t="n"/>
-      <c r="C170" s="15" t="n"/>
-      <c r="D170" s="9" t="n"/>
-    </row>
+    <row r="170"/>
     <row r="171">
       <c r="B171" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C171" s="15" t="n"/>
       <c r="D171" s="21" t="n">
         <v>133884.68</v>
       </c>
     </row>
-    <row r="172">
-      <c r="B172" s="14" t="n"/>
-      <c r="C172" s="15" t="n"/>
-      <c r="D172" s="9" t="n"/>
-    </row>
+    <row r="172"/>
     <row r="173">
       <c r="B173" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C173" s="15" t="n"/>
       <c r="D173" s="13" t="n">
         <v>-56334.19</v>
       </c>
     </row>
-    <row r="174">
-      <c r="B174" s="14" t="n"/>
-      <c r="C174" s="15" t="n"/>
-      <c r="D174" s="9" t="n"/>
-    </row>
+    <row r="174"/>
     <row r="175">
       <c r="B175" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="C175" s="15" t="n"/>
       <c r="D175" s="20" t="n">
         <v>53141.19399999999</v>
       </c>
@@ -17547,97 +17319,60 @@
         <v>159744.75</v>
       </c>
     </row>
-    <row r="179">
-      <c r="B179" s="14" t="n"/>
-      <c r="C179" s="15" t="n"/>
-      <c r="D179" s="9" t="n"/>
-    </row>
-    <row r="180">
-      <c r="B180" s="14" t="n"/>
-      <c r="C180" s="15" t="n"/>
-      <c r="D180" s="9" t="n"/>
-    </row>
-    <row r="181">
-      <c r="B181" s="14" t="n"/>
-      <c r="C181" s="15" t="n"/>
-      <c r="D181" s="9" t="n"/>
-    </row>
-    <row r="182">
-      <c r="B182" s="14" t="n"/>
-      <c r="C182" s="15" t="n"/>
-      <c r="D182" s="9" t="n"/>
-    </row>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
     <row r="183">
       <c r="B183" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C183" s="15" t="n"/>
       <c r="D183" s="20" t="n">
         <v>53141.19399999999</v>
       </c>
     </row>
-    <row r="184">
-      <c r="B184" s="14" t="n"/>
-      <c r="C184" s="15" t="n"/>
-      <c r="D184" s="9" t="n"/>
-    </row>
+    <row r="184"/>
     <row r="185">
       <c r="B185" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C185" s="15" t="n"/>
       <c r="D185" s="20" t="n">
         <v>100705.39</v>
       </c>
     </row>
-    <row r="186">
-      <c r="B186" s="14" t="n"/>
-      <c r="C186" s="15" t="n"/>
-      <c r="D186" s="9" t="n"/>
-    </row>
+    <row r="186"/>
     <row r="187">
       <c r="B187" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C187" s="15" t="n"/>
       <c r="D187" s="21" t="n">
         <v>159744.75</v>
       </c>
     </row>
-    <row r="188">
-      <c r="B188" s="14" t="n"/>
-      <c r="C188" s="15" t="n"/>
-      <c r="D188" s="9" t="n"/>
-    </row>
+    <row r="188"/>
     <row r="189">
       <c r="B189" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C189" s="15" t="n"/>
       <c r="D189" s="13" t="n">
         <v>-59039.36</v>
       </c>
     </row>
-    <row r="190">
-      <c r="B190" s="14" t="n"/>
-      <c r="C190" s="15" t="n"/>
-      <c r="D190" s="9" t="n"/>
-    </row>
+    <row r="190"/>
     <row r="191">
       <c r="B191" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="C191" s="15" t="n"/>
       <c r="D191" s="13" t="n">
         <v>-5898.166000000027</v>
       </c>
@@ -19673,97 +19408,60 @@
         <v>116295.29</v>
       </c>
     </row>
-    <row r="160">
-      <c r="B160" s="14" t="n"/>
-      <c r="C160" s="15" t="n"/>
-      <c r="D160" s="9" t="n"/>
-    </row>
-    <row r="161">
-      <c r="B161" s="14" t="n"/>
-      <c r="C161" s="15" t="n"/>
-      <c r="D161" s="9" t="n"/>
-    </row>
-    <row r="162">
-      <c r="B162" s="14" t="n"/>
-      <c r="C162" s="15" t="n"/>
-      <c r="D162" s="9" t="n"/>
-    </row>
-    <row r="163">
-      <c r="B163" s="14" t="n"/>
-      <c r="C163" s="15" t="n"/>
-      <c r="D163" s="9" t="n"/>
-    </row>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
     <row r="164">
       <c r="B164" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C164" s="15" t="n"/>
       <c r="D164" s="13" t="n">
         <v>-5898.166000000027</v>
       </c>
     </row>
-    <row r="165">
-      <c r="B165" s="14" t="n"/>
-      <c r="C165" s="15" t="n"/>
-      <c r="D165" s="9" t="n"/>
-    </row>
+    <row r="165"/>
     <row r="166">
       <c r="B166" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C166" s="15" t="n"/>
       <c r="D166" s="20" t="n">
         <v>107413.59</v>
       </c>
     </row>
-    <row r="167">
-      <c r="B167" s="14" t="n"/>
-      <c r="C167" s="15" t="n"/>
-      <c r="D167" s="9" t="n"/>
-    </row>
+    <row r="167"/>
     <row r="168">
       <c r="B168" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C168" s="15" t="n"/>
       <c r="D168" s="21" t="n">
         <v>116295.29</v>
       </c>
     </row>
-    <row r="169">
-      <c r="B169" s="14" t="n"/>
-      <c r="C169" s="15" t="n"/>
-      <c r="D169" s="9" t="n"/>
-    </row>
+    <row r="169"/>
     <row r="170">
       <c r="B170" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C170" s="15" t="n"/>
       <c r="D170" s="13" t="n">
         <v>-8881.700000000012</v>
       </c>
     </row>
-    <row r="171">
-      <c r="B171" s="14" t="n"/>
-      <c r="C171" s="15" t="n"/>
-      <c r="D171" s="9" t="n"/>
-    </row>
+    <row r="171"/>
     <row r="172">
       <c r="B172" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="C172" s="15" t="n"/>
       <c r="D172" s="13" t="n">
         <v>-14779.86600000004</v>
       </c>
@@ -21783,97 +21481,60 @@
         <v>105490.53</v>
       </c>
     </row>
-    <row r="158">
-      <c r="B158" s="14" t="n"/>
-      <c r="C158" s="15" t="n"/>
-      <c r="D158" s="9" t="n"/>
-    </row>
-    <row r="159">
-      <c r="B159" s="14" t="n"/>
-      <c r="C159" s="15" t="n"/>
-      <c r="D159" s="9" t="n"/>
-    </row>
-    <row r="160">
-      <c r="B160" s="14" t="n"/>
-      <c r="C160" s="15" t="n"/>
-      <c r="D160" s="9" t="n"/>
-    </row>
-    <row r="161">
-      <c r="B161" s="14" t="n"/>
-      <c r="C161" s="15" t="n"/>
-      <c r="D161" s="9" t="n"/>
-    </row>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
     <row r="162">
       <c r="B162" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C162" s="15" t="n"/>
       <c r="D162" s="13" t="n">
         <v>-14779.86600000004</v>
       </c>
     </row>
-    <row r="163">
-      <c r="B163" s="14" t="n"/>
-      <c r="C163" s="15" t="n"/>
-      <c r="D163" s="9" t="n"/>
-    </row>
+    <row r="163"/>
     <row r="164">
       <c r="B164" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C164" s="15" t="n"/>
       <c r="D164" s="20" t="n">
         <v>58442.47</v>
       </c>
     </row>
-    <row r="165">
-      <c r="B165" s="14" t="n"/>
-      <c r="C165" s="15" t="n"/>
-      <c r="D165" s="9" t="n"/>
-    </row>
+    <row r="165"/>
     <row r="166">
       <c r="B166" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C166" s="15" t="n"/>
       <c r="D166" s="21" t="n">
         <v>105490.53</v>
       </c>
     </row>
-    <row r="167">
-      <c r="B167" s="14" t="n"/>
-      <c r="C167" s="15" t="n"/>
-      <c r="D167" s="9" t="n"/>
-    </row>
+    <row r="167"/>
     <row r="168">
       <c r="B168" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C168" s="15" t="n"/>
       <c r="D168" s="13" t="n">
         <v>-47048.06</v>
       </c>
     </row>
-    <row r="169">
-      <c r="B169" s="14" t="n"/>
-      <c r="C169" s="15" t="n"/>
-      <c r="D169" s="9" t="n"/>
-    </row>
+    <row r="169"/>
     <row r="170">
       <c r="B170" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="C170" s="15" t="n"/>
       <c r="D170" s="13" t="n">
         <v>-61827.92600000004</v>
       </c>
@@ -23499,97 +23160,60 @@
         <v>62827.42</v>
       </c>
     </row>
-    <row r="126">
-      <c r="B126" s="14" t="n"/>
-      <c r="C126" s="15" t="n"/>
-      <c r="D126" s="9" t="n"/>
-    </row>
-    <row r="127">
-      <c r="B127" s="14" t="n"/>
-      <c r="C127" s="15" t="n"/>
-      <c r="D127" s="9" t="n"/>
-    </row>
-    <row r="128">
-      <c r="B128" s="14" t="n"/>
-      <c r="C128" s="15" t="n"/>
-      <c r="D128" s="9" t="n"/>
-    </row>
-    <row r="129">
-      <c r="B129" s="14" t="n"/>
-      <c r="C129" s="15" t="n"/>
-      <c r="D129" s="9" t="n"/>
-    </row>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
     <row r="130">
       <c r="B130" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C130" s="15" t="n"/>
       <c r="D130" s="13" t="n">
         <v>-61827.92600000004</v>
       </c>
     </row>
-    <row r="131">
-      <c r="B131" s="14" t="n"/>
-      <c r="C131" s="15" t="n"/>
-      <c r="D131" s="9" t="n"/>
-    </row>
+    <row r="131"/>
     <row r="132">
       <c r="B132" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C132" s="15" t="n"/>
       <c r="D132" s="20" t="n">
         <v>59532.41</v>
       </c>
     </row>
-    <row r="133">
-      <c r="B133" s="14" t="n"/>
-      <c r="C133" s="15" t="n"/>
-      <c r="D133" s="9" t="n"/>
-    </row>
+    <row r="133"/>
     <row r="134">
       <c r="B134" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C134" s="15" t="n"/>
       <c r="D134" s="21" t="n">
         <v>62827.42</v>
       </c>
     </row>
-    <row r="135">
-      <c r="B135" s="14" t="n"/>
-      <c r="C135" s="15" t="n"/>
-      <c r="D135" s="9" t="n"/>
-    </row>
+    <row r="135"/>
     <row r="136">
       <c r="B136" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C136" s="15" t="n"/>
       <c r="D136" s="13" t="n">
         <v>-3295.009999999995</v>
       </c>
     </row>
-    <row r="137">
-      <c r="B137" s="14" t="n"/>
-      <c r="C137" s="15" t="n"/>
-      <c r="D137" s="9" t="n"/>
-    </row>
+    <row r="137"/>
     <row r="138">
       <c r="B138" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="C138" s="15" t="n"/>
       <c r="D138" s="13" t="n">
         <v>-65122.93600000003</v>
       </c>
@@ -25529,97 +25153,60 @@
         <v>95671.71000000001</v>
       </c>
     </row>
-    <row r="152">
-      <c r="B152" s="14" t="n"/>
-      <c r="C152" s="15" t="n"/>
-      <c r="D152" s="9" t="n"/>
-    </row>
-    <row r="153">
-      <c r="B153" s="14" t="n"/>
-      <c r="C153" s="15" t="n"/>
-      <c r="D153" s="9" t="n"/>
-    </row>
-    <row r="154">
-      <c r="B154" s="14" t="n"/>
-      <c r="C154" s="15" t="n"/>
-      <c r="D154" s="9" t="n"/>
-    </row>
-    <row r="155">
-      <c r="B155" s="14" t="n"/>
-      <c r="C155" s="15" t="n"/>
-      <c r="D155" s="9" t="n"/>
-    </row>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
     <row r="156">
       <c r="B156" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-      <c r="C156" s="15" t="n"/>
       <c r="D156" s="13" t="n">
         <v>-65122.93600000003</v>
       </c>
     </row>
-    <row r="157">
-      <c r="B157" s="14" t="n"/>
-      <c r="C157" s="15" t="n"/>
-      <c r="D157" s="9" t="n"/>
-    </row>
+    <row r="157"/>
     <row r="158">
       <c r="B158" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-      <c r="C158" s="15" t="n"/>
       <c r="D158" s="20" t="n">
         <v>66470.95</v>
       </c>
     </row>
-    <row r="159">
-      <c r="B159" s="14" t="n"/>
-      <c r="C159" s="15" t="n"/>
-      <c r="D159" s="9" t="n"/>
-    </row>
+    <row r="159"/>
     <row r="160">
       <c r="B160" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-      <c r="C160" s="15" t="n"/>
       <c r="D160" s="21" t="n">
         <v>95671.71000000002</v>
       </c>
     </row>
-    <row r="161">
-      <c r="B161" s="14" t="n"/>
-      <c r="C161" s="15" t="n"/>
-      <c r="D161" s="9" t="n"/>
-    </row>
+    <row r="161"/>
     <row r="162">
       <c r="B162" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-      <c r="C162" s="15" t="n"/>
       <c r="D162" s="13" t="n">
         <v>-29200.76000000002</v>
       </c>
     </row>
-    <row r="163">
-      <c r="B163" s="14" t="n"/>
-      <c r="C163" s="15" t="n"/>
-      <c r="D163" s="9" t="n"/>
-    </row>
+    <row r="163"/>
     <row r="164">
       <c r="B164" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="C164" s="15" t="n"/>
       <c r="D164" s="13" t="n">
         <v>-94323.69600000005</v>
       </c>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -182,6 +182,9 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2481,60 +2484,97 @@
         <v>106408.65</v>
       </c>
     </row>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
+    <row r="151">
+      <c r="B151" s="14" t="n"/>
+      <c r="C151" s="15" t="n"/>
+      <c r="D151" s="9" t="n"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="14" t="n"/>
+      <c r="C152" s="15" t="n"/>
+      <c r="D152" s="9" t="n"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="14" t="n"/>
+      <c r="C153" s="15" t="n"/>
+      <c r="D153" s="9" t="n"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="14" t="n"/>
+      <c r="C154" s="15" t="n"/>
+      <c r="D154" s="9" t="n"/>
+    </row>
     <row r="155">
       <c r="B155" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C155" s="15" t="n"/>
       <c r="D155" s="13" t="n">
         <v>-94323.69600000005</v>
       </c>
     </row>
-    <row r="156"/>
+    <row r="156">
+      <c r="B156" s="14" t="n"/>
+      <c r="C156" s="15" t="n"/>
+      <c r="D156" s="9" t="n"/>
+    </row>
     <row r="157">
       <c r="B157" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C157" s="15" t="n"/>
       <c r="D157" s="20" t="n">
         <v>78144.25999999999</v>
       </c>
     </row>
-    <row r="158"/>
+    <row r="158">
+      <c r="B158" s="14" t="n"/>
+      <c r="C158" s="15" t="n"/>
+      <c r="D158" s="9" t="n"/>
+    </row>
     <row r="159">
       <c r="B159" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C159" s="15" t="n"/>
       <c r="D159" s="21" t="n">
         <v>106408.65</v>
       </c>
     </row>
-    <row r="160"/>
+    <row r="160">
+      <c r="B160" s="14" t="n"/>
+      <c r="C160" s="15" t="n"/>
+      <c r="D160" s="9" t="n"/>
+    </row>
     <row r="161">
       <c r="B161" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C161" s="15" t="n"/>
       <c r="D161" s="13" t="n">
         <v>-28264.39000000001</v>
       </c>
     </row>
-    <row r="162"/>
+    <row r="162">
+      <c r="B162" s="14" t="n"/>
+      <c r="C162" s="15" t="n"/>
+      <c r="D162" s="9" t="n"/>
+    </row>
     <row r="163">
       <c r="B163" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C163" s="15" t="n"/>
       <c r="D163" s="13" t="n">
         <v>-122588.0860000001</v>
       </c>
@@ -4448,60 +4488,97 @@
         <v>133297.72</v>
       </c>
     </row>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
+    <row r="150">
+      <c r="B150" s="14" t="n"/>
+      <c r="C150" s="15" t="n"/>
+      <c r="D150" s="9" t="n"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="14" t="n"/>
+      <c r="C151" s="15" t="n"/>
+      <c r="D151" s="9" t="n"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="14" t="n"/>
+      <c r="C152" s="15" t="n"/>
+      <c r="D152" s="9" t="n"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="14" t="n"/>
+      <c r="C153" s="15" t="n"/>
+      <c r="D153" s="9" t="n"/>
+    </row>
     <row r="154">
       <c r="B154" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C154" s="15" t="n"/>
       <c r="D154" s="13" t="n">
         <v>-122588.0860000001</v>
       </c>
     </row>
-    <row r="155"/>
+    <row r="155">
+      <c r="B155" s="14" t="n"/>
+      <c r="C155" s="15" t="n"/>
+      <c r="D155" s="9" t="n"/>
+    </row>
     <row r="156">
       <c r="B156" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C156" s="15" t="n"/>
       <c r="D156" s="20" t="n">
         <v>97706.60000000001</v>
       </c>
     </row>
-    <row r="157"/>
+    <row r="157">
+      <c r="B157" s="14" t="n"/>
+      <c r="C157" s="15" t="n"/>
+      <c r="D157" s="9" t="n"/>
+    </row>
     <row r="158">
       <c r="B158" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C158" s="15" t="n"/>
       <c r="D158" s="21" t="n">
         <v>133297.72</v>
       </c>
     </row>
-    <row r="159"/>
+    <row r="159">
+      <c r="B159" s="14" t="n"/>
+      <c r="C159" s="15" t="n"/>
+      <c r="D159" s="9" t="n"/>
+    </row>
     <row r="160">
       <c r="B160" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C160" s="15" t="n"/>
       <c r="D160" s="13" t="n">
         <v>-35591.12</v>
       </c>
     </row>
-    <row r="161"/>
+    <row r="161">
+      <c r="B161" s="14" t="n"/>
+      <c r="C161" s="15" t="n"/>
+      <c r="D161" s="9" t="n"/>
+    </row>
     <row r="162">
       <c r="B162" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C162" s="15" t="n"/>
       <c r="D162" s="13" t="n">
         <v>-158179.2060000001</v>
       </c>
@@ -6522,60 +6599,97 @@
         <v>98226.42</v>
       </c>
     </row>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
+    <row r="159">
+      <c r="B159" s="14" t="n"/>
+      <c r="C159" s="15" t="n"/>
+      <c r="D159" s="9" t="n"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="14" t="n"/>
+      <c r="C160" s="15" t="n"/>
+      <c r="D160" s="9" t="n"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="14" t="n"/>
+      <c r="C161" s="15" t="n"/>
+      <c r="D161" s="9" t="n"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="14" t="n"/>
+      <c r="C162" s="15" t="n"/>
+      <c r="D162" s="9" t="n"/>
+    </row>
     <row r="163">
       <c r="B163" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C163" s="15" t="n"/>
       <c r="D163" s="13" t="n">
         <v>-158179.2060000001</v>
       </c>
     </row>
-    <row r="164"/>
+    <row r="164">
+      <c r="B164" s="14" t="n"/>
+      <c r="C164" s="15" t="n"/>
+      <c r="D164" s="9" t="n"/>
+    </row>
     <row r="165">
       <c r="B165" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C165" s="15" t="n"/>
       <c r="D165" s="20" t="n">
         <v>70497.86</v>
       </c>
     </row>
-    <row r="166"/>
+    <row r="166">
+      <c r="B166" s="14" t="n"/>
+      <c r="C166" s="15" t="n"/>
+      <c r="D166" s="9" t="n"/>
+    </row>
     <row r="167">
       <c r="B167" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C167" s="15" t="n"/>
       <c r="D167" s="21" t="n">
         <v>98226.42000000001</v>
       </c>
     </row>
-    <row r="168"/>
+    <row r="168">
+      <c r="B168" s="14" t="n"/>
+      <c r="C168" s="15" t="n"/>
+      <c r="D168" s="9" t="n"/>
+    </row>
     <row r="169">
       <c r="B169" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C169" s="15" t="n"/>
       <c r="D169" s="13" t="n">
         <v>-27728.56000000001</v>
       </c>
     </row>
-    <row r="170"/>
+    <row r="170">
+      <c r="B170" s="14" t="n"/>
+      <c r="C170" s="15" t="n"/>
+      <c r="D170" s="9" t="n"/>
+    </row>
     <row r="171">
       <c r="B171" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C171" s="15" t="n"/>
       <c r="D171" s="13" t="n">
         <v>-185907.7660000001</v>
       </c>
@@ -8468,60 +8582,97 @@
         <v>151296.82</v>
       </c>
     </row>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
+    <row r="148">
+      <c r="B148" s="14" t="n"/>
+      <c r="C148" s="15" t="n"/>
+      <c r="D148" s="9" t="n"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="14" t="n"/>
+      <c r="C149" s="15" t="n"/>
+      <c r="D149" s="9" t="n"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="14" t="n"/>
+      <c r="C150" s="15" t="n"/>
+      <c r="D150" s="9" t="n"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="14" t="n"/>
+      <c r="C151" s="15" t="n"/>
+      <c r="D151" s="9" t="n"/>
+    </row>
     <row r="152">
       <c r="B152" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C152" s="15" t="n"/>
       <c r="D152" s="13" t="n">
         <v>-185907.7660000001</v>
       </c>
     </row>
-    <row r="153"/>
+    <row r="153">
+      <c r="B153" s="14" t="n"/>
+      <c r="C153" s="15" t="n"/>
+      <c r="D153" s="9" t="n"/>
+    </row>
     <row r="154">
       <c r="B154" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C154" s="15" t="n"/>
       <c r="D154" s="20" t="n">
         <v>102393.39</v>
       </c>
     </row>
-    <row r="155"/>
+    <row r="155">
+      <c r="B155" s="14" t="n"/>
+      <c r="C155" s="15" t="n"/>
+      <c r="D155" s="9" t="n"/>
+    </row>
     <row r="156">
       <c r="B156" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C156" s="15" t="n"/>
       <c r="D156" s="21" t="n">
         <v>151296.82</v>
       </c>
     </row>
-    <row r="157"/>
+    <row r="157">
+      <c r="B157" s="14" t="n"/>
+      <c r="C157" s="15" t="n"/>
+      <c r="D157" s="9" t="n"/>
+    </row>
     <row r="158">
       <c r="B158" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C158" s="15" t="n"/>
       <c r="D158" s="13" t="n">
         <v>-48903.43000000001</v>
       </c>
     </row>
-    <row r="159"/>
+    <row r="159">
+      <c r="B159" s="14" t="n"/>
+      <c r="C159" s="15" t="n"/>
+      <c r="D159" s="9" t="n"/>
+    </row>
     <row r="160">
       <c r="B160" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C160" s="15" t="n"/>
       <c r="D160" s="13" t="n">
         <v>-234811.1960000001</v>
       </c>
@@ -10872,60 +11023,97 @@
         <v>144689.16</v>
       </c>
     </row>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
+    <row r="185">
+      <c r="B185" s="14" t="n"/>
+      <c r="C185" s="15" t="n"/>
+      <c r="D185" s="9" t="n"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="14" t="n"/>
+      <c r="C186" s="15" t="n"/>
+      <c r="D186" s="9" t="n"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="14" t="n"/>
+      <c r="C187" s="15" t="n"/>
+      <c r="D187" s="9" t="n"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="14" t="n"/>
+      <c r="C188" s="15" t="n"/>
+      <c r="D188" s="9" t="n"/>
+    </row>
     <row r="189">
       <c r="B189" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C189" s="15" t="n"/>
       <c r="D189" s="20" t="n">
         <v>200000</v>
       </c>
     </row>
-    <row r="190"/>
+    <row r="190">
+      <c r="B190" s="14" t="n"/>
+      <c r="C190" s="15" t="n"/>
+      <c r="D190" s="9" t="n"/>
+    </row>
     <row r="191">
       <c r="B191" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C191" s="15" t="n"/>
       <c r="D191" s="20" t="n">
         <v>102266.604</v>
       </c>
     </row>
-    <row r="192"/>
+    <row r="192">
+      <c r="B192" s="14" t="n"/>
+      <c r="C192" s="15" t="n"/>
+      <c r="D192" s="9" t="n"/>
+    </row>
     <row r="193">
       <c r="B193" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C193" s="15" t="n"/>
       <c r="D193" s="21" t="n">
         <v>144689.16</v>
       </c>
     </row>
-    <row r="194"/>
+    <row r="194">
+      <c r="B194" s="14" t="n"/>
+      <c r="C194" s="15" t="n"/>
+      <c r="D194" s="9" t="n"/>
+    </row>
     <row r="195">
       <c r="B195" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C195" s="15" t="n"/>
       <c r="D195" s="13" t="n">
         <v>-42422.55600000001</v>
       </c>
     </row>
-    <row r="196"/>
+    <row r="196">
+      <c r="B196" s="14" t="n"/>
+      <c r="C196" s="15" t="n"/>
+      <c r="D196" s="9" t="n"/>
+    </row>
     <row r="197">
       <c r="B197" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C197" s="15" t="n"/>
       <c r="D197" s="20" t="n">
         <v>157577.444</v>
       </c>
@@ -12853,60 +13041,97 @@
         <v>125645.94</v>
       </c>
     </row>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
+    <row r="150">
+      <c r="B150" s="14" t="n"/>
+      <c r="C150" s="15" t="n"/>
+      <c r="D150" s="9" t="n"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="14" t="n"/>
+      <c r="C151" s="15" t="n"/>
+      <c r="D151" s="9" t="n"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="14" t="n"/>
+      <c r="C152" s="15" t="n"/>
+      <c r="D152" s="9" t="n"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="14" t="n"/>
+      <c r="C153" s="15" t="n"/>
+      <c r="D153" s="9" t="n"/>
+    </row>
     <row r="154">
       <c r="B154" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C154" s="15" t="n"/>
       <c r="D154" s="20" t="n">
         <v>157577.444</v>
       </c>
     </row>
-    <row r="155"/>
+    <row r="155">
+      <c r="B155" s="14" t="n"/>
+      <c r="C155" s="15" t="n"/>
+      <c r="D155" s="9" t="n"/>
+    </row>
     <row r="156">
       <c r="B156" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C156" s="15" t="n"/>
       <c r="D156" s="20" t="n">
         <v>77543.88</v>
       </c>
     </row>
-    <row r="157"/>
+    <row r="157">
+      <c r="B157" s="14" t="n"/>
+      <c r="C157" s="15" t="n"/>
+      <c r="D157" s="9" t="n"/>
+    </row>
     <row r="158">
       <c r="B158" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C158" s="15" t="n"/>
       <c r="D158" s="21" t="n">
         <v>125645.94</v>
       </c>
     </row>
-    <row r="159"/>
+    <row r="159">
+      <c r="B159" s="14" t="n"/>
+      <c r="C159" s="15" t="n"/>
+      <c r="D159" s="9" t="n"/>
+    </row>
     <row r="160">
       <c r="B160" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C160" s="15" t="n"/>
       <c r="D160" s="13" t="n">
         <v>-48102.06</v>
       </c>
     </row>
-    <row r="161"/>
+    <row r="161">
+      <c r="B161" s="14" t="n"/>
+      <c r="C161" s="15" t="n"/>
+      <c r="D161" s="9" t="n"/>
+    </row>
     <row r="162">
       <c r="B162" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C162" s="15" t="n"/>
       <c r="D162" s="20" t="n">
         <v>109475.384</v>
       </c>
@@ -14988,60 +15213,97 @@
         <v>133884.68</v>
       </c>
     </row>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
+    <row r="163">
+      <c r="B163" s="14" t="n"/>
+      <c r="C163" s="15" t="n"/>
+      <c r="D163" s="9" t="n"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="14" t="n"/>
+      <c r="C164" s="15" t="n"/>
+      <c r="D164" s="9" t="n"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="14" t="n"/>
+      <c r="C165" s="15" t="n"/>
+      <c r="D165" s="9" t="n"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="14" t="n"/>
+      <c r="C166" s="15" t="n"/>
+      <c r="D166" s="9" t="n"/>
+    </row>
     <row r="167">
       <c r="B167" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C167" s="15" t="n"/>
       <c r="D167" s="20" t="n">
         <v>109475.384</v>
       </c>
     </row>
-    <row r="168"/>
+    <row r="168">
+      <c r="B168" s="14" t="n"/>
+      <c r="C168" s="15" t="n"/>
+      <c r="D168" s="9" t="n"/>
+    </row>
     <row r="169">
       <c r="B169" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C169" s="15" t="n"/>
       <c r="D169" s="20" t="n">
         <v>77550.48999999999</v>
       </c>
     </row>
-    <row r="170"/>
+    <row r="170">
+      <c r="B170" s="14" t="n"/>
+      <c r="C170" s="15" t="n"/>
+      <c r="D170" s="9" t="n"/>
+    </row>
     <row r="171">
       <c r="B171" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C171" s="15" t="n"/>
       <c r="D171" s="21" t="n">
         <v>133884.68</v>
       </c>
     </row>
-    <row r="172"/>
+    <row r="172">
+      <c r="B172" s="14" t="n"/>
+      <c r="C172" s="15" t="n"/>
+      <c r="D172" s="9" t="n"/>
+    </row>
     <row r="173">
       <c r="B173" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C173" s="15" t="n"/>
       <c r="D173" s="13" t="n">
         <v>-56334.19</v>
       </c>
     </row>
-    <row r="174"/>
+    <row r="174">
+      <c r="B174" s="14" t="n"/>
+      <c r="C174" s="15" t="n"/>
+      <c r="D174" s="9" t="n"/>
+    </row>
     <row r="175">
       <c r="B175" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C175" s="15" t="n"/>
       <c r="D175" s="20" t="n">
         <v>53141.19399999999</v>
       </c>
@@ -17319,60 +17581,97 @@
         <v>159744.75</v>
       </c>
     </row>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
+    <row r="179">
+      <c r="B179" s="14" t="n"/>
+      <c r="C179" s="15" t="n"/>
+      <c r="D179" s="9" t="n"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="14" t="n"/>
+      <c r="C180" s="15" t="n"/>
+      <c r="D180" s="9" t="n"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="14" t="n"/>
+      <c r="C181" s="15" t="n"/>
+      <c r="D181" s="9" t="n"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="14" t="n"/>
+      <c r="C182" s="15" t="n"/>
+      <c r="D182" s="9" t="n"/>
+    </row>
     <row r="183">
       <c r="B183" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C183" s="15" t="n"/>
       <c r="D183" s="20" t="n">
         <v>53141.19399999999</v>
       </c>
     </row>
-    <row r="184"/>
+    <row r="184">
+      <c r="B184" s="14" t="n"/>
+      <c r="C184" s="15" t="n"/>
+      <c r="D184" s="9" t="n"/>
+    </row>
     <row r="185">
       <c r="B185" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C185" s="15" t="n"/>
       <c r="D185" s="20" t="n">
         <v>100705.39</v>
       </c>
     </row>
-    <row r="186"/>
+    <row r="186">
+      <c r="B186" s="14" t="n"/>
+      <c r="C186" s="15" t="n"/>
+      <c r="D186" s="9" t="n"/>
+    </row>
     <row r="187">
       <c r="B187" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C187" s="15" t="n"/>
       <c r="D187" s="21" t="n">
         <v>159744.75</v>
       </c>
     </row>
-    <row r="188"/>
+    <row r="188">
+      <c r="B188" s="14" t="n"/>
+      <c r="C188" s="15" t="n"/>
+      <c r="D188" s="9" t="n"/>
+    </row>
     <row r="189">
       <c r="B189" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C189" s="15" t="n"/>
       <c r="D189" s="13" t="n">
         <v>-59039.36</v>
       </c>
     </row>
-    <row r="190"/>
+    <row r="190">
+      <c r="B190" s="14" t="n"/>
+      <c r="C190" s="15" t="n"/>
+      <c r="D190" s="9" t="n"/>
+    </row>
     <row r="191">
       <c r="B191" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C191" s="15" t="n"/>
       <c r="D191" s="13" t="n">
         <v>-5898.166000000027</v>
       </c>
@@ -19408,60 +19707,97 @@
         <v>116295.29</v>
       </c>
     </row>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
+    <row r="160">
+      <c r="B160" s="14" t="n"/>
+      <c r="C160" s="15" t="n"/>
+      <c r="D160" s="9" t="n"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="14" t="n"/>
+      <c r="C161" s="15" t="n"/>
+      <c r="D161" s="9" t="n"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="14" t="n"/>
+      <c r="C162" s="15" t="n"/>
+      <c r="D162" s="9" t="n"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="14" t="n"/>
+      <c r="C163" s="15" t="n"/>
+      <c r="D163" s="9" t="n"/>
+    </row>
     <row r="164">
       <c r="B164" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C164" s="15" t="n"/>
       <c r="D164" s="13" t="n">
         <v>-5898.166000000027</v>
       </c>
     </row>
-    <row r="165"/>
+    <row r="165">
+      <c r="B165" s="14" t="n"/>
+      <c r="C165" s="15" t="n"/>
+      <c r="D165" s="9" t="n"/>
+    </row>
     <row r="166">
       <c r="B166" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C166" s="15" t="n"/>
       <c r="D166" s="20" t="n">
         <v>107413.59</v>
       </c>
     </row>
-    <row r="167"/>
+    <row r="167">
+      <c r="B167" s="14" t="n"/>
+      <c r="C167" s="15" t="n"/>
+      <c r="D167" s="9" t="n"/>
+    </row>
     <row r="168">
       <c r="B168" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C168" s="15" t="n"/>
       <c r="D168" s="21" t="n">
         <v>116295.29</v>
       </c>
     </row>
-    <row r="169"/>
+    <row r="169">
+      <c r="B169" s="14" t="n"/>
+      <c r="C169" s="15" t="n"/>
+      <c r="D169" s="9" t="n"/>
+    </row>
     <row r="170">
       <c r="B170" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C170" s="15" t="n"/>
       <c r="D170" s="13" t="n">
         <v>-8881.700000000012</v>
       </c>
     </row>
-    <row r="171"/>
+    <row r="171">
+      <c r="B171" s="14" t="n"/>
+      <c r="C171" s="15" t="n"/>
+      <c r="D171" s="9" t="n"/>
+    </row>
     <row r="172">
       <c r="B172" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C172" s="15" t="n"/>
       <c r="D172" s="13" t="n">
         <v>-14779.86600000004</v>
       </c>
@@ -21481,60 +21817,97 @@
         <v>105490.53</v>
       </c>
     </row>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
+    <row r="158">
+      <c r="B158" s="14" t="n"/>
+      <c r="C158" s="15" t="n"/>
+      <c r="D158" s="9" t="n"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="14" t="n"/>
+      <c r="C159" s="15" t="n"/>
+      <c r="D159" s="9" t="n"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="14" t="n"/>
+      <c r="C160" s="15" t="n"/>
+      <c r="D160" s="9" t="n"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="14" t="n"/>
+      <c r="C161" s="15" t="n"/>
+      <c r="D161" s="9" t="n"/>
+    </row>
     <row r="162">
       <c r="B162" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C162" s="15" t="n"/>
       <c r="D162" s="13" t="n">
         <v>-14779.86600000004</v>
       </c>
     </row>
-    <row r="163"/>
+    <row r="163">
+      <c r="B163" s="14" t="n"/>
+      <c r="C163" s="15" t="n"/>
+      <c r="D163" s="9" t="n"/>
+    </row>
     <row r="164">
       <c r="B164" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C164" s="15" t="n"/>
       <c r="D164" s="20" t="n">
         <v>58442.47</v>
       </c>
     </row>
-    <row r="165"/>
+    <row r="165">
+      <c r="B165" s="14" t="n"/>
+      <c r="C165" s="15" t="n"/>
+      <c r="D165" s="9" t="n"/>
+    </row>
     <row r="166">
       <c r="B166" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C166" s="15" t="n"/>
       <c r="D166" s="21" t="n">
         <v>105490.53</v>
       </c>
     </row>
-    <row r="167"/>
+    <row r="167">
+      <c r="B167" s="14" t="n"/>
+      <c r="C167" s="15" t="n"/>
+      <c r="D167" s="9" t="n"/>
+    </row>
     <row r="168">
       <c r="B168" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C168" s="15" t="n"/>
       <c r="D168" s="13" t="n">
         <v>-47048.06</v>
       </c>
     </row>
-    <row r="169"/>
+    <row r="169">
+      <c r="B169" s="14" t="n"/>
+      <c r="C169" s="15" t="n"/>
+      <c r="D169" s="9" t="n"/>
+    </row>
     <row r="170">
       <c r="B170" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C170" s="15" t="n"/>
       <c r="D170" s="13" t="n">
         <v>-61827.92600000004</v>
       </c>
@@ -23160,60 +23533,97 @@
         <v>62827.42</v>
       </c>
     </row>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
+    <row r="126">
+      <c r="B126" s="14" t="n"/>
+      <c r="C126" s="15" t="n"/>
+      <c r="D126" s="9" t="n"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="14" t="n"/>
+      <c r="C127" s="15" t="n"/>
+      <c r="D127" s="9" t="n"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="14" t="n"/>
+      <c r="C128" s="15" t="n"/>
+      <c r="D128" s="9" t="n"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="14" t="n"/>
+      <c r="C129" s="15" t="n"/>
+      <c r="D129" s="9" t="n"/>
+    </row>
     <row r="130">
       <c r="B130" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C130" s="15" t="n"/>
       <c r="D130" s="13" t="n">
         <v>-61827.92600000004</v>
       </c>
     </row>
-    <row r="131"/>
+    <row r="131">
+      <c r="B131" s="14" t="n"/>
+      <c r="C131" s="15" t="n"/>
+      <c r="D131" s="9" t="n"/>
+    </row>
     <row r="132">
       <c r="B132" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C132" s="15" t="n"/>
       <c r="D132" s="20" t="n">
         <v>59532.41</v>
       </c>
     </row>
-    <row r="133"/>
+    <row r="133">
+      <c r="B133" s="14" t="n"/>
+      <c r="C133" s="15" t="n"/>
+      <c r="D133" s="9" t="n"/>
+    </row>
     <row r="134">
       <c r="B134" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C134" s="15" t="n"/>
       <c r="D134" s="21" t="n">
         <v>62827.42</v>
       </c>
     </row>
-    <row r="135"/>
+    <row r="135">
+      <c r="B135" s="14" t="n"/>
+      <c r="C135" s="15" t="n"/>
+      <c r="D135" s="9" t="n"/>
+    </row>
     <row r="136">
       <c r="B136" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C136" s="15" t="n"/>
       <c r="D136" s="13" t="n">
         <v>-3295.009999999995</v>
       </c>
     </row>
-    <row r="137"/>
+    <row r="137">
+      <c r="B137" s="14" t="n"/>
+      <c r="C137" s="15" t="n"/>
+      <c r="D137" s="9" t="n"/>
+    </row>
     <row r="138">
       <c r="B138" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C138" s="15" t="n"/>
       <c r="D138" s="13" t="n">
         <v>-65122.93600000003</v>
       </c>
@@ -25153,60 +25563,97 @@
         <v>95671.71000000001</v>
       </c>
     </row>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
+    <row r="152">
+      <c r="B152" s="14" t="n"/>
+      <c r="C152" s="15" t="n"/>
+      <c r="D152" s="9" t="n"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="14" t="n"/>
+      <c r="C153" s="15" t="n"/>
+      <c r="D153" s="9" t="n"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="14" t="n"/>
+      <c r="C154" s="15" t="n"/>
+      <c r="D154" s="9" t="n"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="14" t="n"/>
+      <c r="C155" s="15" t="n"/>
+      <c r="D155" s="9" t="n"/>
+    </row>
     <row r="156">
       <c r="B156" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
+      <c r="C156" s="15" t="n"/>
       <c r="D156" s="13" t="n">
         <v>-65122.93600000003</v>
       </c>
     </row>
-    <row r="157"/>
+    <row r="157">
+      <c r="B157" s="14" t="n"/>
+      <c r="C157" s="15" t="n"/>
+      <c r="D157" s="9" t="n"/>
+    </row>
     <row r="158">
       <c r="B158" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
+      <c r="C158" s="15" t="n"/>
       <c r="D158" s="20" t="n">
         <v>66470.95</v>
       </c>
     </row>
-    <row r="159"/>
+    <row r="159">
+      <c r="B159" s="14" t="n"/>
+      <c r="C159" s="15" t="n"/>
+      <c r="D159" s="9" t="n"/>
+    </row>
     <row r="160">
       <c r="B160" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
+      <c r="C160" s="15" t="n"/>
       <c r="D160" s="21" t="n">
         <v>95671.71000000002</v>
       </c>
     </row>
-    <row r="161"/>
+    <row r="161">
+      <c r="B161" s="14" t="n"/>
+      <c r="C161" s="15" t="n"/>
+      <c r="D161" s="9" t="n"/>
+    </row>
     <row r="162">
       <c r="B162" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
+      <c r="C162" s="15" t="n"/>
       <c r="D162" s="13" t="n">
         <v>-29200.76000000002</v>
       </c>
     </row>
-    <row r="163"/>
+    <row r="163">
+      <c r="B163" s="14" t="n"/>
+      <c r="C163" s="15" t="n"/>
+      <c r="D163" s="9" t="n"/>
+    </row>
     <row r="164">
       <c r="B164" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
       </c>
+      <c r="C164" s="15" t="n"/>
       <c r="D164" s="13" t="n">
         <v>-94323.69600000005</v>
       </c>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -208,6 +208,9 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -2624,29 +2627,55 @@
     <row r="165"/>
     <row r="166"/>
     <row r="167">
+      <c r="B167" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
       <c r="D167" s="20" t="n">
         <v>-94323.69600000005</v>
       </c>
     </row>
     <row r="168"/>
     <row r="169">
-      <c r="D169" s="21" t="n">
+      <c r="B169" s="21" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D169" s="22" t="n">
         <v>78144.25999999999</v>
       </c>
     </row>
     <row r="170"/>
     <row r="171">
-      <c r="D171" s="22" t="n">
+      <c r="B171" s="21" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D171" s="23" t="n">
         <v>106408.65</v>
       </c>
     </row>
     <row r="172"/>
     <row r="173">
+      <c r="B173" s="21" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
       <c r="D173" s="20" t="n">
         <v>-28264.39000000001</v>
       </c>
     </row>
+    <row r="174"/>
     <row r="175">
+      <c r="B175" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
       <c r="D175" s="20" t="n">
         <v>-122588.0860000001</v>
       </c>
@@ -4708,29 +4737,55 @@
     <row r="164"/>
     <row r="165"/>
     <row r="166">
+      <c r="B166" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
       <c r="D166" s="20" t="n">
         <v>-122588.0860000001</v>
       </c>
     </row>
     <row r="167"/>
     <row r="168">
-      <c r="D168" s="21" t="n">
+      <c r="B168" s="21" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D168" s="22" t="n">
         <v>97706.60000000001</v>
       </c>
     </row>
     <row r="169"/>
     <row r="170">
-      <c r="D170" s="22" t="n">
+      <c r="B170" s="21" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D170" s="23" t="n">
         <v>133297.72</v>
       </c>
     </row>
     <row r="171"/>
     <row r="172">
+      <c r="B172" s="21" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
       <c r="D172" s="20" t="n">
         <v>-35591.12</v>
       </c>
     </row>
+    <row r="173"/>
     <row r="174">
+      <c r="B174" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
       <c r="D174" s="20" t="n">
         <v>-158179.2060000001</v>
       </c>
@@ -6900,29 +6955,55 @@
     <row r="173"/>
     <row r="174"/>
     <row r="175">
+      <c r="B175" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
       <c r="D175" s="20" t="n">
         <v>-158179.2060000001</v>
       </c>
     </row>
     <row r="176"/>
     <row r="177">
-      <c r="D177" s="21" t="n">
+      <c r="B177" s="21" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D177" s="22" t="n">
         <v>70497.86</v>
       </c>
     </row>
     <row r="178"/>
     <row r="179">
-      <c r="D179" s="22" t="n">
+      <c r="B179" s="21" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D179" s="23" t="n">
         <v>98226.42000000001</v>
       </c>
     </row>
     <row r="180"/>
     <row r="181">
+      <c r="B181" s="21" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
       <c r="D181" s="20" t="n">
         <v>-27728.56000000001</v>
       </c>
     </row>
+    <row r="182"/>
     <row r="183">
+      <c r="B183" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
       <c r="D183" s="20" t="n">
         <v>-185907.7660000001</v>
       </c>
@@ -8964,29 +9045,55 @@
     <row r="162"/>
     <row r="163"/>
     <row r="164">
+      <c r="B164" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
       <c r="D164" s="20" t="n">
         <v>-185907.7660000001</v>
       </c>
     </row>
     <row r="165"/>
     <row r="166">
-      <c r="D166" s="21" t="n">
+      <c r="B166" s="21" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D166" s="22" t="n">
         <v>102393.39</v>
       </c>
     </row>
     <row r="167"/>
     <row r="168">
-      <c r="D168" s="22" t="n">
+      <c r="B168" s="21" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D168" s="23" t="n">
         <v>151296.82</v>
       </c>
     </row>
     <row r="169"/>
     <row r="170">
+      <c r="B170" s="21" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
       <c r="D170" s="20" t="n">
         <v>-48903.43000000001</v>
       </c>
     </row>
+    <row r="171"/>
     <row r="172">
+      <c r="B172" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
       <c r="D172" s="20" t="n">
         <v>-234811.1960000001</v>
       </c>
@@ -11496,30 +11603,56 @@
     <row r="200"/>
     <row r="201"/>
     <row r="202">
-      <c r="D202" s="21" t="n">
+      <c r="B202" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D202" s="22" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="203"/>
     <row r="204">
-      <c r="D204" s="21" t="n">
+      <c r="B204" s="21" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D204" s="22" t="n">
         <v>102266.604</v>
       </c>
     </row>
     <row r="205"/>
     <row r="206">
-      <c r="D206" s="22" t="n">
+      <c r="B206" s="21" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D206" s="23" t="n">
         <v>144689.16</v>
       </c>
     </row>
     <row r="207"/>
     <row r="208">
+      <c r="B208" s="21" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
       <c r="D208" s="20" t="n">
         <v>-42422.55600000001</v>
       </c>
     </row>
+    <row r="209"/>
     <row r="210">
-      <c r="D210" s="21" t="n">
+      <c r="B210" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D210" s="22" t="n">
         <v>157577.444</v>
       </c>
     </row>
@@ -13608,30 +13741,56 @@
     <row r="165"/>
     <row r="166"/>
     <row r="167">
-      <c r="D167" s="21" t="n">
+      <c r="B167" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D167" s="22" t="n">
         <v>157577.444</v>
       </c>
     </row>
     <row r="168"/>
     <row r="169">
-      <c r="D169" s="21" t="n">
+      <c r="B169" s="21" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D169" s="22" t="n">
         <v>77543.88</v>
       </c>
     </row>
     <row r="170"/>
     <row r="171">
-      <c r="D171" s="22" t="n">
+      <c r="B171" s="21" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D171" s="23" t="n">
         <v>125645.94</v>
       </c>
     </row>
     <row r="172"/>
     <row r="173">
+      <c r="B173" s="21" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
       <c r="D173" s="20" t="n">
         <v>-48102.06</v>
       </c>
     </row>
+    <row r="174"/>
     <row r="175">
-      <c r="D175" s="21" t="n">
+      <c r="B175" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D175" s="22" t="n">
         <v>109475.384</v>
       </c>
     </row>
@@ -15873,30 +16032,56 @@
     <row r="178"/>
     <row r="179"/>
     <row r="180">
-      <c r="D180" s="21" t="n">
+      <c r="B180" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D180" s="22" t="n">
         <v>109475.384</v>
       </c>
     </row>
     <row r="181"/>
     <row r="182">
-      <c r="D182" s="21" t="n">
+      <c r="B182" s="21" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D182" s="22" t="n">
         <v>77550.48999999999</v>
       </c>
     </row>
     <row r="183"/>
     <row r="184">
-      <c r="D184" s="22" t="n">
+      <c r="B184" s="21" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D184" s="23" t="n">
         <v>133884.68</v>
       </c>
     </row>
     <row r="185"/>
     <row r="186">
+      <c r="B186" s="21" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
       <c r="D186" s="20" t="n">
         <v>-56334.19</v>
       </c>
     </row>
+    <row r="187"/>
     <row r="188">
-      <c r="D188" s="21" t="n">
+      <c r="B188" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
+      <c r="D188" s="22" t="n">
         <v>53141.19399999999</v>
       </c>
     </row>
@@ -18334,29 +18519,55 @@
     <row r="194"/>
     <row r="195"/>
     <row r="196">
-      <c r="D196" s="21" t="n">
+      <c r="B196" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
+      <c r="D196" s="22" t="n">
         <v>53141.19399999999</v>
       </c>
     </row>
     <row r="197"/>
     <row r="198">
-      <c r="D198" s="21" t="n">
+      <c r="B198" s="21" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D198" s="22" t="n">
         <v>100705.39</v>
       </c>
     </row>
     <row r="199"/>
     <row r="200">
-      <c r="D200" s="22" t="n">
+      <c r="B200" s="21" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D200" s="23" t="n">
         <v>159744.75</v>
       </c>
     </row>
     <row r="201"/>
     <row r="202">
+      <c r="B202" s="21" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
       <c r="D202" s="20" t="n">
         <v>-59039.36</v>
       </c>
     </row>
+    <row r="203"/>
     <row r="204">
+      <c r="B204" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
       <c r="D204" s="20" t="n">
         <v>-5898.166000000027</v>
       </c>
@@ -20541,29 +20752,55 @@
     <row r="174"/>
     <row r="175"/>
     <row r="176">
+      <c r="B176" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
       <c r="D176" s="20" t="n">
         <v>-5898.166000000027</v>
       </c>
     </row>
     <row r="177"/>
     <row r="178">
-      <c r="D178" s="21" t="n">
+      <c r="B178" s="21" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D178" s="22" t="n">
         <v>107413.59</v>
       </c>
     </row>
     <row r="179"/>
     <row r="180">
-      <c r="D180" s="22" t="n">
+      <c r="B180" s="21" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D180" s="23" t="n">
         <v>116295.29</v>
       </c>
     </row>
     <row r="181"/>
     <row r="182">
+      <c r="B182" s="21" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
       <c r="D182" s="20" t="n">
         <v>-8881.700000000012</v>
       </c>
     </row>
+    <row r="183"/>
     <row r="184">
+      <c r="B184" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
       <c r="D184" s="20" t="n">
         <v>-14779.86600000004</v>
       </c>
@@ -22754,29 +22991,55 @@
     <row r="174"/>
     <row r="175"/>
     <row r="176">
+      <c r="B176" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
       <c r="D176" s="20" t="n">
         <v>-14779.86600000004</v>
       </c>
     </row>
     <row r="177"/>
     <row r="178">
-      <c r="D178" s="21" t="n">
+      <c r="B178" s="21" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D178" s="22" t="n">
         <v>58442.47</v>
       </c>
     </row>
     <row r="179"/>
     <row r="180">
-      <c r="D180" s="22" t="n">
+      <c r="B180" s="21" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D180" s="23" t="n">
         <v>105490.53</v>
       </c>
     </row>
     <row r="181"/>
     <row r="182">
+      <c r="B182" s="21" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
       <c r="D182" s="20" t="n">
         <v>-47048.06</v>
       </c>
     </row>
+    <row r="183"/>
     <row r="184">
+      <c r="B184" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
       <c r="D184" s="20" t="n">
         <v>-61827.92600000004</v>
       </c>
@@ -24564,29 +24827,55 @@
     <row r="141"/>
     <row r="142"/>
     <row r="143">
+      <c r="B143" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
       <c r="D143" s="20" t="n">
         <v>-61827.92600000004</v>
       </c>
     </row>
     <row r="144"/>
     <row r="145">
-      <c r="D145" s="21" t="n">
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D145" s="22" t="n">
         <v>59532.41</v>
       </c>
     </row>
     <row r="146"/>
     <row r="147">
-      <c r="D147" s="22" t="n">
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D147" s="23" t="n">
         <v>62827.42</v>
       </c>
     </row>
     <row r="148"/>
     <row r="149">
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
       <c r="D149" s="20" t="n">
         <v>-3295.009999999995</v>
       </c>
     </row>
+    <row r="150"/>
     <row r="151">
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
       <c r="D151" s="20" t="n">
         <v>-65122.93600000003</v>
       </c>
@@ -26676,29 +26965,55 @@
     <row r="166"/>
     <row r="167"/>
     <row r="168">
+      <c r="B168" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese precedente</t>
+        </is>
+      </c>
       <c r="D168" s="20" t="n">
         <v>-65122.93600000003</v>
       </c>
     </row>
     <row r="169"/>
     <row r="170">
-      <c r="D170" s="21" t="n">
+      <c r="B170" s="21" t="inlineStr">
+        <is>
+          <t>ENTRATE del mese</t>
+        </is>
+      </c>
+      <c r="D170" s="22" t="n">
         <v>66470.95</v>
       </c>
     </row>
     <row r="171"/>
     <row r="172">
-      <c r="D172" s="22" t="n">
+      <c r="B172" s="21" t="inlineStr">
+        <is>
+          <t>USCITE del mese</t>
+        </is>
+      </c>
+      <c r="D172" s="23" t="n">
         <v>95671.71000000002</v>
       </c>
     </row>
     <row r="173"/>
     <row r="174">
+      <c r="B174" s="21" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO del mese</t>
+        </is>
+      </c>
       <c r="D174" s="20" t="n">
         <v>-29200.76000000002</v>
       </c>
     </row>
+    <row r="175"/>
     <row r="176">
+      <c r="B176" s="21" t="inlineStr">
+        <is>
+          <t>SALDO del mese corrente</t>
+        </is>
+      </c>
       <c r="D176" s="20" t="n">
         <v>-94323.69600000005</v>
       </c>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -28,11 +28,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00€"/>
     <numFmt numFmtId="165" formatCode="#,##0.00 €"/>
+    <numFmt numFmtId="166" formatCode="-#,##0.00€"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -77,6 +78,10 @@
     <font>
       <b val="1"/>
       <color rgb="00000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="15"/>
     </font>
   </fonts>
@@ -141,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -195,6 +200,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2824,47 +2838,54 @@
         <v>353.3</v>
       </c>
     </row>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
     <row r="186">
       <c r="B186" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-    </row>
-    <row r="187"/>
+      <c r="D186" s="22" t="n">
+        <v>-139380.4480000001</v>
+      </c>
+    </row>
     <row r="188">
       <c r="B188" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="189"/>
+      <c r="D188" s="20" t="n">
+        <v>78144.25999999999</v>
+      </c>
+    </row>
     <row r="190">
       <c r="B190" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="191"/>
+      <c r="D190" s="21" t="n">
+        <v>106408.65</v>
+      </c>
+    </row>
     <row r="192">
       <c r="B192" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-    </row>
-    <row r="193"/>
+      <c r="D192" s="22" t="n">
+        <v>-28264.39000000001</v>
+      </c>
+    </row>
     <row r="194">
       <c r="B194" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D194" s="22" t="n">
+        <v>-181803.0040000001</v>
       </c>
     </row>
   </sheetData>
@@ -5145,47 +5166,54 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
     <row r="185">
       <c r="B185" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-    </row>
-    <row r="186"/>
+      <c r="D185" s="22" t="n">
+        <v>-181803.0040000001</v>
+      </c>
+    </row>
     <row r="187">
       <c r="B187" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="188"/>
+      <c r="D187" s="20" t="n">
+        <v>97706.60000000001</v>
+      </c>
+    </row>
     <row r="189">
       <c r="B189" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="190"/>
+      <c r="D189" s="21" t="n">
+        <v>133297.72</v>
+      </c>
+    </row>
     <row r="191">
       <c r="B191" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-    </row>
-    <row r="192"/>
+      <c r="D191" s="22" t="n">
+        <v>-35591.12</v>
+      </c>
+    </row>
     <row r="193">
       <c r="B193" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D193" s="22" t="n">
+        <v>-224225.5600000001</v>
       </c>
     </row>
   </sheetData>
@@ -7574,47 +7602,54 @@
         <v>1049.05</v>
       </c>
     </row>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
     <row r="194">
       <c r="B194" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-    </row>
-    <row r="195"/>
+      <c r="D194" s="22" t="n">
+        <v>-224225.5600000001</v>
+      </c>
+    </row>
     <row r="196">
       <c r="B196" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="197"/>
+      <c r="D196" s="20" t="n">
+        <v>70497.86</v>
+      </c>
+    </row>
     <row r="198">
       <c r="B198" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="199"/>
+      <c r="D198" s="21" t="n">
+        <v>98226.42000000001</v>
+      </c>
+    </row>
     <row r="200">
       <c r="B200" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-    </row>
-    <row r="201"/>
+      <c r="D200" s="22" t="n">
+        <v>-27728.56000000001</v>
+      </c>
+    </row>
     <row r="202">
       <c r="B202" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D202" s="22" t="n">
+        <v>-266648.1160000002</v>
       </c>
     </row>
   </sheetData>
@@ -9887,47 +9922,54 @@
         <v>115</v>
       </c>
     </row>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
     <row r="184">
       <c r="B184" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-    </row>
-    <row r="185"/>
+      <c r="D184" s="22" t="n">
+        <v>-266648.1160000002</v>
+      </c>
+    </row>
     <row r="186">
       <c r="B186" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="187"/>
+      <c r="D186" s="20" t="n">
+        <v>102393.39</v>
+      </c>
+    </row>
     <row r="188">
       <c r="B188" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="189"/>
+      <c r="D188" s="21" t="n">
+        <v>151296.82</v>
+      </c>
+    </row>
     <row r="190">
       <c r="B190" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-    </row>
-    <row r="191"/>
+      <c r="D190" s="22" t="n">
+        <v>-48903.43000000001</v>
+      </c>
+    </row>
     <row r="192">
       <c r="B192" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D192" s="22" t="n">
+        <v>-309070.6720000001</v>
       </c>
     </row>
   </sheetData>
@@ -12693,47 +12735,54 @@
         <v>262.32</v>
       </c>
     </row>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
     <row r="224">
       <c r="B224" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-    </row>
-    <row r="225"/>
+      <c r="D224" s="20" t="n">
+        <v>200000</v>
+      </c>
+    </row>
     <row r="226">
       <c r="B226" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="227"/>
+      <c r="D226" s="20" t="n">
+        <v>102266.604</v>
+      </c>
+    </row>
     <row r="228">
       <c r="B228" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="229"/>
+      <c r="D228" s="21" t="n">
+        <v>144689.16</v>
+      </c>
+    </row>
     <row r="230">
       <c r="B230" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-    </row>
-    <row r="231"/>
+      <c r="D230" s="22" t="n">
+        <v>-42422.55600000001</v>
+      </c>
+    </row>
     <row r="232">
       <c r="B232" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D232" s="20" t="n">
+        <v>157577.444</v>
       </c>
     </row>
   </sheetData>
@@ -15066,47 +15115,54 @@
         <v>896.83</v>
       </c>
     </row>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
     <row r="188">
       <c r="B188" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-    </row>
-    <row r="189"/>
+      <c r="D188" s="20" t="n">
+        <v>157577.444</v>
+      </c>
+    </row>
     <row r="190">
       <c r="B190" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="191"/>
+      <c r="D190" s="20" t="n">
+        <v>77543.88</v>
+      </c>
+    </row>
     <row r="192">
       <c r="B192" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="193"/>
+      <c r="D192" s="21" t="n">
+        <v>125645.94</v>
+      </c>
+    </row>
     <row r="194">
       <c r="B194" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-    </row>
-    <row r="195"/>
+      <c r="D194" s="22" t="n">
+        <v>-48102.06</v>
+      </c>
+    </row>
     <row r="196">
       <c r="B196" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D196" s="20" t="n">
+        <v>115154.888</v>
       </c>
     </row>
   </sheetData>
@@ -17594,47 +17650,54 @@
         <v>700</v>
       </c>
     </row>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
     <row r="201">
       <c r="B201" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-    </row>
-    <row r="202"/>
+      <c r="D201" s="20" t="n">
+        <v>115154.888</v>
+      </c>
+    </row>
     <row r="203">
       <c r="B203" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="204"/>
+      <c r="D203" s="20" t="n">
+        <v>77550.48999999999</v>
+      </c>
+    </row>
     <row r="205">
       <c r="B205" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="206"/>
+      <c r="D205" s="21" t="n">
+        <v>133884.68</v>
+      </c>
+    </row>
     <row r="207">
       <c r="B207" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-    </row>
-    <row r="208"/>
+      <c r="D207" s="22" t="n">
+        <v>-56334.19</v>
+      </c>
+    </row>
     <row r="209">
       <c r="B209" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D209" s="20" t="n">
+        <v>72732.33199999997</v>
       </c>
     </row>
   </sheetData>
@@ -20314,47 +20377,54 @@
         <v>325.73</v>
       </c>
     </row>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216"/>
     <row r="217">
       <c r="B217" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-    </row>
-    <row r="218"/>
+      <c r="D217" s="20" t="n">
+        <v>72732.33199999997</v>
+      </c>
+    </row>
     <row r="219">
       <c r="B219" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="220"/>
+      <c r="D219" s="20" t="n">
+        <v>100705.39</v>
+      </c>
+    </row>
     <row r="221">
       <c r="B221" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="222"/>
+      <c r="D221" s="21" t="n">
+        <v>159744.75</v>
+      </c>
+    </row>
     <row r="223">
       <c r="B223" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-    </row>
-    <row r="224"/>
+      <c r="D223" s="22" t="n">
+        <v>-59039.36</v>
+      </c>
+    </row>
     <row r="225">
       <c r="B225" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D225" s="20" t="n">
+        <v>30309.77599999995</v>
       </c>
     </row>
   </sheetData>
@@ -22758,47 +22828,54 @@
         <v>1184.04</v>
       </c>
     </row>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
     <row r="195">
       <c r="B195" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-    </row>
-    <row r="196"/>
+      <c r="D195" s="20" t="n">
+        <v>30309.77599999995</v>
+      </c>
+    </row>
     <row r="197">
       <c r="B197" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="198"/>
+      <c r="D197" s="20" t="n">
+        <v>107413.59</v>
+      </c>
+    </row>
     <row r="199">
       <c r="B199" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="200"/>
+      <c r="D199" s="21" t="n">
+        <v>116295.29</v>
+      </c>
+    </row>
     <row r="201">
       <c r="B201" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-    </row>
-    <row r="202"/>
+      <c r="D201" s="22" t="n">
+        <v>-8881.700000000012</v>
+      </c>
+    </row>
     <row r="203">
       <c r="B203" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D203" s="22" t="n">
+        <v>-12112.78000000006</v>
       </c>
     </row>
   </sheetData>
@@ -25207,47 +25284,54 @@
         <v>1511.45</v>
       </c>
     </row>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
     <row r="195">
       <c r="B195" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-    </row>
-    <row r="196"/>
+      <c r="D195" s="22" t="n">
+        <v>-12112.78000000006</v>
+      </c>
+    </row>
     <row r="197">
       <c r="B197" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="198"/>
+      <c r="D197" s="20" t="n">
+        <v>58442.47</v>
+      </c>
+    </row>
     <row r="199">
       <c r="B199" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="200"/>
+      <c r="D199" s="21" t="n">
+        <v>105490.53</v>
+      </c>
+    </row>
     <row r="201">
       <c r="B201" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-    </row>
-    <row r="202"/>
+      <c r="D201" s="22" t="n">
+        <v>-47048.06</v>
+      </c>
+    </row>
     <row r="203">
       <c r="B203" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D203" s="22" t="n">
+        <v>-54535.33600000007</v>
       </c>
     </row>
   </sheetData>
@@ -27242,47 +27326,54 @@
         <v>1107.43</v>
       </c>
     </row>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
     <row r="161">
       <c r="B161" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-    </row>
-    <row r="162"/>
+      <c r="D161" s="22" t="n">
+        <v>-54535.33600000007</v>
+      </c>
+    </row>
     <row r="163">
       <c r="B163" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="164"/>
+      <c r="D163" s="20" t="n">
+        <v>59532.41</v>
+      </c>
+    </row>
     <row r="165">
       <c r="B165" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="166"/>
+      <c r="D165" s="21" t="n">
+        <v>62827.42</v>
+      </c>
+    </row>
     <row r="167">
       <c r="B167" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-    </row>
-    <row r="168"/>
+      <c r="D167" s="22" t="n">
+        <v>-3295.009999999995</v>
+      </c>
+    </row>
     <row r="169">
       <c r="B169" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D169" s="22" t="n">
+        <v>-96957.89200000008</v>
       </c>
     </row>
   </sheetData>
@@ -29603,47 +29694,54 @@
         <v>700</v>
       </c>
     </row>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
     <row r="188">
       <c r="B188" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese precedente</t>
         </is>
       </c>
-    </row>
-    <row r="189"/>
+      <c r="D188" s="22" t="n">
+        <v>-96957.89200000008</v>
+      </c>
+    </row>
     <row r="190">
       <c r="B190" s="19" t="inlineStr">
         <is>
           <t>ENTRATE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="191"/>
+      <c r="D190" s="20" t="n">
+        <v>66470.95</v>
+      </c>
+    </row>
     <row r="192">
       <c r="B192" s="19" t="inlineStr">
         <is>
           <t>USCITE del mese</t>
         </is>
       </c>
-    </row>
-    <row r="193"/>
+      <c r="D192" s="21" t="n">
+        <v>95671.71000000002</v>
+      </c>
+    </row>
     <row r="194">
       <c r="B194" s="19" t="inlineStr">
         <is>
           <t>DIS/AVANZO del mese</t>
         </is>
       </c>
-    </row>
-    <row r="195"/>
+      <c r="D194" s="22" t="n">
+        <v>-29200.76000000002</v>
+      </c>
+    </row>
     <row r="196">
       <c r="B196" s="19" t="inlineStr">
         <is>
           <t>SALDO del mese corrente</t>
         </is>
+      </c>
+      <c r="D196" s="22" t="n">
+        <v>-139380.4480000001</v>
       </c>
     </row>
   </sheetData>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -104,12 +104,17 @@
       <sz val="15"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d1d22e"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -174,7 +179,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -117,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -152,6 +152,20 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="004617F1"/>
+      </left>
+      <right style="double">
+        <color rgb="004617F1"/>
+      </right>
+      <top style="double">
+        <color rgb="004617F1"/>
+      </top>
+      <bottom style="double">
+        <color rgb="004617F1"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -179,7 +193,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -20,6 +20,7 @@
     <sheet name="ottobre" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="novembre" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="dicembre" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Saldo_riepilogo" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9984,6 +9985,261 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>mese</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>saldo_iniziale</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entrate_mese</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>uscite_mese</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>saldo_finale</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>200000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>102266.604</v>
+      </c>
+      <c r="D2" t="n">
+        <v>144689.16</v>
+      </c>
+      <c r="E2" t="n">
+        <v>157577.444</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>febbraio</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>157577.444</v>
+      </c>
+      <c r="C3" t="n">
+        <v>77543.88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>125645.94</v>
+      </c>
+      <c r="E3" t="n">
+        <v>115154.888</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>115154.888</v>
+      </c>
+      <c r="C4" t="n">
+        <v>77550.48999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>133884.68</v>
+      </c>
+      <c r="E4" t="n">
+        <v>72732.33199999997</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>aprile</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>72732.33199999997</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100705.39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>159744.75</v>
+      </c>
+      <c r="E5" t="n">
+        <v>30309.77599999995</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>maggio</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>30309.77599999995</v>
+      </c>
+      <c r="C6" t="n">
+        <v>107413.59</v>
+      </c>
+      <c r="D6" t="n">
+        <v>116295.29</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-12112.78000000006</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>giugno</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-12112.78000000006</v>
+      </c>
+      <c r="C7" t="n">
+        <v>58442.47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>105490.53</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-54535.33600000007</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>luglio</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-54535.33600000007</v>
+      </c>
+      <c r="C8" t="n">
+        <v>59532.41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>62827.42</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-96957.89200000008</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-96957.89200000008</v>
+      </c>
+      <c r="C9" t="n">
+        <v>66470.95</v>
+      </c>
+      <c r="D9" t="n">
+        <v>95671.71000000002</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-139380.4480000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>settembre</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-139380.4480000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>78144.25999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>106408.65</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-181803.0040000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ottobre</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-181803.0040000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>97706.60000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>133297.72</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-224225.5600000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>novembre</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-224225.5600000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>70497.86</v>
+      </c>
+      <c r="D12" t="n">
+        <v>98226.42000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-266648.1160000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -312,6 +312,189 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Bilancio</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Saldo_riepilogo'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Saldo_riepilogo'!$A$1:$A$12</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Saldo_riepilogo'!$C$2:$C$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Saldo_riepilogo'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Saldo_riepilogo'!$A$1:$A$12</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Saldo_riepilogo'!$D$2:$D$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Saldo_riepilogo'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Saldo_riepilogo'!$A$1:$A$12</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Saldo_riepilogo'!$E$2:$E$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Mesi</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Euro</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -340,6 +523,33 @@
         </a:ln>
       </spPr>
     </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
     <clientData/>
   </oneCellAnchor>
 </wsDr>
@@ -9986,7 +10196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9998,8 +10208,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="20" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>mese</t>
@@ -10237,6 +10454,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -29,12 +29,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.00 €"/>
     <numFmt numFmtId="165" formatCode="#,##0.00€"/>
     <numFmt numFmtId="166" formatCode="-#,##0.00€"/>
+    <numFmt numFmtId="167" formatCode="#,## 0.00€"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,6 +105,18 @@
       <b val="1"/>
       <sz val="15"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="20"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -171,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -235,6 +248,24 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3151,7 +3182,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D192" s="23" t="n">
+      <c r="D192" s="25" t="n">
         <v>-181803.0040000001</v>
       </c>
     </row>
@@ -5451,7 +5482,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D191" s="23" t="n">
+      <c r="D191" s="25" t="n">
         <v>-224225.5600000001</v>
       </c>
     </row>
@@ -7859,7 +7890,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D200" s="23" t="n">
+      <c r="D200" s="25" t="n">
         <v>-266648.1160000002</v>
       </c>
     </row>
@@ -10151,7 +10182,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D190" s="23" t="n">
+      <c r="D190" s="25" t="n">
         <v>-309070.6720000001</v>
       </c>
     </row>
@@ -10201,7 +10232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10210,249 +10241,263 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="100" customHeight="1">
+      <c r="A1" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tabella Entrate - Uscite - Saldo di ogni mese </t>
+        </is>
+      </c>
+      <c r="B1" s="27" t="n"/>
+      <c r="C1" s="27" t="n"/>
+      <c r="D1" s="27" t="n"/>
+      <c r="E1" s="27" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="28" t="inlineStr">
         <is>
           <t>mese</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" s="29" t="inlineStr">
         <is>
           <t>saldo_iniziale</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" s="29" t="inlineStr">
         <is>
           <t>entrate_mese</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" s="29" t="inlineStr">
         <is>
           <t>uscite_mese</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" s="29" t="inlineStr">
         <is>
           <t>saldo_finale</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="29" t="inlineStr">
         <is>
           <t>gennaio</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" s="27" t="n">
         <v>200000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" s="27" t="n">
         <v>102266.604</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" s="27" t="n">
         <v>144689.16</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" s="27" t="n">
         <v>157577.444</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="29" t="inlineStr">
         <is>
           <t>febbraio</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" s="27" t="n">
         <v>157577.444</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" s="27" t="n">
         <v>77543.88</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" s="27" t="n">
         <v>125645.94</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" s="27" t="n">
         <v>115154.888</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="29" t="inlineStr">
         <is>
           <t>marzo</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" s="27" t="n">
         <v>115154.888</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" s="27" t="n">
         <v>77550.48999999999</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" s="27" t="n">
         <v>133884.68</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" s="27" t="n">
         <v>72732.33199999997</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="29" t="inlineStr">
         <is>
           <t>aprile</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" s="27" t="n">
         <v>72732.33199999997</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" s="27" t="n">
         <v>100705.39</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" s="27" t="n">
         <v>159744.75</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" s="27" t="n">
         <v>30309.77599999995</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="29" t="inlineStr">
         <is>
           <t>maggio</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" s="27" t="n">
         <v>30309.77599999995</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" s="27" t="n">
         <v>107413.59</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" s="27" t="n">
         <v>116295.29</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" s="27" t="n">
         <v>-12112.78000000006</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="29" t="inlineStr">
         <is>
           <t>giugno</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" s="27" t="n">
         <v>-12112.78000000006</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" s="27" t="n">
         <v>58442.47</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" s="27" t="n">
         <v>105490.53</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" s="27" t="n">
         <v>-54535.33600000007</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="29" t="inlineStr">
         <is>
           <t>luglio</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" s="27" t="n">
         <v>-54535.33600000007</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" s="27" t="n">
         <v>59532.41</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" s="27" t="n">
         <v>62827.42</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" s="27" t="n">
         <v>-96957.89200000008</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="29" t="inlineStr">
         <is>
           <t>agosto</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" s="27" t="n">
         <v>-96957.89200000008</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" s="27" t="n">
         <v>66470.95</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" s="27" t="n">
         <v>95671.71000000002</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" s="27" t="n">
         <v>-139380.4480000001</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="29" t="inlineStr">
         <is>
           <t>settembre</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" s="27" t="n">
         <v>-139380.4480000001</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" s="27" t="n">
         <v>78144.25999999999</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" s="27" t="n">
         <v>106408.65</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" s="27" t="n">
         <v>-181803.0040000001</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="29" t="inlineStr">
         <is>
           <t>ottobre</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" s="27" t="n">
         <v>-181803.0040000001</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" s="27" t="n">
         <v>97706.60000000001</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" s="27" t="n">
         <v>133297.72</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" s="27" t="n">
         <v>-224225.5600000001</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="29" t="inlineStr">
         <is>
           <t>novembre</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" s="27" t="n">
         <v>-224225.5600000001</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" s="27" t="n">
         <v>70497.86</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" s="27" t="n">
         <v>98226.42000000001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" s="27" t="n">
         <v>-266648.1160000002</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13199,7 +13244,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D230" s="21" t="n">
+      <c r="D230" s="24" t="n">
         <v>157577.444</v>
       </c>
     </row>
@@ -15551,7 +15596,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D194" s="21" t="n">
+      <c r="D194" s="24" t="n">
         <v>115154.888</v>
       </c>
     </row>
@@ -18058,7 +18103,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D207" s="21" t="n">
+      <c r="D207" s="24" t="n">
         <v>72732.33199999997</v>
       </c>
     </row>
@@ -20757,7 +20802,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D223" s="21" t="n">
+      <c r="D223" s="24" t="n">
         <v>30309.77599999995</v>
       </c>
     </row>
@@ -23180,7 +23225,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D201" s="23" t="n">
+      <c r="D201" s="25" t="n">
         <v>-12112.78000000006</v>
       </c>
     </row>
@@ -25608,7 +25653,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D201" s="23" t="n">
+      <c r="D201" s="25" t="n">
         <v>-54535.33600000007</v>
       </c>
     </row>
@@ -27622,7 +27667,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D167" s="23" t="n">
+      <c r="D167" s="25" t="n">
         <v>-96957.89200000008</v>
       </c>
     </row>
@@ -29962,7 +30007,7 @@
           <t>SALDO del mese corrente</t>
         </is>
       </c>
-      <c r="D194" s="23" t="n">
+      <c r="D194" s="25" t="n">
         <v>-139380.4480000001</v>
       </c>
     </row>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -370,7 +370,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Saldo_riepilogo'!C1</f>
+              <f>'Saldo_riepilogo'!C2</f>
             </strRef>
           </tx>
           <spPr>
@@ -388,12 +388,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Saldo_riepilogo'!$A$1:$A$12</f>
+              <f>'Saldo_riepilogo'!$A$3:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Saldo_riepilogo'!$C$2:$C$13</f>
+              <f>'Saldo_riepilogo'!$C$3:$C$13</f>
             </numRef>
           </val>
         </ser>
@@ -402,7 +402,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Saldo_riepilogo'!D1</f>
+              <f>'Saldo_riepilogo'!D2</f>
             </strRef>
           </tx>
           <spPr>
@@ -420,12 +420,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Saldo_riepilogo'!$A$1:$A$12</f>
+              <f>'Saldo_riepilogo'!$A$3:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Saldo_riepilogo'!$D$2:$D$13</f>
+              <f>'Saldo_riepilogo'!$D$3:$D$13</f>
             </numRef>
           </val>
         </ser>
@@ -434,7 +434,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'Saldo_riepilogo'!E1</f>
+              <f>'Saldo_riepilogo'!E2</f>
             </strRef>
           </tx>
           <spPr>
@@ -452,12 +452,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Saldo_riepilogo'!$A$1:$A$12</f>
+              <f>'Saldo_riepilogo'!$A$3:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Saldo_riepilogo'!$E$2:$E$13</f>
+              <f>'Saldo_riepilogo'!$E$3:$E$13</f>
             </numRef>
           </val>
         </ser>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -563,7 +563,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>0</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>20</row>
       <rowOff>0</rowOff>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -35,7 +35,7 @@
     <numFmt numFmtId="166" formatCode="-#,##0.00€"/>
     <numFmt numFmtId="167" formatCode="#,## 0.00€"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -112,6 +112,12 @@
       <sz val="13"/>
     </font>
     <font>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <color rgb="00a81a1a"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <b val="1"/>
       <color rgb="00a81a1a"/>
@@ -184,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -255,16 +261,23 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,12 +401,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Saldo_riepilogo'!$A$3:$A$13</f>
+              <f>'Saldo_riepilogo'!$A$3:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Saldo_riepilogo'!$C$3:$C$13</f>
+              <f>'Saldo_riepilogo'!$C$3:$C$14</f>
             </numRef>
           </val>
         </ser>
@@ -420,12 +433,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Saldo_riepilogo'!$A$3:$A$13</f>
+              <f>'Saldo_riepilogo'!$A$3:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Saldo_riepilogo'!$D$3:$D$13</f>
+              <f>'Saldo_riepilogo'!$D$3:$D$14</f>
             </numRef>
           </val>
         </ser>
@@ -452,12 +465,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Saldo_riepilogo'!$A$3:$A$13</f>
+              <f>'Saldo_riepilogo'!$A$3:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Saldo_riepilogo'!$E$3:$E$13</f>
+              <f>'Saldo_riepilogo'!$E$3:$E$14</f>
             </numRef>
           </val>
         </ser>
@@ -563,7 +576,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>0</col>
       <colOff>0</colOff>
       <row>20</row>
       <rowOff>0</rowOff>
@@ -10232,7 +10245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10253,245 +10266,260 @@
           <t xml:space="preserve">Tabella Entrate - Uscite - Saldo di ogni mese </t>
         </is>
       </c>
-      <c r="B1" s="27" t="n"/>
-      <c r="C1" s="27" t="n"/>
-      <c r="D1" s="27" t="n"/>
-      <c r="E1" s="27" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="inlineStr">
+      <c r="A2" s="27" t="inlineStr">
         <is>
           <t>mese</t>
         </is>
       </c>
-      <c r="B2" s="29" t="inlineStr">
+      <c r="B2" s="28" t="inlineStr">
         <is>
           <t>saldo_iniziale</t>
         </is>
       </c>
-      <c r="C2" s="29" t="inlineStr">
+      <c r="C2" s="28" t="inlineStr">
         <is>
           <t>entrate_mese</t>
         </is>
       </c>
-      <c r="D2" s="29" t="inlineStr">
+      <c r="D2" s="28" t="inlineStr">
         <is>
           <t>uscite_mese</t>
         </is>
       </c>
-      <c r="E2" s="29" t="inlineStr">
+      <c r="E2" s="28" t="inlineStr">
         <is>
           <t>saldo_finale</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="inlineStr">
+      <c r="A3" s="28" t="inlineStr">
         <is>
           <t>gennaio</t>
         </is>
       </c>
-      <c r="B3" s="27" t="n">
+      <c r="B3" s="29" t="n">
         <v>200000</v>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="30" t="n">
         <v>102266.604</v>
       </c>
-      <c r="D3" s="27" t="n">
+      <c r="D3" s="30" t="n">
         <v>144689.16</v>
       </c>
-      <c r="E3" s="27" t="n">
+      <c r="E3" s="30" t="n">
         <v>157577.444</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="inlineStr">
+      <c r="A4" s="28" t="inlineStr">
         <is>
           <t>febbraio</t>
         </is>
       </c>
-      <c r="B4" s="27" t="n">
+      <c r="B4" s="30" t="n">
         <v>157577.444</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="30" t="n">
         <v>77543.88</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="30" t="n">
         <v>125645.94</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="30" t="n">
         <v>115154.888</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="inlineStr">
+      <c r="A5" s="28" t="inlineStr">
         <is>
           <t>marzo</t>
         </is>
       </c>
-      <c r="B5" s="27" t="n">
+      <c r="B5" s="30" t="n">
         <v>115154.888</v>
       </c>
-      <c r="C5" s="27" t="n">
+      <c r="C5" s="30" t="n">
         <v>77550.48999999999</v>
       </c>
-      <c r="D5" s="27" t="n">
+      <c r="D5" s="30" t="n">
         <v>133884.68</v>
       </c>
-      <c r="E5" s="27" t="n">
+      <c r="E5" s="30" t="n">
         <v>72732.33199999997</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="inlineStr">
+      <c r="A6" s="28" t="inlineStr">
         <is>
           <t>aprile</t>
         </is>
       </c>
-      <c r="B6" s="27" t="n">
+      <c r="B6" s="30" t="n">
         <v>72732.33199999997</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="30" t="n">
         <v>100705.39</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="30" t="n">
         <v>159744.75</v>
       </c>
-      <c r="E6" s="27" t="n">
+      <c r="E6" s="30" t="n">
         <v>30309.77599999995</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="inlineStr">
+      <c r="A7" s="28" t="inlineStr">
         <is>
           <t>maggio</t>
         </is>
       </c>
-      <c r="B7" s="27" t="n">
+      <c r="B7" s="30" t="n">
         <v>30309.77599999995</v>
       </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="30" t="n">
         <v>107413.59</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="30" t="n">
         <v>116295.29</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E7" s="31" t="n">
         <v>-12112.78000000006</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="inlineStr">
+      <c r="A8" s="28" t="inlineStr">
         <is>
           <t>giugno</t>
         </is>
       </c>
-      <c r="B8" s="27" t="n">
+      <c r="B8" s="31" t="n">
         <v>-12112.78000000006</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="30" t="n">
         <v>58442.47</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="30" t="n">
         <v>105490.53</v>
       </c>
-      <c r="E8" s="27" t="n">
+      <c r="E8" s="31" t="n">
         <v>-54535.33600000007</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="inlineStr">
+      <c r="A9" s="28" t="inlineStr">
         <is>
           <t>luglio</t>
         </is>
       </c>
-      <c r="B9" s="27" t="n">
+      <c r="B9" s="31" t="n">
         <v>-54535.33600000007</v>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="30" t="n">
         <v>59532.41</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="30" t="n">
         <v>62827.42</v>
       </c>
-      <c r="E9" s="27" t="n">
+      <c r="E9" s="31" t="n">
         <v>-96957.89200000008</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="inlineStr">
+      <c r="A10" s="28" t="inlineStr">
         <is>
           <t>agosto</t>
         </is>
       </c>
-      <c r="B10" s="27" t="n">
+      <c r="B10" s="31" t="n">
         <v>-96957.89200000008</v>
       </c>
-      <c r="C10" s="27" t="n">
+      <c r="C10" s="30" t="n">
         <v>66470.95</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="30" t="n">
         <v>95671.71000000002</v>
       </c>
-      <c r="E10" s="27" t="n">
+      <c r="E10" s="31" t="n">
         <v>-139380.4480000001</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29" t="inlineStr">
+      <c r="A11" s="28" t="inlineStr">
         <is>
           <t>settembre</t>
         </is>
       </c>
-      <c r="B11" s="27" t="n">
+      <c r="B11" s="31" t="n">
         <v>-139380.4480000001</v>
       </c>
-      <c r="C11" s="27" t="n">
+      <c r="C11" s="30" t="n">
         <v>78144.25999999999</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="30" t="n">
         <v>106408.65</v>
       </c>
-      <c r="E11" s="27" t="n">
+      <c r="E11" s="31" t="n">
         <v>-181803.0040000001</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="inlineStr">
+      <c r="A12" s="28" t="inlineStr">
         <is>
           <t>ottobre</t>
         </is>
       </c>
-      <c r="B12" s="27" t="n">
+      <c r="B12" s="31" t="n">
         <v>-181803.0040000001</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="30" t="n">
         <v>97706.60000000001</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="30" t="n">
         <v>133297.72</v>
       </c>
-      <c r="E12" s="27" t="n">
+      <c r="E12" s="31" t="n">
         <v>-224225.5600000001</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="inlineStr">
+      <c r="A13" s="28" t="inlineStr">
         <is>
           <t>novembre</t>
         </is>
       </c>
-      <c r="B13" s="27" t="n">
+      <c r="B13" s="31" t="n">
         <v>-224225.5600000001</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="30" t="n">
         <v>70497.86</v>
       </c>
-      <c r="D13" s="27" t="n">
+      <c r="D13" s="30" t="n">
         <v>98226.42000000001</v>
       </c>
-      <c r="E13" s="27" t="n">
+      <c r="E13" s="31" t="n">
         <v>-266648.1160000002</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="28" t="inlineStr">
+        <is>
+          <t>dicembre</t>
+        </is>
+      </c>
+      <c r="B14" s="31" t="n">
+        <v>-266648.1160000002</v>
+      </c>
+      <c r="C14" s="30" t="n">
+        <v>102393.39</v>
+      </c>
+      <c r="D14" s="30" t="n">
+        <v>151296.82</v>
+      </c>
+      <c r="E14" s="32" t="n">
+        <v>-309070.6720000001</v>
       </c>
     </row>
   </sheetData>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -268,7 +268,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -277,7 +277,7 @@
     <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -20,7 +20,9 @@
     <sheet name="ottobre" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="novembre" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="dicembre" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Saldo_riepilogo" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Tab_Entrate" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Tab_Uscite" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Saldo_riepilogo" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10240,6 +10242,60 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tabellone Entrate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tabellone Uscite</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -139,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -188,11 +188,29 @@
         <color rgb="004617F1"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -263,6 +281,9 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,8 +304,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Pandas" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -10247,7 +10269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10256,10 +10278,729 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="26" t="inlineStr">
         <is>
           <t>Tabellone Entrate</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="26" t="n"/>
+      <c r="B2" s="26" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="C2" s="26" t="inlineStr">
+        <is>
+          <t>febbraio</t>
+        </is>
+      </c>
+      <c r="D2" s="26" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="E2" s="26" t="inlineStr">
+        <is>
+          <t>aprile</t>
+        </is>
+      </c>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>maggio</t>
+        </is>
+      </c>
+      <c r="G2" s="26" t="inlineStr">
+        <is>
+          <t>giugno</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="inlineStr">
+        <is>
+          <t>luglio</t>
+        </is>
+      </c>
+      <c r="I2" s="26" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>settembre</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="inlineStr">
+        <is>
+          <t>ottobre</t>
+        </is>
+      </c>
+      <c r="L2" s="26" t="inlineStr">
+        <is>
+          <t>novembre</t>
+        </is>
+      </c>
+      <c r="M2" s="26" t="inlineStr">
+        <is>
+          <t>dicembre</t>
+        </is>
+      </c>
+      <c r="N2" s="26" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="26" t="inlineStr">
+        <is>
+          <t>Collette-Chiesa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4066.05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4247.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5041.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5839.45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3841.96</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2391.44</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3400.13</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4365.17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3990.58</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3392.04</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2414.51</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3086.29</v>
+      </c>
+      <c r="N4" t="n">
+        <v>46076.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="26" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8676.85</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6768.86</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9714.1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9460.09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9566.23</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5483.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5483.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5483.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5483.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5483.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5483.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8603.93</v>
+      </c>
+      <c r="N5" t="n">
+        <v>85688.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="26" t="inlineStr">
+        <is>
+          <t>Eccedenza Cassa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1737.78</v>
+      </c>
+      <c r="C6" t="n">
+        <v>191.63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>321.02</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2250.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>Interessi</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>171.96</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60.65</v>
+      </c>
+      <c r="E7" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="H7" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>629.71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="26" t="inlineStr">
+        <is>
+          <t>Messe celebrate</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10780</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10930</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10580</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11270</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10870</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11640</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11880</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12140</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12040</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11170</v>
+      </c>
+      <c r="M8" t="n">
+        <v>11290</v>
+      </c>
+      <c r="N8" t="n">
+        <v>134140</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="26" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>35640.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15126</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17658.82</v>
+      </c>
+      <c r="E9" t="n">
+        <v>30682.97</v>
+      </c>
+      <c r="F9" t="n">
+        <v>38756.93</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13729</v>
+      </c>
+      <c r="H9" t="n">
+        <v>18322</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13447</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20839.11</v>
+      </c>
+      <c r="K9" t="n">
+        <v>47738</v>
+      </c>
+      <c r="L9" t="n">
+        <v>15892</v>
+      </c>
+      <c r="M9" t="n">
+        <v>24622.91</v>
+      </c>
+      <c r="N9" t="n">
+        <v>292455.44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="26" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>19034</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17399</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16883</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16889</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17084</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14530</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11975</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12148</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12746</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12747</v>
+      </c>
+      <c r="L10" t="n">
+        <v>12748</v>
+      </c>
+      <c r="M10" t="n">
+        <v>24322</v>
+      </c>
+      <c r="N10" t="n">
+        <v>188505</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="26" t="inlineStr">
+        <is>
+          <t>Predicazione</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>150</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>150</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3340</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H11" t="n">
+        <v>280</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4090</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2250</v>
+      </c>
+      <c r="K11" t="n">
+        <v>660</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1780</v>
+      </c>
+      <c r="M11" t="n">
+        <v>270</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15080</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="26" t="inlineStr">
+        <is>
+          <t>Salute</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2965.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2167.61</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2041.91</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2328.89</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3318.57</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1451.49</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1394.77</v>
+      </c>
+      <c r="I12" t="n">
+        <v>453.99</v>
+      </c>
+      <c r="J12" t="n">
+        <v>900.5700000000001</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1546.76</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1809.17</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1447.61</v>
+      </c>
+      <c r="N12" t="n">
+        <v>21827.14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="26" t="inlineStr">
+        <is>
+          <t>Servizi religiosi</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6083</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4050</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5050</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8746</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8815</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3950</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2775</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3650</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3890</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4530</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5509</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7374</v>
+      </c>
+      <c r="N13" t="n">
+        <v>64422</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="26" t="inlineStr">
+        <is>
+          <t>Stipendi</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2843.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>953.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1095</v>
+      </c>
+      <c r="F14" t="n">
+        <v>950.9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>950</v>
+      </c>
+      <c r="H14" t="n">
+        <v>950</v>
+      </c>
+      <c r="I14" t="n">
+        <v>950</v>
+      </c>
+      <c r="J14" t="n">
+        <v>950</v>
+      </c>
+      <c r="K14" t="n">
+        <v>950</v>
+      </c>
+      <c r="L14" t="n">
+        <v>950</v>
+      </c>
+      <c r="M14" t="n">
+        <v>950</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12493.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="26" t="inlineStr">
+        <is>
+          <t>Sussidi</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>784.96</v>
+      </c>
+      <c r="C15" t="n">
+        <v>747.78</v>
+      </c>
+      <c r="D15" t="n">
+        <v>590.91</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1037.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5963.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>600</v>
+      </c>
+      <c r="H15" t="n">
+        <v>160.83</v>
+      </c>
+      <c r="I15" t="n">
+        <v>442.39</v>
+      </c>
+      <c r="J15" t="n">
+        <v>195</v>
+      </c>
+      <c r="K15" t="n">
+        <v>755</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1585.84</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2423.65</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15286.96</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="26" t="inlineStr">
+        <is>
+          <t>Vendite varie</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>12175.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14422</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8475.9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12753.89</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4506.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3037</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3096.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9561.299999999999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14759.9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7864.7</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11156.24</v>
+      </c>
+      <c r="M16" t="n">
+        <v>18003</v>
+      </c>
+      <c r="N16" t="n">
+        <v>119812.83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="26" t="inlineStr">
+        <is>
+          <t>TOTALE_Entrate</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>102266.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>77543.88</v>
+      </c>
+      <c r="D17" t="n">
+        <v>77550.49000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100705.39</v>
+      </c>
+      <c r="F17" t="n">
+        <v>107413.59</v>
+      </c>
+      <c r="G17" t="n">
+        <v>58442.47</v>
+      </c>
+      <c r="H17" t="n">
+        <v>59532.41</v>
+      </c>
+      <c r="I17" t="n">
+        <v>66470.95</v>
+      </c>
+      <c r="J17" t="n">
+        <v>78144.25999999999</v>
+      </c>
+      <c r="K17" t="n">
+        <v>97706.60000000001</v>
+      </c>
+      <c r="L17" t="n">
+        <v>70497.86</v>
+      </c>
+      <c r="M17" t="n">
+        <v>102393.39</v>
+      </c>
+      <c r="N17" t="n">
+        <v>998667.89</v>
       </c>
     </row>
   </sheetData>
@@ -10274,7 +11015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10283,10 +11024,1097 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="26" t="inlineStr">
         <is>
           <t>Tabellone Uscite</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="26" t="n"/>
+      <c r="B2" s="26" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="C2" s="26" t="inlineStr">
+        <is>
+          <t>febbraio</t>
+        </is>
+      </c>
+      <c r="D2" s="26" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="E2" s="26" t="inlineStr">
+        <is>
+          <t>aprile</t>
+        </is>
+      </c>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>maggio</t>
+        </is>
+      </c>
+      <c r="G2" s="26" t="inlineStr">
+        <is>
+          <t>giugno</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="inlineStr">
+        <is>
+          <t>luglio</t>
+        </is>
+      </c>
+      <c r="I2" s="26" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>settembre</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="inlineStr">
+        <is>
+          <t>ottobre</t>
+        </is>
+      </c>
+      <c r="L2" s="26" t="inlineStr">
+        <is>
+          <t>novembre</t>
+        </is>
+      </c>
+      <c r="M2" s="26" t="inlineStr">
+        <is>
+          <t>dicembre</t>
+        </is>
+      </c>
+      <c r="N2" s="26" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="26" t="inlineStr">
+        <is>
+          <t>Acquisti convento</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7189.83</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11132.43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10812.23</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7561.69</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7236.06</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12608.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6803.33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8087.47</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16440.48</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36914.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16465.63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7881.59</v>
+      </c>
+      <c r="N4" t="n">
+        <v>149133.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="26" t="inlineStr">
+        <is>
+          <t>Acquisti: Chiesa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>666.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>514.4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>822.16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1575.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>558</v>
+      </c>
+      <c r="G5" t="n">
+        <v>423.19</v>
+      </c>
+      <c r="H5" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1220</v>
+      </c>
+      <c r="J5" t="n">
+        <v>532.55</v>
+      </c>
+      <c r="K5" t="n">
+        <v>638</v>
+      </c>
+      <c r="L5" t="n">
+        <v>511.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>643.4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8226.950000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="26" t="inlineStr">
+        <is>
+          <t>Acquisti: Orto, Animali</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5318.39</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4624.14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6540.7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12311.94</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9302.24</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2670.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>902</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3377</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1606.66</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3510.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4585.74</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2371.75</v>
+      </c>
+      <c r="N6" t="n">
+        <v>57121.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4108.22</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5224.27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4475.29</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16217.53</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5519.43</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5967.48</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1668.89</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1460.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4597.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1305.26</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4815.7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2184.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>57544.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="26" t="inlineStr">
+        <is>
+          <t>Curia provinciale</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12434</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9951.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>300</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3800</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>32500</v>
+      </c>
+      <c r="N8" t="n">
+        <v>68985.89999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="26" t="inlineStr">
+        <is>
+          <t>Domestici</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>900</v>
+      </c>
+      <c r="C9" t="n">
+        <v>900</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1051.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>900</v>
+      </c>
+      <c r="F9" t="n">
+        <v>900</v>
+      </c>
+      <c r="G9" t="n">
+        <v>900</v>
+      </c>
+      <c r="H9" t="n">
+        <v>900</v>
+      </c>
+      <c r="I9" t="n">
+        <v>900</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1050</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3464.34</v>
+      </c>
+      <c r="M9" t="n">
+        <v>910</v>
+      </c>
+      <c r="N9" t="n">
+        <v>14575.94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="26" t="inlineStr">
+        <is>
+          <t>Elargizioni</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9285.6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7422</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4985</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9138.75</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4882</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3457.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5485.83</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6446</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12321</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11805.55</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2881.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8316</v>
+      </c>
+      <c r="N10" t="n">
+        <v>86427.13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="26" t="inlineStr">
+        <is>
+          <t>Energia Elettrica</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6881.51</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10108.87</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7098.32</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7836.31</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4419.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5830.61</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3132.44</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6354.92</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4133.14</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4897.45</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5759.79</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5976.35</v>
+      </c>
+      <c r="N11" t="n">
+        <v>72428.91</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="26" t="inlineStr">
+        <is>
+          <t>Ferie e Viaggi</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8066.67</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4589.21</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6580.56</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6866.58</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7697</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4040.23</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4296.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4399.31</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5266.77</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5543.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6795.87</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3340.15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>67482.14999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="26" t="inlineStr">
+        <is>
+          <t>Igiene</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>958.08</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1646.87</v>
+      </c>
+      <c r="D13" t="n">
+        <v>431.41</v>
+      </c>
+      <c r="E13" t="n">
+        <v>473.53</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1053.95</v>
+      </c>
+      <c r="G13" t="n">
+        <v>733.6799999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>811.91</v>
+      </c>
+      <c r="I13" t="n">
+        <v>786.3200000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1823.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1078.62</v>
+      </c>
+      <c r="L13" t="n">
+        <v>903.54</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1180.98</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11882.19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="26" t="inlineStr">
+        <is>
+          <t>Imposte</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2486.27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>292.27</v>
+      </c>
+      <c r="D14" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1141.86</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1243.42</v>
+      </c>
+      <c r="G14" t="n">
+        <v>779.17</v>
+      </c>
+      <c r="H14" t="n">
+        <v>824.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2331.03</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1165.19</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1501.65</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13097.69</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="26" t="inlineStr">
+        <is>
+          <t>Lavori e Impianti</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14150</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25997</v>
+      </c>
+      <c r="D15" t="n">
+        <v>35216.62</v>
+      </c>
+      <c r="E15" t="n">
+        <v>35690</v>
+      </c>
+      <c r="F15" t="n">
+        <v>34755.24</v>
+      </c>
+      <c r="G15" t="n">
+        <v>24462.74</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9150</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13130</v>
+      </c>
+      <c r="J15" t="n">
+        <v>17796</v>
+      </c>
+      <c r="K15" t="n">
+        <v>830</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2520</v>
+      </c>
+      <c r="M15" t="n">
+        <v>41650</v>
+      </c>
+      <c r="N15" t="n">
+        <v>255347.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="26" t="inlineStr">
+        <is>
+          <t>Posta e Cancelleria</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="26" t="inlineStr">
+        <is>
+          <t>Posta e cancelleria</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>237</v>
+      </c>
+      <c r="C17" t="n">
+        <v>463.06</v>
+      </c>
+      <c r="D17" t="n">
+        <v>538.02</v>
+      </c>
+      <c r="E17" t="n">
+        <v>541.34</v>
+      </c>
+      <c r="F17" t="n">
+        <v>257.15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>181.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>968.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>367.62</v>
+      </c>
+      <c r="M17" t="n">
+        <v>508.33</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5569.92</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="26" t="inlineStr">
+        <is>
+          <t>Rimborsi</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>34641.83</v>
+      </c>
+      <c r="C18" t="n">
+        <v>22531.9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3651.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>29294.95</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15202.6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>23672.69</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9779.950000000001</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20813.73</v>
+      </c>
+      <c r="J18" t="n">
+        <v>17228.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>23562.94</v>
+      </c>
+      <c r="L18" t="n">
+        <v>20955.54</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2347.94</v>
+      </c>
+      <c r="N18" t="n">
+        <v>223684.32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="26" t="inlineStr">
+        <is>
+          <t>Riscaldamento</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>14559.79</v>
+      </c>
+      <c r="C19" t="n">
+        <v>648</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18471.51</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8488.77</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5055.31</v>
+      </c>
+      <c r="G19" t="n">
+        <v>484.93</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2495.29</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1744.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9767.200000000001</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6262.89</v>
+      </c>
+      <c r="M19" t="n">
+        <v>648.99</v>
+      </c>
+      <c r="N19" t="n">
+        <v>68627.17999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="26" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>441.22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2741.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2649.78</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3109</v>
+      </c>
+      <c r="F20" t="n">
+        <v>160</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2497.72</v>
+      </c>
+      <c r="H20" t="n">
+        <v>30</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3637.22</v>
+      </c>
+      <c r="J20" t="n">
+        <v>811.0700000000001</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2235.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>238.57</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2080.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>20632.08</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="26" t="inlineStr">
+        <is>
+          <t>Veicoli a Motore</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1174</v>
+      </c>
+      <c r="C21" t="n">
+        <v>497</v>
+      </c>
+      <c r="D21" t="n">
+        <v>936</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1482.28</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4089.28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="26" t="inlineStr">
+        <is>
+          <t>Veicoli a motore</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7951.44</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2467.25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2168.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2133</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6192.43</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6581.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10157.94</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3540</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3978.62</v>
+      </c>
+      <c r="K22" t="n">
+        <v>17929.68</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10520.3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>23721.92</v>
+      </c>
+      <c r="N22" t="n">
+        <v>97342.58</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="26" t="inlineStr">
+        <is>
+          <t>Vestiario</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>483.3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>883.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>409.17</v>
+      </c>
+      <c r="E23" t="n">
+        <v>536.55</v>
+      </c>
+      <c r="F23" t="n">
+        <v>529.1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1082.38</v>
+      </c>
+      <c r="H23" t="n">
+        <v>300.8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>412.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1475</v>
+      </c>
+      <c r="K23" t="n">
+        <v>218.7</v>
+      </c>
+      <c r="L23" t="n">
+        <v>540.4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>256.7</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7128</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="26" t="inlineStr">
+        <is>
+          <t>Vitto</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>12753.51</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12962.27</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16998.18</v>
+      </c>
+      <c r="E24" t="n">
+        <v>14145.17</v>
+      </c>
+      <c r="F24" t="n">
+        <v>11332.16</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9092.51</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8280.43</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13413.55</v>
+      </c>
+      <c r="J24" t="n">
+        <v>12303.48</v>
+      </c>
+      <c r="K24" t="n">
+        <v>10119.62</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9472.049999999999</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13276.56</v>
+      </c>
+      <c r="N24" t="n">
+        <v>144149.49</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="26" t="inlineStr">
+        <is>
+          <t>TOTALE_Uscite</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>144689.16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>125645.94</v>
+      </c>
+      <c r="D25" t="n">
+        <v>133884.68</v>
+      </c>
+      <c r="E25" t="n">
+        <v>159744.75</v>
+      </c>
+      <c r="F25" t="n">
+        <v>116295.29</v>
+      </c>
+      <c r="G25" t="n">
+        <v>105490.53</v>
+      </c>
+      <c r="H25" t="n">
+        <v>62827.42</v>
+      </c>
+      <c r="I25" t="n">
+        <v>95671.71000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>106408.65</v>
+      </c>
+      <c r="K25" t="n">
+        <v>133297.72</v>
+      </c>
+      <c r="L25" t="n">
+        <v>98226.42</v>
+      </c>
+      <c r="M25" t="n">
+        <v>151296.82</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1433479.09</v>
       </c>
     </row>
   </sheetData>
@@ -10317,264 +12145,264 @@
   </cols>
   <sheetData>
     <row r="1" ht="100" customHeight="1">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabella Entrate - Uscite - Saldo di ogni mese </t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="27" t="inlineStr">
+      <c r="A2" s="28" t="inlineStr">
         <is>
           <t>mese</t>
         </is>
       </c>
-      <c r="B2" s="28" t="inlineStr">
+      <c r="B2" s="29" t="inlineStr">
         <is>
           <t>saldo_iniziale</t>
         </is>
       </c>
-      <c r="C2" s="28" t="inlineStr">
+      <c r="C2" s="29" t="inlineStr">
         <is>
           <t>entrate_mese</t>
         </is>
       </c>
-      <c r="D2" s="28" t="inlineStr">
+      <c r="D2" s="29" t="inlineStr">
         <is>
           <t>uscite_mese</t>
         </is>
       </c>
-      <c r="E2" s="28" t="inlineStr">
+      <c r="E2" s="29" t="inlineStr">
         <is>
           <t>saldo_finale</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="28" t="inlineStr">
+      <c r="A3" s="29" t="inlineStr">
         <is>
           <t>gennaio</t>
         </is>
       </c>
-      <c r="B3" s="29" t="n">
+      <c r="B3" s="30" t="n">
         <v>200000</v>
       </c>
-      <c r="C3" s="30" t="n">
+      <c r="C3" s="31" t="n">
         <v>102266.604</v>
       </c>
-      <c r="D3" s="30" t="n">
+      <c r="D3" s="31" t="n">
         <v>144689.16</v>
       </c>
-      <c r="E3" s="30" t="n">
+      <c r="E3" s="31" t="n">
         <v>157577.444</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="28" t="inlineStr">
+      <c r="A4" s="29" t="inlineStr">
         <is>
           <t>febbraio</t>
         </is>
       </c>
-      <c r="B4" s="30" t="n">
+      <c r="B4" s="31" t="n">
         <v>157577.444</v>
       </c>
-      <c r="C4" s="30" t="n">
+      <c r="C4" s="31" t="n">
         <v>77543.88</v>
       </c>
-      <c r="D4" s="30" t="n">
+      <c r="D4" s="31" t="n">
         <v>125645.94</v>
       </c>
-      <c r="E4" s="30" t="n">
+      <c r="E4" s="31" t="n">
         <v>115154.888</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="28" t="inlineStr">
+      <c r="A5" s="29" t="inlineStr">
         <is>
           <t>marzo</t>
         </is>
       </c>
-      <c r="B5" s="30" t="n">
+      <c r="B5" s="31" t="n">
         <v>115154.888</v>
       </c>
-      <c r="C5" s="30" t="n">
+      <c r="C5" s="31" t="n">
         <v>77550.48999999999</v>
       </c>
-      <c r="D5" s="30" t="n">
+      <c r="D5" s="31" t="n">
         <v>133884.68</v>
       </c>
-      <c r="E5" s="30" t="n">
+      <c r="E5" s="31" t="n">
         <v>72732.33199999997</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="inlineStr">
+      <c r="A6" s="29" t="inlineStr">
         <is>
           <t>aprile</t>
         </is>
       </c>
-      <c r="B6" s="30" t="n">
+      <c r="B6" s="31" t="n">
         <v>72732.33199999997</v>
       </c>
-      <c r="C6" s="30" t="n">
+      <c r="C6" s="31" t="n">
         <v>100705.39</v>
       </c>
-      <c r="D6" s="30" t="n">
+      <c r="D6" s="31" t="n">
         <v>159744.75</v>
       </c>
-      <c r="E6" s="30" t="n">
+      <c r="E6" s="31" t="n">
         <v>30309.77599999995</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="28" t="inlineStr">
+      <c r="A7" s="29" t="inlineStr">
         <is>
           <t>maggio</t>
         </is>
       </c>
-      <c r="B7" s="30" t="n">
+      <c r="B7" s="31" t="n">
         <v>30309.77599999995</v>
       </c>
-      <c r="C7" s="30" t="n">
+      <c r="C7" s="31" t="n">
         <v>107413.59</v>
       </c>
-      <c r="D7" s="30" t="n">
+      <c r="D7" s="31" t="n">
         <v>116295.29</v>
       </c>
-      <c r="E7" s="31" t="n">
+      <c r="E7" s="32" t="n">
         <v>-12112.78000000006</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="inlineStr">
+      <c r="A8" s="29" t="inlineStr">
         <is>
           <t>giugno</t>
         </is>
       </c>
-      <c r="B8" s="31" t="n">
+      <c r="B8" s="32" t="n">
         <v>-12112.78000000006</v>
       </c>
-      <c r="C8" s="30" t="n">
+      <c r="C8" s="31" t="n">
         <v>58442.47</v>
       </c>
-      <c r="D8" s="30" t="n">
+      <c r="D8" s="31" t="n">
         <v>105490.53</v>
       </c>
-      <c r="E8" s="31" t="n">
+      <c r="E8" s="32" t="n">
         <v>-54535.33600000007</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="28" t="inlineStr">
+      <c r="A9" s="29" t="inlineStr">
         <is>
           <t>luglio</t>
         </is>
       </c>
-      <c r="B9" s="31" t="n">
+      <c r="B9" s="32" t="n">
         <v>-54535.33600000007</v>
       </c>
-      <c r="C9" s="30" t="n">
+      <c r="C9" s="31" t="n">
         <v>59532.41</v>
       </c>
-      <c r="D9" s="30" t="n">
+      <c r="D9" s="31" t="n">
         <v>62827.42</v>
       </c>
-      <c r="E9" s="31" t="n">
+      <c r="E9" s="32" t="n">
         <v>-96957.89200000008</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="28" t="inlineStr">
+      <c r="A10" s="29" t="inlineStr">
         <is>
           <t>agosto</t>
         </is>
       </c>
-      <c r="B10" s="31" t="n">
+      <c r="B10" s="32" t="n">
         <v>-96957.89200000008</v>
       </c>
-      <c r="C10" s="30" t="n">
+      <c r="C10" s="31" t="n">
         <v>66470.95</v>
       </c>
-      <c r="D10" s="30" t="n">
+      <c r="D10" s="31" t="n">
         <v>95671.71000000002</v>
       </c>
-      <c r="E10" s="31" t="n">
+      <c r="E10" s="32" t="n">
         <v>-139380.4480000001</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="28" t="inlineStr">
+      <c r="A11" s="29" t="inlineStr">
         <is>
           <t>settembre</t>
         </is>
       </c>
-      <c r="B11" s="31" t="n">
+      <c r="B11" s="32" t="n">
         <v>-139380.4480000001</v>
       </c>
-      <c r="C11" s="30" t="n">
+      <c r="C11" s="31" t="n">
         <v>78144.25999999999</v>
       </c>
-      <c r="D11" s="30" t="n">
+      <c r="D11" s="31" t="n">
         <v>106408.65</v>
       </c>
-      <c r="E11" s="31" t="n">
+      <c r="E11" s="32" t="n">
         <v>-181803.0040000001</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="28" t="inlineStr">
+      <c r="A12" s="29" t="inlineStr">
         <is>
           <t>ottobre</t>
         </is>
       </c>
-      <c r="B12" s="31" t="n">
+      <c r="B12" s="32" t="n">
         <v>-181803.0040000001</v>
       </c>
-      <c r="C12" s="30" t="n">
+      <c r="C12" s="31" t="n">
         <v>97706.60000000001</v>
       </c>
-      <c r="D12" s="30" t="n">
+      <c r="D12" s="31" t="n">
         <v>133297.72</v>
       </c>
-      <c r="E12" s="31" t="n">
+      <c r="E12" s="32" t="n">
         <v>-224225.5600000001</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="28" t="inlineStr">
+      <c r="A13" s="29" t="inlineStr">
         <is>
           <t>novembre</t>
         </is>
       </c>
-      <c r="B13" s="31" t="n">
+      <c r="B13" s="32" t="n">
         <v>-224225.5600000001</v>
       </c>
-      <c r="C13" s="30" t="n">
+      <c r="C13" s="31" t="n">
         <v>70497.86</v>
       </c>
-      <c r="D13" s="30" t="n">
+      <c r="D13" s="31" t="n">
         <v>98226.42000000001</v>
       </c>
-      <c r="E13" s="31" t="n">
+      <c r="E13" s="32" t="n">
         <v>-266648.1160000002</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="28" t="inlineStr">
+      <c r="A14" s="29" t="inlineStr">
         <is>
           <t>dicembre</t>
         </is>
       </c>
-      <c r="B14" s="31" t="n">
+      <c r="B14" s="32" t="n">
         <v>-266648.1160000002</v>
       </c>
-      <c r="C14" s="30" t="n">
+      <c r="C14" s="31" t="n">
         <v>102393.39</v>
       </c>
-      <c r="D14" s="30" t="n">
+      <c r="D14" s="31" t="n">
         <v>151296.82</v>
       </c>
-      <c r="E14" s="32" t="n">
+      <c r="E14" s="33" t="n">
         <v>-309070.6720000001</v>
       </c>
     </row>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -37,7 +37,7 @@
     <numFmt numFmtId="166" formatCode="-#,##0.00€"/>
     <numFmt numFmtId="167" formatCode="#,## 0.00€"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -106,6 +106,18 @@
     <font>
       <b val="1"/>
       <sz val="15"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="80"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="40"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -210,7 +222,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -281,26 +293,29 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10276,91 +10291,105 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="18" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="70" customHeight="1">
       <c r="A1" s="26" t="inlineStr">
         <is>
           <t>Tabellone Entrate</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="26" t="n"/>
-      <c r="B2" s="26" t="inlineStr">
+    <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="27" t="n"/>
+      <c r="B2" s="27" t="inlineStr">
         <is>
           <t>gennaio</t>
         </is>
       </c>
-      <c r="C2" s="26" t="inlineStr">
+      <c r="C2" s="27" t="inlineStr">
         <is>
           <t>febbraio</t>
         </is>
       </c>
-      <c r="D2" s="26" t="inlineStr">
+      <c r="D2" s="27" t="inlineStr">
         <is>
           <t>marzo</t>
         </is>
       </c>
-      <c r="E2" s="26" t="inlineStr">
+      <c r="E2" s="27" t="inlineStr">
         <is>
           <t>aprile</t>
         </is>
       </c>
-      <c r="F2" s="26" t="inlineStr">
+      <c r="F2" s="27" t="inlineStr">
         <is>
           <t>maggio</t>
         </is>
       </c>
-      <c r="G2" s="26" t="inlineStr">
+      <c r="G2" s="27" t="inlineStr">
         <is>
           <t>giugno</t>
         </is>
       </c>
-      <c r="H2" s="26" t="inlineStr">
+      <c r="H2" s="27" t="inlineStr">
         <is>
           <t>luglio</t>
         </is>
       </c>
-      <c r="I2" s="26" t="inlineStr">
+      <c r="I2" s="27" t="inlineStr">
         <is>
           <t>agosto</t>
         </is>
       </c>
-      <c r="J2" s="26" t="inlineStr">
+      <c r="J2" s="27" t="inlineStr">
         <is>
           <t>settembre</t>
         </is>
       </c>
-      <c r="K2" s="26" t="inlineStr">
+      <c r="K2" s="27" t="inlineStr">
         <is>
           <t>ottobre</t>
         </is>
       </c>
-      <c r="L2" s="26" t="inlineStr">
+      <c r="L2" s="27" t="inlineStr">
         <is>
           <t>novembre</t>
         </is>
       </c>
-      <c r="M2" s="26" t="inlineStr">
+      <c r="M2" s="27" t="inlineStr">
         <is>
           <t>dicembre</t>
         </is>
       </c>
-      <c r="N2" s="26" t="inlineStr">
+      <c r="N2" s="27" t="inlineStr">
         <is>
           <t>TOTALE_Entrate</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="26" t="inlineStr">
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="26" t="inlineStr">
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="27" t="inlineStr">
         <is>
           <t>Collette-Chiesa</t>
         </is>
@@ -10405,8 +10434,8 @@
         <v>46076.22</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="26" t="inlineStr">
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="27" t="inlineStr">
         <is>
           <t>Congrua</t>
         </is>
@@ -10451,8 +10480,8 @@
         <v>85688.66</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="26" t="inlineStr">
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="27" t="inlineStr">
         <is>
           <t>Eccedenza Cassa</t>
         </is>
@@ -10497,8 +10526,8 @@
         <v>2250.43</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="26" t="inlineStr">
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="27" t="inlineStr">
         <is>
           <t>Interessi</t>
         </is>
@@ -10543,8 +10572,8 @@
         <v>629.71</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="26" t="inlineStr">
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="27" t="inlineStr">
         <is>
           <t>Messe celebrate</t>
         </is>
@@ -10589,8 +10618,8 @@
         <v>134140</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="26" t="inlineStr">
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="27" t="inlineStr">
         <is>
           <t>Offerte</t>
         </is>
@@ -10635,8 +10664,8 @@
         <v>292455.44</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="26" t="inlineStr">
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="27" t="inlineStr">
         <is>
           <t>Pensioni</t>
         </is>
@@ -10681,8 +10710,8 @@
         <v>188505</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="26" t="inlineStr">
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="27" t="inlineStr">
         <is>
           <t>Predicazione</t>
         </is>
@@ -10727,8 +10756,8 @@
         <v>15080</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="26" t="inlineStr">
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="27" t="inlineStr">
         <is>
           <t>Salute</t>
         </is>
@@ -10773,8 +10802,8 @@
         <v>21827.14</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="26" t="inlineStr">
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="27" t="inlineStr">
         <is>
           <t>Servizi religiosi</t>
         </is>
@@ -10819,8 +10848,8 @@
         <v>64422</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="26" t="inlineStr">
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="27" t="inlineStr">
         <is>
           <t>Stipendi</t>
         </is>
@@ -10865,8 +10894,8 @@
         <v>12493.5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="26" t="inlineStr">
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="27" t="inlineStr">
         <is>
           <t>Sussidi</t>
         </is>
@@ -10911,8 +10940,8 @@
         <v>15286.96</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="26" t="inlineStr">
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="27" t="inlineStr">
         <is>
           <t>Vendite varie</t>
         </is>
@@ -10957,8 +10986,8 @@
         <v>119812.83</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="26" t="inlineStr">
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="27" t="inlineStr">
         <is>
           <t>TOTALE_Entrate</t>
         </is>
@@ -11003,7 +11032,12 @@
         <v>998667.89</v>
       </c>
     </row>
+    <row r="18" ht="20" customHeight="1"/>
+    <row r="19" ht="20" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" paperSize="5"/>
 </worksheet>
@@ -11024,89 +11058,89 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>Tabellone Uscite</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="n"/>
-      <c r="B2" s="26" t="inlineStr">
+      <c r="A2" s="27" t="n"/>
+      <c r="B2" s="27" t="inlineStr">
         <is>
           <t>gennaio</t>
         </is>
       </c>
-      <c r="C2" s="26" t="inlineStr">
+      <c r="C2" s="27" t="inlineStr">
         <is>
           <t>febbraio</t>
         </is>
       </c>
-      <c r="D2" s="26" t="inlineStr">
+      <c r="D2" s="27" t="inlineStr">
         <is>
           <t>marzo</t>
         </is>
       </c>
-      <c r="E2" s="26" t="inlineStr">
+      <c r="E2" s="27" t="inlineStr">
         <is>
           <t>aprile</t>
         </is>
       </c>
-      <c r="F2" s="26" t="inlineStr">
+      <c r="F2" s="27" t="inlineStr">
         <is>
           <t>maggio</t>
         </is>
       </c>
-      <c r="G2" s="26" t="inlineStr">
+      <c r="G2" s="27" t="inlineStr">
         <is>
           <t>giugno</t>
         </is>
       </c>
-      <c r="H2" s="26" t="inlineStr">
+      <c r="H2" s="27" t="inlineStr">
         <is>
           <t>luglio</t>
         </is>
       </c>
-      <c r="I2" s="26" t="inlineStr">
+      <c r="I2" s="27" t="inlineStr">
         <is>
           <t>agosto</t>
         </is>
       </c>
-      <c r="J2" s="26" t="inlineStr">
+      <c r="J2" s="27" t="inlineStr">
         <is>
           <t>settembre</t>
         </is>
       </c>
-      <c r="K2" s="26" t="inlineStr">
+      <c r="K2" s="27" t="inlineStr">
         <is>
           <t>ottobre</t>
         </is>
       </c>
-      <c r="L2" s="26" t="inlineStr">
+      <c r="L2" s="27" t="inlineStr">
         <is>
           <t>novembre</t>
         </is>
       </c>
-      <c r="M2" s="26" t="inlineStr">
+      <c r="M2" s="27" t="inlineStr">
         <is>
           <t>dicembre</t>
         </is>
       </c>
-      <c r="N2" s="26" t="inlineStr">
+      <c r="N2" s="27" t="inlineStr">
         <is>
           <t>TOTALE_Uscite</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="inlineStr">
+      <c r="A4" s="27" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
@@ -11152,7 +11186,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="26" t="inlineStr">
+      <c r="A5" s="27" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
         </is>
@@ -11198,7 +11232,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="26" t="inlineStr">
+      <c r="A6" s="27" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
@@ -11244,7 +11278,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="26" t="inlineStr">
+      <c r="A7" s="27" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
@@ -11290,7 +11324,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="26" t="inlineStr">
+      <c r="A8" s="27" t="inlineStr">
         <is>
           <t>Curia provinciale</t>
         </is>
@@ -11336,7 +11370,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="26" t="inlineStr">
+      <c r="A9" s="27" t="inlineStr">
         <is>
           <t>Domestici</t>
         </is>
@@ -11382,7 +11416,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="26" t="inlineStr">
+      <c r="A10" s="27" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
@@ -11428,7 +11462,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="26" t="inlineStr">
+      <c r="A11" s="27" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
         </is>
@@ -11474,7 +11508,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="26" t="inlineStr">
+      <c r="A12" s="27" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
@@ -11520,7 +11554,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="26" t="inlineStr">
+      <c r="A13" s="27" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
@@ -11566,7 +11600,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="26" t="inlineStr">
+      <c r="A14" s="27" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
@@ -11612,7 +11646,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="26" t="inlineStr">
+      <c r="A15" s="27" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
         </is>
@@ -11658,7 +11692,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="26" t="inlineStr">
+      <c r="A16" s="27" t="inlineStr">
         <is>
           <t>Posta e Cancelleria</t>
         </is>
@@ -11704,7 +11738,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="26" t="inlineStr">
+      <c r="A17" s="27" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
         </is>
@@ -11750,7 +11784,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="26" t="inlineStr">
+      <c r="A18" s="27" t="inlineStr">
         <is>
           <t>Rimborsi</t>
         </is>
@@ -11796,7 +11830,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="26" t="inlineStr">
+      <c r="A19" s="27" t="inlineStr">
         <is>
           <t>Riscaldamento</t>
         </is>
@@ -11842,7 +11876,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="26" t="inlineStr">
+      <c r="A20" s="27" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
@@ -11888,7 +11922,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="26" t="inlineStr">
+      <c r="A21" s="27" t="inlineStr">
         <is>
           <t>Veicoli a Motore</t>
         </is>
@@ -11934,7 +11968,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="26" t="inlineStr">
+      <c r="A22" s="27" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
@@ -11980,7 +12014,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="26" t="inlineStr">
+      <c r="A23" s="27" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
@@ -12026,7 +12060,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="26" t="inlineStr">
+      <c r="A24" s="27" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
@@ -12072,7 +12106,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="26" t="inlineStr">
+      <c r="A25" s="27" t="inlineStr">
         <is>
           <t>TOTALE_Uscite</t>
         </is>
@@ -12145,264 +12179,264 @@
   </cols>
   <sheetData>
     <row r="1" ht="100" customHeight="1">
-      <c r="A1" s="27" t="inlineStr">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabella Entrate - Uscite - Saldo di ogni mese </t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="inlineStr">
+      <c r="A2" s="29" t="inlineStr">
         <is>
           <t>mese</t>
         </is>
       </c>
-      <c r="B2" s="29" t="inlineStr">
+      <c r="B2" s="30" t="inlineStr">
         <is>
           <t>saldo_iniziale</t>
         </is>
       </c>
-      <c r="C2" s="29" t="inlineStr">
+      <c r="C2" s="30" t="inlineStr">
         <is>
           <t>entrate_mese</t>
         </is>
       </c>
-      <c r="D2" s="29" t="inlineStr">
+      <c r="D2" s="30" t="inlineStr">
         <is>
           <t>uscite_mese</t>
         </is>
       </c>
-      <c r="E2" s="29" t="inlineStr">
+      <c r="E2" s="30" t="inlineStr">
         <is>
           <t>saldo_finale</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="inlineStr">
+      <c r="A3" s="30" t="inlineStr">
         <is>
           <t>gennaio</t>
         </is>
       </c>
-      <c r="B3" s="30" t="n">
+      <c r="B3" s="31" t="n">
         <v>200000</v>
       </c>
-      <c r="C3" s="31" t="n">
+      <c r="C3" s="32" t="n">
         <v>102266.604</v>
       </c>
-      <c r="D3" s="31" t="n">
+      <c r="D3" s="32" t="n">
         <v>144689.16</v>
       </c>
-      <c r="E3" s="31" t="n">
+      <c r="E3" s="32" t="n">
         <v>157577.444</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="inlineStr">
+      <c r="A4" s="30" t="inlineStr">
         <is>
           <t>febbraio</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n">
+      <c r="B4" s="32" t="n">
         <v>157577.444</v>
       </c>
-      <c r="C4" s="31" t="n">
+      <c r="C4" s="32" t="n">
         <v>77543.88</v>
       </c>
-      <c r="D4" s="31" t="n">
+      <c r="D4" s="32" t="n">
         <v>125645.94</v>
       </c>
-      <c r="E4" s="31" t="n">
+      <c r="E4" s="32" t="n">
         <v>115154.888</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="inlineStr">
+      <c r="A5" s="30" t="inlineStr">
         <is>
           <t>marzo</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n">
+      <c r="B5" s="32" t="n">
         <v>115154.888</v>
       </c>
-      <c r="C5" s="31" t="n">
+      <c r="C5" s="32" t="n">
         <v>77550.48999999999</v>
       </c>
-      <c r="D5" s="31" t="n">
+      <c r="D5" s="32" t="n">
         <v>133884.68</v>
       </c>
-      <c r="E5" s="31" t="n">
+      <c r="E5" s="32" t="n">
         <v>72732.33199999997</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="inlineStr">
+      <c r="A6" s="30" t="inlineStr">
         <is>
           <t>aprile</t>
         </is>
       </c>
-      <c r="B6" s="31" t="n">
+      <c r="B6" s="32" t="n">
         <v>72732.33199999997</v>
       </c>
-      <c r="C6" s="31" t="n">
+      <c r="C6" s="32" t="n">
         <v>100705.39</v>
       </c>
-      <c r="D6" s="31" t="n">
+      <c r="D6" s="32" t="n">
         <v>159744.75</v>
       </c>
-      <c r="E6" s="31" t="n">
+      <c r="E6" s="32" t="n">
         <v>30309.77599999995</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="inlineStr">
+      <c r="A7" s="30" t="inlineStr">
         <is>
           <t>maggio</t>
         </is>
       </c>
-      <c r="B7" s="31" t="n">
+      <c r="B7" s="32" t="n">
         <v>30309.77599999995</v>
       </c>
-      <c r="C7" s="31" t="n">
+      <c r="C7" s="32" t="n">
         <v>107413.59</v>
       </c>
-      <c r="D7" s="31" t="n">
+      <c r="D7" s="32" t="n">
         <v>116295.29</v>
       </c>
-      <c r="E7" s="32" t="n">
+      <c r="E7" s="33" t="n">
         <v>-12112.78000000006</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="inlineStr">
+      <c r="A8" s="30" t="inlineStr">
         <is>
           <t>giugno</t>
         </is>
       </c>
-      <c r="B8" s="32" t="n">
+      <c r="B8" s="33" t="n">
         <v>-12112.78000000006</v>
       </c>
-      <c r="C8" s="31" t="n">
+      <c r="C8" s="32" t="n">
         <v>58442.47</v>
       </c>
-      <c r="D8" s="31" t="n">
+      <c r="D8" s="32" t="n">
         <v>105490.53</v>
       </c>
-      <c r="E8" s="32" t="n">
+      <c r="E8" s="33" t="n">
         <v>-54535.33600000007</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="inlineStr">
+      <c r="A9" s="30" t="inlineStr">
         <is>
           <t>luglio</t>
         </is>
       </c>
-      <c r="B9" s="32" t="n">
+      <c r="B9" s="33" t="n">
         <v>-54535.33600000007</v>
       </c>
-      <c r="C9" s="31" t="n">
+      <c r="C9" s="32" t="n">
         <v>59532.41</v>
       </c>
-      <c r="D9" s="31" t="n">
+      <c r="D9" s="32" t="n">
         <v>62827.42</v>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="E9" s="33" t="n">
         <v>-96957.89200000008</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="inlineStr">
+      <c r="A10" s="30" t="inlineStr">
         <is>
           <t>agosto</t>
         </is>
       </c>
-      <c r="B10" s="32" t="n">
+      <c r="B10" s="33" t="n">
         <v>-96957.89200000008</v>
       </c>
-      <c r="C10" s="31" t="n">
+      <c r="C10" s="32" t="n">
         <v>66470.95</v>
       </c>
-      <c r="D10" s="31" t="n">
+      <c r="D10" s="32" t="n">
         <v>95671.71000000002</v>
       </c>
-      <c r="E10" s="32" t="n">
+      <c r="E10" s="33" t="n">
         <v>-139380.4480000001</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29" t="inlineStr">
+      <c r="A11" s="30" t="inlineStr">
         <is>
           <t>settembre</t>
         </is>
       </c>
-      <c r="B11" s="32" t="n">
+      <c r="B11" s="33" t="n">
         <v>-139380.4480000001</v>
       </c>
-      <c r="C11" s="31" t="n">
+      <c r="C11" s="32" t="n">
         <v>78144.25999999999</v>
       </c>
-      <c r="D11" s="31" t="n">
+      <c r="D11" s="32" t="n">
         <v>106408.65</v>
       </c>
-      <c r="E11" s="32" t="n">
+      <c r="E11" s="33" t="n">
         <v>-181803.0040000001</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="inlineStr">
+      <c r="A12" s="30" t="inlineStr">
         <is>
           <t>ottobre</t>
         </is>
       </c>
-      <c r="B12" s="32" t="n">
+      <c r="B12" s="33" t="n">
         <v>-181803.0040000001</v>
       </c>
-      <c r="C12" s="31" t="n">
+      <c r="C12" s="32" t="n">
         <v>97706.60000000001</v>
       </c>
-      <c r="D12" s="31" t="n">
+      <c r="D12" s="32" t="n">
         <v>133297.72</v>
       </c>
-      <c r="E12" s="32" t="n">
+      <c r="E12" s="33" t="n">
         <v>-224225.5600000001</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="inlineStr">
+      <c r="A13" s="30" t="inlineStr">
         <is>
           <t>novembre</t>
         </is>
       </c>
-      <c r="B13" s="32" t="n">
+      <c r="B13" s="33" t="n">
         <v>-224225.5600000001</v>
       </c>
-      <c r="C13" s="31" t="n">
+      <c r="C13" s="32" t="n">
         <v>70497.86</v>
       </c>
-      <c r="D13" s="31" t="n">
+      <c r="D13" s="32" t="n">
         <v>98226.42000000001</v>
       </c>
-      <c r="E13" s="32" t="n">
+      <c r="E13" s="33" t="n">
         <v>-266648.1160000002</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="29" t="inlineStr">
+      <c r="A14" s="30" t="inlineStr">
         <is>
           <t>dicembre</t>
         </is>
       </c>
-      <c r="B14" s="32" t="n">
+      <c r="B14" s="33" t="n">
         <v>-266648.1160000002</v>
       </c>
-      <c r="C14" s="31" t="n">
+      <c r="C14" s="32" t="n">
         <v>102393.39</v>
       </c>
-      <c r="D14" s="31" t="n">
+      <c r="D14" s="32" t="n">
         <v>151296.82</v>
       </c>
-      <c r="E14" s="33" t="n">
+      <c r="E14" s="34" t="n">
         <v>-309070.6720000001</v>
       </c>
     </row>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -222,7 +222,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -298,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11028,7 +11031,7 @@
       <c r="M17" t="n">
         <v>102393.39</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" s="28" t="n">
         <v>998667.89</v>
       </c>
     </row>
@@ -12179,264 +12182,264 @@
   </cols>
   <sheetData>
     <row r="1" ht="100" customHeight="1">
-      <c r="A1" s="28" t="inlineStr">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabella Entrate - Uscite - Saldo di ogni mese </t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="inlineStr">
+      <c r="A2" s="30" t="inlineStr">
         <is>
           <t>mese</t>
         </is>
       </c>
-      <c r="B2" s="30" t="inlineStr">
+      <c r="B2" s="31" t="inlineStr">
         <is>
           <t>saldo_iniziale</t>
         </is>
       </c>
-      <c r="C2" s="30" t="inlineStr">
+      <c r="C2" s="31" t="inlineStr">
         <is>
           <t>entrate_mese</t>
         </is>
       </c>
-      <c r="D2" s="30" t="inlineStr">
+      <c r="D2" s="31" t="inlineStr">
         <is>
           <t>uscite_mese</t>
         </is>
       </c>
-      <c r="E2" s="30" t="inlineStr">
+      <c r="E2" s="31" t="inlineStr">
         <is>
           <t>saldo_finale</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="30" t="inlineStr">
+      <c r="A3" s="31" t="inlineStr">
         <is>
           <t>gennaio</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n">
+      <c r="B3" s="32" t="n">
         <v>200000</v>
       </c>
-      <c r="C3" s="32" t="n">
+      <c r="C3" s="33" t="n">
         <v>102266.604</v>
       </c>
-      <c r="D3" s="32" t="n">
+      <c r="D3" s="33" t="n">
         <v>144689.16</v>
       </c>
-      <c r="E3" s="32" t="n">
+      <c r="E3" s="33" t="n">
         <v>157577.444</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="30" t="inlineStr">
+      <c r="A4" s="31" t="inlineStr">
         <is>
           <t>febbraio</t>
         </is>
       </c>
-      <c r="B4" s="32" t="n">
+      <c r="B4" s="33" t="n">
         <v>157577.444</v>
       </c>
-      <c r="C4" s="32" t="n">
+      <c r="C4" s="33" t="n">
         <v>77543.88</v>
       </c>
-      <c r="D4" s="32" t="n">
+      <c r="D4" s="33" t="n">
         <v>125645.94</v>
       </c>
-      <c r="E4" s="32" t="n">
+      <c r="E4" s="33" t="n">
         <v>115154.888</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30" t="inlineStr">
+      <c r="A5" s="31" t="inlineStr">
         <is>
           <t>marzo</t>
         </is>
       </c>
-      <c r="B5" s="32" t="n">
+      <c r="B5" s="33" t="n">
         <v>115154.888</v>
       </c>
-      <c r="C5" s="32" t="n">
+      <c r="C5" s="33" t="n">
         <v>77550.48999999999</v>
       </c>
-      <c r="D5" s="32" t="n">
+      <c r="D5" s="33" t="n">
         <v>133884.68</v>
       </c>
-      <c r="E5" s="32" t="n">
+      <c r="E5" s="33" t="n">
         <v>72732.33199999997</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30" t="inlineStr">
+      <c r="A6" s="31" t="inlineStr">
         <is>
           <t>aprile</t>
         </is>
       </c>
-      <c r="B6" s="32" t="n">
+      <c r="B6" s="33" t="n">
         <v>72732.33199999997</v>
       </c>
-      <c r="C6" s="32" t="n">
+      <c r="C6" s="33" t="n">
         <v>100705.39</v>
       </c>
-      <c r="D6" s="32" t="n">
+      <c r="D6" s="33" t="n">
         <v>159744.75</v>
       </c>
-      <c r="E6" s="32" t="n">
+      <c r="E6" s="33" t="n">
         <v>30309.77599999995</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30" t="inlineStr">
+      <c r="A7" s="31" t="inlineStr">
         <is>
           <t>maggio</t>
         </is>
       </c>
-      <c r="B7" s="32" t="n">
+      <c r="B7" s="33" t="n">
         <v>30309.77599999995</v>
       </c>
-      <c r="C7" s="32" t="n">
+      <c r="C7" s="33" t="n">
         <v>107413.59</v>
       </c>
-      <c r="D7" s="32" t="n">
+      <c r="D7" s="33" t="n">
         <v>116295.29</v>
       </c>
-      <c r="E7" s="33" t="n">
+      <c r="E7" s="34" t="n">
         <v>-12112.78000000006</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30" t="inlineStr">
+      <c r="A8" s="31" t="inlineStr">
         <is>
           <t>giugno</t>
         </is>
       </c>
-      <c r="B8" s="33" t="n">
+      <c r="B8" s="34" t="n">
         <v>-12112.78000000006</v>
       </c>
-      <c r="C8" s="32" t="n">
+      <c r="C8" s="33" t="n">
         <v>58442.47</v>
       </c>
-      <c r="D8" s="32" t="n">
+      <c r="D8" s="33" t="n">
         <v>105490.53</v>
       </c>
-      <c r="E8" s="33" t="n">
+      <c r="E8" s="34" t="n">
         <v>-54535.33600000007</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30" t="inlineStr">
+      <c r="A9" s="31" t="inlineStr">
         <is>
           <t>luglio</t>
         </is>
       </c>
-      <c r="B9" s="33" t="n">
+      <c r="B9" s="34" t="n">
         <v>-54535.33600000007</v>
       </c>
-      <c r="C9" s="32" t="n">
+      <c r="C9" s="33" t="n">
         <v>59532.41</v>
       </c>
-      <c r="D9" s="32" t="n">
+      <c r="D9" s="33" t="n">
         <v>62827.42</v>
       </c>
-      <c r="E9" s="33" t="n">
+      <c r="E9" s="34" t="n">
         <v>-96957.89200000008</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30" t="inlineStr">
+      <c r="A10" s="31" t="inlineStr">
         <is>
           <t>agosto</t>
         </is>
       </c>
-      <c r="B10" s="33" t="n">
+      <c r="B10" s="34" t="n">
         <v>-96957.89200000008</v>
       </c>
-      <c r="C10" s="32" t="n">
+      <c r="C10" s="33" t="n">
         <v>66470.95</v>
       </c>
-      <c r="D10" s="32" t="n">
+      <c r="D10" s="33" t="n">
         <v>95671.71000000002</v>
       </c>
-      <c r="E10" s="33" t="n">
+      <c r="E10" s="34" t="n">
         <v>-139380.4480000001</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="30" t="inlineStr">
+      <c r="A11" s="31" t="inlineStr">
         <is>
           <t>settembre</t>
         </is>
       </c>
-      <c r="B11" s="33" t="n">
+      <c r="B11" s="34" t="n">
         <v>-139380.4480000001</v>
       </c>
-      <c r="C11" s="32" t="n">
+      <c r="C11" s="33" t="n">
         <v>78144.25999999999</v>
       </c>
-      <c r="D11" s="32" t="n">
+      <c r="D11" s="33" t="n">
         <v>106408.65</v>
       </c>
-      <c r="E11" s="33" t="n">
+      <c r="E11" s="34" t="n">
         <v>-181803.0040000001</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="30" t="inlineStr">
+      <c r="A12" s="31" t="inlineStr">
         <is>
           <t>ottobre</t>
         </is>
       </c>
-      <c r="B12" s="33" t="n">
+      <c r="B12" s="34" t="n">
         <v>-181803.0040000001</v>
       </c>
-      <c r="C12" s="32" t="n">
+      <c r="C12" s="33" t="n">
         <v>97706.60000000001</v>
       </c>
-      <c r="D12" s="32" t="n">
+      <c r="D12" s="33" t="n">
         <v>133297.72</v>
       </c>
-      <c r="E12" s="33" t="n">
+      <c r="E12" s="34" t="n">
         <v>-224225.5600000001</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="30" t="inlineStr">
+      <c r="A13" s="31" t="inlineStr">
         <is>
           <t>novembre</t>
         </is>
       </c>
-      <c r="B13" s="33" t="n">
+      <c r="B13" s="34" t="n">
         <v>-224225.5600000001</v>
       </c>
-      <c r="C13" s="32" t="n">
+      <c r="C13" s="33" t="n">
         <v>70497.86</v>
       </c>
-      <c r="D13" s="32" t="n">
+      <c r="D13" s="33" t="n">
         <v>98226.42000000001</v>
       </c>
-      <c r="E13" s="33" t="n">
+      <c r="E13" s="34" t="n">
         <v>-266648.1160000002</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="30" t="inlineStr">
+      <c r="A14" s="31" t="inlineStr">
         <is>
           <t>dicembre</t>
         </is>
       </c>
-      <c r="B14" s="33" t="n">
+      <c r="B14" s="34" t="n">
         <v>-266648.1160000002</v>
       </c>
-      <c r="C14" s="32" t="n">
+      <c r="C14" s="33" t="n">
         <v>102393.39</v>
       </c>
-      <c r="D14" s="32" t="n">
+      <c r="D14" s="33" t="n">
         <v>151296.82</v>
       </c>
-      <c r="E14" s="34" t="n">
+      <c r="E14" s="35" t="n">
         <v>-309070.6720000001</v>
       </c>
     </row>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -222,7 +222,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -293,14 +293,17 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11061,89 +11064,89 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="inlineStr">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>Tabellone Uscite</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="27" t="n"/>
-      <c r="B2" s="27" t="inlineStr">
+      <c r="A2" s="29" t="n"/>
+      <c r="B2" s="29" t="inlineStr">
         <is>
           <t>gennaio</t>
         </is>
       </c>
-      <c r="C2" s="27" t="inlineStr">
+      <c r="C2" s="29" t="inlineStr">
         <is>
           <t>febbraio</t>
         </is>
       </c>
-      <c r="D2" s="27" t="inlineStr">
+      <c r="D2" s="29" t="inlineStr">
         <is>
           <t>marzo</t>
         </is>
       </c>
-      <c r="E2" s="27" t="inlineStr">
+      <c r="E2" s="29" t="inlineStr">
         <is>
           <t>aprile</t>
         </is>
       </c>
-      <c r="F2" s="27" t="inlineStr">
+      <c r="F2" s="29" t="inlineStr">
         <is>
           <t>maggio</t>
         </is>
       </c>
-      <c r="G2" s="27" t="inlineStr">
+      <c r="G2" s="29" t="inlineStr">
         <is>
           <t>giugno</t>
         </is>
       </c>
-      <c r="H2" s="27" t="inlineStr">
+      <c r="H2" s="29" t="inlineStr">
         <is>
           <t>luglio</t>
         </is>
       </c>
-      <c r="I2" s="27" t="inlineStr">
+      <c r="I2" s="29" t="inlineStr">
         <is>
           <t>agosto</t>
         </is>
       </c>
-      <c r="J2" s="27" t="inlineStr">
+      <c r="J2" s="29" t="inlineStr">
         <is>
           <t>settembre</t>
         </is>
       </c>
-      <c r="K2" s="27" t="inlineStr">
+      <c r="K2" s="29" t="inlineStr">
         <is>
           <t>ottobre</t>
         </is>
       </c>
-      <c r="L2" s="27" t="inlineStr">
+      <c r="L2" s="29" t="inlineStr">
         <is>
           <t>novembre</t>
         </is>
       </c>
-      <c r="M2" s="27" t="inlineStr">
+      <c r="M2" s="29" t="inlineStr">
         <is>
           <t>dicembre</t>
         </is>
       </c>
-      <c r="N2" s="27" t="inlineStr">
+      <c r="N2" s="29" t="inlineStr">
         <is>
           <t>TOTALE_Uscite</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="inlineStr">
+      <c r="A3" s="29" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="inlineStr">
+      <c r="A4" s="29" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
@@ -11189,7 +11192,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="inlineStr">
+      <c r="A5" s="29" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
         </is>
@@ -11235,7 +11238,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="27" t="inlineStr">
+      <c r="A6" s="29" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
@@ -11281,7 +11284,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="inlineStr">
+      <c r="A7" s="29" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
@@ -11327,7 +11330,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="27" t="inlineStr">
+      <c r="A8" s="29" t="inlineStr">
         <is>
           <t>Curia provinciale</t>
         </is>
@@ -11373,7 +11376,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="inlineStr">
+      <c r="A9" s="29" t="inlineStr">
         <is>
           <t>Domestici</t>
         </is>
@@ -11419,7 +11422,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="27" t="inlineStr">
+      <c r="A10" s="29" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
@@ -11465,7 +11468,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="inlineStr">
+      <c r="A11" s="29" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
         </is>
@@ -11511,7 +11514,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="inlineStr">
+      <c r="A12" s="29" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
@@ -11557,7 +11560,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="27" t="inlineStr">
+      <c r="A13" s="29" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
@@ -11603,7 +11606,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="27" t="inlineStr">
+      <c r="A14" s="29" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
@@ -11649,7 +11652,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="inlineStr">
+      <c r="A15" s="29" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
         </is>
@@ -11695,7 +11698,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="27" t="inlineStr">
+      <c r="A16" s="29" t="inlineStr">
         <is>
           <t>Posta e Cancelleria</t>
         </is>
@@ -11741,7 +11744,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="27" t="inlineStr">
+      <c r="A17" s="29" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
         </is>
@@ -11787,7 +11790,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="27" t="inlineStr">
+      <c r="A18" s="29" t="inlineStr">
         <is>
           <t>Rimborsi</t>
         </is>
@@ -11833,7 +11836,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="27" t="inlineStr">
+      <c r="A19" s="29" t="inlineStr">
         <is>
           <t>Riscaldamento</t>
         </is>
@@ -11879,7 +11882,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="27" t="inlineStr">
+      <c r="A20" s="29" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
@@ -11925,7 +11928,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="27" t="inlineStr">
+      <c r="A21" s="29" t="inlineStr">
         <is>
           <t>Veicoli a Motore</t>
         </is>
@@ -11971,7 +11974,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="27" t="inlineStr">
+      <c r="A22" s="29" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
@@ -12017,7 +12020,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="27" t="inlineStr">
+      <c r="A23" s="29" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
@@ -12063,7 +12066,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="27" t="inlineStr">
+      <c r="A24" s="29" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
@@ -12109,7 +12112,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="27" t="inlineStr">
+      <c r="A25" s="29" t="inlineStr">
         <is>
           <t>TOTALE_Uscite</t>
         </is>
@@ -12182,264 +12185,264 @@
   </cols>
   <sheetData>
     <row r="1" ht="100" customHeight="1">
-      <c r="A1" s="29" t="inlineStr">
+      <c r="A1" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabella Entrate - Uscite - Saldo di ogni mese </t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30" t="inlineStr">
+      <c r="A2" s="31" t="inlineStr">
         <is>
           <t>mese</t>
         </is>
       </c>
-      <c r="B2" s="31" t="inlineStr">
+      <c r="B2" s="32" t="inlineStr">
         <is>
           <t>saldo_iniziale</t>
         </is>
       </c>
-      <c r="C2" s="31" t="inlineStr">
+      <c r="C2" s="32" t="inlineStr">
         <is>
           <t>entrate_mese</t>
         </is>
       </c>
-      <c r="D2" s="31" t="inlineStr">
+      <c r="D2" s="32" t="inlineStr">
         <is>
           <t>uscite_mese</t>
         </is>
       </c>
-      <c r="E2" s="31" t="inlineStr">
+      <c r="E2" s="32" t="inlineStr">
         <is>
           <t>saldo_finale</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="31" t="inlineStr">
+      <c r="A3" s="32" t="inlineStr">
         <is>
           <t>gennaio</t>
         </is>
       </c>
-      <c r="B3" s="32" t="n">
+      <c r="B3" s="33" t="n">
         <v>200000</v>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="34" t="n">
         <v>102266.604</v>
       </c>
-      <c r="D3" s="33" t="n">
+      <c r="D3" s="34" t="n">
         <v>144689.16</v>
       </c>
-      <c r="E3" s="33" t="n">
+      <c r="E3" s="34" t="n">
         <v>157577.444</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="inlineStr">
+      <c r="A4" s="32" t="inlineStr">
         <is>
           <t>febbraio</t>
         </is>
       </c>
-      <c r="B4" s="33" t="n">
+      <c r="B4" s="34" t="n">
         <v>157577.444</v>
       </c>
-      <c r="C4" s="33" t="n">
+      <c r="C4" s="34" t="n">
         <v>77543.88</v>
       </c>
-      <c r="D4" s="33" t="n">
+      <c r="D4" s="34" t="n">
         <v>125645.94</v>
       </c>
-      <c r="E4" s="33" t="n">
+      <c r="E4" s="34" t="n">
         <v>115154.888</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="inlineStr">
+      <c r="A5" s="32" t="inlineStr">
         <is>
           <t>marzo</t>
         </is>
       </c>
-      <c r="B5" s="33" t="n">
+      <c r="B5" s="34" t="n">
         <v>115154.888</v>
       </c>
-      <c r="C5" s="33" t="n">
+      <c r="C5" s="34" t="n">
         <v>77550.48999999999</v>
       </c>
-      <c r="D5" s="33" t="n">
+      <c r="D5" s="34" t="n">
         <v>133884.68</v>
       </c>
-      <c r="E5" s="33" t="n">
+      <c r="E5" s="34" t="n">
         <v>72732.33199999997</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="31" t="inlineStr">
+      <c r="A6" s="32" t="inlineStr">
         <is>
           <t>aprile</t>
         </is>
       </c>
-      <c r="B6" s="33" t="n">
+      <c r="B6" s="34" t="n">
         <v>72732.33199999997</v>
       </c>
-      <c r="C6" s="33" t="n">
+      <c r="C6" s="34" t="n">
         <v>100705.39</v>
       </c>
-      <c r="D6" s="33" t="n">
+      <c r="D6" s="34" t="n">
         <v>159744.75</v>
       </c>
-      <c r="E6" s="33" t="n">
+      <c r="E6" s="34" t="n">
         <v>30309.77599999995</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="31" t="inlineStr">
+      <c r="A7" s="32" t="inlineStr">
         <is>
           <t>maggio</t>
         </is>
       </c>
-      <c r="B7" s="33" t="n">
+      <c r="B7" s="34" t="n">
         <v>30309.77599999995</v>
       </c>
-      <c r="C7" s="33" t="n">
+      <c r="C7" s="34" t="n">
         <v>107413.59</v>
       </c>
-      <c r="D7" s="33" t="n">
+      <c r="D7" s="34" t="n">
         <v>116295.29</v>
       </c>
-      <c r="E7" s="34" t="n">
+      <c r="E7" s="35" t="n">
         <v>-12112.78000000006</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="31" t="inlineStr">
+      <c r="A8" s="32" t="inlineStr">
         <is>
           <t>giugno</t>
         </is>
       </c>
-      <c r="B8" s="34" t="n">
+      <c r="B8" s="35" t="n">
         <v>-12112.78000000006</v>
       </c>
-      <c r="C8" s="33" t="n">
+      <c r="C8" s="34" t="n">
         <v>58442.47</v>
       </c>
-      <c r="D8" s="33" t="n">
+      <c r="D8" s="34" t="n">
         <v>105490.53</v>
       </c>
-      <c r="E8" s="34" t="n">
+      <c r="E8" s="35" t="n">
         <v>-54535.33600000007</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="31" t="inlineStr">
+      <c r="A9" s="32" t="inlineStr">
         <is>
           <t>luglio</t>
         </is>
       </c>
-      <c r="B9" s="34" t="n">
+      <c r="B9" s="35" t="n">
         <v>-54535.33600000007</v>
       </c>
-      <c r="C9" s="33" t="n">
+      <c r="C9" s="34" t="n">
         <v>59532.41</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="D9" s="34" t="n">
         <v>62827.42</v>
       </c>
-      <c r="E9" s="34" t="n">
+      <c r="E9" s="35" t="n">
         <v>-96957.89200000008</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="31" t="inlineStr">
+      <c r="A10" s="32" t="inlineStr">
         <is>
           <t>agosto</t>
         </is>
       </c>
-      <c r="B10" s="34" t="n">
+      <c r="B10" s="35" t="n">
         <v>-96957.89200000008</v>
       </c>
-      <c r="C10" s="33" t="n">
+      <c r="C10" s="34" t="n">
         <v>66470.95</v>
       </c>
-      <c r="D10" s="33" t="n">
+      <c r="D10" s="34" t="n">
         <v>95671.71000000002</v>
       </c>
-      <c r="E10" s="34" t="n">
+      <c r="E10" s="35" t="n">
         <v>-139380.4480000001</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="31" t="inlineStr">
+      <c r="A11" s="32" t="inlineStr">
         <is>
           <t>settembre</t>
         </is>
       </c>
-      <c r="B11" s="34" t="n">
+      <c r="B11" s="35" t="n">
         <v>-139380.4480000001</v>
       </c>
-      <c r="C11" s="33" t="n">
+      <c r="C11" s="34" t="n">
         <v>78144.25999999999</v>
       </c>
-      <c r="D11" s="33" t="n">
+      <c r="D11" s="34" t="n">
         <v>106408.65</v>
       </c>
-      <c r="E11" s="34" t="n">
+      <c r="E11" s="35" t="n">
         <v>-181803.0040000001</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="31" t="inlineStr">
+      <c r="A12" s="32" t="inlineStr">
         <is>
           <t>ottobre</t>
         </is>
       </c>
-      <c r="B12" s="34" t="n">
+      <c r="B12" s="35" t="n">
         <v>-181803.0040000001</v>
       </c>
-      <c r="C12" s="33" t="n">
+      <c r="C12" s="34" t="n">
         <v>97706.60000000001</v>
       </c>
-      <c r="D12" s="33" t="n">
+      <c r="D12" s="34" t="n">
         <v>133297.72</v>
       </c>
-      <c r="E12" s="34" t="n">
+      <c r="E12" s="35" t="n">
         <v>-224225.5600000001</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="inlineStr">
+      <c r="A13" s="32" t="inlineStr">
         <is>
           <t>novembre</t>
         </is>
       </c>
-      <c r="B13" s="34" t="n">
+      <c r="B13" s="35" t="n">
         <v>-224225.5600000001</v>
       </c>
-      <c r="C13" s="33" t="n">
+      <c r="C13" s="34" t="n">
         <v>70497.86</v>
       </c>
-      <c r="D13" s="33" t="n">
+      <c r="D13" s="34" t="n">
         <v>98226.42000000001</v>
       </c>
-      <c r="E13" s="34" t="n">
+      <c r="E13" s="35" t="n">
         <v>-266648.1160000002</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="31" t="inlineStr">
+      <c r="A14" s="32" t="inlineStr">
         <is>
           <t>dicembre</t>
         </is>
       </c>
-      <c r="B14" s="34" t="n">
+      <c r="B14" s="35" t="n">
         <v>-266648.1160000002</v>
       </c>
-      <c r="C14" s="33" t="n">
+      <c r="C14" s="34" t="n">
         <v>102393.39</v>
       </c>
-      <c r="D14" s="33" t="n">
+      <c r="D14" s="34" t="n">
         <v>151296.82</v>
       </c>
-      <c r="E14" s="35" t="n">
+      <c r="E14" s="36" t="n">
         <v>-309070.6720000001</v>
       </c>
     </row>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -222,7 +222,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -293,17 +293,14 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10298,18 +10295,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="18" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="70" customHeight="1">
@@ -11045,7 +11042,7 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -11064,89 +11061,89 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="inlineStr">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>Tabellone Uscite</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="n"/>
-      <c r="B2" s="29" t="inlineStr">
+      <c r="A2" s="27" t="n"/>
+      <c r="B2" s="27" t="inlineStr">
         <is>
           <t>gennaio</t>
         </is>
       </c>
-      <c r="C2" s="29" t="inlineStr">
+      <c r="C2" s="27" t="inlineStr">
         <is>
           <t>febbraio</t>
         </is>
       </c>
-      <c r="D2" s="29" t="inlineStr">
+      <c r="D2" s="27" t="inlineStr">
         <is>
           <t>marzo</t>
         </is>
       </c>
-      <c r="E2" s="29" t="inlineStr">
+      <c r="E2" s="27" t="inlineStr">
         <is>
           <t>aprile</t>
         </is>
       </c>
-      <c r="F2" s="29" t="inlineStr">
+      <c r="F2" s="27" t="inlineStr">
         <is>
           <t>maggio</t>
         </is>
       </c>
-      <c r="G2" s="29" t="inlineStr">
+      <c r="G2" s="27" t="inlineStr">
         <is>
           <t>giugno</t>
         </is>
       </c>
-      <c r="H2" s="29" t="inlineStr">
+      <c r="H2" s="27" t="inlineStr">
         <is>
           <t>luglio</t>
         </is>
       </c>
-      <c r="I2" s="29" t="inlineStr">
+      <c r="I2" s="27" t="inlineStr">
         <is>
           <t>agosto</t>
         </is>
       </c>
-      <c r="J2" s="29" t="inlineStr">
+      <c r="J2" s="27" t="inlineStr">
         <is>
           <t>settembre</t>
         </is>
       </c>
-      <c r="K2" s="29" t="inlineStr">
+      <c r="K2" s="27" t="inlineStr">
         <is>
           <t>ottobre</t>
         </is>
       </c>
-      <c r="L2" s="29" t="inlineStr">
+      <c r="L2" s="27" t="inlineStr">
         <is>
           <t>novembre</t>
         </is>
       </c>
-      <c r="M2" s="29" t="inlineStr">
+      <c r="M2" s="27" t="inlineStr">
         <is>
           <t>dicembre</t>
         </is>
       </c>
-      <c r="N2" s="29" t="inlineStr">
+      <c r="N2" s="27" t="inlineStr">
         <is>
           <t>TOTALE_Uscite</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="inlineStr">
+      <c r="A4" s="27" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
         </is>
@@ -11192,7 +11189,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="inlineStr">
+      <c r="A5" s="27" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
         </is>
@@ -11238,7 +11235,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="inlineStr">
+      <c r="A6" s="27" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
         </is>
@@ -11284,7 +11281,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="inlineStr">
+      <c r="A7" s="27" t="inlineStr">
         <is>
           <t>Cultura</t>
         </is>
@@ -11330,7 +11327,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="inlineStr">
+      <c r="A8" s="27" t="inlineStr">
         <is>
           <t>Curia provinciale</t>
         </is>
@@ -11376,7 +11373,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="inlineStr">
+      <c r="A9" s="27" t="inlineStr">
         <is>
           <t>Domestici</t>
         </is>
@@ -11422,7 +11419,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="inlineStr">
+      <c r="A10" s="27" t="inlineStr">
         <is>
           <t>Elargizioni</t>
         </is>
@@ -11468,7 +11465,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29" t="inlineStr">
+      <c r="A11" s="27" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
         </is>
@@ -11514,7 +11511,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="inlineStr">
+      <c r="A12" s="27" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
         </is>
@@ -11560,7 +11557,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="inlineStr">
+      <c r="A13" s="27" t="inlineStr">
         <is>
           <t>Igiene</t>
         </is>
@@ -11606,7 +11603,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="29" t="inlineStr">
+      <c r="A14" s="27" t="inlineStr">
         <is>
           <t>Imposte</t>
         </is>
@@ -11652,7 +11649,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="29" t="inlineStr">
+      <c r="A15" s="27" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
         </is>
@@ -11698,7 +11695,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="29" t="inlineStr">
+      <c r="A16" s="27" t="inlineStr">
         <is>
           <t>Posta e Cancelleria</t>
         </is>
@@ -11744,7 +11741,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="29" t="inlineStr">
+      <c r="A17" s="27" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
         </is>
@@ -11790,7 +11787,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="29" t="inlineStr">
+      <c r="A18" s="27" t="inlineStr">
         <is>
           <t>Rimborsi</t>
         </is>
@@ -11836,7 +11833,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="29" t="inlineStr">
+      <c r="A19" s="27" t="inlineStr">
         <is>
           <t>Riscaldamento</t>
         </is>
@@ -11882,7 +11879,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="29" t="inlineStr">
+      <c r="A20" s="27" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
@@ -11928,7 +11925,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="29" t="inlineStr">
+      <c r="A21" s="27" t="inlineStr">
         <is>
           <t>Veicoli a Motore</t>
         </is>
@@ -11974,7 +11971,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="29" t="inlineStr">
+      <c r="A22" s="27" t="inlineStr">
         <is>
           <t>Veicoli a motore</t>
         </is>
@@ -12020,7 +12017,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="29" t="inlineStr">
+      <c r="A23" s="27" t="inlineStr">
         <is>
           <t>Vestiario</t>
         </is>
@@ -12066,7 +12063,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="29" t="inlineStr">
+      <c r="A24" s="27" t="inlineStr">
         <is>
           <t>Vitto</t>
         </is>
@@ -12112,7 +12109,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="29" t="inlineStr">
+      <c r="A25" s="27" t="inlineStr">
         <is>
           <t>TOTALE_Uscite</t>
         </is>
@@ -12185,264 +12182,264 @@
   </cols>
   <sheetData>
     <row r="1" ht="100" customHeight="1">
-      <c r="A1" s="30" t="inlineStr">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabella Entrate - Uscite - Saldo di ogni mese </t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="inlineStr">
+      <c r="A2" s="30" t="inlineStr">
         <is>
           <t>mese</t>
         </is>
       </c>
-      <c r="B2" s="32" t="inlineStr">
+      <c r="B2" s="31" t="inlineStr">
         <is>
           <t>saldo_iniziale</t>
         </is>
       </c>
-      <c r="C2" s="32" t="inlineStr">
+      <c r="C2" s="31" t="inlineStr">
         <is>
           <t>entrate_mese</t>
         </is>
       </c>
-      <c r="D2" s="32" t="inlineStr">
+      <c r="D2" s="31" t="inlineStr">
         <is>
           <t>uscite_mese</t>
         </is>
       </c>
-      <c r="E2" s="32" t="inlineStr">
+      <c r="E2" s="31" t="inlineStr">
         <is>
           <t>saldo_finale</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="inlineStr">
+      <c r="A3" s="31" t="inlineStr">
         <is>
           <t>gennaio</t>
         </is>
       </c>
-      <c r="B3" s="33" t="n">
+      <c r="B3" s="32" t="n">
         <v>200000</v>
       </c>
-      <c r="C3" s="34" t="n">
+      <c r="C3" s="33" t="n">
         <v>102266.604</v>
       </c>
-      <c r="D3" s="34" t="n">
+      <c r="D3" s="33" t="n">
         <v>144689.16</v>
       </c>
-      <c r="E3" s="34" t="n">
+      <c r="E3" s="33" t="n">
         <v>157577.444</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="inlineStr">
+      <c r="A4" s="31" t="inlineStr">
         <is>
           <t>febbraio</t>
         </is>
       </c>
-      <c r="B4" s="34" t="n">
+      <c r="B4" s="33" t="n">
         <v>157577.444</v>
       </c>
-      <c r="C4" s="34" t="n">
+      <c r="C4" s="33" t="n">
         <v>77543.88</v>
       </c>
-      <c r="D4" s="34" t="n">
+      <c r="D4" s="33" t="n">
         <v>125645.94</v>
       </c>
-      <c r="E4" s="34" t="n">
+      <c r="E4" s="33" t="n">
         <v>115154.888</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="32" t="inlineStr">
+      <c r="A5" s="31" t="inlineStr">
         <is>
           <t>marzo</t>
         </is>
       </c>
-      <c r="B5" s="34" t="n">
+      <c r="B5" s="33" t="n">
         <v>115154.888</v>
       </c>
-      <c r="C5" s="34" t="n">
+      <c r="C5" s="33" t="n">
         <v>77550.48999999999</v>
       </c>
-      <c r="D5" s="34" t="n">
+      <c r="D5" s="33" t="n">
         <v>133884.68</v>
       </c>
-      <c r="E5" s="34" t="n">
+      <c r="E5" s="33" t="n">
         <v>72732.33199999997</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="32" t="inlineStr">
+      <c r="A6" s="31" t="inlineStr">
         <is>
           <t>aprile</t>
         </is>
       </c>
-      <c r="B6" s="34" t="n">
+      <c r="B6" s="33" t="n">
         <v>72732.33199999997</v>
       </c>
-      <c r="C6" s="34" t="n">
+      <c r="C6" s="33" t="n">
         <v>100705.39</v>
       </c>
-      <c r="D6" s="34" t="n">
+      <c r="D6" s="33" t="n">
         <v>159744.75</v>
       </c>
-      <c r="E6" s="34" t="n">
+      <c r="E6" s="33" t="n">
         <v>30309.77599999995</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="32" t="inlineStr">
+      <c r="A7" s="31" t="inlineStr">
         <is>
           <t>maggio</t>
         </is>
       </c>
-      <c r="B7" s="34" t="n">
+      <c r="B7" s="33" t="n">
         <v>30309.77599999995</v>
       </c>
-      <c r="C7" s="34" t="n">
+      <c r="C7" s="33" t="n">
         <v>107413.59</v>
       </c>
-      <c r="D7" s="34" t="n">
+      <c r="D7" s="33" t="n">
         <v>116295.29</v>
       </c>
-      <c r="E7" s="35" t="n">
+      <c r="E7" s="34" t="n">
         <v>-12112.78000000006</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="32" t="inlineStr">
+      <c r="A8" s="31" t="inlineStr">
         <is>
           <t>giugno</t>
         </is>
       </c>
-      <c r="B8" s="35" t="n">
+      <c r="B8" s="34" t="n">
         <v>-12112.78000000006</v>
       </c>
-      <c r="C8" s="34" t="n">
+      <c r="C8" s="33" t="n">
         <v>58442.47</v>
       </c>
-      <c r="D8" s="34" t="n">
+      <c r="D8" s="33" t="n">
         <v>105490.53</v>
       </c>
-      <c r="E8" s="35" t="n">
+      <c r="E8" s="34" t="n">
         <v>-54535.33600000007</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="32" t="inlineStr">
+      <c r="A9" s="31" t="inlineStr">
         <is>
           <t>luglio</t>
         </is>
       </c>
-      <c r="B9" s="35" t="n">
+      <c r="B9" s="34" t="n">
         <v>-54535.33600000007</v>
       </c>
-      <c r="C9" s="34" t="n">
+      <c r="C9" s="33" t="n">
         <v>59532.41</v>
       </c>
-      <c r="D9" s="34" t="n">
+      <c r="D9" s="33" t="n">
         <v>62827.42</v>
       </c>
-      <c r="E9" s="35" t="n">
+      <c r="E9" s="34" t="n">
         <v>-96957.89200000008</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="32" t="inlineStr">
+      <c r="A10" s="31" t="inlineStr">
         <is>
           <t>agosto</t>
         </is>
       </c>
-      <c r="B10" s="35" t="n">
+      <c r="B10" s="34" t="n">
         <v>-96957.89200000008</v>
       </c>
-      <c r="C10" s="34" t="n">
+      <c r="C10" s="33" t="n">
         <v>66470.95</v>
       </c>
-      <c r="D10" s="34" t="n">
+      <c r="D10" s="33" t="n">
         <v>95671.71000000002</v>
       </c>
-      <c r="E10" s="35" t="n">
+      <c r="E10" s="34" t="n">
         <v>-139380.4480000001</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32" t="inlineStr">
+      <c r="A11" s="31" t="inlineStr">
         <is>
           <t>settembre</t>
         </is>
       </c>
-      <c r="B11" s="35" t="n">
+      <c r="B11" s="34" t="n">
         <v>-139380.4480000001</v>
       </c>
-      <c r="C11" s="34" t="n">
+      <c r="C11" s="33" t="n">
         <v>78144.25999999999</v>
       </c>
-      <c r="D11" s="34" t="n">
+      <c r="D11" s="33" t="n">
         <v>106408.65</v>
       </c>
-      <c r="E11" s="35" t="n">
+      <c r="E11" s="34" t="n">
         <v>-181803.0040000001</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="32" t="inlineStr">
+      <c r="A12" s="31" t="inlineStr">
         <is>
           <t>ottobre</t>
         </is>
       </c>
-      <c r="B12" s="35" t="n">
+      <c r="B12" s="34" t="n">
         <v>-181803.0040000001</v>
       </c>
-      <c r="C12" s="34" t="n">
+      <c r="C12" s="33" t="n">
         <v>97706.60000000001</v>
       </c>
-      <c r="D12" s="34" t="n">
+      <c r="D12" s="33" t="n">
         <v>133297.72</v>
       </c>
-      <c r="E12" s="35" t="n">
+      <c r="E12" s="34" t="n">
         <v>-224225.5600000001</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="32" t="inlineStr">
+      <c r="A13" s="31" t="inlineStr">
         <is>
           <t>novembre</t>
         </is>
       </c>
-      <c r="B13" s="35" t="n">
+      <c r="B13" s="34" t="n">
         <v>-224225.5600000001</v>
       </c>
-      <c r="C13" s="34" t="n">
+      <c r="C13" s="33" t="n">
         <v>70497.86</v>
       </c>
-      <c r="D13" s="34" t="n">
+      <c r="D13" s="33" t="n">
         <v>98226.42000000001</v>
       </c>
-      <c r="E13" s="35" t="n">
+      <c r="E13" s="34" t="n">
         <v>-266648.1160000002</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="32" t="inlineStr">
+      <c r="A14" s="31" t="inlineStr">
         <is>
           <t>dicembre</t>
         </is>
       </c>
-      <c r="B14" s="35" t="n">
+      <c r="B14" s="34" t="n">
         <v>-266648.1160000002</v>
       </c>
-      <c r="C14" s="34" t="n">
+      <c r="C14" s="33" t="n">
         <v>102393.39</v>
       </c>
-      <c r="D14" s="34" t="n">
+      <c r="D14" s="33" t="n">
         <v>151296.82</v>
       </c>
-      <c r="E14" s="36" t="n">
+      <c r="E14" s="35" t="n">
         <v>-309070.6720000001</v>
       </c>
     </row>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -11059,15 +11059,29 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="27" t="inlineStr">
+    <row r="1" ht="45" customHeight="1">
+      <c r="A1" s="26" t="inlineStr">
         <is>
           <t>Tabellone Uscite</t>
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="17" customHeight="1">
       <c r="A2" s="27" t="n"/>
       <c r="B2" s="27" t="inlineStr">
         <is>
@@ -11135,14 +11149,14 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="17" customHeight="1">
       <c r="A3" s="27" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="17" customHeight="1">
       <c r="A4" s="27" t="inlineStr">
         <is>
           <t>Acquisti convento</t>
@@ -11188,7 +11202,7 @@
         <v>149133.84</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="17" customHeight="1">
       <c r="A5" s="27" t="inlineStr">
         <is>
           <t>Acquisti: Chiesa</t>
@@ -11234,7 +11248,7 @@
         <v>8226.950000000001</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="17" customHeight="1">
       <c r="A6" s="27" t="inlineStr">
         <is>
           <t>Acquisti: Orto, Animali</t>
@@ -11280,7 +11294,7 @@
         <v>57121.56</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="17" customHeight="1">
       <c r="A7" s="27" t="inlineStr">
         <is>
           <t>Cultura</t>
@@ -11326,7 +11340,7 @@
         <v>57544.38</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="17" customHeight="1">
       <c r="A8" s="27" t="inlineStr">
         <is>
           <t>Curia provinciale</t>
@@ -11372,7 +11386,7 @@
         <v>68985.89999999999</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="17" customHeight="1">
       <c r="A9" s="27" t="inlineStr">
         <is>
           <t>Domestici</t>
@@ -11418,7 +11432,7 @@
         <v>14575.94</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="17" customHeight="1">
       <c r="A10" s="27" t="inlineStr">
         <is>
           <t>Elargizioni</t>
@@ -11464,7 +11478,7 @@
         <v>86427.13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="17" customHeight="1">
       <c r="A11" s="27" t="inlineStr">
         <is>
           <t>Energia Elettrica</t>
@@ -11510,7 +11524,7 @@
         <v>72428.91</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="17" customHeight="1">
       <c r="A12" s="27" t="inlineStr">
         <is>
           <t>Ferie e Viaggi</t>
@@ -11556,7 +11570,7 @@
         <v>67482.14999999999</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="17" customHeight="1">
       <c r="A13" s="27" t="inlineStr">
         <is>
           <t>Igiene</t>
@@ -11602,7 +11616,7 @@
         <v>11882.19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="17" customHeight="1">
       <c r="A14" s="27" t="inlineStr">
         <is>
           <t>Imposte</t>
@@ -11648,7 +11662,7 @@
         <v>13097.69</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="17" customHeight="1">
       <c r="A15" s="27" t="inlineStr">
         <is>
           <t>Lavori e Impianti</t>
@@ -11694,7 +11708,7 @@
         <v>255347.6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="17" customHeight="1">
       <c r="A16" s="27" t="inlineStr">
         <is>
           <t>Posta e Cancelleria</t>
@@ -11740,7 +11754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="17" customHeight="1">
       <c r="A17" s="27" t="inlineStr">
         <is>
           <t>Posta e cancelleria</t>
@@ -11786,7 +11800,7 @@
         <v>5569.92</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="17" customHeight="1">
       <c r="A18" s="27" t="inlineStr">
         <is>
           <t>Rimborsi</t>
@@ -11832,7 +11846,7 @@
         <v>223684.32</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="17" customHeight="1">
       <c r="A19" s="27" t="inlineStr">
         <is>
           <t>Riscaldamento</t>
@@ -12150,13 +12164,16 @@
       <c r="M25" t="n">
         <v>151296.82</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25" s="28" t="n">
         <v>1433479.09</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="5"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
 </worksheet>
 </file>
 

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -23,6 +23,7 @@
     <sheet name="Tab_Entrate" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Tab_Uscite" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Saldo_riepilogo" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Fine" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31,13 +32,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00 €"/>
     <numFmt numFmtId="165" formatCode="#,##0.00€"/>
     <numFmt numFmtId="166" formatCode="-#,##0.00€"/>
     <numFmt numFmtId="167" formatCode="#,## 0.00€"/>
+    <numFmt numFmtId="168" formatCode="#,## 0.00 €"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -137,6 +139,23 @@
       <color rgb="00a81a1a"/>
       <sz val="20"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00a81a1a"/>
+      <sz val="35"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="15"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -151,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -215,14 +234,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="17" fillId="2" borderId="7" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -309,22 +332,32 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="15" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
     <cellStyle name="Pandas" xfId="1" hidden="0"/>
+    <cellStyle name="highlight" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -12469,6 +12502,118 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="45" customHeight="1">
+      <c r="A1" s="36" t="inlineStr">
+        <is>
+          <t>Bilancio Anno ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="29" t="inlineStr">
+        <is>
+          <t>RIEPILOGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" s="37" t="inlineStr">
+        <is>
+          <t>SALDO iniziale</t>
+        </is>
+      </c>
+      <c r="E10" s="38" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" s="37" t="inlineStr">
+        <is>
+          <t>TOTALE Entrate</t>
+        </is>
+      </c>
+      <c r="E13" s="38" t="n">
+        <v>998667.89</v>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="37" t="inlineStr">
+        <is>
+          <t>TOTALE Uscite</t>
+        </is>
+      </c>
+      <c r="E16" s="38" t="n">
+        <v>1433479.09</v>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19">
+      <c r="A19" s="37" t="inlineStr">
+        <is>
+          <t>DIS/AVANZO</t>
+        </is>
+      </c>
+      <c r="E19" s="38" t="n">
+        <v>-434811.2000000001</v>
+      </c>
+    </row>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22">
+      <c r="A22" s="37" t="inlineStr">
+        <is>
+          <t>SALDO Finale</t>
+        </is>
+      </c>
+      <c r="E22" s="38" t="n">
+        <v>-309070.6720000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E22:G22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/conti_camerino_styled.xlsx
+++ b/conti_camerino_styled.xlsx
@@ -236,7 +236,7 @@
     </border>
     <border/>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,8 +244,11 @@
     <xf numFmtId="168" fontId="17" fillId="2" borderId="7" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -353,11 +356,15 @@
     <xf numFmtId="168" fontId="17" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
     <cellStyle name="Pandas" xfId="1" hidden="0"/>
     <cellStyle name="highlight" xfId="2" hidden="0"/>
+    <cellStyle name="black" xfId="3" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -12508,7 +12515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12523,11 +12530,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
     <row r="7">
       <c r="A7" s="29" t="inlineStr">
         <is>
@@ -12535,8 +12537,6 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9"/>
     <row r="10">
       <c r="A10" s="37" t="inlineStr">
         <is>
@@ -12547,8 +12547,6 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12"/>
     <row r="13">
       <c r="A13" s="37" t="inlineStr">
         <is>
@@ -12559,8 +12557,6 @@
         <v>998667.89</v>
       </c>
     </row>
-    <row r="14"/>
-    <row r="15"/>
     <row r="16">
       <c r="A16" s="37" t="inlineStr">
         <is>
@@ -12571,8 +12567,6 @@
         <v>1433479.09</v>
       </c>
     </row>
-    <row r="17"/>
-    <row r="18"/>
     <row r="19">
       <c r="A19" s="37" t="inlineStr">
         <is>
@@ -12583,8 +12577,6 @@
         <v>-434811.2000000001</v>
       </c>
     </row>
-    <row r="20"/>
-    <row r="21"/>
     <row r="22">
       <c r="A22" s="37" t="inlineStr">
         <is>
@@ -12595,8 +12587,43 @@
         <v>-309070.6720000001</v>
       </c>
     </row>
+    <row r="29">
+      <c r="D29" s="39" t="inlineStr">
+        <is>
+          <t>Guardiano</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="39" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" s="39" t="inlineStr">
+        <is>
+          <t>Vicario</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="39" t="inlineStr">
+        <is>
+          <t>Timbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" s="39" t="inlineStr">
+        <is>
+          <t>Economo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A10:C10"/>
@@ -12609,6 +12636,11 @@
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
